--- a/MasterRawWhitesheets.xlsx
+++ b/MasterRawWhitesheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxgotts/Desktop/MPALA/Whitesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F2C24E-83E9-7C41-B9B3-2CA05DA18723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC3274F-C43D-6B45-AE42-4B04B56D5955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{36B2ED0A-F989-D041-BB6A-DE14AE9EF1AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="244">
   <si>
     <t>Date</t>
   </si>
@@ -609,15 +609,6 @@
     <t>DSCN7108</t>
   </si>
   <si>
-    <t>Distance.from.water</t>
-  </si>
-  <si>
-    <t>Distance.from.cattle</t>
-  </si>
-  <si>
-    <t>Closest.mob.size</t>
-  </si>
-  <si>
     <t>DSCN8000</t>
   </si>
   <si>
@@ -773,6 +764,9 @@
   <si>
     <t>Lima 4</t>
   </si>
+  <si>
+    <t>Distance.to.water</t>
+  </si>
 </sst>
 </file>
 
@@ -823,9 +817,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1140,15 +1134,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A334BBC-0BE1-1D4B-AB5E-CA1B598930C6}">
-  <dimension ref="A1:AS250"/>
+  <dimension ref="A1:AQ250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N217" zoomScale="113" workbookViewId="0">
-      <selection activeCell="Y242" sqref="Y242"/>
+    <sheetView tabSelected="1" topLeftCell="AI228" zoomScale="113" workbookViewId="0">
+      <selection activeCell="AT241" sqref="AT241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1276,16 +1270,10 @@
         <v>29</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44350</v>
       </c>
@@ -1392,17 +1380,11 @@
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
-      <c r="AQ2" s="1">
+      <c r="AQ2">
         <v>5.3779049798020201E-3</v>
       </c>
-      <c r="AR2" s="1">
-        <v>8.4889610461334102E-4</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>120</v>
-      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44350</v>
       </c>
@@ -1519,17 +1501,11 @@
       <c r="AP3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3">
         <v>3.86227891447237E-3</v>
       </c>
-      <c r="AR3" s="1">
-        <v>2.7721581526611101E-3</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>120</v>
-      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44350</v>
       </c>
@@ -1642,17 +1618,11 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
-      <c r="AQ4" s="1">
+      <c r="AQ4">
         <v>3.16676215993354E-3</v>
       </c>
-      <c r="AR4" s="1">
-        <v>4.1608537202224597E-3</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>120</v>
-      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44350</v>
       </c>
@@ -1755,17 +1725,11 @@
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
-      <c r="AQ5" s="1">
+      <c r="AQ5">
         <v>3.16676215993354E-3</v>
       </c>
-      <c r="AR5" s="1">
-        <v>4.1608537202224597E-3</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>120</v>
-      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44350</v>
       </c>
@@ -1882,17 +1846,11 @@
       </c>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
-      <c r="AQ6" s="1">
+      <c r="AQ6">
         <v>2.6988772521238198E-3</v>
       </c>
-      <c r="AR6" s="1">
-        <v>1.11435818556172E-3</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44350</v>
       </c>
@@ -2007,17 +1965,11 @@
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
-      <c r="AQ7" s="1">
+      <c r="AQ7">
         <v>2.6988772521238198E-3</v>
       </c>
-      <c r="AR7" s="1">
-        <v>1.11435818556172E-3</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44350</v>
       </c>
@@ -2132,17 +2084,11 @@
       </c>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
-      <c r="AQ8" s="1">
+      <c r="AQ8">
         <v>1.3059143732731301E-3</v>
       </c>
-      <c r="AR8" s="1">
-        <v>2.0495541206859902E-3</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44350</v>
       </c>
@@ -2263,17 +2209,11 @@
       <c r="AP9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AQ9">
         <v>2.7299166734755E-3</v>
       </c>
-      <c r="AR9" s="1">
-        <v>3.8026938628704702E-3</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>120</v>
-      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44350</v>
       </c>
@@ -2394,17 +2334,11 @@
       </c>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
-      <c r="AQ10" s="1">
+      <c r="AQ10">
         <v>4.2381121886815403E-4</v>
       </c>
-      <c r="AR10" s="1">
-        <v>3.2049270924382101E-3</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44350</v>
       </c>
@@ -2517,17 +2451,11 @@
       </c>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
-      <c r="AQ11" s="1">
+      <c r="AQ11">
         <v>0.20881265797655599</v>
       </c>
-      <c r="AR11" s="1">
-        <v>0.41035133143381203</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>250</v>
-      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44350</v>
       </c>
@@ -2632,17 +2560,11 @@
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
-      <c r="AQ12" s="1">
+      <c r="AQ12">
         <v>2.7620505064914198E-3</v>
       </c>
-      <c r="AR12" s="1">
-        <v>6.9602584683066003E-4</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>150</v>
-      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44350</v>
       </c>
@@ -2755,17 +2677,11 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
-      <c r="AQ13" s="1">
+      <c r="AQ13">
         <v>3.9935805297558503E-3</v>
       </c>
-      <c r="AR13" s="1">
-        <v>3.6052133870827598E-3</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44350</v>
       </c>
@@ -2886,17 +2802,11 @@
         <v>1</v>
       </c>
       <c r="AP14" s="1"/>
-      <c r="AQ14" s="1">
+      <c r="AQ14">
         <v>2.0806631643367599E-3</v>
       </c>
-      <c r="AR14" s="1">
-        <v>4.0074170907863499E-3</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44350</v>
       </c>
@@ -2999,17 +2909,11 @@
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
-      <c r="AQ15" s="3">
+      <c r="AQ15" s="5">
         <v>2.3012665260913099E-5</v>
       </c>
-      <c r="AR15" s="1">
-        <v>6.4571509265504005E-4</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44350</v>
       </c>
@@ -3114,17 +3018,11 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
-      <c r="AQ16" s="3">
+      <c r="AQ16" s="5">
         <v>2.3012665260913099E-5</v>
       </c>
-      <c r="AR16" s="1">
-        <v>6.4571509265504005E-4</v>
-      </c>
-      <c r="AS16" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44350</v>
       </c>
@@ -3229,17 +3127,11 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
-      <c r="AQ17" s="1">
+      <c r="AQ17">
         <v>1.6449631266335901E-3</v>
       </c>
-      <c r="AR17" s="1">
-        <v>5.4602647948061604E-3</v>
-      </c>
-      <c r="AS17" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44350</v>
       </c>
@@ -3346,17 +3238,11 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
-      <c r="AQ18" s="1">
+      <c r="AQ18">
         <v>4.8548693471223096E-3</v>
       </c>
-      <c r="AR18" s="1">
-        <v>7.9937300006850797E-3</v>
-      </c>
-      <c r="AS18" s="1">
-        <v>220</v>
-      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44350</v>
       </c>
@@ -3465,17 +3351,11 @@
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
-      <c r="AQ19" s="1">
+      <c r="AQ19">
         <v>3.3770414840370898E-3</v>
       </c>
-      <c r="AR19" s="1">
-        <v>3.1461711171240799E-4</v>
-      </c>
-      <c r="AS19" s="1">
-        <v>150</v>
-      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44350</v>
       </c>
@@ -3582,17 +3462,11 @@
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
-      <c r="AQ20" s="1">
+      <c r="AQ20">
         <v>1.05218924035341E-3</v>
       </c>
-      <c r="AR20" s="1">
-        <v>3.8375892243465901E-3</v>
-      </c>
-      <c r="AS20" s="1">
-        <v>100</v>
-      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44351</v>
       </c>
@@ -3701,17 +3575,11 @@
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
-      <c r="AQ21" s="1">
+      <c r="AQ21">
         <v>2.6144542098788599E-3</v>
       </c>
-      <c r="AR21" s="1">
-        <v>8.0845349054928101E-3</v>
-      </c>
-      <c r="AS21" s="1">
-        <v>250</v>
-      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44351</v>
       </c>
@@ -3820,17 +3688,11 @@
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
-      <c r="AQ22" s="1">
+      <c r="AQ22">
         <v>3.0898853216400199E-3</v>
       </c>
-      <c r="AR22" s="1">
-        <v>1.3580380831901599E-2</v>
-      </c>
-      <c r="AS22" s="1">
-        <v>80</v>
-      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44351</v>
       </c>
@@ -3937,17 +3799,11 @@
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
-      <c r="AQ23" s="1">
+      <c r="AQ23">
         <v>4.9652104813819996E-3</v>
       </c>
-      <c r="AR23" s="1">
-        <v>9.9889802940562999E-3</v>
-      </c>
-      <c r="AS23" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44351</v>
       </c>
@@ -4062,17 +3918,11 @@
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
-      <c r="AQ24" s="1">
+      <c r="AQ24">
         <v>4.9652104813819996E-3</v>
       </c>
-      <c r="AR24" s="1">
-        <v>9.9889802940562999E-3</v>
-      </c>
-      <c r="AS24" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44351</v>
       </c>
@@ -4175,17 +4025,11 @@
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
-      <c r="AQ25" s="1">
+      <c r="AQ25">
         <v>3.4255797833563701E-4</v>
       </c>
-      <c r="AR25" s="1">
-        <v>1.79006486575229E-3</v>
-      </c>
-      <c r="AS25" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44351</v>
       </c>
@@ -4290,17 +4134,11 @@
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
-      <c r="AQ26" s="1">
+      <c r="AQ26">
         <v>3.3530274493363799E-3</v>
       </c>
-      <c r="AR26" s="1">
-        <v>6.42753985216155E-3</v>
-      </c>
-      <c r="AS26" s="1">
-        <v>80</v>
-      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44351</v>
       </c>
@@ -4403,17 +4241,11 @@
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
-      <c r="AQ27" s="1">
+      <c r="AQ27">
         <v>4.5783409287725504E-3</v>
       </c>
-      <c r="AR27" s="1">
-        <v>5.11568989850676E-3</v>
-      </c>
-      <c r="AS27" s="1">
-        <v>80</v>
-      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44351</v>
       </c>
@@ -4520,17 +4352,11 @@
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
-      <c r="AQ28" s="1">
+      <c r="AQ28">
         <v>4.5783409287725504E-3</v>
       </c>
-      <c r="AR28" s="1">
-        <v>5.11568989850676E-3</v>
-      </c>
-      <c r="AS28" s="1">
-        <v>80</v>
-      </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44351</v>
       </c>
@@ -4645,17 +4471,11 @@
       <c r="AP29" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AQ29" s="1">
+      <c r="AQ29">
         <v>6.9725240551579302E-3</v>
       </c>
-      <c r="AR29" s="1">
-        <v>3.87805402711536E-3</v>
-      </c>
-      <c r="AS29" s="1">
-        <v>80</v>
-      </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44351</v>
       </c>
@@ -4764,17 +4584,11 @@
         <v>1</v>
       </c>
       <c r="AP30" s="1"/>
-      <c r="AQ30" s="1">
+      <c r="AQ30">
         <v>1.1411696853032001E-3</v>
       </c>
-      <c r="AR30" s="1">
-        <v>1.14638534414332E-2</v>
-      </c>
-      <c r="AS30" s="1">
-        <v>100</v>
-      </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44351</v>
       </c>
@@ -4889,17 +4703,11 @@
         <v>1</v>
       </c>
       <c r="AP31" s="1"/>
-      <c r="AQ31" s="1">
+      <c r="AQ31">
         <v>2.6609284862076799E-3</v>
       </c>
-      <c r="AR31" s="1">
-        <v>3.9132634556727003E-3</v>
-      </c>
-      <c r="AS31" s="1">
-        <v>100</v>
-      </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44351</v>
       </c>
@@ -5006,17 +4814,11 @@
       <c r="AP32" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AQ32" s="1">
+      <c r="AQ32">
         <v>2.92020749218927E-3</v>
       </c>
-      <c r="AR32" s="1">
-        <v>5.5100519758091403E-3</v>
-      </c>
-      <c r="AS32" s="1">
-        <v>80</v>
-      </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44351</v>
       </c>
@@ -5123,17 +4925,11 @@
       <c r="AP33" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AQ33" s="1">
+      <c r="AQ33">
         <v>1.4744921516211399E-3</v>
       </c>
-      <c r="AR33" s="1">
-        <v>3.1904748175970599E-3</v>
-      </c>
-      <c r="AS33" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44351</v>
       </c>
@@ -5240,17 +5036,11 @@
       <c r="AP34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AQ34" s="1">
+      <c r="AQ34">
         <v>1.0568876635515E-3</v>
       </c>
-      <c r="AR34" s="1">
-        <v>3.5895795089186098E-3</v>
-      </c>
-      <c r="AS34" s="1">
-        <v>100</v>
-      </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44351</v>
       </c>
@@ -5363,17 +5153,11 @@
       <c r="AP35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AQ35" s="1">
+      <c r="AQ35">
         <v>5.5591250431737105E-4</v>
       </c>
-      <c r="AR35" s="1">
-        <v>2.4107746874077601E-3</v>
-      </c>
-      <c r="AS35" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44351</v>
       </c>
@@ -5486,17 +5270,11 @@
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
-      <c r="AQ36" s="1">
+      <c r="AQ36">
         <v>3.8210543956944199E-3</v>
       </c>
-      <c r="AR36" s="1">
-        <v>6.8358222051624704E-3</v>
-      </c>
-      <c r="AS36" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44351</v>
       </c>
@@ -5601,17 +5379,11 @@
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
-      <c r="AQ37" s="1">
+      <c r="AQ37">
         <v>3.8210543956944199E-3</v>
       </c>
-      <c r="AR37" s="1">
-        <v>6.8358222051624704E-3</v>
-      </c>
-      <c r="AS37" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44351</v>
       </c>
@@ -5712,17 +5484,11 @@
       <c r="AP38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AQ38" s="1">
+      <c r="AQ38">
         <v>3.6618027590155501E-3</v>
       </c>
-      <c r="AR38" s="1">
-        <v>6.79501820591236E-3</v>
-      </c>
-      <c r="AS38" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44354</v>
       </c>
@@ -5837,17 +5603,11 @@
       <c r="AP39" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AQ39" s="1">
+      <c r="AQ39">
         <v>5.6697643543304997E-3</v>
       </c>
-      <c r="AR39" s="1">
-        <v>3.2704419418641199E-3</v>
-      </c>
-      <c r="AS39" s="1">
-        <v>120</v>
-      </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44354</v>
       </c>
@@ -5962,17 +5722,11 @@
       <c r="AP40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AQ40" s="1">
+      <c r="AQ40">
         <v>2.4606574889061302E-3</v>
       </c>
-      <c r="AR40" s="1">
-        <v>5.6209317359465797E-3</v>
-      </c>
-      <c r="AS40" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44354</v>
       </c>
@@ -6085,17 +5839,11 @@
       <c r="AP41" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AQ41" s="1">
+      <c r="AQ41">
         <v>3.5085153389812899E-3</v>
       </c>
-      <c r="AR41" s="1">
-        <v>6.6423390159631602E-3</v>
-      </c>
-      <c r="AS41" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44354</v>
       </c>
@@ -6202,17 +5950,11 @@
       <c r="AP42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AQ42" s="1">
+      <c r="AQ42">
         <v>2.2059420384171599E-3</v>
       </c>
-      <c r="AR42" s="1">
-        <v>1.25662344585149E-3</v>
-      </c>
-      <c r="AS42" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44354</v>
       </c>
@@ -6319,17 +6061,11 @@
       <c r="AP43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AQ43" s="1">
+      <c r="AQ43">
         <v>8.7763849340407596E-3</v>
       </c>
-      <c r="AR43" s="1">
-        <v>5.42344709887341E-3</v>
-      </c>
-      <c r="AS43" s="1">
-        <v>250</v>
-      </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44354</v>
       </c>
@@ -6436,17 +6172,11 @@
       <c r="AP44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AQ44" s="1">
+      <c r="AQ44">
         <v>7.7031431266811603E-3</v>
       </c>
-      <c r="AR44" s="1">
-        <v>3.0538036188727102E-4</v>
-      </c>
-      <c r="AS44" s="1">
-        <v>80</v>
-      </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44354</v>
       </c>
@@ -6561,17 +6291,11 @@
       <c r="AP45" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AQ45" s="1">
+      <c r="AQ45">
         <v>4.5525134562581504E-3</v>
       </c>
-      <c r="AR45" s="1">
-        <v>5.3767385761478602E-3</v>
-      </c>
-      <c r="AS45" s="1">
-        <v>80</v>
-      </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44354</v>
       </c>
@@ -6678,17 +6402,11 @@
       <c r="AP46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AQ46" s="1">
+      <c r="AQ46">
         <v>5.4458979065766496E-3</v>
       </c>
-      <c r="AR46" s="1">
-        <v>1.76348283087253E-2</v>
-      </c>
-      <c r="AS46" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44354</v>
       </c>
@@ -6799,17 +6517,11 @@
       <c r="AP47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AQ47" s="1">
+      <c r="AQ47">
         <v>1.0081555153120999E-2</v>
       </c>
-      <c r="AR47" s="1">
-        <v>5.1771295823333403E-3</v>
-      </c>
-      <c r="AS47" s="1">
-        <v>250</v>
-      </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44354</v>
       </c>
@@ -6912,17 +6624,11 @@
       <c r="AN48" s="1"/>
       <c r="AO48" s="1"/>
       <c r="AP48" s="1"/>
-      <c r="AQ48" s="1">
+      <c r="AQ48">
         <v>7.9022764078412304E-4</v>
       </c>
-      <c r="AR48" s="1">
-        <v>2.6989824767810499E-3</v>
-      </c>
-      <c r="AS48" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44354</v>
       </c>
@@ -7037,17 +6743,11 @@
       <c r="AN49" s="1"/>
       <c r="AO49" s="1"/>
       <c r="AP49" s="1"/>
-      <c r="AQ49" s="1">
+      <c r="AQ49">
         <v>4.3440326635650998E-3</v>
       </c>
-      <c r="AR49" s="1">
-        <v>5.7715654301452495E-4</v>
-      </c>
-      <c r="AS49" s="1">
-        <v>350</v>
-      </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44354</v>
       </c>
@@ -7148,17 +6848,11 @@
       <c r="AN50" s="1"/>
       <c r="AO50" s="1"/>
       <c r="AP50" s="1"/>
-      <c r="AQ50" s="1">
+      <c r="AQ50">
         <v>4.3440326635650998E-3</v>
       </c>
-      <c r="AR50" s="1">
-        <v>5.7715654301452495E-4</v>
-      </c>
-      <c r="AS50" s="1">
-        <v>350</v>
-      </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44354</v>
       </c>
@@ -7271,17 +6965,11 @@
       </c>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
-      <c r="AQ51" s="1">
+      <c r="AQ51">
         <v>2.6203708636655101E-3</v>
       </c>
-      <c r="AR51" s="1">
-        <v>1.48204600639615E-3</v>
-      </c>
-      <c r="AS51" s="1">
-        <v>150</v>
-      </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44354</v>
       </c>
@@ -7392,17 +7080,11 @@
       <c r="AN52" s="1"/>
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
-      <c r="AQ52" s="1">
+      <c r="AQ52">
         <v>7.1471841057597397E-4</v>
       </c>
-      <c r="AR52" s="1">
-        <v>2.2446859998030001E-3</v>
-      </c>
-      <c r="AS52" s="1">
-        <v>200</v>
-      </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44354</v>
       </c>
@@ -7511,17 +7193,11 @@
       </c>
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
-      <c r="AQ53" s="1">
+      <c r="AQ53">
         <v>6.7491112370540096E-3</v>
       </c>
-      <c r="AR53" s="1">
-        <v>2.1062933933062101E-3</v>
-      </c>
-      <c r="AS53" s="1">
-        <v>200</v>
-      </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>44354</v>
       </c>
@@ -7622,17 +7298,11 @@
       <c r="AN54" s="1"/>
       <c r="AO54" s="1"/>
       <c r="AP54" s="1"/>
-      <c r="AQ54" s="1">
+      <c r="AQ54">
         <v>2.74808839026007E-3</v>
       </c>
-      <c r="AR54" s="1">
-        <v>1.9541800158661502E-3</v>
-      </c>
-      <c r="AS54" s="1">
-        <v>220</v>
-      </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>44354</v>
       </c>
@@ -7741,17 +7411,11 @@
       <c r="AN55" s="1"/>
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
-      <c r="AQ55" s="1">
+      <c r="AQ55">
         <v>1.98516155211094</v>
       </c>
-      <c r="AR55" s="1">
-        <v>2.0882047691319299</v>
-      </c>
-      <c r="AS55" s="1">
-        <v>250</v>
-      </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44354</v>
       </c>
@@ -7856,17 +7520,11 @@
       <c r="AN56" s="1"/>
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
-      <c r="AQ56" s="1">
+      <c r="AQ56">
         <v>6.1931806120310204E-4</v>
       </c>
-      <c r="AR56" s="1">
-        <v>8.2487382659425805E-4</v>
-      </c>
-      <c r="AS56" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44354</v>
       </c>
@@ -7975,17 +7633,11 @@
       </c>
       <c r="AO57" s="1"/>
       <c r="AP57" s="1"/>
-      <c r="AQ57" s="1">
+      <c r="AQ57">
         <v>2.1047841441854502E-3</v>
       </c>
-      <c r="AR57" s="1">
-        <v>1.66531382555921E-3</v>
-      </c>
-      <c r="AS57" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44354</v>
       </c>
@@ -8088,17 +7740,11 @@
       <c r="AN58" s="1"/>
       <c r="AO58" s="1"/>
       <c r="AP58" s="1"/>
-      <c r="AQ58" s="1">
+      <c r="AQ58">
         <v>1.9136120894839401E-3</v>
       </c>
-      <c r="AR58" s="1">
-        <v>1.33201609458735E-3</v>
-      </c>
-      <c r="AS58" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44355</v>
       </c>
@@ -8215,17 +7861,11 @@
       </c>
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
-      <c r="AQ59" s="1">
+      <c r="AQ59">
         <v>1.4124651281470599E-3</v>
       </c>
-      <c r="AR59" s="1">
-        <v>1.21418634892439E-2</v>
-      </c>
-      <c r="AS59" s="1">
-        <v>250</v>
-      </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44355</v>
       </c>
@@ -8332,17 +7972,11 @@
       <c r="AN60" s="1"/>
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
-      <c r="AQ60" s="1">
+      <c r="AQ60">
         <v>1.4124651281470599E-3</v>
       </c>
-      <c r="AR60" s="1">
-        <v>1.21418634892439E-2</v>
-      </c>
-      <c r="AS60" s="1">
-        <v>250</v>
-      </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44355</v>
       </c>
@@ -8455,17 +8089,11 @@
       <c r="AN61" s="1"/>
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
-      <c r="AQ61" s="1">
+      <c r="AQ61">
         <v>1.03503384486175E-2</v>
       </c>
-      <c r="AR61" s="1">
-        <v>5.3213126404428601E-3</v>
-      </c>
-      <c r="AS61" s="1">
-        <v>250</v>
-      </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44355</v>
       </c>
@@ -8574,17 +8202,11 @@
       </c>
       <c r="AO62" s="1"/>
       <c r="AP62" s="1"/>
-      <c r="AQ62" s="1">
+      <c r="AQ62">
         <v>1.65887154197342E-3</v>
       </c>
-      <c r="AR62" s="1">
-        <v>3.1105095434057302E-3</v>
-      </c>
-      <c r="AS62" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44355</v>
       </c>
@@ -8695,17 +8317,11 @@
       <c r="AN63" s="1"/>
       <c r="AO63" s="1"/>
       <c r="AP63" s="1"/>
-      <c r="AQ63" s="1">
+      <c r="AQ63">
         <v>1.20074468659618E-3</v>
       </c>
-      <c r="AR63" s="1">
-        <v>1.14580744504123E-2</v>
-      </c>
-      <c r="AS63" s="1">
-        <v>100</v>
-      </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44355</v>
       </c>
@@ -8820,17 +8436,11 @@
       <c r="AP64" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AQ64" s="1">
+      <c r="AQ64">
         <v>1.5025603629093801E-3</v>
       </c>
-      <c r="AR64" s="1">
-        <v>5.7007266988120999E-3</v>
-      </c>
-      <c r="AS64" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44355</v>
       </c>
@@ -8941,17 +8551,11 @@
       </c>
       <c r="AO65" s="1"/>
       <c r="AP65" s="1"/>
-      <c r="AQ65" s="1">
+      <c r="AQ65">
         <v>2.1876019839586801E-3</v>
       </c>
-      <c r="AR65" s="1">
-        <v>1.40870399035692E-3</v>
-      </c>
-      <c r="AS65" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44355</v>
       </c>
@@ -9056,17 +8660,11 @@
       <c r="AN66" s="1"/>
       <c r="AO66" s="1"/>
       <c r="AP66" s="1"/>
-      <c r="AQ66" s="1">
+      <c r="AQ66">
         <v>3.8129613229172898E-3</v>
       </c>
-      <c r="AR66" s="1">
-        <v>2.7802924355232001E-3</v>
-      </c>
-      <c r="AS66" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>44356</v>
       </c>
@@ -9169,17 +8767,11 @@
       <c r="AN67" s="1"/>
       <c r="AO67" s="1"/>
       <c r="AP67" s="1"/>
-      <c r="AQ67" s="1">
+      <c r="AQ67">
         <v>5.7119594572551096E-3</v>
       </c>
-      <c r="AR67" s="1">
-        <v>1.97950469469271E-3</v>
-      </c>
-      <c r="AS67" s="1">
-        <v>120</v>
-      </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44356</v>
       </c>
@@ -9290,17 +8882,11 @@
       <c r="AN68" s="1"/>
       <c r="AO68" s="1"/>
       <c r="AP68" s="1"/>
-      <c r="AQ68" s="1">
+      <c r="AQ68">
         <v>5.7119594572551096E-3</v>
       </c>
-      <c r="AR68" s="1">
-        <v>1.97950469469271E-3</v>
-      </c>
-      <c r="AS68" s="1">
-        <v>120</v>
-      </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>44356</v>
       </c>
@@ -9405,17 +8991,11 @@
       <c r="AN69" s="1"/>
       <c r="AO69" s="1"/>
       <c r="AP69" s="1"/>
-      <c r="AQ69" s="1">
+      <c r="AQ69">
         <v>1.7304428595674101E-3</v>
       </c>
-      <c r="AR69" s="1">
-        <v>2.00216361554086E-3</v>
-      </c>
-      <c r="AS69" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>44356</v>
       </c>
@@ -9520,17 +9100,11 @@
       <c r="AN70" s="1"/>
       <c r="AO70" s="1"/>
       <c r="AP70" s="1"/>
-      <c r="AQ70" s="1">
+      <c r="AQ70">
         <v>3.5775603317996698E-3</v>
       </c>
-      <c r="AR70" s="1">
-        <v>2.0554745949708602E-3</v>
-      </c>
-      <c r="AS70" s="1">
-        <v>350</v>
-      </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>44356</v>
       </c>
@@ -9647,17 +9221,11 @@
       </c>
       <c r="AO71" s="1"/>
       <c r="AP71" s="1"/>
-      <c r="AQ71" s="1">
+      <c r="AQ71">
         <v>9.9266055247102599E-4</v>
       </c>
-      <c r="AR71" s="1">
-        <v>8.3844440555664505E-4</v>
-      </c>
-      <c r="AS71" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>44356</v>
       </c>
@@ -9762,17 +9330,11 @@
       <c r="AN72" s="1"/>
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
-      <c r="AQ72" s="1">
+      <c r="AQ72">
         <v>4.4257954847088899E-3</v>
       </c>
-      <c r="AR72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS72" s="1">
-        <v>350</v>
-      </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>44356</v>
       </c>
@@ -9869,17 +9431,11 @@
       <c r="AN73" s="1"/>
       <c r="AO73" s="1"/>
       <c r="AP73" s="1"/>
-      <c r="AQ73" s="1">
+      <c r="AQ73">
         <v>4.4257954847088899E-3</v>
       </c>
-      <c r="AR73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS73" s="1">
-        <v>350</v>
-      </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>44356</v>
       </c>
@@ -9974,17 +9530,11 @@
       <c r="AN74" s="1"/>
       <c r="AO74" s="1"/>
       <c r="AP74" s="1"/>
-      <c r="AQ74" s="1">
+      <c r="AQ74">
         <v>7.4818800476679004E-4</v>
       </c>
-      <c r="AR74" s="1">
-        <v>1.57807866291338E-4</v>
-      </c>
-      <c r="AS74" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>44357</v>
       </c>
@@ -10081,17 +9631,11 @@
       <c r="AN75" s="1"/>
       <c r="AO75" s="1"/>
       <c r="AP75" s="1"/>
-      <c r="AQ75" s="1">
+      <c r="AQ75">
         <v>7.6542239765422498E-3</v>
       </c>
-      <c r="AR75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS75" s="1">
-        <v>200</v>
-      </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>44357</v>
       </c>
@@ -10194,17 +9738,11 @@
       <c r="AN76" s="1"/>
       <c r="AO76" s="1"/>
       <c r="AP76" s="1"/>
-      <c r="AQ76" s="1">
+      <c r="AQ76">
         <v>4.7659892328662298E-3</v>
       </c>
-      <c r="AR76" s="1">
-        <v>2.3370934230787501E-3</v>
-      </c>
-      <c r="AS76" s="1">
-        <v>350</v>
-      </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>44357</v>
       </c>
@@ -10309,17 +9847,11 @@
       <c r="AN77" s="1"/>
       <c r="AO77" s="1"/>
       <c r="AP77" s="1"/>
-      <c r="AQ77" s="1">
+      <c r="AQ77">
         <v>4.7659892328662298E-3</v>
       </c>
-      <c r="AR77" s="1">
-        <v>2.3370934230787501E-3</v>
-      </c>
-      <c r="AS77" s="1">
-        <v>350</v>
-      </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>44357</v>
       </c>
@@ -10436,17 +9968,11 @@
       </c>
       <c r="AO78" s="1"/>
       <c r="AP78" s="1"/>
-      <c r="AQ78" s="1">
+      <c r="AQ78">
         <v>5.8202742132689399E-4</v>
       </c>
-      <c r="AR78" s="1">
-        <v>1.8567437479903299E-3</v>
-      </c>
-      <c r="AS78" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>44357</v>
       </c>
@@ -10549,17 +10075,11 @@
       <c r="AN79" s="1"/>
       <c r="AO79" s="1"/>
       <c r="AP79" s="1"/>
-      <c r="AQ79" s="1">
+      <c r="AQ79">
         <v>2.5632835577500601E-3</v>
       </c>
-      <c r="AR79" s="1">
-        <v>4.8388237049130298E-3</v>
-      </c>
-      <c r="AS79" s="1">
-        <v>120</v>
-      </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>44358</v>
       </c>
@@ -10674,17 +10194,11 @@
       </c>
       <c r="AO80" s="1"/>
       <c r="AP80" s="1"/>
-      <c r="AQ80" s="1">
+      <c r="AQ80">
         <v>5.6431604521876696E-3</v>
       </c>
-      <c r="AR80" s="1">
-        <v>2.2688808343341998E-3</v>
-      </c>
-      <c r="AS80" s="1">
-        <v>120</v>
-      </c>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>44358</v>
       </c>
@@ -10799,17 +10313,11 @@
       </c>
       <c r="AO81" s="1"/>
       <c r="AP81" s="1"/>
-      <c r="AQ81" s="1">
+      <c r="AQ81">
         <v>4.0048669461816401E-3</v>
       </c>
-      <c r="AR81" s="1">
-        <v>6.2933824646146603E-3</v>
-      </c>
-      <c r="AS81" s="1">
-        <v>220</v>
-      </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>44358</v>
       </c>
@@ -10910,17 +10418,11 @@
       <c r="AN82" s="1"/>
       <c r="AO82" s="1"/>
       <c r="AP82" s="1"/>
-      <c r="AQ82" s="1">
+      <c r="AQ82">
         <v>3.0766396149023299E-3</v>
       </c>
-      <c r="AR82" s="1">
-        <v>5.3657060792969098E-3</v>
-      </c>
-      <c r="AS82" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>44358</v>
       </c>
@@ -11015,17 +10517,11 @@
       <c r="AN83" s="1"/>
       <c r="AO83" s="1"/>
       <c r="AP83" s="1"/>
-      <c r="AQ83" s="1">
+      <c r="AQ83">
         <v>4.07908226241016E-4</v>
       </c>
-      <c r="AR83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS83" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44358</v>
       </c>
@@ -11134,17 +10630,11 @@
       <c r="AN84" s="1"/>
       <c r="AO84" s="1"/>
       <c r="AP84" s="1"/>
-      <c r="AQ84" s="1">
+      <c r="AQ84">
         <v>6.2267411245670902E-4</v>
       </c>
-      <c r="AR84" s="1">
-        <v>6.3628004357953998E-3</v>
-      </c>
-      <c r="AS84" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44358</v>
       </c>
@@ -11253,17 +10743,11 @@
       <c r="AN85" s="1"/>
       <c r="AO85" s="1"/>
       <c r="AP85" s="1"/>
-      <c r="AQ85" s="1">
+      <c r="AQ85">
         <v>6.2267411245670902E-4</v>
       </c>
-      <c r="AR85" s="1">
-        <v>6.3628004357953998E-3</v>
-      </c>
-      <c r="AS85" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44358</v>
       </c>
@@ -11370,17 +10854,11 @@
       <c r="AN86" s="1"/>
       <c r="AO86" s="1"/>
       <c r="AP86" s="1"/>
-      <c r="AQ86" s="1">
+      <c r="AQ86">
         <v>5.25236853443349E-3</v>
       </c>
-      <c r="AR86" s="1">
-        <v>1.9901936840674098E-3</v>
-      </c>
-      <c r="AS86" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44358</v>
       </c>
@@ -11483,17 +10961,11 @@
       <c r="AN87" s="1"/>
       <c r="AO87" s="1"/>
       <c r="AP87" s="1"/>
-      <c r="AQ87" s="1">
+      <c r="AQ87">
         <v>5.25236853443349E-3</v>
       </c>
-      <c r="AR87" s="1">
-        <v>1.9901936840674098E-3</v>
-      </c>
-      <c r="AS87" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>44358</v>
       </c>
@@ -11604,17 +11076,11 @@
       </c>
       <c r="AO88" s="1"/>
       <c r="AP88" s="1"/>
-      <c r="AQ88" s="1">
+      <c r="AQ88">
         <v>5.04033953678505E-3</v>
       </c>
-      <c r="AR88" s="1">
-        <v>9.8636173387430795E-4</v>
-      </c>
-      <c r="AS88" s="1">
-        <v>350</v>
-      </c>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>44359</v>
       </c>
@@ -11715,17 +11181,11 @@
       <c r="AN89" s="1"/>
       <c r="AO89" s="1"/>
       <c r="AP89" s="1"/>
-      <c r="AQ89" s="1">
+      <c r="AQ89">
         <v>5.2354013118862596E-3</v>
       </c>
-      <c r="AR89" s="1">
-        <v>1.1677867451042199E-3</v>
-      </c>
-      <c r="AS89" s="1">
-        <v>120</v>
-      </c>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>44359</v>
       </c>
@@ -11820,17 +11280,11 @@
       <c r="AN90" s="1"/>
       <c r="AO90" s="1"/>
       <c r="AP90" s="1"/>
-      <c r="AQ90" s="1">
+      <c r="AQ90">
         <v>4.9083232636094E-3</v>
       </c>
-      <c r="AR90" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS90" s="1">
-        <v>200</v>
-      </c>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44359</v>
       </c>
@@ -11943,17 +11397,11 @@
       <c r="AN91" s="1"/>
       <c r="AO91" s="1"/>
       <c r="AP91" s="1"/>
-      <c r="AQ91" s="1">
+      <c r="AQ91">
         <v>3.3806005781299E-3</v>
       </c>
-      <c r="AR91" s="1">
-        <v>4.6989262658162397E-3</v>
-      </c>
-      <c r="AS91" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>44359</v>
       </c>
@@ -12064,17 +11512,11 @@
       </c>
       <c r="AO92" s="1"/>
       <c r="AP92" s="1"/>
-      <c r="AQ92" s="1">
+      <c r="AQ92">
         <v>4.9934404921150102E-3</v>
       </c>
-      <c r="AR92" s="1">
-        <v>5.0579566174340099E-3</v>
-      </c>
-      <c r="AS92" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>44359</v>
       </c>
@@ -12181,17 +11623,11 @@
       <c r="AN93" s="1"/>
       <c r="AO93" s="1"/>
       <c r="AP93" s="1"/>
-      <c r="AQ93" s="1">
+      <c r="AQ93">
         <v>4.4712154485801502E-3</v>
       </c>
-      <c r="AR93" s="1">
-        <v>6.80397150952324E-4</v>
-      </c>
-      <c r="AS93" s="1">
-        <v>350</v>
-      </c>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44359</v>
       </c>
@@ -12302,17 +11738,11 @@
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
       <c r="AP94" s="1"/>
-      <c r="AQ94" s="1">
+      <c r="AQ94">
         <v>1.00697312804336E-3</v>
       </c>
-      <c r="AR94" s="1">
-        <v>1.1865323812060399E-3</v>
-      </c>
-      <c r="AS94" s="1">
-        <v>160</v>
-      </c>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>44359</v>
       </c>
@@ -12409,17 +11839,11 @@
       <c r="AN95" s="1"/>
       <c r="AO95" s="1"/>
       <c r="AP95" s="1"/>
-      <c r="AQ95" s="1">
+      <c r="AQ95">
         <v>1.0809600253122501E-3</v>
       </c>
-      <c r="AR95" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS95" s="1">
-        <v>239</v>
-      </c>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>44359</v>
       </c>
@@ -12522,17 +11946,11 @@
       <c r="AN96" s="1"/>
       <c r="AO96" s="1"/>
       <c r="AP96" s="1"/>
-      <c r="AQ96" s="1">
+      <c r="AQ96">
         <v>7.6346957158399695E-4</v>
       </c>
-      <c r="AR96" s="1">
-        <v>2.4151308693490399E-3</v>
-      </c>
-      <c r="AS96" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>44359</v>
       </c>
@@ -12635,17 +12053,11 @@
       <c r="AN97" s="1"/>
       <c r="AO97" s="1"/>
       <c r="AP97" s="1"/>
-      <c r="AQ97" s="1">
+      <c r="AQ97">
         <v>7.6346957158399695E-4</v>
       </c>
-      <c r="AR97" s="1">
-        <v>2.4151308693490399E-3</v>
-      </c>
-      <c r="AS97" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>44359</v>
       </c>
@@ -12752,17 +12164,11 @@
       <c r="AN98" s="1"/>
       <c r="AO98" s="1"/>
       <c r="AP98" s="1"/>
-      <c r="AQ98" s="1">
+      <c r="AQ98">
         <v>4.6423191374383504E-3</v>
       </c>
-      <c r="AR98" s="1">
-        <v>7.5939229693717802E-3</v>
-      </c>
-      <c r="AS98" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>44359</v>
       </c>
@@ -12847,17 +12253,11 @@
       <c r="AN99" s="1"/>
       <c r="AO99" s="1"/>
       <c r="AP99" s="1"/>
-      <c r="AQ99" s="1">
+      <c r="AQ99">
         <v>2.0804318705109899E-3</v>
       </c>
-      <c r="AR99" s="1">
-        <v>6.2125195016016297E-3</v>
-      </c>
-      <c r="AS99" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>44359</v>
       </c>
@@ -12956,17 +12356,11 @@
       <c r="AP100" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AQ100" s="1">
+      <c r="AQ100">
         <v>7.1972249207076303E-3</v>
       </c>
-      <c r="AR100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS100" s="1">
-        <v>250</v>
-      </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>44359</v>
       </c>
@@ -13075,17 +12469,11 @@
       <c r="AP101" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AQ101" s="1">
+      <c r="AQ101">
         <v>7.4213595777179297E-3</v>
       </c>
-      <c r="AR101" s="1">
-        <v>2.1508971645301999E-3</v>
-      </c>
-      <c r="AS101" s="1">
-        <v>80</v>
-      </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>44359</v>
       </c>
@@ -13184,17 +12572,11 @@
       <c r="AP102" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AQ102" s="1">
+      <c r="AQ102">
         <v>7.4636976336951199E-3</v>
       </c>
-      <c r="AR102" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS102" s="1">
-        <v>80</v>
-      </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>44359</v>
       </c>
@@ -13305,17 +12687,11 @@
       <c r="AP103" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AQ103" s="1">
+      <c r="AQ103">
         <v>6.8097477745198798E-4</v>
       </c>
-      <c r="AR103" s="1">
-        <v>9.0247149104724506E-3</v>
-      </c>
-      <c r="AS103" s="1">
-        <v>100</v>
-      </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>44361</v>
       </c>
@@ -13418,17 +12794,11 @@
       <c r="AN104" s="1"/>
       <c r="AO104" s="1"/>
       <c r="AP104" s="1"/>
-      <c r="AQ104" s="1">
+      <c r="AQ104">
         <v>5.7830074968966598E-3</v>
       </c>
-      <c r="AR104" s="1">
-        <v>1.97966215652126E-3</v>
-      </c>
-      <c r="AS104" s="1">
-        <v>200</v>
-      </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>44361</v>
       </c>
@@ -13533,17 +12903,11 @@
       <c r="AN105" s="1"/>
       <c r="AO105" s="1"/>
       <c r="AP105" s="1"/>
-      <c r="AQ105" s="1">
+      <c r="AQ105">
         <v>3.14140322068631E-3</v>
       </c>
-      <c r="AR105" s="1">
-        <v>4.60418478801509E-4</v>
-      </c>
-      <c r="AS105" s="1">
-        <v>162</v>
-      </c>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>44361</v>
       </c>
@@ -13656,17 +13020,11 @@
       <c r="AN106" s="1"/>
       <c r="AO106" s="1"/>
       <c r="AP106" s="1"/>
-      <c r="AQ106" s="1">
+      <c r="AQ106">
         <v>4.8652709334020697E-3</v>
       </c>
-      <c r="AR106" s="1">
-        <v>9.2614738153866004E-4</v>
-      </c>
-      <c r="AS106" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>44361</v>
       </c>
@@ -13767,17 +13125,11 @@
       <c r="AN107" s="1"/>
       <c r="AO107" s="1"/>
       <c r="AP107" s="1"/>
-      <c r="AQ107" s="1">
+      <c r="AQ107">
         <v>4.8652709334020697E-3</v>
       </c>
-      <c r="AR107" s="1">
-        <v>9.2614738153866004E-4</v>
-      </c>
-      <c r="AS107" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>44361</v>
       </c>
@@ -13870,17 +13222,11 @@
       <c r="AN108" s="1"/>
       <c r="AO108" s="1"/>
       <c r="AP108" s="1"/>
-      <c r="AQ108" s="1">
+      <c r="AQ108">
         <v>4.3429952955183502E-4</v>
       </c>
-      <c r="AR108" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS108" s="1">
-        <v>160</v>
-      </c>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>44361</v>
       </c>
@@ -13989,17 +13335,11 @@
       </c>
       <c r="AO109" s="1"/>
       <c r="AP109" s="1"/>
-      <c r="AQ109" s="1">
+      <c r="AQ109">
         <v>1.3113606150149701E-3</v>
       </c>
-      <c r="AR109" s="1">
-        <v>4.5152457840463697E-3</v>
-      </c>
-      <c r="AS109" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>44361</v>
       </c>
@@ -14106,17 +13446,11 @@
       <c r="AN110" s="1"/>
       <c r="AO110" s="1"/>
       <c r="AP110" s="1"/>
-      <c r="AQ110" s="1">
+      <c r="AQ110">
         <v>5.8184254638877803E-4</v>
       </c>
-      <c r="AR110" s="1">
-        <v>1.1325296553852701E-3</v>
-      </c>
-      <c r="AS110" s="1">
-        <v>150</v>
-      </c>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>44361</v>
       </c>
@@ -14227,17 +13561,11 @@
       </c>
       <c r="AO111" s="1"/>
       <c r="AP111" s="1"/>
-      <c r="AQ111" s="1">
+      <c r="AQ111">
         <v>3.3651670842110501E-3</v>
       </c>
-      <c r="AR111" s="1">
-        <v>4.9185068398485904E-3</v>
-      </c>
-      <c r="AS111" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>44361</v>
       </c>
@@ -14346,17 +13674,11 @@
         <v>1</v>
       </c>
       <c r="AP112" s="1"/>
-      <c r="AQ112" s="1">
+      <c r="AQ112">
         <v>3.3651670842110501E-3</v>
       </c>
-      <c r="AR112" s="1">
-        <v>4.9185068398485904E-3</v>
-      </c>
-      <c r="AS112" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>44361</v>
       </c>
@@ -14453,17 +13775,11 @@
       <c r="AN113" s="1"/>
       <c r="AO113" s="1"/>
       <c r="AP113" s="1"/>
-      <c r="AQ113" s="1">
+      <c r="AQ113">
         <v>3.1331659741256801E-3</v>
       </c>
-      <c r="AR113" s="1">
-        <v>3.9750621885150401E-3</v>
-      </c>
-      <c r="AS113" s="1">
-        <v>220</v>
-      </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>44362</v>
       </c>
@@ -14560,17 +13876,11 @@
       <c r="AN114" s="1"/>
       <c r="AO114" s="1"/>
       <c r="AP114" s="1"/>
-      <c r="AQ114" s="1">
+      <c r="AQ114">
         <v>3.22168133789561E-3</v>
       </c>
-      <c r="AR114" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS114" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>44362</v>
       </c>
@@ -14683,17 +13993,11 @@
         <v>1</v>
       </c>
       <c r="AP115" s="1"/>
-      <c r="AQ115" s="1">
+      <c r="AQ115">
         <v>4.9896573268362601E-3</v>
       </c>
-      <c r="AR115" s="1">
-        <v>4.0532542658665502E-3</v>
-      </c>
-      <c r="AS115" s="1">
-        <v>200</v>
-      </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>44362</v>
       </c>
@@ -14798,17 +14102,11 @@
       <c r="AN116" s="1"/>
       <c r="AO116" s="1"/>
       <c r="AP116" s="1"/>
-      <c r="AQ116" s="1">
+      <c r="AQ116">
         <v>3.3259980404914298E-3</v>
       </c>
-      <c r="AR116" s="1">
-        <v>1.91234674439782E-3</v>
-      </c>
-      <c r="AS116" s="1">
-        <v>162</v>
-      </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>44362</v>
       </c>
@@ -14911,17 +14209,11 @@
       <c r="AN117" s="1"/>
       <c r="AO117" s="1"/>
       <c r="AP117" s="1"/>
-      <c r="AQ117" s="1">
+      <c r="AQ117">
         <v>3.3259980404914298E-3</v>
       </c>
-      <c r="AR117" s="1">
-        <v>1.91234674439782E-3</v>
-      </c>
-      <c r="AS117" s="1">
-        <v>162</v>
-      </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>44362</v>
       </c>
@@ -15026,17 +14318,11 @@
       <c r="AN118" s="1"/>
       <c r="AO118" s="1"/>
       <c r="AP118" s="1"/>
-      <c r="AQ118" s="1">
+      <c r="AQ118">
         <v>4.38568363483916E-4</v>
       </c>
-      <c r="AR118" s="1">
-        <v>1.4863850312945299E-3</v>
-      </c>
-      <c r="AS118" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>44362</v>
       </c>
@@ -15133,17 +14419,11 @@
       <c r="AN119" s="1"/>
       <c r="AO119" s="1"/>
       <c r="AP119" s="1"/>
-      <c r="AQ119" s="1">
+      <c r="AQ119">
         <v>2.4617500000001502E-4</v>
       </c>
-      <c r="AR119" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS119" s="1">
-        <v>220</v>
-      </c>
     </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>44362</v>
       </c>
@@ -15258,17 +14538,11 @@
       <c r="AN120" s="1"/>
       <c r="AO120" s="1"/>
       <c r="AP120" s="1"/>
-      <c r="AQ120" s="1">
+      <c r="AQ120">
         <v>7.9467781119712101E-4</v>
       </c>
-      <c r="AR120" s="1">
-        <v>2.0089685728212599E-3</v>
-      </c>
-      <c r="AS120" s="1">
-        <v>200</v>
-      </c>
     </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>44362</v>
       </c>
@@ -15381,17 +14655,11 @@
       <c r="AN121" s="1"/>
       <c r="AO121" s="1"/>
       <c r="AP121" s="1"/>
-      <c r="AQ121" s="1">
+      <c r="AQ121">
         <v>1.1128319354801301E-3</v>
       </c>
-      <c r="AR121" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS121" s="1">
-        <v>150</v>
-      </c>
     </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>44362</v>
       </c>
@@ -15492,17 +14760,11 @@
       <c r="AN122" s="1"/>
       <c r="AO122" s="1"/>
       <c r="AP122" s="1"/>
-      <c r="AQ122" s="1">
+      <c r="AQ122">
         <v>1.1128319354801301E-3</v>
       </c>
-      <c r="AR122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS122" s="1">
-        <v>150</v>
-      </c>
     </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>44362</v>
       </c>
@@ -15609,17 +14871,11 @@
       <c r="AN123" s="1"/>
       <c r="AO123" s="1"/>
       <c r="AP123" s="1"/>
-      <c r="AQ123" s="1">
+      <c r="AQ123">
         <v>4.7104478330525596E-3</v>
       </c>
-      <c r="AR123" s="1">
-        <v>4.4115634941410001E-3</v>
-      </c>
-      <c r="AS123" s="1">
-        <v>200</v>
-      </c>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>44363</v>
       </c>
@@ -15734,17 +14990,11 @@
       </c>
       <c r="AO124" s="1"/>
       <c r="AP124" s="1"/>
-      <c r="AQ124" s="1">
+      <c r="AQ124">
         <v>7.4044421594150903E-3</v>
       </c>
-      <c r="AR124" s="1">
-        <v>3.9769476123407898E-3</v>
-      </c>
-      <c r="AS124" s="1">
-        <v>80</v>
-      </c>
     </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>44363</v>
       </c>
@@ -15853,17 +15103,11 @@
       <c r="AN125" s="1"/>
       <c r="AO125" s="1"/>
       <c r="AP125" s="1"/>
-      <c r="AQ125" s="1">
+      <c r="AQ125">
         <v>1.6743246653060501E-3</v>
       </c>
-      <c r="AR125" s="1">
-        <v>6.8553403251755901E-3</v>
-      </c>
-      <c r="AS125" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>44363</v>
       </c>
@@ -15980,17 +15224,11 @@
       <c r="AN126" s="1"/>
       <c r="AO126" s="1"/>
       <c r="AP126" s="1"/>
-      <c r="AQ126" s="1">
+      <c r="AQ126">
         <v>2.6709000097149601E-3</v>
       </c>
-      <c r="AR126" s="1">
-        <v>5.4177197026887697E-3</v>
-      </c>
-      <c r="AS126" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>44363</v>
       </c>
@@ -16097,17 +15335,11 @@
       <c r="AN127" s="1"/>
       <c r="AO127" s="1"/>
       <c r="AP127" s="1"/>
-      <c r="AQ127" s="1">
+      <c r="AQ127">
         <v>1.42340361746707E-3</v>
       </c>
-      <c r="AR127" s="1">
-        <v>2.5936283008540402E-3</v>
-      </c>
-      <c r="AS127" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>44363</v>
       </c>
@@ -16212,17 +15444,11 @@
       <c r="AN128" s="1"/>
       <c r="AO128" s="1"/>
       <c r="AP128" s="1"/>
-      <c r="AQ128" s="1">
+      <c r="AQ128">
         <v>1.42340361746707E-3</v>
       </c>
-      <c r="AR128" s="1">
-        <v>2.5936283008540402E-3</v>
-      </c>
-      <c r="AS128" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>44363</v>
       </c>
@@ -16331,17 +15557,11 @@
       <c r="AN129" s="1"/>
       <c r="AO129" s="1"/>
       <c r="AP129" s="1"/>
-      <c r="AQ129" s="1">
+      <c r="AQ129">
         <v>3.2304133109616602E-3</v>
       </c>
-      <c r="AR129" s="1">
-        <v>6.3031194786878301E-3</v>
-      </c>
-      <c r="AS129" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>44363</v>
       </c>
@@ -16448,17 +15668,11 @@
       <c r="AN130" s="1"/>
       <c r="AO130" s="1"/>
       <c r="AP130" s="1"/>
-      <c r="AQ130" s="1">
+      <c r="AQ130">
         <v>1.0027087627525601E-3</v>
       </c>
-      <c r="AR130" s="1">
-        <v>1.2087867706807901E-2</v>
-      </c>
-      <c r="AS130" s="1">
-        <v>100</v>
-      </c>
     </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>44363</v>
       </c>
@@ -16571,17 +15785,11 @@
       </c>
       <c r="AO131" s="1"/>
       <c r="AP131" s="1"/>
-      <c r="AQ131" s="1">
+      <c r="AQ131">
         <v>3.1976904437482799E-3</v>
       </c>
-      <c r="AR131" s="1">
-        <v>5.7327609265041897E-4</v>
-      </c>
-      <c r="AS131" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>44363</v>
       </c>
@@ -16686,17 +15894,11 @@
       <c r="AN132" s="1"/>
       <c r="AO132" s="1"/>
       <c r="AP132" s="1"/>
-      <c r="AQ132" s="1">
+      <c r="AQ132">
         <v>4.7846582628224702E-3</v>
       </c>
-      <c r="AR132" s="1">
-        <v>2.5242348236482999E-3</v>
-      </c>
-      <c r="AS132" s="1">
-        <v>350</v>
-      </c>
     </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>44363</v>
       </c>
@@ -16793,17 +15995,11 @@
       <c r="AN133" s="1"/>
       <c r="AO133" s="1"/>
       <c r="AP133" s="1"/>
-      <c r="AQ133" s="1">
+      <c r="AQ133">
         <v>4.0226701435463596E-3</v>
       </c>
-      <c r="AR133" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS133" s="1">
-        <v>150</v>
-      </c>
     </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>44363</v>
       </c>
@@ -16902,17 +16098,11 @@
       <c r="AN134" s="1"/>
       <c r="AO134" s="1"/>
       <c r="AP134" s="1"/>
-      <c r="AQ134" s="1">
+      <c r="AQ134">
         <v>3.2294226398721002E-3</v>
       </c>
-      <c r="AR134" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS134" s="1">
-        <v>150</v>
-      </c>
     </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>44363</v>
       </c>
@@ -17025,17 +16215,11 @@
       <c r="AN135" s="1"/>
       <c r="AO135" s="1"/>
       <c r="AP135" s="1"/>
-      <c r="AQ135" s="1">
+      <c r="AQ135">
         <v>2.6146630337854698E-3</v>
       </c>
-      <c r="AR135" s="1">
-        <v>6.6202425765217602E-3</v>
-      </c>
-      <c r="AS135" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>44363</v>
       </c>
@@ -17140,17 +16324,11 @@
       <c r="AN136" s="1"/>
       <c r="AO136" s="1"/>
       <c r="AP136" s="1"/>
-      <c r="AQ136" s="1">
+      <c r="AQ136">
         <v>2.6146630337854698E-3</v>
       </c>
-      <c r="AR136" s="1">
-        <v>6.6202425765217602E-3</v>
-      </c>
-      <c r="AS136" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="137" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>44363</v>
       </c>
@@ -17259,17 +16437,11 @@
       </c>
       <c r="AO137" s="1"/>
       <c r="AP137" s="1"/>
-      <c r="AQ137" s="1">
+      <c r="AQ137">
         <v>2.4502818274046699E-3</v>
       </c>
-      <c r="AR137" s="1">
-        <v>3.4100798363758699E-3</v>
-      </c>
-      <c r="AS137" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>44363</v>
       </c>
@@ -17374,17 +16546,11 @@
       <c r="AN138" s="1"/>
       <c r="AO138" s="1"/>
       <c r="AP138" s="1"/>
-      <c r="AQ138" s="1">
+      <c r="AQ138">
         <v>4.88900746221306E-4</v>
       </c>
-      <c r="AR138" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS138" s="1">
-        <v>200</v>
-      </c>
     </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>44363</v>
       </c>
@@ -17483,17 +16649,11 @@
       <c r="AN139" s="1"/>
       <c r="AO139" s="1"/>
       <c r="AP139" s="1"/>
-      <c r="AQ139" s="1">
+      <c r="AQ139">
         <v>4.88900746221306E-4</v>
       </c>
-      <c r="AR139" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS139" s="1">
-        <v>200</v>
-      </c>
     </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>44363</v>
       </c>
@@ -17610,17 +16770,11 @@
       </c>
       <c r="AO140" s="1"/>
       <c r="AP140" s="1"/>
-      <c r="AQ140" s="1">
+      <c r="AQ140">
         <v>1.7796938682217299E-3</v>
       </c>
-      <c r="AR140" s="1">
-        <v>1.87662415287129E-3</v>
-      </c>
-      <c r="AS140" s="1">
-        <v>220</v>
-      </c>
     </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>44363</v>
       </c>
@@ -17727,17 +16881,11 @@
       <c r="AN141" s="1"/>
       <c r="AO141" s="1"/>
       <c r="AP141" s="1"/>
-      <c r="AQ141" s="1">
+      <c r="AQ141">
         <v>1.7796938682217299E-3</v>
       </c>
-      <c r="AR141" s="1">
-        <v>1.87662415287129E-3</v>
-      </c>
-      <c r="AS141" s="1">
-        <v>220</v>
-      </c>
     </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>44363</v>
       </c>
@@ -17834,17 +16982,11 @@
       <c r="AN142" s="1"/>
       <c r="AO142" s="1"/>
       <c r="AP142" s="1"/>
-      <c r="AQ142" s="1">
+      <c r="AQ142">
         <v>1.7796938682217299E-3</v>
       </c>
-      <c r="AR142" s="1">
-        <v>1.87662415287129E-3</v>
-      </c>
-      <c r="AS142" s="1">
-        <v>220</v>
-      </c>
     </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>44363</v>
       </c>
@@ -17953,17 +17095,11 @@
       <c r="AN143" s="1"/>
       <c r="AO143" s="1"/>
       <c r="AP143" s="1"/>
-      <c r="AQ143" s="1">
+      <c r="AQ143">
         <v>8.4480238713385992E-3</v>
       </c>
-      <c r="AR143" s="1">
-        <v>1.4639076493525799E-2</v>
-      </c>
-      <c r="AS143" s="1">
-        <v>120</v>
-      </c>
     </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>44364</v>
       </c>
@@ -18068,17 +17204,11 @@
       <c r="AN144" s="1"/>
       <c r="AO144" s="1"/>
       <c r="AP144" s="1"/>
-      <c r="AQ144" s="1">
+      <c r="AQ144">
         <v>1.69745972511051E-3</v>
       </c>
-      <c r="AR144" s="1">
-        <v>1.2382159103772499E-3</v>
-      </c>
-      <c r="AS144" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>44364</v>
       </c>
@@ -18181,17 +17311,11 @@
       <c r="AN145" s="1"/>
       <c r="AO145" s="1"/>
       <c r="AP145" s="1"/>
-      <c r="AQ145" s="1">
+      <c r="AQ145">
         <v>2.4421489579881E-4</v>
       </c>
-      <c r="AR145" s="1">
-        <v>2.8620365345054699E-3</v>
-      </c>
-      <c r="AS145" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>44364</v>
       </c>
@@ -18292,17 +17416,11 @@
       <c r="AN146" s="1"/>
       <c r="AO146" s="1"/>
       <c r="AP146" s="1"/>
-      <c r="AQ146" s="1">
+      <c r="AQ146">
         <v>2.4421489579881E-4</v>
       </c>
-      <c r="AR146" s="1">
-        <v>2.8620365345054699E-3</v>
-      </c>
-      <c r="AS146" s="1">
-        <v>300</v>
-      </c>
     </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>44364</v>
       </c>
@@ -18411,17 +17529,11 @@
       <c r="AN147" s="1"/>
       <c r="AO147" s="1"/>
       <c r="AP147" s="1"/>
-      <c r="AQ147" s="1">
+      <c r="AQ147">
         <v>6.2876140240694504E-4</v>
       </c>
-      <c r="AR147" s="1">
-        <v>4.8766176534924604E-3</v>
-      </c>
-      <c r="AS147" s="1">
-        <v>240</v>
-      </c>
     </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>44364</v>
       </c>
@@ -18524,17 +17636,11 @@
       <c r="AN148" s="1"/>
       <c r="AO148" s="1"/>
       <c r="AP148" s="1"/>
-      <c r="AQ148" s="1">
-        <v>7.85553064080112E-3</v>
-      </c>
-      <c r="AR148" s="1">
-        <v>2.5949451136877601E-3</v>
-      </c>
-      <c r="AS148" s="1">
-        <v>200</v>
+      <c r="AQ148">
+        <v>0.25160242415205403</v>
       </c>
     </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>44364</v>
       </c>
@@ -18637,17 +17743,11 @@
       <c r="AN149" s="1"/>
       <c r="AO149" s="1"/>
       <c r="AP149" s="1"/>
-      <c r="AQ149" s="1">
-        <v>7.85553064080112E-3</v>
-      </c>
-      <c r="AR149" s="1">
-        <v>2.5949451136877601E-3</v>
-      </c>
-      <c r="AS149" s="1">
-        <v>200</v>
+      <c r="AQ149">
+        <v>0.25160242415205403</v>
       </c>
     </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>44364</v>
       </c>
@@ -18770,17 +17870,11 @@
         <v>1</v>
       </c>
       <c r="AP150" s="1"/>
-      <c r="AQ150" s="1">
+      <c r="AQ150">
         <v>7.85553064080112E-3</v>
       </c>
-      <c r="AR150" s="1">
-        <v>2.5949451136877601E-3</v>
-      </c>
-      <c r="AS150" s="1">
-        <v>200</v>
-      </c>
     </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>44364</v>
       </c>
@@ -18888,17 +17982,11 @@
       <c r="AN151" s="1"/>
       <c r="AO151" s="1"/>
       <c r="AP151" s="1"/>
-      <c r="AQ151" s="1">
-        <v>4.9144602858943297E-3</v>
-      </c>
-      <c r="AR151" s="1">
-        <v>3.1202907867233301E-3</v>
-      </c>
-      <c r="AS151" s="1">
-        <v>350</v>
+      <c r="AQ151">
+        <v>7.85553064080112E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>44364</v>
       </c>
@@ -18995,17 +18083,11 @@
       <c r="AN152" s="1"/>
       <c r="AO152" s="1"/>
       <c r="AP152" s="1"/>
-      <c r="AQ152" s="1">
-        <v>3.5491590457223401E-3</v>
-      </c>
-      <c r="AR152" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS152" s="1">
-        <v>162</v>
+      <c r="AQ152">
+        <v>7.85553064080112E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>44364</v>
       </c>
@@ -19110,17 +18192,11 @@
       <c r="AN153" s="1"/>
       <c r="AO153" s="1"/>
       <c r="AP153" s="1"/>
-      <c r="AQ153" s="1">
-        <v>3.5491590457223401E-3</v>
-      </c>
-      <c r="AR153" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS153" s="1">
-        <v>162</v>
+      <c r="AQ153">
+        <v>0.25300711485942601</v>
       </c>
     </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>44364</v>
       </c>
@@ -19237,17 +18313,11 @@
       </c>
       <c r="AO154" s="1"/>
       <c r="AP154" s="1"/>
-      <c r="AQ154" s="1">
-        <v>1.03216807151888E-3</v>
-      </c>
-      <c r="AR154" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS154" s="1">
-        <v>240</v>
+      <c r="AQ154">
+        <v>4.9144602858943297E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>44364</v>
       </c>
@@ -19354,17 +18424,11 @@
       <c r="AN155" s="1"/>
       <c r="AO155" s="1"/>
       <c r="AP155" s="1"/>
-      <c r="AQ155" s="1">
-        <v>2.2084065999391999E-3</v>
-      </c>
-      <c r="AR155" s="1">
-        <v>3.3787897344577001E-3</v>
-      </c>
-      <c r="AS155" s="1">
-        <v>300</v>
+      <c r="AQ155">
+        <v>3.5491590457223401E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>44364</v>
       </c>
@@ -19461,17 +18525,11 @@
       <c r="AN156" s="1"/>
       <c r="AO156" s="1"/>
       <c r="AP156" s="1"/>
-      <c r="AQ156" s="1">
-        <v>1.95103591934566E-3</v>
-      </c>
-      <c r="AR156" s="1">
-        <v>4.34293032584272E-3</v>
-      </c>
-      <c r="AS156" s="1">
-        <v>300</v>
+      <c r="AQ156">
+        <v>3.5491590457223401E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>44364</v>
       </c>
@@ -19568,17 +18626,11 @@
       <c r="AN157" s="1"/>
       <c r="AO157" s="1"/>
       <c r="AP157" s="1"/>
-      <c r="AQ157" s="1">
-        <v>1.0590606115870101E-3</v>
-      </c>
-      <c r="AR157" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS157" s="1">
-        <v>240</v>
+      <c r="AQ157">
+        <v>1.03216807151888E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>44365</v>
       </c>
@@ -19691,17 +18743,11 @@
       </c>
       <c r="AO158" s="1"/>
       <c r="AP158" s="1"/>
-      <c r="AQ158" s="1">
-        <v>4.9980724996308702E-4</v>
-      </c>
-      <c r="AR158" s="1">
-        <v>1.58471342078265E-3</v>
-      </c>
-      <c r="AS158" s="1">
-        <v>240</v>
+      <c r="AQ158">
+        <v>2.2084065999391999E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>44365</v>
       </c>
@@ -19814,17 +18860,11 @@
       <c r="AN159" s="1"/>
       <c r="AO159" s="1"/>
       <c r="AP159" s="1"/>
-      <c r="AQ159" s="1">
-        <v>2.9042189685422101E-3</v>
-      </c>
-      <c r="AR159" s="1">
-        <v>1.35757351578816E-3</v>
-      </c>
-      <c r="AS159" s="1">
-        <v>300</v>
+      <c r="AQ159">
+        <v>1.95103591934566E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>44365</v>
       </c>
@@ -19923,17 +18963,11 @@
       <c r="AN160" s="1"/>
       <c r="AO160" s="1"/>
       <c r="AP160" s="1"/>
-      <c r="AQ160" s="1">
-        <v>2.111801330459E-3</v>
-      </c>
-      <c r="AR160" s="1">
-        <v>3.3561683841634698E-3</v>
-      </c>
-      <c r="AS160" s="1">
-        <v>300</v>
+      <c r="AQ160">
+        <v>1.0590606115870101E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>44365</v>
       </c>
@@ -20042,17 +19076,11 @@
       <c r="AP161" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AQ161" s="1">
-        <v>7.2933139384199E-3</v>
-      </c>
-      <c r="AR161" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS161" s="1">
-        <v>200</v>
+      <c r="AQ161">
+        <v>4.9980724996308702E-4</v>
       </c>
     </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>44365</v>
       </c>
@@ -20165,17 +19193,11 @@
         <v>2</v>
       </c>
       <c r="AP162" s="1"/>
-      <c r="AQ162" s="1">
-        <v>3.9941641649902599E-3</v>
-      </c>
-      <c r="AR162" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS162" s="1">
-        <v>300</v>
+      <c r="AQ162">
+        <v>2.9042189685422101E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>44365</v>
       </c>
@@ -20286,17 +19308,11 @@
       <c r="AP163" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AQ163" s="1">
-        <v>3.9941641649902599E-3</v>
-      </c>
-      <c r="AR163" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS163" s="1">
-        <v>300</v>
+      <c r="AQ163">
+        <v>2.111801330459E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>44365</v>
       </c>
@@ -20309,19 +19325,19 @@
       <c r="D164" s="1">
         <v>3</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164" s="3">
         <v>1029</v>
       </c>
-      <c r="F164" s="4">
+      <c r="F164" s="3">
         <v>261805</v>
       </c>
-      <c r="G164" s="4">
+      <c r="G164" s="3">
         <v>54174</v>
       </c>
-      <c r="H164" s="4">
+      <c r="H164" s="3">
         <v>39</v>
       </c>
-      <c r="I164" s="4">
+      <c r="I164" s="3">
         <v>220</v>
       </c>
       <c r="J164" s="1">
@@ -20395,17 +19411,11 @@
       <c r="AN164" s="1"/>
       <c r="AO164" s="1"/>
       <c r="AP164" s="1"/>
-      <c r="AQ164" s="1">
-        <v>3.9941641649902599E-3</v>
-      </c>
-      <c r="AR164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS164" s="1">
-        <v>300</v>
+      <c r="AQ164">
+        <v>7.2933139384199E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>44365</v>
       </c>
@@ -20418,19 +19428,19 @@
       <c r="D165" s="1">
         <v>1</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165" s="3">
         <v>1041</v>
       </c>
-      <c r="F165" s="4">
+      <c r="F165" s="3">
         <v>261104</v>
       </c>
-      <c r="G165" s="4">
+      <c r="G165" s="3">
         <v>55534</v>
       </c>
-      <c r="H165" s="4">
+      <c r="H165" s="3">
         <v>48</v>
       </c>
-      <c r="I165" s="4">
+      <c r="I165" s="3">
         <v>60</v>
       </c>
       <c r="J165" s="1">
@@ -20520,17 +19530,11 @@
       <c r="AN165" s="1"/>
       <c r="AO165" s="1"/>
       <c r="AP165" s="1"/>
-      <c r="AQ165" s="1">
-        <v>7.3950464700499796E-4</v>
-      </c>
-      <c r="AR165" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS165" s="1">
-        <v>300</v>
+      <c r="AQ165">
+        <v>3.9941641649902599E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>44365</v>
       </c>
@@ -20543,19 +19547,19 @@
       <c r="D166" s="1">
         <v>1</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E166" s="3">
         <v>1041</v>
       </c>
-      <c r="F166" s="4">
+      <c r="F166" s="3">
         <v>261104</v>
       </c>
-      <c r="G166" s="4">
+      <c r="G166" s="3">
         <v>55534</v>
       </c>
-      <c r="H166" s="4">
+      <c r="H166" s="3">
         <v>48</v>
       </c>
-      <c r="I166" s="4">
+      <c r="I166" s="3">
         <v>60</v>
       </c>
       <c r="J166" s="1">
@@ -20635,17 +19639,11 @@
       <c r="AN166" s="1"/>
       <c r="AO166" s="1"/>
       <c r="AP166" s="1"/>
-      <c r="AQ166" s="1">
-        <v>1.65008414991387E-3</v>
-      </c>
-      <c r="AR166" s="1">
-        <v>8.1161638329766295E-4</v>
-      </c>
-      <c r="AS166" s="1">
-        <v>220</v>
+      <c r="AQ166">
+        <v>3.9941641649902599E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>44365</v>
       </c>
@@ -20658,19 +19656,19 @@
       <c r="D167" s="1">
         <v>1</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="3">
         <v>1041</v>
       </c>
-      <c r="F167" s="4">
+      <c r="F167" s="3">
         <v>261104</v>
       </c>
-      <c r="G167" s="4">
+      <c r="G167" s="3">
         <v>55534</v>
       </c>
-      <c r="H167" s="4">
+      <c r="H167" s="3">
         <v>48</v>
       </c>
-      <c r="I167" s="4">
+      <c r="I167" s="3">
         <v>60</v>
       </c>
       <c r="J167" s="1">
@@ -20748,17 +19746,11 @@
       <c r="AN167" s="1"/>
       <c r="AO167" s="1"/>
       <c r="AP167" s="1"/>
-      <c r="AQ167" s="1">
-        <v>5.9090952678953401E-4</v>
-      </c>
-      <c r="AR167" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS167" s="1">
-        <v>300</v>
+      <c r="AQ167">
+        <v>3.9941641649902599E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>44365</v>
       </c>
@@ -20771,19 +19763,19 @@
       <c r="D168" s="1">
         <v>2</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="3">
         <v>1052</v>
       </c>
-      <c r="F168" s="4">
+      <c r="F168" s="3">
         <v>260156</v>
       </c>
-      <c r="G168" s="4">
+      <c r="G168" s="3">
         <v>55588</v>
       </c>
-      <c r="H168" s="4">
+      <c r="H168" s="3">
         <v>86</v>
       </c>
-      <c r="I168" s="4">
+      <c r="I168" s="3">
         <v>340</v>
       </c>
       <c r="J168" s="1">
@@ -20857,17 +19849,11 @@
       <c r="AN168" s="1"/>
       <c r="AO168" s="1"/>
       <c r="AP168" s="1"/>
-      <c r="AQ168" s="1">
-        <v>2.0449335916460799E-3</v>
-      </c>
-      <c r="AR168" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS168" s="1">
-        <v>100</v>
+      <c r="AQ168">
+        <v>7.3950464700499796E-4</v>
       </c>
     </row>
-    <row r="169" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>44365</v>
       </c>
@@ -20880,19 +19866,19 @@
       <c r="D169" s="1">
         <v>3</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169" s="3">
         <v>1110</v>
       </c>
-      <c r="F169" s="4">
+      <c r="F169" s="3">
         <v>260291</v>
       </c>
-      <c r="G169" s="4">
+      <c r="G169" s="3">
         <v>54177</v>
       </c>
-      <c r="H169" s="4">
+      <c r="H169" s="3">
         <v>49</v>
       </c>
-      <c r="I169" s="4">
+      <c r="I169" s="3">
         <v>300</v>
       </c>
       <c r="J169" s="1">
@@ -20974,17 +19960,11 @@
       <c r="AN169" s="1"/>
       <c r="AO169" s="1"/>
       <c r="AP169" s="1"/>
-      <c r="AQ169" s="1">
-        <v>2.2402337714936102E-3</v>
-      </c>
-      <c r="AR169" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS169" s="1">
-        <v>100</v>
+      <c r="AQ169">
+        <v>1.65008414991387E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>44365</v>
       </c>
@@ -20997,19 +19977,19 @@
       <c r="D170" s="1">
         <v>1</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170" s="3">
         <v>1121</v>
       </c>
-      <c r="F170" s="4">
+      <c r="F170" s="3">
         <v>260006</v>
       </c>
-      <c r="G170" s="4">
+      <c r="G170" s="3">
         <v>53547</v>
       </c>
-      <c r="H170" s="4">
+      <c r="H170" s="3">
         <v>5</v>
       </c>
-      <c r="I170" s="4">
+      <c r="I170" s="3">
         <v>40</v>
       </c>
       <c r="J170" s="1">
@@ -21083,17 +20063,11 @@
       <c r="AN170" s="1"/>
       <c r="AO170" s="1"/>
       <c r="AP170" s="1"/>
-      <c r="AQ170" s="1">
-        <v>3.4316909658222202E-3</v>
-      </c>
-      <c r="AR170" s="1">
-        <v>4.2082832375352798E-3</v>
-      </c>
-      <c r="AS170" s="1">
-        <v>80</v>
+      <c r="AQ170">
+        <v>5.9090952678953401E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>44365</v>
       </c>
@@ -21106,19 +20080,19 @@
       <c r="D171" s="1">
         <v>2</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E171" s="3">
         <v>1127</v>
       </c>
-      <c r="F171" s="4">
+      <c r="F171" s="3">
         <v>260852</v>
       </c>
-      <c r="G171" s="4">
+      <c r="G171" s="3">
         <v>52516</v>
       </c>
-      <c r="H171" s="4">
+      <c r="H171" s="3">
         <v>5</v>
       </c>
-      <c r="I171" s="4">
+      <c r="I171" s="3">
         <v>240</v>
       </c>
       <c r="J171" s="1">
@@ -21192,17 +20166,11 @@
       <c r="AN171" s="1"/>
       <c r="AO171" s="1"/>
       <c r="AP171" s="1"/>
-      <c r="AQ171" s="1">
-        <v>3.4316909658222202E-3</v>
-      </c>
-      <c r="AR171" s="1">
-        <v>4.2082832375352798E-3</v>
-      </c>
-      <c r="AS171" s="1">
-        <v>80</v>
+      <c r="AQ171">
+        <v>2.0449335916460799E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>44368</v>
       </c>
@@ -21215,19 +20183,19 @@
       <c r="D172" s="1">
         <v>1</v>
       </c>
-      <c r="E172" s="4">
+      <c r="E172" s="3">
         <v>1030</v>
       </c>
-      <c r="F172" s="4">
+      <c r="F172" s="3">
         <v>259611</v>
       </c>
-      <c r="G172" s="4">
+      <c r="G172" s="3">
         <v>51436</v>
       </c>
-      <c r="H172" s="4">
+      <c r="H172" s="3">
         <v>5</v>
       </c>
-      <c r="I172" s="4">
+      <c r="I172" s="3">
         <v>140</v>
       </c>
       <c r="J172" s="1">
@@ -21301,17 +20269,11 @@
       <c r="AN172" s="1"/>
       <c r="AO172" s="1"/>
       <c r="AP172" s="1"/>
-      <c r="AQ172" s="1">
-        <v>3.9081173354334198E-3</v>
-      </c>
-      <c r="AR172" s="1">
-        <v>6.0673466801670602E-3</v>
-      </c>
-      <c r="AS172" s="1">
-        <v>80</v>
+      <c r="AQ172">
+        <v>2.2402337714936102E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>44368</v>
       </c>
@@ -21324,19 +20286,19 @@
       <c r="D173" s="1">
         <v>2</v>
       </c>
-      <c r="E173" s="4">
+      <c r="E173" s="3">
         <v>1053</v>
       </c>
-      <c r="F173" s="4">
+      <c r="F173" s="3">
         <v>259541</v>
       </c>
-      <c r="G173" s="4">
+      <c r="G173" s="3">
         <v>51992</v>
       </c>
-      <c r="H173" s="4">
+      <c r="H173" s="3">
         <v>39</v>
       </c>
-      <c r="I173" s="4">
+      <c r="I173" s="3">
         <v>200</v>
       </c>
       <c r="J173" s="1">
@@ -21418,17 +20380,11 @@
       <c r="AN173" s="1"/>
       <c r="AO173" s="1"/>
       <c r="AP173" s="1"/>
-      <c r="AQ173" s="1">
-        <v>3.9081173354334198E-3</v>
-      </c>
-      <c r="AR173" s="1">
-        <v>6.0673466801670602E-3</v>
-      </c>
-      <c r="AS173" s="1">
-        <v>80</v>
+      <c r="AQ173">
+        <v>3.4316909658222202E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>44368</v>
       </c>
@@ -21441,19 +20397,19 @@
       <c r="D174" s="1">
         <v>2</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="3">
         <v>1053</v>
       </c>
-      <c r="F174" s="4">
+      <c r="F174" s="3">
         <v>259541</v>
       </c>
-      <c r="G174" s="4">
+      <c r="G174" s="3">
         <v>51992</v>
       </c>
-      <c r="H174" s="4">
+      <c r="H174" s="3">
         <v>39</v>
       </c>
-      <c r="I174" s="4">
+      <c r="I174" s="3">
         <v>200</v>
       </c>
       <c r="J174" s="1">
@@ -21545,17 +20501,11 @@
       <c r="AN174" s="1"/>
       <c r="AO174" s="1"/>
       <c r="AP174" s="1"/>
-      <c r="AQ174" s="3">
-        <v>4.4521374364459603E-6</v>
-      </c>
-      <c r="AR174" s="1">
-        <v>3.1377781705545101E-3</v>
-      </c>
-      <c r="AS174" s="1">
-        <v>300</v>
+      <c r="AQ174">
+        <v>3.4316909658222202E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>44368</v>
       </c>
@@ -21568,19 +20518,19 @@
       <c r="D175" s="1">
         <v>3</v>
       </c>
-      <c r="E175" s="4">
+      <c r="E175" s="3">
         <v>1136</v>
       </c>
-      <c r="F175" s="4">
+      <c r="F175" s="3">
         <v>259444</v>
       </c>
-      <c r="G175" s="4">
+      <c r="G175" s="3">
         <v>52357</v>
       </c>
-      <c r="H175" s="4">
+      <c r="H175" s="3">
         <v>41</v>
       </c>
-      <c r="I175" s="4">
+      <c r="I175" s="3">
         <v>80</v>
       </c>
       <c r="J175" s="1">
@@ -21666,17 +20616,11 @@
       <c r="AN175" s="1"/>
       <c r="AO175" s="1"/>
       <c r="AP175" s="1"/>
-      <c r="AQ175" s="3">
-        <v>7.5203500175382996E-5</v>
-      </c>
-      <c r="AR175" s="1">
-        <v>7.8856297154083002E-3</v>
-      </c>
-      <c r="AS175" s="1">
-        <v>100</v>
+      <c r="AQ175">
+        <v>3.9081173354334198E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>44368</v>
       </c>
@@ -21689,19 +20633,19 @@
       <c r="D176" s="1">
         <v>3</v>
       </c>
-      <c r="E176" s="4">
+      <c r="E176" s="3">
         <v>1136</v>
       </c>
-      <c r="F176" s="4">
+      <c r="F176" s="3">
         <v>259444</v>
       </c>
-      <c r="G176" s="4">
+      <c r="G176" s="3">
         <v>52357</v>
       </c>
-      <c r="H176" s="4">
+      <c r="H176" s="3">
         <v>41</v>
       </c>
-      <c r="I176" s="4">
+      <c r="I176" s="3">
         <v>80</v>
       </c>
       <c r="J176" s="1">
@@ -21787,17 +20731,11 @@
       <c r="AN176" s="1"/>
       <c r="AO176" s="1"/>
       <c r="AP176" s="1"/>
-      <c r="AQ176" s="1">
-        <v>6.1579498493820502E-3</v>
-      </c>
-      <c r="AR176" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS176" s="1">
-        <v>120</v>
+      <c r="AQ176">
+        <v>3.9081173354334198E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>44368</v>
       </c>
@@ -21810,19 +20748,19 @@
       <c r="D177" s="1">
         <v>1</v>
       </c>
-      <c r="E177" s="4">
+      <c r="E177" s="3">
         <v>1149</v>
       </c>
-      <c r="F177" s="4">
+      <c r="F177" s="3">
         <v>259768</v>
       </c>
-      <c r="G177" s="4">
+      <c r="G177" s="3">
         <v>53761</v>
       </c>
-      <c r="H177" s="4">
+      <c r="H177" s="3">
         <v>32</v>
       </c>
-      <c r="I177" s="4">
+      <c r="I177" s="3">
         <v>340</v>
       </c>
       <c r="J177" s="1">
@@ -21904,17 +20842,11 @@
       <c r="AN177" s="1"/>
       <c r="AO177" s="1"/>
       <c r="AP177" s="1"/>
-      <c r="AQ177" s="1">
-        <v>1.79399543923301E-3</v>
-      </c>
-      <c r="AR177" s="1">
-        <v>2.3470915042091002E-3</v>
-      </c>
-      <c r="AS177" s="1">
-        <v>300</v>
+      <c r="AQ177" s="5">
+        <v>4.4521374364459603E-6</v>
       </c>
     </row>
-    <row r="178" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>44368</v>
       </c>
@@ -21927,19 +20859,19 @@
       <c r="D178" s="1">
         <v>2</v>
       </c>
-      <c r="E178" s="4">
+      <c r="E178" s="3">
         <v>1253</v>
       </c>
-      <c r="F178" s="4">
+      <c r="F178" s="3">
         <v>259691</v>
       </c>
-      <c r="G178" s="4">
+      <c r="G178" s="3">
         <v>50587</v>
       </c>
-      <c r="H178" s="4">
+      <c r="H178" s="3">
         <v>40</v>
       </c>
-      <c r="I178" s="4">
+      <c r="I178" s="3">
         <v>120</v>
       </c>
       <c r="J178" s="1">
@@ -22021,17 +20953,11 @@
       <c r="AN178" s="1"/>
       <c r="AO178" s="1"/>
       <c r="AP178" s="1"/>
-      <c r="AQ178" s="1">
-        <v>4.8655952562577497E-3</v>
-      </c>
-      <c r="AR178" s="1">
-        <v>3.7682508346371301E-3</v>
-      </c>
-      <c r="AS178" s="1">
-        <v>200</v>
+      <c r="AQ178" s="5">
+        <v>7.5203500175382996E-5</v>
       </c>
     </row>
-    <row r="179" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>44368</v>
       </c>
@@ -22044,19 +20970,19 @@
       <c r="D179" s="1">
         <v>1</v>
       </c>
-      <c r="E179" s="4">
+      <c r="E179" s="3">
         <v>1002</v>
       </c>
-      <c r="F179" s="4">
+      <c r="F179" s="3">
         <v>261690</v>
       </c>
-      <c r="G179" s="4">
+      <c r="G179" s="3">
         <v>52059</v>
       </c>
-      <c r="H179" s="4">
+      <c r="H179" s="3">
         <v>102</v>
       </c>
-      <c r="I179" s="4">
+      <c r="I179" s="3">
         <v>280</v>
       </c>
       <c r="J179" s="1">
@@ -22128,17 +21054,11 @@
       <c r="AN179" s="1"/>
       <c r="AO179" s="1"/>
       <c r="AP179" s="1"/>
-      <c r="AQ179" s="1">
-        <v>4.8655952562577497E-3</v>
-      </c>
-      <c r="AR179" s="1">
-        <v>3.7682508346371301E-3</v>
-      </c>
-      <c r="AS179" s="1">
-        <v>200</v>
+      <c r="AQ179">
+        <v>6.1579498493820502E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>44368</v>
       </c>
@@ -22151,19 +21071,19 @@
       <c r="D180" s="1">
         <v>2</v>
       </c>
-      <c r="E180" s="4">
+      <c r="E180" s="3">
         <v>1008</v>
       </c>
-      <c r="F180" s="4">
+      <c r="F180" s="3">
         <v>261896</v>
       </c>
-      <c r="G180" s="4">
+      <c r="G180" s="3">
         <v>53358</v>
       </c>
-      <c r="H180" s="4">
+      <c r="H180" s="3">
         <v>58</v>
       </c>
-      <c r="I180" s="4">
+      <c r="I180" s="3">
         <v>220</v>
       </c>
       <c r="J180" s="1">
@@ -22247,17 +21167,11 @@
       <c r="AN180" s="1"/>
       <c r="AO180" s="1"/>
       <c r="AP180" s="1"/>
-      <c r="AQ180" s="1">
-        <v>8.0929811146427302E-3</v>
-      </c>
-      <c r="AR180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS180" s="1">
-        <v>162</v>
+      <c r="AQ180">
+        <v>1.79399543923301E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>44368</v>
       </c>
@@ -22270,19 +21184,19 @@
       <c r="D181" s="1">
         <v>3</v>
       </c>
-      <c r="E181" s="4">
+      <c r="E181" s="3">
         <v>1020</v>
       </c>
-      <c r="F181" s="4">
+      <c r="F181" s="3">
         <v>261718</v>
       </c>
-      <c r="G181" s="4">
+      <c r="G181" s="3">
         <v>53750</v>
       </c>
-      <c r="H181" s="4">
+      <c r="H181" s="3">
         <v>44</v>
       </c>
-      <c r="I181" s="4">
+      <c r="I181" s="3">
         <v>120</v>
       </c>
       <c r="J181" s="1">
@@ -22372,17 +21286,11 @@
         <v>1</v>
       </c>
       <c r="AP181" s="1"/>
-      <c r="AQ181" s="1">
-        <v>6.6029473017409201E-3</v>
-      </c>
-      <c r="AR181" s="1">
-        <v>2.3223495298039399E-3</v>
-      </c>
-      <c r="AS181" s="1">
-        <v>200</v>
+      <c r="AQ181">
+        <v>4.8655952562577497E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>44368</v>
       </c>
@@ -22395,19 +21303,19 @@
       <c r="D182" s="1">
         <v>3</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E182" s="3">
         <v>1020</v>
       </c>
-      <c r="F182" s="4">
+      <c r="F182" s="3">
         <v>261718</v>
       </c>
-      <c r="G182" s="4">
+      <c r="G182" s="3">
         <v>53750</v>
       </c>
-      <c r="H182" s="4">
+      <c r="H182" s="3">
         <v>44</v>
       </c>
-      <c r="I182" s="4">
+      <c r="I182" s="3">
         <v>120</v>
       </c>
       <c r="J182" s="1">
@@ -22497,17 +21405,11 @@
       <c r="AN182" s="1"/>
       <c r="AO182" s="1"/>
       <c r="AP182" s="1"/>
-      <c r="AQ182" s="1">
-        <v>2.3603767251197901E-3</v>
-      </c>
-      <c r="AR182" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS182" s="1">
-        <v>220</v>
+      <c r="AQ182">
+        <v>4.8655952562577497E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>44368</v>
       </c>
@@ -22520,19 +21422,19 @@
       <c r="D183" s="1">
         <v>1</v>
       </c>
-      <c r="E183" s="4">
+      <c r="E183" s="3">
         <v>1034</v>
       </c>
-      <c r="F183" s="4">
+      <c r="F183" s="3">
         <v>261741</v>
       </c>
-      <c r="G183" s="4">
+      <c r="G183" s="3">
         <v>54241</v>
       </c>
-      <c r="H183" s="4">
+      <c r="H183" s="3">
         <v>10</v>
       </c>
-      <c r="I183" s="4">
+      <c r="I183" s="3">
         <v>240</v>
       </c>
       <c r="J183" s="1">
@@ -22604,11 +21506,11 @@
       <c r="AN183" s="1"/>
       <c r="AO183" s="1"/>
       <c r="AP183" s="1"/>
-      <c r="AQ183" s="1"/>
-      <c r="AR183" s="1"/>
-      <c r="AS183" s="1"/>
+      <c r="AQ183">
+        <v>8.0929811146427302E-3</v>
+      </c>
     </row>
-    <row r="184" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>44368</v>
       </c>
@@ -22621,19 +21523,19 @@
       <c r="D184" s="1">
         <v>2</v>
       </c>
-      <c r="E184" s="4">
+      <c r="E184" s="3">
         <v>1051</v>
       </c>
-      <c r="F184" s="4">
+      <c r="F184" s="3">
         <v>261405</v>
       </c>
-      <c r="G184" s="4">
+      <c r="G184" s="3">
         <v>54307</v>
       </c>
-      <c r="H184" s="4">
+      <c r="H184" s="3">
         <v>21</v>
       </c>
-      <c r="I184" s="4">
+      <c r="I184" s="3">
         <v>100</v>
       </c>
       <c r="J184" s="1">
@@ -22713,11 +21615,11 @@
       <c r="AN184" s="1"/>
       <c r="AO184" s="1"/>
       <c r="AP184" s="1"/>
-      <c r="AQ184" s="1"/>
-      <c r="AR184" s="1"/>
-      <c r="AS184" s="1"/>
+      <c r="AQ184">
+        <v>6.6029473017409201E-3</v>
+      </c>
     </row>
-    <row r="185" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>44368</v>
       </c>
@@ -22730,19 +21632,19 @@
       <c r="D185" s="1">
         <v>3</v>
       </c>
-      <c r="E185" s="4">
+      <c r="E185" s="3">
         <v>1129</v>
       </c>
-      <c r="F185" s="4">
+      <c r="F185" s="3">
         <v>260348</v>
       </c>
-      <c r="G185" s="4">
+      <c r="G185" s="3">
         <v>54251</v>
       </c>
-      <c r="H185" s="4">
+      <c r="H185" s="3">
         <v>21</v>
       </c>
-      <c r="I185" s="4">
+      <c r="I185" s="3">
         <v>250</v>
       </c>
       <c r="J185" s="1">
@@ -22814,11 +21716,11 @@
       <c r="AN185" s="1"/>
       <c r="AO185" s="1"/>
       <c r="AP185" s="1"/>
-      <c r="AQ185" s="1"/>
-      <c r="AR185" s="1"/>
-      <c r="AS185" s="1"/>
+      <c r="AQ185">
+        <v>2.3603767251197901E-3</v>
+      </c>
     </row>
-    <row r="186" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>44369</v>
       </c>
@@ -22826,7 +21728,7 @@
         <v>1</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D186" s="1">
         <v>1</v>
@@ -22861,7 +21763,7 @@
         <v>36.840881937552297</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O186" s="1"/>
       <c r="P186" s="1" t="s">
@@ -22915,13 +21817,13 @@
       <c r="AN186" s="1"/>
       <c r="AO186" s="1"/>
       <c r="AP186" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ186" s="1"/>
-      <c r="AR186" s="1"/>
-      <c r="AS186" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="AQ186">
+        <v>7.8208063874599001E-4</v>
+      </c>
     </row>
-    <row r="187" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>44369</v>
       </c>
@@ -22929,7 +21831,7 @@
         <v>1</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -22964,7 +21866,7 @@
         <v>36.844562759585202</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O187" s="1"/>
       <c r="P187" s="1" t="s">
@@ -23016,13 +21918,13 @@
       <c r="AN187" s="1"/>
       <c r="AO187" s="1"/>
       <c r="AP187" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ187" s="1"/>
-      <c r="AR187" s="1"/>
-      <c r="AS187" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="AQ187">
+        <v>1.1019185165266099E-4</v>
+      </c>
     </row>
-    <row r="188" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>44369</v>
       </c>
@@ -23030,7 +21932,7 @@
         <v>1</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D188" s="1">
         <v>3</v>
@@ -23065,7 +21967,7 @@
         <v>36.841032945929904</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O188" s="1"/>
       <c r="P188" s="1" t="s">
@@ -23099,7 +22001,7 @@
         <v>39</v>
       </c>
       <c r="Z188" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AA188" s="1" t="s">
         <v>63</v>
@@ -23121,13 +22023,13 @@
       <c r="AN188" s="1"/>
       <c r="AO188" s="1"/>
       <c r="AP188" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ188" s="1"/>
-      <c r="AR188" s="1"/>
-      <c r="AS188" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="AQ188">
+        <v>2.9646379513602098E-3</v>
+      </c>
     </row>
-    <row r="189" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>44369</v>
       </c>
@@ -23135,7 +22037,7 @@
         <v>1</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D189" s="1">
         <v>1</v>
@@ -23250,13 +22152,13 @@
         <v>1</v>
       </c>
       <c r="AP189" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ189" s="1"/>
-      <c r="AR189" s="1"/>
-      <c r="AS189" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="AQ189">
+        <v>3.9677032096267703E-3</v>
+      </c>
     </row>
-    <row r="190" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>44369</v>
       </c>
@@ -23264,7 +22166,7 @@
         <v>1</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D190" s="1">
         <v>2</v>
@@ -23335,7 +22237,7 @@
         <v>72</v>
       </c>
       <c r="Z190" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AA190" s="1" t="s">
         <v>63</v>
@@ -23363,13 +22265,13 @@
       <c r="AN190" s="1"/>
       <c r="AO190" s="1"/>
       <c r="AP190" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ190" s="1"/>
-      <c r="AR190" s="1"/>
-      <c r="AS190" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="AQ190">
+        <v>9.7679008423442598E-3</v>
+      </c>
     </row>
-    <row r="191" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>44369</v>
       </c>
@@ -23377,7 +22279,7 @@
         <v>1</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D191" s="1">
         <v>3</v>
@@ -23427,7 +22329,7 @@
         <v>34</v>
       </c>
       <c r="S191" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T191" s="1" t="s">
         <v>50</v>
@@ -23448,7 +22350,7 @@
         <v>71</v>
       </c>
       <c r="Z191" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AA191" s="1" t="s">
         <v>63</v>
@@ -23484,11 +22386,11 @@
       <c r="AP191" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AQ191" s="1"/>
-      <c r="AR191" s="1"/>
-      <c r="AS191" s="1"/>
+      <c r="AQ191">
+        <v>8.2662335650074206E-3</v>
+      </c>
     </row>
-    <row r="192" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>44369</v>
       </c>
@@ -23496,7 +22398,7 @@
         <v>1</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
@@ -23591,13 +22493,13 @@
       <c r="AN192" s="1"/>
       <c r="AO192" s="1"/>
       <c r="AP192" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ192" s="1"/>
-      <c r="AR192" s="1"/>
-      <c r="AS192" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="AQ192">
+        <v>3.3378496163375898E-3</v>
+      </c>
     </row>
-    <row r="193" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>44369</v>
       </c>
@@ -23605,7 +22507,7 @@
         <v>1</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -23676,7 +22578,7 @@
         <v>71</v>
       </c>
       <c r="Z193" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA193" s="1"/>
       <c r="AB193" s="1">
@@ -23702,13 +22604,13 @@
       <c r="AN193" s="1"/>
       <c r="AO193" s="1"/>
       <c r="AP193" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ193" s="1"/>
-      <c r="AR193" s="1"/>
-      <c r="AS193" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="AQ193">
+        <v>3.8301625547123002E-3</v>
+      </c>
     </row>
-    <row r="194" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>44369</v>
       </c>
@@ -23716,7 +22618,7 @@
         <v>1</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D194" s="1">
         <v>2</v>
@@ -23787,7 +22689,7 @@
         <v>71</v>
       </c>
       <c r="Z194" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA194" s="1"/>
       <c r="AB194" s="1">
@@ -23817,13 +22719,13 @@
       <c r="AN194" s="1"/>
       <c r="AO194" s="1"/>
       <c r="AP194" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ194" s="1"/>
-      <c r="AR194" s="1"/>
-      <c r="AS194" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="AQ194">
+        <v>3.8301625547123002E-3</v>
+      </c>
     </row>
-    <row r="195" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>44369</v>
       </c>
@@ -23831,7 +22733,7 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D195" s="1">
         <v>3</v>
@@ -23866,7 +22768,7 @@
         <v>36.851564381052199</v>
       </c>
       <c r="N195" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O195" s="1"/>
       <c r="P195" s="1" t="s">
@@ -23920,11 +22822,11 @@
       <c r="AN195" s="1"/>
       <c r="AO195" s="1"/>
       <c r="AP195" s="1"/>
-      <c r="AQ195" s="1"/>
-      <c r="AR195" s="1"/>
-      <c r="AS195" s="1"/>
+      <c r="AQ195">
+        <v>1.50774768239044E-3</v>
+      </c>
     </row>
-    <row r="196" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>44369</v>
       </c>
@@ -23932,7 +22834,7 @@
         <v>1</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
@@ -23994,7 +22896,7 @@
         <v>56</v>
       </c>
       <c r="W196" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="X196" s="1" t="s">
         <v>53</v>
@@ -24035,11 +22937,11 @@
       <c r="AN196" s="1"/>
       <c r="AO196" s="1"/>
       <c r="AP196" s="1"/>
-      <c r="AQ196" s="1"/>
-      <c r="AR196" s="1"/>
-      <c r="AS196" s="1"/>
+      <c r="AQ196">
+        <v>1.0232758605189E-3</v>
+      </c>
     </row>
-    <row r="197" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>44370</v>
       </c>
@@ -24047,7 +22949,7 @@
         <v>1</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -24112,13 +23014,13 @@
         <v>39</v>
       </c>
       <c r="X197" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Y197" s="1" t="s">
         <v>53</v>
       </c>
       <c r="Z197" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA197" s="1" t="s">
         <v>43</v>
@@ -24146,11 +23048,11 @@
       <c r="AN197" s="1"/>
       <c r="AO197" s="1"/>
       <c r="AP197" s="1"/>
-      <c r="AQ197" s="1"/>
-      <c r="AR197" s="1"/>
-      <c r="AS197" s="1"/>
+      <c r="AQ197">
+        <v>1.9179152006979299E-3</v>
+      </c>
     </row>
-    <row r="198" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>44370</v>
       </c>
@@ -24158,7 +23060,7 @@
         <v>1</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -24227,7 +23129,7 @@
         <v>94</v>
       </c>
       <c r="Z198" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA198" s="1" t="s">
         <v>43</v>
@@ -24249,11 +23151,11 @@
       <c r="AN198" s="1"/>
       <c r="AO198" s="1"/>
       <c r="AP198" s="1"/>
-      <c r="AQ198" s="3"/>
-      <c r="AR198" s="1"/>
-      <c r="AS198" s="1"/>
+      <c r="AQ198">
+        <v>1.69216330379456E-3</v>
+      </c>
     </row>
-    <row r="199" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>44370</v>
       </c>
@@ -24261,7 +23163,7 @@
         <v>1</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D199" s="1">
         <v>3</v>
@@ -24364,11 +23266,11 @@
       <c r="AN199" s="1"/>
       <c r="AO199" s="1"/>
       <c r="AP199" s="1"/>
-      <c r="AQ199" s="3"/>
-      <c r="AR199" s="1"/>
-      <c r="AS199" s="1"/>
+      <c r="AQ199">
+        <v>6.5382424156876298E-3</v>
+      </c>
     </row>
-    <row r="200" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>44370</v>
       </c>
@@ -24376,7 +23278,7 @@
         <v>1</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
@@ -24481,11 +23383,11 @@
         <v>2</v>
       </c>
       <c r="AP200" s="1"/>
-      <c r="AQ200" s="1"/>
-      <c r="AR200" s="1"/>
-      <c r="AS200" s="1"/>
+      <c r="AQ200">
+        <v>7.4550372505249197E-3</v>
+      </c>
     </row>
-    <row r="201" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>44370</v>
       </c>
@@ -24493,7 +23395,7 @@
         <v>1</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D201" s="1">
         <v>1</v>
@@ -24602,11 +23504,11 @@
         <v>1</v>
       </c>
       <c r="AP201" s="1"/>
-      <c r="AQ201" s="1"/>
-      <c r="AR201" s="1"/>
-      <c r="AS201" s="1"/>
+      <c r="AQ201">
+        <v>7.4550372505249197E-3</v>
+      </c>
     </row>
-    <row r="202" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>44370</v>
       </c>
@@ -24614,7 +23516,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
@@ -24705,13 +23607,13 @@
       <c r="AN202" s="1"/>
       <c r="AO202" s="1"/>
       <c r="AP202" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ202" s="1"/>
-      <c r="AR202" s="1"/>
-      <c r="AS202" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="AQ202">
+        <v>5.6814835360478799E-3</v>
+      </c>
     </row>
-    <row r="203" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>44370</v>
       </c>
@@ -24719,7 +23621,7 @@
         <v>2</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D203" s="1">
         <v>2</v>
@@ -24810,13 +23712,13 @@
       <c r="AN203" s="1"/>
       <c r="AO203" s="1"/>
       <c r="AP203" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ203" s="1"/>
-      <c r="AR203" s="1"/>
-      <c r="AS203" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="AQ203">
+        <v>6.3254933531156701E-3</v>
+      </c>
     </row>
-    <row r="204" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>44370</v>
       </c>
@@ -24824,7 +23726,7 @@
         <v>2</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D204" s="1">
         <v>3</v>
@@ -24859,7 +23761,7 @@
         <v>36.867328943891401</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O204" s="1"/>
       <c r="P204" s="1" t="s">
@@ -24915,11 +23817,11 @@
       <c r="AN204" s="1"/>
       <c r="AO204" s="1"/>
       <c r="AP204" s="1"/>
-      <c r="AQ204" s="1"/>
-      <c r="AR204" s="1"/>
-      <c r="AS204" s="1"/>
+      <c r="AQ204">
+        <v>3.83587189332592E-3</v>
+      </c>
     </row>
-    <row r="205" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>44370</v>
       </c>
@@ -24927,7 +23829,7 @@
         <v>2</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D205" s="1">
         <v>3</v>
@@ -24962,7 +23864,7 @@
         <v>36.867328943891401</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O205" s="1"/>
       <c r="P205" s="1" t="s">
@@ -25018,11 +23920,11 @@
       <c r="AN205" s="1"/>
       <c r="AO205" s="1"/>
       <c r="AP205" s="1"/>
-      <c r="AQ205" s="1"/>
-      <c r="AR205" s="1"/>
-      <c r="AS205" s="1"/>
+      <c r="AQ205">
+        <v>3.83587189332592E-3</v>
+      </c>
     </row>
-    <row r="206" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>44370</v>
       </c>
@@ -25030,7 +23932,7 @@
         <v>2</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D206" s="1">
         <v>1</v>
@@ -25065,7 +23967,7 @@
         <v>36.861770685678202</v>
       </c>
       <c r="N206" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O206" s="1"/>
       <c r="P206" s="1" t="s">
@@ -25121,11 +24023,11 @@
       <c r="AN206" s="1"/>
       <c r="AO206" s="1"/>
       <c r="AP206" s="1"/>
-      <c r="AQ206" s="1"/>
-      <c r="AR206" s="1"/>
-      <c r="AS206" s="1"/>
+      <c r="AQ206">
+        <v>5.5352807772529097E-3</v>
+      </c>
     </row>
-    <row r="207" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>44370</v>
       </c>
@@ -25133,7 +24035,7 @@
         <v>2</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D207" s="1">
         <v>2</v>
@@ -25240,11 +24142,11 @@
         <v>1</v>
       </c>
       <c r="AP207" s="1"/>
-      <c r="AQ207" s="1"/>
-      <c r="AR207" s="1"/>
-      <c r="AS207" s="1"/>
+      <c r="AQ207">
+        <v>4.9084008681201403E-3</v>
+      </c>
     </row>
-    <row r="208" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>44370</v>
       </c>
@@ -25252,7 +24154,7 @@
         <v>2</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D208" s="1">
         <v>2</v>
@@ -25351,11 +24253,11 @@
       <c r="AN208" s="1"/>
       <c r="AO208" s="1"/>
       <c r="AP208" s="1"/>
-      <c r="AQ208" s="1"/>
-      <c r="AR208" s="1"/>
-      <c r="AS208" s="1"/>
+      <c r="AQ208">
+        <v>4.9084008681201403E-3</v>
+      </c>
     </row>
-    <row r="209" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>44370</v>
       </c>
@@ -25363,7 +24265,7 @@
         <v>2</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D209" s="1">
         <v>3</v>
@@ -25398,7 +24300,7 @@
         <v>36.850911146909397</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O209" s="1"/>
       <c r="P209" s="1" t="s">
@@ -25454,11 +24356,11 @@
       <c r="AN209" s="1"/>
       <c r="AO209" s="1"/>
       <c r="AP209" s="1"/>
-      <c r="AQ209" s="1"/>
-      <c r="AR209" s="1"/>
-      <c r="AS209" s="1"/>
+      <c r="AQ209">
+        <v>3.5856608724958599E-3</v>
+      </c>
     </row>
-    <row r="210" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>44370</v>
       </c>
@@ -25466,7 +24368,7 @@
         <v>2</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -25537,7 +24439,7 @@
         <v>41</v>
       </c>
       <c r="Z210" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA210" s="1" t="s">
         <v>43</v>
@@ -25569,11 +24471,11 @@
       <c r="AN210" s="1"/>
       <c r="AO210" s="1"/>
       <c r="AP210" s="1"/>
-      <c r="AQ210" s="1"/>
-      <c r="AR210" s="1"/>
-      <c r="AS210" s="1"/>
+      <c r="AQ210">
+        <v>1.33118376682719E-3</v>
+      </c>
     </row>
-    <row r="211" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>44370</v>
       </c>
@@ -25581,7 +24483,7 @@
         <v>2</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D211" s="1">
         <v>1</v>
@@ -25652,7 +24554,7 @@
         <v>41</v>
       </c>
       <c r="Z211" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA211" s="1" t="s">
         <v>43</v>
@@ -25678,11 +24580,11 @@
       <c r="AN211" s="1"/>
       <c r="AO211" s="1"/>
       <c r="AP211" s="1"/>
-      <c r="AQ211" s="1"/>
-      <c r="AR211" s="1"/>
-      <c r="AS211" s="1"/>
+      <c r="AQ211">
+        <v>1.33118376682719E-3</v>
+      </c>
     </row>
-    <row r="212" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>44370</v>
       </c>
@@ -25690,7 +24592,7 @@
         <v>2</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -25725,7 +24627,7 @@
         <v>36.846644881220399</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O212" s="1"/>
       <c r="P212" s="1" t="s">
@@ -25759,7 +24661,7 @@
         <v>41</v>
       </c>
       <c r="Z212" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA212" s="1" t="s">
         <v>43</v>
@@ -25781,11 +24683,11 @@
       <c r="AN212" s="1"/>
       <c r="AO212" s="1"/>
       <c r="AP212" s="1"/>
-      <c r="AQ212" s="1"/>
-      <c r="AR212" s="1"/>
-      <c r="AS212" s="1"/>
+      <c r="AQ212">
+        <v>1.33118376682719E-3</v>
+      </c>
     </row>
-    <row r="213" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>44370</v>
       </c>
@@ -25793,7 +24695,7 @@
         <v>2</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D213" s="1">
         <v>2</v>
@@ -25898,11 +24800,11 @@
       </c>
       <c r="AO213" s="1"/>
       <c r="AP213" s="1"/>
-      <c r="AQ213" s="1"/>
-      <c r="AR213" s="1"/>
-      <c r="AS213" s="1"/>
+      <c r="AQ213">
+        <v>2.8558279330120201E-4</v>
+      </c>
     </row>
-    <row r="214" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>44370</v>
       </c>
@@ -25910,7 +24812,7 @@
         <v>2</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D214" s="1">
         <v>3</v>
@@ -25981,7 +24883,7 @@
         <v>53</v>
       </c>
       <c r="Z214" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA214" s="1" t="s">
         <v>43</v>
@@ -26013,11 +24915,11 @@
       </c>
       <c r="AO214" s="1"/>
       <c r="AP214" s="1"/>
-      <c r="AQ214" s="1"/>
-      <c r="AR214" s="1"/>
-      <c r="AS214" s="1"/>
+      <c r="AQ214">
+        <v>2.3906864827219999E-3</v>
+      </c>
     </row>
-    <row r="215" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>44370</v>
       </c>
@@ -26025,7 +24927,7 @@
         <v>2</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D215" s="1">
         <v>3</v>
@@ -26096,7 +24998,7 @@
         <v>53</v>
       </c>
       <c r="Z215" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA215" s="1" t="s">
         <v>43</v>
@@ -26124,11 +25026,11 @@
       <c r="AN215" s="1"/>
       <c r="AO215" s="1"/>
       <c r="AP215" s="1"/>
-      <c r="AQ215" s="1"/>
-      <c r="AR215" s="1"/>
-      <c r="AS215" s="1"/>
+      <c r="AQ215">
+        <v>2.3906864827219999E-3</v>
+      </c>
     </row>
-    <row r="216" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>44370</v>
       </c>
@@ -26136,7 +25038,7 @@
         <v>2</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -26245,11 +25147,11 @@
       <c r="AN216" s="1"/>
       <c r="AO216" s="1"/>
       <c r="AP216" s="1"/>
-      <c r="AQ216" s="1"/>
-      <c r="AR216" s="1"/>
-      <c r="AS216" s="1"/>
+      <c r="AQ216">
+        <v>3.19396994679522E-3</v>
+      </c>
     </row>
-    <row r="217" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>44370</v>
       </c>
@@ -26257,7 +25159,7 @@
         <v>2</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -26354,11 +25256,11 @@
       <c r="AN217" s="1"/>
       <c r="AO217" s="1"/>
       <c r="AP217" s="1"/>
-      <c r="AQ217" s="1"/>
-      <c r="AR217" s="1"/>
-      <c r="AS217" s="1"/>
+      <c r="AQ217">
+        <v>3.19396994679522E-3</v>
+      </c>
     </row>
-    <row r="218" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>44371</v>
       </c>
@@ -26366,7 +25268,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D218" s="1">
         <v>1</v>
@@ -26434,7 +25336,7 @@
         <v>41</v>
       </c>
       <c r="Y218" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Z218" s="1" t="s">
         <v>71</v>
@@ -26471,11 +25373,11 @@
       <c r="AN218" s="1"/>
       <c r="AO218" s="1"/>
       <c r="AP218" s="1"/>
-      <c r="AQ218" s="1"/>
-      <c r="AR218" s="1"/>
-      <c r="AS218" s="1"/>
+      <c r="AQ218">
+        <v>5.23946576441109E-4</v>
+      </c>
     </row>
-    <row r="219" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>44371</v>
       </c>
@@ -26483,7 +25385,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D219" s="1">
         <v>2</v>
@@ -26554,7 +25456,7 @@
         <v>41</v>
       </c>
       <c r="Z219" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA219" s="1" t="s">
         <v>43</v>
@@ -26580,11 +25482,11 @@
       <c r="AN219" s="1"/>
       <c r="AO219" s="1"/>
       <c r="AP219" s="1"/>
-      <c r="AQ219" s="1"/>
-      <c r="AR219" s="1"/>
-      <c r="AS219" s="1"/>
+      <c r="AQ219">
+        <v>2.60886544946214E-3</v>
+      </c>
     </row>
-    <row r="220" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>44371</v>
       </c>
@@ -26592,7 +25494,7 @@
         <v>1</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D220" s="1">
         <v>3</v>
@@ -26627,7 +25529,7 @@
         <v>36.849870304645002</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O220" s="1"/>
       <c r="P220" s="1" t="s">
@@ -26658,7 +25560,7 @@
         <v>53</v>
       </c>
       <c r="Y220" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Z220" s="1" t="s">
         <v>91</v>
@@ -26683,11 +25585,11 @@
       <c r="AN220" s="1"/>
       <c r="AO220" s="1"/>
       <c r="AP220" s="1"/>
-      <c r="AQ220" s="1"/>
-      <c r="AR220" s="1"/>
-      <c r="AS220" s="1"/>
+      <c r="AQ220">
+        <v>1.3650210983416899E-3</v>
+      </c>
     </row>
-    <row r="221" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>44371</v>
       </c>
@@ -26695,7 +25597,7 @@
         <v>1</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -26757,7 +25659,7 @@
         <v>56</v>
       </c>
       <c r="W221" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="X221" s="1" t="s">
         <v>53</v>
@@ -26798,11 +25700,11 @@
       </c>
       <c r="AO221" s="1"/>
       <c r="AP221" s="1"/>
-      <c r="AQ221" s="1"/>
-      <c r="AR221" s="1"/>
-      <c r="AS221" s="1"/>
+      <c r="AQ221">
+        <v>4.8236012229870001E-4</v>
+      </c>
     </row>
-    <row r="222" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>44371</v>
       </c>
@@ -26810,7 +25712,7 @@
         <v>1</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -26872,7 +25774,7 @@
         <v>56</v>
       </c>
       <c r="W222" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="X222" s="1" t="s">
         <v>53</v>
@@ -26909,11 +25811,11 @@
       <c r="AN222" s="1"/>
       <c r="AO222" s="1"/>
       <c r="AP222" s="1"/>
-      <c r="AQ222" s="1"/>
-      <c r="AR222" s="1"/>
-      <c r="AS222" s="1"/>
+      <c r="AQ222">
+        <v>4.8236012229870001E-4</v>
+      </c>
     </row>
-    <row r="223" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>44371</v>
       </c>
@@ -26921,7 +25823,7 @@
         <v>2</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D223" s="1">
         <v>1</v>
@@ -26941,20 +25843,20 @@
       <c r="I223" s="1">
         <v>180</v>
       </c>
-      <c r="J223" s="5">
+      <c r="J223" s="4">
         <v>261290</v>
       </c>
-      <c r="K223" s="5">
+      <c r="K223" s="4">
         <v>54657</v>
       </c>
-      <c r="L223" s="5">
+      <c r="L223" s="4">
         <v>0.49144730468213099</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="4">
         <v>36.856067961452901</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O223" s="1"/>
       <c r="P223" s="1" t="s">
@@ -27010,11 +25912,11 @@
       <c r="AN223" s="1"/>
       <c r="AO223" s="1"/>
       <c r="AP223" s="1"/>
-      <c r="AQ223" s="1"/>
-      <c r="AR223" s="1"/>
-      <c r="AS223" s="1"/>
+      <c r="AQ223">
+        <v>5.8027788282598797E-3</v>
+      </c>
     </row>
-    <row r="224" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>44371</v>
       </c>
@@ -27022,7 +25924,7 @@
         <v>2</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D224" s="1">
         <v>2</v>
@@ -27042,16 +25944,16 @@
       <c r="I224" s="1">
         <v>100</v>
       </c>
-      <c r="J224" s="5">
+      <c r="J224" s="4">
         <v>260551.34669999999</v>
       </c>
-      <c r="K224" s="5">
+      <c r="K224" s="4">
         <v>55743.533130000003</v>
       </c>
-      <c r="L224" s="5">
+      <c r="L224" s="4">
         <v>0.50126839388177802</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="4">
         <v>36.849431115012401</v>
       </c>
       <c r="N224" s="1" t="s">
@@ -27119,11 +26021,11 @@
       <c r="AN224" s="1"/>
       <c r="AO224" s="1"/>
       <c r="AP224" s="1"/>
-      <c r="AQ224" s="1"/>
-      <c r="AR224" s="1"/>
-      <c r="AS224" s="1"/>
+      <c r="AQ224">
+        <v>2.1004064524951498E-3</v>
+      </c>
     </row>
-    <row r="225" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>44371</v>
       </c>
@@ -27131,7 +26033,7 @@
         <v>2</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D225" s="1">
         <v>2</v>
@@ -27151,16 +26053,16 @@
       <c r="I225" s="1">
         <v>100</v>
       </c>
-      <c r="J225" s="5">
+      <c r="J225" s="4">
         <v>260551.34669999999</v>
       </c>
-      <c r="K225" s="5">
+      <c r="K225" s="4">
         <v>55743.533130000003</v>
       </c>
-      <c r="L225" s="5">
+      <c r="L225" s="4">
         <v>0.50126839388177802</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="4">
         <v>36.849431115012401</v>
       </c>
       <c r="N225" s="1" t="s">
@@ -27226,11 +26128,11 @@
       <c r="AN225" s="1"/>
       <c r="AO225" s="1"/>
       <c r="AP225" s="1"/>
-      <c r="AQ225" s="1"/>
-      <c r="AR225" s="1"/>
-      <c r="AS225" s="1"/>
+      <c r="AQ225">
+        <v>2.1004064524951498E-3</v>
+      </c>
     </row>
-    <row r="226" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>44371</v>
       </c>
@@ -27238,7 +26140,7 @@
         <v>2</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D226" s="1">
         <v>3</v>
@@ -27258,16 +26160,16 @@
       <c r="I226" s="1">
         <v>260</v>
       </c>
-      <c r="J226" s="5">
+      <c r="J226" s="4">
         <v>259564.63810000001</v>
       </c>
-      <c r="K226" s="5">
+      <c r="K226" s="4">
         <v>55311.70678</v>
       </c>
-      <c r="L226" s="5">
+      <c r="L226" s="4">
         <v>0.49736136044550699</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="4">
         <v>36.840571053528301</v>
       </c>
       <c r="N226" s="1" t="s">
@@ -27301,7 +26203,7 @@
         <v>39</v>
       </c>
       <c r="X226" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Y226" s="1" t="s">
         <v>41</v>
@@ -27345,11 +26247,11 @@
       </c>
       <c r="AO226" s="1"/>
       <c r="AP226" s="1"/>
-      <c r="AQ226" s="1"/>
-      <c r="AR226" s="1"/>
-      <c r="AS226" s="1"/>
+      <c r="AQ226">
+        <v>3.3898219676082001E-3</v>
+      </c>
     </row>
-    <row r="227" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>44371</v>
       </c>
@@ -27357,7 +26259,7 @@
         <v>2</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D227" s="1">
         <v>1</v>
@@ -27377,16 +26279,16 @@
       <c r="I227" s="1">
         <v>100</v>
       </c>
-      <c r="J227" s="5">
+      <c r="J227" s="4">
         <v>260008.52900000001</v>
       </c>
-      <c r="K227" s="5">
+      <c r="K227" s="4">
         <v>53609.616909999997</v>
       </c>
-      <c r="L227" s="5">
+      <c r="L227" s="4">
         <v>0.48197428703385797</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="4">
         <v>36.844562444234803</v>
       </c>
       <c r="N227" s="1" t="s">
@@ -27417,13 +26319,13 @@
         <v>110</v>
       </c>
       <c r="W227" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="X227" s="1" t="s">
         <v>53</v>
       </c>
       <c r="Y227" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Z227" s="1" t="s">
         <v>39</v>
@@ -27460,11 +26362,11 @@
       </c>
       <c r="AO227" s="1"/>
       <c r="AP227" s="1"/>
-      <c r="AQ227" s="1"/>
-      <c r="AR227" s="1"/>
-      <c r="AS227" s="1"/>
+      <c r="AQ227">
+        <v>6.6279336283269798E-4</v>
+      </c>
     </row>
-    <row r="228" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>44372</v>
       </c>
@@ -27472,7 +26374,7 @@
         <v>1</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D228" s="1">
         <v>1</v>
@@ -27492,16 +26394,16 @@
       <c r="I228" s="1">
         <v>40</v>
       </c>
-      <c r="J228" s="5">
+      <c r="J228" s="4">
         <v>260886.2788</v>
       </c>
-      <c r="K228" s="5">
+      <c r="K228" s="4">
         <v>47582.604440000003</v>
       </c>
-      <c r="L228" s="5">
+      <c r="L228" s="4">
         <v>0.42748701508000803</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="4">
         <v>36.852461461533103</v>
       </c>
       <c r="N228" s="1" t="s">
@@ -27567,11 +26469,11 @@
       <c r="AN228" s="1"/>
       <c r="AO228" s="1"/>
       <c r="AP228" s="1"/>
-      <c r="AQ228" s="1"/>
-      <c r="AR228" s="1"/>
-      <c r="AS228" s="1"/>
+      <c r="AQ228">
+        <v>1.1520226932741901E-2</v>
+      </c>
     </row>
-    <row r="229" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>44372</v>
       </c>
@@ -27579,7 +26481,7 @@
         <v>1</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -27599,16 +26501,16 @@
       <c r="I229" s="1">
         <v>20</v>
       </c>
-      <c r="J229" s="5">
+      <c r="J229" s="4">
         <v>259562.62549999999</v>
       </c>
-      <c r="K229" s="5">
+      <c r="K229" s="4">
         <v>52142.657870000003</v>
       </c>
-      <c r="L229" s="5">
+      <c r="L229" s="4">
         <v>0.46871043389643402</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="4">
         <v>36.840562077758101</v>
       </c>
       <c r="N229" s="1" t="s">
@@ -27678,11 +26580,11 @@
       <c r="AN229" s="1"/>
       <c r="AO229" s="1"/>
       <c r="AP229" s="1"/>
-      <c r="AQ229" s="1"/>
-      <c r="AR229" s="1"/>
-      <c r="AS229" s="1"/>
+      <c r="AQ229">
+        <v>3.4827053764283199E-3</v>
+      </c>
     </row>
-    <row r="230" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>44372</v>
       </c>
@@ -27690,7 +26592,7 @@
         <v>1</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D230" s="1">
         <v>3</v>
@@ -27710,16 +26612,16 @@
       <c r="I230" s="1">
         <v>60</v>
       </c>
-      <c r="J230" s="5">
+      <c r="J230" s="4">
         <v>259546.17689999999</v>
       </c>
-      <c r="K230" s="5">
+      <c r="K230" s="4">
         <v>52262</v>
       </c>
-      <c r="L230" s="5">
+      <c r="L230" s="4">
         <v>0.46978934290993601</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="4">
         <v>36.8404140258748</v>
       </c>
       <c r="N230" s="1" t="s">
@@ -27753,7 +26655,7 @@
         <v>53</v>
       </c>
       <c r="X230" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Y230" s="1" t="s">
         <v>42</v>
@@ -27795,11 +26697,11 @@
       </c>
       <c r="AO230" s="1"/>
       <c r="AP230" s="1"/>
-      <c r="AQ230" s="1"/>
-      <c r="AR230" s="1"/>
-      <c r="AS230" s="1"/>
+      <c r="AQ230">
+        <v>3.4240294738921298E-3</v>
+      </c>
     </row>
-    <row r="231" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>44372</v>
       </c>
@@ -27807,7 +26709,7 @@
         <v>1</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D231" s="1">
         <v>1</v>
@@ -27827,16 +26729,16 @@
       <c r="I231" s="1">
         <v>80</v>
       </c>
-      <c r="J231" s="5">
+      <c r="J231" s="4">
         <v>260658.24040000001</v>
       </c>
-      <c r="K231" s="5">
+      <c r="K231" s="4">
         <v>52943.682410000001</v>
       </c>
-      <c r="L231" s="5">
+      <c r="L231" s="4">
         <v>0.475955496500714</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="4">
         <v>36.850399193335299</v>
       </c>
       <c r="N231" s="1" t="s">
@@ -27876,7 +26778,7 @@
         <v>40</v>
       </c>
       <c r="Z231" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AA231" s="1" t="s">
         <v>63</v>
@@ -27906,11 +26808,11 @@
       <c r="AN231" s="1"/>
       <c r="AO231" s="1"/>
       <c r="AP231" s="1"/>
-      <c r="AQ231" s="1"/>
-      <c r="AR231" s="1"/>
-      <c r="AS231" s="1"/>
+      <c r="AQ231">
+        <v>4.4723174259083201E-4</v>
+      </c>
     </row>
-    <row r="232" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>44372</v>
       </c>
@@ -27918,7 +26820,7 @@
         <v>1</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D232" s="1">
         <v>2</v>
@@ -27938,16 +26840,16 @@
       <c r="I232" s="1">
         <v>100</v>
       </c>
-      <c r="J232" s="5">
+      <c r="J232" s="4">
         <v>259835.22519999999</v>
       </c>
-      <c r="K232" s="5">
+      <c r="K232" s="4">
         <v>50185.143940000002</v>
       </c>
-      <c r="L232" s="5">
+      <c r="L232" s="4">
         <v>0.451013563439707</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="4">
         <v>36.843015545429303</v>
       </c>
       <c r="N232" s="1" t="s">
@@ -28013,11 +26915,11 @@
       <c r="AN232" s="1"/>
       <c r="AO232" s="1"/>
       <c r="AP232" s="1"/>
-      <c r="AQ232" s="1"/>
-      <c r="AR232" s="1"/>
-      <c r="AS232" s="1"/>
+      <c r="AQ232">
+        <v>1.35293369058482E-3</v>
+      </c>
     </row>
-    <row r="233" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>44372</v>
       </c>
@@ -28025,7 +26927,7 @@
         <v>1</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -28045,20 +26947,20 @@
       <c r="I233" s="1">
         <v>61</v>
       </c>
-      <c r="J233" s="5">
+      <c r="J233" s="4">
         <v>259118.462</v>
       </c>
-      <c r="K233" s="5">
+      <c r="K233" s="4">
         <v>52679.480960000001</v>
       </c>
-      <c r="L233" s="5">
+      <c r="L233" s="4">
         <v>0.473562515325192</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="4">
         <v>36.836571704450698</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O233" s="1"/>
       <c r="P233" s="1" t="s">
@@ -28092,7 +26994,7 @@
         <v>53</v>
       </c>
       <c r="Z233" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AA233" s="1" t="s">
         <v>43</v>
@@ -28114,11 +27016,11 @@
       <c r="AN233" s="1"/>
       <c r="AO233" s="1"/>
       <c r="AP233" s="1"/>
-      <c r="AQ233" s="1"/>
-      <c r="AR233" s="1"/>
-      <c r="AS233" s="1"/>
+      <c r="AQ233">
+        <v>3.5309331464311701E-3</v>
+      </c>
     </row>
-    <row r="234" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>44372</v>
       </c>
@@ -28126,7 +27028,7 @@
         <v>1</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D234" s="1">
         <v>2</v>
@@ -28146,20 +27048,20 @@
       <c r="I234" s="1">
         <v>40</v>
       </c>
-      <c r="J234" s="5">
+      <c r="J234" s="4">
         <v>259965.2139</v>
       </c>
-      <c r="K234" s="5">
+      <c r="K234" s="4">
         <v>53418.830220000003</v>
       </c>
-      <c r="L234" s="5">
+      <c r="L234" s="4">
         <v>0.48024928285921598</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="4">
         <v>36.8441739898987</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O234" s="1"/>
       <c r="P234" s="1" t="s">
@@ -28213,11 +27115,11 @@
       <c r="AN234" s="1"/>
       <c r="AO234" s="1"/>
       <c r="AP234" s="1"/>
-      <c r="AQ234" s="1"/>
-      <c r="AR234" s="1"/>
-      <c r="AS234" s="1"/>
+      <c r="AQ234" s="5">
+        <v>2.8273594346814001E-5</v>
+      </c>
     </row>
-    <row r="235" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>44372</v>
       </c>
@@ -28225,7 +27127,7 @@
         <v>1</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D235" s="1">
         <v>3</v>
@@ -28245,16 +27147,16 @@
       <c r="I235" s="1">
         <v>60</v>
       </c>
-      <c r="J235" s="5">
+      <c r="J235" s="4">
         <v>259474.83720000001</v>
       </c>
-      <c r="K235" s="5">
+      <c r="K235" s="4">
         <v>51783</v>
       </c>
-      <c r="L235" s="5">
+      <c r="L235" s="4">
         <v>0.46545857351436498</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="4">
         <v>36.839774681960201</v>
       </c>
       <c r="N235" s="1" t="s">
@@ -28273,7 +27175,7 @@
         <v>34</v>
       </c>
       <c r="S235" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="T235" s="1" t="s">
         <v>36</v>
@@ -28322,13 +27224,13 @@
       <c r="AN235" s="1"/>
       <c r="AO235" s="1"/>
       <c r="AP235" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AQ235" s="1"/>
-      <c r="AR235" s="1"/>
-      <c r="AS235" s="1"/>
+        <v>227</v>
+      </c>
+      <c r="AQ235">
+        <v>3.8925456450778599E-3</v>
+      </c>
     </row>
-    <row r="236" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>44375</v>
       </c>
@@ -28336,7 +27238,7 @@
         <v>1</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -28356,16 +27258,16 @@
       <c r="I236" s="1">
         <v>100</v>
       </c>
-      <c r="J236" s="5">
+      <c r="J236" s="4">
         <v>260751.99729999999</v>
       </c>
-      <c r="K236" s="5">
+      <c r="K236" s="4">
         <v>51877.539219999999</v>
       </c>
-      <c r="L236" s="5">
+      <c r="L236" s="4">
         <v>0.46631684498288001</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="4">
         <v>36.851244168115301</v>
       </c>
       <c r="N236" s="1" t="s">
@@ -28405,7 +27307,7 @@
         <v>53</v>
       </c>
       <c r="Z236" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA236" s="1" t="s">
         <v>63</v>
@@ -28433,11 +27335,11 @@
       <c r="AN236" s="1"/>
       <c r="AO236" s="1"/>
       <c r="AP236" s="1"/>
-      <c r="AQ236" s="1"/>
-      <c r="AR236" s="1"/>
-      <c r="AS236" s="1"/>
+      <c r="AQ236" s="5">
+        <v>9.0453093699743598E-5</v>
+      </c>
     </row>
-    <row r="237" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>44375</v>
       </c>
@@ -28445,7 +27347,7 @@
         <v>1</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D237" s="1">
         <v>2</v>
@@ -28465,16 +27367,16 @@
       <c r="I237" s="1">
         <v>140</v>
       </c>
-      <c r="J237" s="5">
+      <c r="J237" s="4">
         <v>259800.0687</v>
       </c>
-      <c r="K237" s="5">
+      <c r="K237" s="4">
         <v>51520.12427</v>
       </c>
-      <c r="L237" s="5">
+      <c r="L237" s="4">
         <v>0.46308285370499203</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="4">
         <v>36.842696193648699</v>
       </c>
       <c r="N237" s="1" t="s">
@@ -28493,7 +27395,7 @@
         <v>34</v>
       </c>
       <c r="S237" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="T237" s="1" t="s">
         <v>50</v>
@@ -28511,10 +27413,10 @@
         <v>53</v>
       </c>
       <c r="Y237" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Z237" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA237" s="1" t="s">
         <v>43</v>
@@ -28542,11 +27444,11 @@
       <c r="AN237" s="1"/>
       <c r="AO237" s="1"/>
       <c r="AP237" s="1"/>
-      <c r="AQ237" s="1"/>
-      <c r="AR237" s="1"/>
-      <c r="AS237" s="1"/>
+      <c r="AQ237">
+        <v>7.3655811886945497E-4</v>
+      </c>
     </row>
-    <row r="238" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>44375</v>
       </c>
@@ -28554,7 +27456,7 @@
         <v>1</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D238" s="1">
         <v>2</v>
@@ -28574,16 +27476,16 @@
       <c r="I238" s="1">
         <v>140</v>
       </c>
-      <c r="J238" s="5">
+      <c r="J238" s="4">
         <v>259800.0687</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="4">
         <v>51520.12427</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="4">
         <v>0.46308285370499203</v>
       </c>
-      <c r="M238" s="5">
+      <c r="M238" s="4">
         <v>36.842696193648699</v>
       </c>
       <c r="N238" s="1" t="s">
@@ -28602,7 +27504,7 @@
         <v>34</v>
       </c>
       <c r="S238" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="T238" s="1" t="s">
         <v>50</v>
@@ -28620,10 +27522,10 @@
         <v>53</v>
       </c>
       <c r="Y238" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Z238" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA238" s="1" t="s">
         <v>43</v>
@@ -28657,11 +27559,11 @@
       </c>
       <c r="AO238" s="1"/>
       <c r="AP238" s="1"/>
-      <c r="AQ238" s="1"/>
-      <c r="AR238" s="1"/>
-      <c r="AS238" s="1"/>
+      <c r="AQ238">
+        <v>7.3655811886945497E-4</v>
+      </c>
     </row>
-    <row r="239" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>44375</v>
       </c>
@@ -28669,7 +27571,7 @@
         <v>1</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D239" s="1">
         <v>3</v>
@@ -28689,16 +27591,16 @@
       <c r="I239" s="1">
         <v>60</v>
       </c>
-      <c r="J239" s="5">
+      <c r="J239" s="4">
         <v>259534.17689999999</v>
       </c>
-      <c r="K239" s="5">
+      <c r="K239" s="4">
         <v>51401</v>
       </c>
-      <c r="L239" s="5">
+      <c r="L239" s="4">
         <v>0.46200513161478501</v>
       </c>
-      <c r="M239" s="5">
+      <c r="M239" s="4">
         <v>36.840308643287997</v>
       </c>
       <c r="N239" s="1" t="s">
@@ -28709,7 +27611,7 @@
         <v>32</v>
       </c>
       <c r="Q239" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="R239" s="1" t="s">
         <v>34</v>
@@ -28736,7 +27638,7 @@
         <v>40</v>
       </c>
       <c r="Z239" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA239" s="1" t="s">
         <v>43</v>
@@ -28758,13 +27660,13 @@
       <c r="AN239" s="1"/>
       <c r="AO239" s="1"/>
       <c r="AP239" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ239" s="1"/>
-      <c r="AR239" s="1"/>
-      <c r="AS239" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="AQ239">
+        <v>2.8909652972284798E-3</v>
+      </c>
     </row>
-    <row r="240" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>44375</v>
       </c>
@@ -28772,7 +27674,7 @@
         <v>2</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D240" s="1">
         <v>1</v>
@@ -28792,16 +27694,16 @@
       <c r="I240" s="1">
         <v>220</v>
       </c>
-      <c r="J240" s="5">
+      <c r="J240" s="4">
         <v>261057.64670000001</v>
       </c>
-      <c r="K240" s="5">
+      <c r="K240" s="4">
         <v>55116.867559999999</v>
       </c>
-      <c r="L240" s="5">
+      <c r="L240" s="4">
         <v>0.495604260027873</v>
       </c>
-      <c r="M240" s="5">
+      <c r="M240" s="4">
         <v>36.853979912890303</v>
       </c>
       <c r="N240" s="1" t="s">
@@ -28820,7 +27722,7 @@
         <v>34</v>
       </c>
       <c r="S240" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T240" s="1" t="s">
         <v>50</v>
@@ -28841,7 +27743,7 @@
         <v>53</v>
       </c>
       <c r="Z240" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AA240" s="1" t="s">
         <v>43</v>
@@ -28873,11 +27775,11 @@
       <c r="AN240" s="1"/>
       <c r="AO240" s="1"/>
       <c r="AP240" s="1"/>
-      <c r="AQ240" s="1"/>
-      <c r="AR240" s="1"/>
-      <c r="AS240" s="1"/>
+      <c r="AQ240">
+        <v>5.3959671251529104E-3</v>
+      </c>
     </row>
-    <row r="241" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>44375</v>
       </c>
@@ -28885,7 +27787,7 @@
         <v>2</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -28905,16 +27807,16 @@
       <c r="I241" s="1">
         <v>60</v>
       </c>
-      <c r="J241" s="5">
+      <c r="J241" s="4">
         <v>259623.85639999999</v>
       </c>
-      <c r="K241" s="5">
+      <c r="K241" s="4">
         <v>54965</v>
       </c>
-      <c r="L241" s="5">
+      <c r="L241" s="4">
         <v>0.49422700888917898</v>
       </c>
-      <c r="M241" s="5">
+      <c r="M241" s="4">
         <v>36.841103895398803</v>
       </c>
       <c r="N241" s="1" t="s">
@@ -28974,13 +27876,13 @@
       <c r="AN241" s="1"/>
       <c r="AO241" s="1"/>
       <c r="AP241" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AQ241" s="1"/>
-      <c r="AR241" s="1"/>
-      <c r="AS241" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="AQ241">
+        <v>2.0921546127009001E-3</v>
+      </c>
     </row>
-    <row r="242" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>44376</v>
       </c>
@@ -28988,7 +27890,7 @@
         <v>1</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D242" s="1">
         <v>1</v>
@@ -29008,20 +27910,20 @@
       <c r="I242" s="1">
         <v>120</v>
       </c>
-      <c r="J242" s="5">
+      <c r="J242" s="4">
         <v>259842.7942</v>
       </c>
-      <c r="K242" s="5">
+      <c r="K242" s="4">
         <v>49952.5</v>
       </c>
-      <c r="L242" s="5">
+      <c r="L242" s="4">
         <v>0.44891027941203199</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="4">
         <v>36.8430841415733</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O242" s="1"/>
       <c r="P242" s="1" t="s">
@@ -29073,13 +27975,13 @@
       <c r="AN242" s="1"/>
       <c r="AO242" s="1"/>
       <c r="AP242" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AQ242" s="1"/>
-      <c r="AR242" s="1"/>
-      <c r="AS242" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="AQ242">
+        <v>1.99474245242726E-3</v>
+      </c>
     </row>
-    <row r="243" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>44376</v>
       </c>
@@ -29087,7 +27989,7 @@
         <v>1</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D243" s="1">
         <v>2</v>
@@ -29107,20 +28009,20 @@
       <c r="I243" s="1">
         <v>60</v>
       </c>
-      <c r="J243" s="5">
+      <c r="J243" s="4">
         <v>259546.46410000001</v>
       </c>
-      <c r="K243" s="5">
+      <c r="K243" s="4">
         <v>50406</v>
       </c>
-      <c r="L243" s="5">
+      <c r="L243" s="4">
         <v>0.45300951243110199</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="4">
         <v>36.840421696878501</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O243" s="1"/>
       <c r="P243" s="1" t="s">
@@ -29176,13 +28078,13 @@
       <c r="AN243" s="1"/>
       <c r="AO243" s="1"/>
       <c r="AP243" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ243" s="1"/>
-      <c r="AR243" s="1"/>
-      <c r="AS243" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="AQ243">
+        <v>1.7460273973090999E-3</v>
+      </c>
     </row>
-    <row r="244" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>44376</v>
       </c>
@@ -29190,7 +28092,7 @@
         <v>1</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D244" s="1">
         <v>3</v>
@@ -29210,20 +28112,20 @@
       <c r="I244" s="1">
         <v>140</v>
       </c>
-      <c r="J244" s="5">
+      <c r="J244" s="4">
         <v>259557.42790000001</v>
       </c>
-      <c r="K244" s="5">
+      <c r="K244" s="4">
         <v>51398.33956</v>
       </c>
-      <c r="L244" s="5">
+      <c r="L244" s="4">
         <v>0.46198114325353501</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="4">
         <v>36.840517459226298</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O244" s="1"/>
       <c r="P244" s="1" t="s">
@@ -29236,7 +28138,7 @@
         <v>34</v>
       </c>
       <c r="S244" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T244" s="1" t="s">
         <v>50</v>
@@ -29257,7 +28159,7 @@
         <v>39</v>
       </c>
       <c r="Z244" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
@@ -29277,13 +28179,13 @@
       <c r="AN244" s="1"/>
       <c r="AO244" s="1"/>
       <c r="AP244" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AQ244" s="1"/>
-      <c r="AR244" s="1"/>
-      <c r="AS244" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="AQ244">
+        <v>2.6815606967218299E-3</v>
+      </c>
     </row>
-    <row r="245" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>44376</v>
       </c>
@@ -29291,7 +28193,7 @@
         <v>1</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D245" s="1">
         <v>1</v>
@@ -29311,16 +28213,16 @@
       <c r="I245" s="1">
         <v>40</v>
       </c>
-      <c r="J245" s="5">
+      <c r="J245" s="4">
         <v>259481.06770000001</v>
       </c>
-      <c r="K245" s="5">
+      <c r="K245" s="4">
         <v>52028.600359999997</v>
       </c>
-      <c r="L245" s="5">
+      <c r="L245" s="4">
         <v>0.46767902781370702</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="4">
         <v>36.839829954308101</v>
       </c>
       <c r="N245" s="1" t="s">
@@ -29394,11 +28296,11 @@
       <c r="AN245" s="1"/>
       <c r="AO245" s="1"/>
       <c r="AP245" s="1"/>
-      <c r="AQ245" s="1"/>
-      <c r="AR245" s="1"/>
-      <c r="AS245" s="1"/>
+      <c r="AQ245">
+        <v>3.97252563212232E-3</v>
+      </c>
     </row>
-    <row r="246" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>44376</v>
       </c>
@@ -29406,7 +28308,7 @@
         <v>1</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D246" s="1">
         <v>2</v>
@@ -29426,16 +28328,16 @@
       <c r="I246" s="1">
         <v>100</v>
       </c>
-      <c r="J246" s="5">
+      <c r="J246" s="4">
         <v>259628.22519999999</v>
       </c>
-      <c r="K246" s="5">
+      <c r="K246" s="4">
         <v>52973.143940000002</v>
       </c>
-      <c r="L246" s="5">
+      <c r="L246" s="4">
         <v>0.47621892746592898</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="4">
         <v>36.841148873235198</v>
       </c>
       <c r="N246" s="1" t="s">
@@ -29473,7 +28375,7 @@
         <v>40</v>
       </c>
       <c r="Z246" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AA246" s="1" t="s">
         <v>43</v>
@@ -29509,11 +28411,11 @@
       <c r="AN246" s="1"/>
       <c r="AO246" s="1"/>
       <c r="AP246" s="1"/>
-      <c r="AQ246" s="1"/>
-      <c r="AR246" s="1"/>
-      <c r="AS246" s="1"/>
+      <c r="AQ246">
+        <v>3.0929121646491699E-3</v>
+      </c>
     </row>
-    <row r="247" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>44376</v>
       </c>
@@ -29521,7 +28423,7 @@
         <v>1</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D247" s="1">
         <v>2</v>
@@ -29541,16 +28443,16 @@
       <c r="I247" s="1">
         <v>100</v>
       </c>
-      <c r="J247" s="5">
+      <c r="J247" s="4">
         <v>259628.22519999999</v>
       </c>
-      <c r="K247" s="5">
+      <c r="K247" s="4">
         <v>52973.143940000002</v>
       </c>
-      <c r="L247" s="5">
+      <c r="L247" s="4">
         <v>0.47621892746592898</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="4">
         <v>36.841148873235198</v>
       </c>
       <c r="N247" s="1" t="s">
@@ -29588,7 +28490,7 @@
         <v>40</v>
       </c>
       <c r="Z247" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AA247" s="1" t="s">
         <v>43</v>
@@ -29618,11 +28520,11 @@
       <c r="AN247" s="1"/>
       <c r="AO247" s="1"/>
       <c r="AP247" s="1"/>
-      <c r="AQ247" s="1"/>
-      <c r="AR247" s="1"/>
-      <c r="AS247" s="1"/>
+      <c r="AQ247">
+        <v>3.0929121646491699E-3</v>
+      </c>
     </row>
-    <row r="248" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>44376</v>
       </c>
@@ -29630,7 +28532,7 @@
         <v>1</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D248" s="1">
         <v>3</v>
@@ -29650,16 +28552,16 @@
       <c r="I248" s="1">
         <v>140</v>
       </c>
-      <c r="J248" s="5">
+      <c r="J248" s="4">
         <v>259515.0687</v>
       </c>
-      <c r="K248" s="5">
+      <c r="K248" s="4">
         <v>53630.12427</v>
       </c>
-      <c r="L248" s="5">
+      <c r="L248" s="4">
         <v>0.482158269118039</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="4">
         <v>36.840130782647698</v>
       </c>
       <c r="N248" s="1" t="s">
@@ -29699,7 +28601,7 @@
         <v>42</v>
       </c>
       <c r="Z248" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AA248" s="1"/>
       <c r="AB248" s="1">
@@ -29727,11 +28629,11 @@
       <c r="AN248" s="1"/>
       <c r="AO248" s="1"/>
       <c r="AP248" s="1"/>
-      <c r="AQ248" s="1"/>
-      <c r="AR248" s="1"/>
-      <c r="AS248" s="1"/>
+      <c r="AQ248">
+        <v>4.1825024187156602E-4</v>
+      </c>
     </row>
-    <row r="249" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>44376</v>
       </c>
@@ -29739,7 +28641,7 @@
         <v>1</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D249" s="1">
         <v>1</v>
@@ -29759,16 +28661,16 @@
       <c r="I249" s="1">
         <v>240</v>
       </c>
-      <c r="J249" s="5">
+      <c r="J249" s="4">
         <v>258186.48329999999</v>
       </c>
-      <c r="K249" s="5">
+      <c r="K249" s="4">
         <v>51748</v>
       </c>
-      <c r="L249" s="5">
+      <c r="L249" s="4">
         <v>0.465138546098671</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="4">
         <v>36.828204593214799</v>
       </c>
       <c r="N249" s="1" t="s">
@@ -29800,7 +28702,7 @@
         <v>40</v>
       </c>
       <c r="X249" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Y249" s="1" t="s">
         <v>39</v>
@@ -29828,13 +28730,13 @@
       <c r="AN249" s="1"/>
       <c r="AO249" s="1"/>
       <c r="AP249" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AQ249" s="1"/>
-      <c r="AR249" s="1"/>
-      <c r="AS249" s="1"/>
+        <v>242</v>
+      </c>
+      <c r="AQ249">
+        <v>5.9028639566072504E-3</v>
+      </c>
     </row>
-    <row r="250" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>44376</v>
       </c>
@@ -29842,7 +28744,7 @@
         <v>1</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D250" s="1">
         <v>2</v>
@@ -29862,16 +28764,16 @@
       <c r="I250" s="1">
         <v>320</v>
       </c>
-      <c r="J250" s="5">
+      <c r="J250" s="4">
         <v>260548.2885</v>
       </c>
-      <c r="K250" s="5">
+      <c r="K250" s="4">
         <v>48952.641779999998</v>
       </c>
-      <c r="L250" s="5">
+      <c r="L250" s="4">
         <v>0.439872540637748</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="4">
         <v>36.8494225693874</v>
       </c>
       <c r="N250" s="1" t="s">
@@ -29943,9 +28845,9 @@
       <c r="AN250" s="1"/>
       <c r="AO250" s="1"/>
       <c r="AP250" s="1"/>
-      <c r="AQ250" s="1"/>
-      <c r="AR250" s="1"/>
-      <c r="AS250" s="1"/>
+      <c r="AQ250">
+        <v>5.87883856995441E-3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/MasterRawWhitesheets.xlsx
+++ b/MasterRawWhitesheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxgotts/Desktop/MPALA/Whitesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4714E3-395B-AF4C-ADE1-7CF4295A58B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9D3E5A-5340-2C4A-9D6A-7C15EA64DFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{36B2ED0A-F989-D041-BB6A-DE14AE9EF1AD}"/>
+    <workbookView xWindow="5520" yWindow="22200" windowWidth="28800" windowHeight="17540" xr2:uid="{36B2ED0A-F989-D041-BB6A-DE14AE9EF1AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6278" uniqueCount="376">
   <si>
     <t>Date</t>
   </si>
@@ -1061,12 +1061,114 @@
   <si>
     <t>Opposite Tower Area</t>
   </si>
+  <si>
+    <t>DSCN4635</t>
+  </si>
+  <si>
+    <t>Ek</t>
+  </si>
+  <si>
+    <t>Olmotiok</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>DSCN4636</t>
+  </si>
+  <si>
+    <t>DSCN4637</t>
+  </si>
+  <si>
+    <t>DSCN4638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t>Calves, Olmotiok</t>
+  </si>
+  <si>
+    <t>DSCN4639</t>
+  </si>
+  <si>
+    <t>Cyp.teneristelon</t>
+  </si>
+  <si>
+    <t>DSCN4640</t>
+  </si>
+  <si>
+    <t>DSCN4641</t>
+  </si>
+  <si>
+    <t>Chl.rox</t>
+  </si>
+  <si>
+    <t>Off Loop</t>
+  </si>
+  <si>
+    <t>DSCN4642</t>
+  </si>
+  <si>
+    <t>Dam Nyeusi, mud along belly and chest, very little water in dam, Mukenye area, walking west Loler adam or Ivan Property</t>
+  </si>
+  <si>
+    <t>DSCN4685</t>
+  </si>
+  <si>
+    <t>DSCN4689</t>
+  </si>
+  <si>
+    <t>Jackal</t>
+  </si>
+  <si>
+    <t>DSCN4692</t>
+  </si>
+  <si>
+    <t>Boundary Area 243</t>
+  </si>
+  <si>
+    <t>DSCN4693</t>
+  </si>
+  <si>
+    <t>DSCN4694</t>
+  </si>
+  <si>
+    <t>Gwaso Marok River, vigilant</t>
+  </si>
+  <si>
+    <t>DSCN4695</t>
+  </si>
+  <si>
+    <t>DSCN4696</t>
+  </si>
+  <si>
+    <t>Ewaso Nyino River, Calves</t>
+  </si>
+  <si>
+    <t>DSCN4698</t>
+  </si>
+  <si>
+    <t>Uhur-Nwth Exclosure</t>
+  </si>
+  <si>
+    <t>DSCN4699</t>
+  </si>
+  <si>
+    <t>DSCN4700</t>
+  </si>
+  <si>
+    <t>DSCN4701</t>
+  </si>
+  <si>
+    <t>Opposite Tower Area, vigilant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1076,6 +1178,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1101,13 +1210,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A334BBC-0BE1-1D4B-AB5E-CA1B598930C6}">
   <dimension ref="A1:AR1048560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P367" zoomScale="113" workbookViewId="0">
-      <selection activeCell="Z397" sqref="Z397"/>
+    <sheetView tabSelected="1" topLeftCell="A414" zoomScale="113" workbookViewId="0">
+      <selection activeCell="Q421" sqref="Q421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38278,11 +38388,11 @@
         <v>280</v>
       </c>
       <c r="J350" s="1">
-        <f t="shared" ref="J350:J397" si="9">F350+H350*SIN(I350*PI()/180)</f>
+        <f t="shared" ref="J350:J399" si="9">F350+H350*SIN(I350*PI()/180)</f>
         <v>260233.16711471687</v>
       </c>
       <c r="K350" s="1">
-        <f t="shared" ref="K350:K397" si="10">G350+H350*COS(I350*PI()/180)</f>
+        <f t="shared" ref="K350:K399" si="10">G350+H350*COS(I350*PI()/180)</f>
         <v>53324.910129954333</v>
       </c>
       <c r="L350">
@@ -41761,7 +41871,7 @@
         <v>198</v>
       </c>
       <c r="AP387" s="1" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="AQ387" s="1">
         <v>1.3943550180421701E-3</v>
@@ -42703,6 +42813,5584 @@
       <c r="AQ397" s="1">
         <v>4.0326898686887103E-3</v>
       </c>
+    </row>
+    <row r="398" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A398" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B398" s="1">
+        <v>3</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D398" s="1">
+        <v>1</v>
+      </c>
+      <c r="E398" s="1">
+        <v>936</v>
+      </c>
+      <c r="F398" s="1">
+        <v>261286</v>
+      </c>
+      <c r="G398" s="1">
+        <v>54886</v>
+      </c>
+      <c r="H398" s="1">
+        <v>100</v>
+      </c>
+      <c r="I398" s="1">
+        <v>280</v>
+      </c>
+      <c r="J398" s="1">
+        <f t="shared" si="9"/>
+        <v>261187.51922469877</v>
+      </c>
+      <c r="K398" s="1">
+        <f t="shared" si="10"/>
+        <v>54903.364817766691</v>
+      </c>
+      <c r="L398">
+        <v>0.49367437616358201</v>
+      </c>
+      <c r="M398">
+        <v>36.855146889784201</v>
+      </c>
+      <c r="N398" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="P398" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q398" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R398" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S398" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T398" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U398" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V398" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W398" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X398" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y398" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z398" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA398" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD398" s="1">
+        <v>80</v>
+      </c>
+      <c r="AQ398">
+        <v>5.9396782624536902E-3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A399" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B399" s="1">
+        <v>3</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D399" s="1">
+        <v>2</v>
+      </c>
+      <c r="E399" s="1">
+        <v>940</v>
+      </c>
+      <c r="F399" s="1">
+        <v>261435</v>
+      </c>
+      <c r="G399" s="1">
+        <v>55194</v>
+      </c>
+      <c r="H399" s="1">
+        <v>96</v>
+      </c>
+      <c r="I399" s="1">
+        <v>300</v>
+      </c>
+      <c r="J399" s="1">
+        <f t="shared" si="9"/>
+        <v>261351.8615612367</v>
+      </c>
+      <c r="K399" s="1">
+        <f t="shared" si="10"/>
+        <v>55242</v>
+      </c>
+      <c r="L399">
+        <v>0.49673644303269399</v>
+      </c>
+      <c r="M399">
+        <v>36.856621820750398</v>
+      </c>
+      <c r="N399" t="s">
+        <v>258</v>
+      </c>
+      <c r="P399" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q399" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R399" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S399" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T399" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U399" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V399" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W399" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X399" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y399" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z399" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA399" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD399" s="1">
+        <v>120</v>
+      </c>
+      <c r="AP399" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ399">
+        <v>2.6576292075156998E-3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A400" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B400" s="1">
+        <v>3</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D400" s="1">
+        <v>2</v>
+      </c>
+      <c r="E400" s="1">
+        <v>940</v>
+      </c>
+      <c r="F400" s="1">
+        <v>261435</v>
+      </c>
+      <c r="G400" s="1">
+        <v>55194</v>
+      </c>
+      <c r="H400" s="1">
+        <v>96</v>
+      </c>
+      <c r="I400" s="1">
+        <v>300</v>
+      </c>
+      <c r="J400" s="1">
+        <f t="shared" ref="J400:J410" si="11">F400+H400*SIN(I400*PI()/180)</f>
+        <v>261351.8615612367</v>
+      </c>
+      <c r="K400" s="1">
+        <f t="shared" ref="K400:K410" si="12">G400+H400*COS(I400*PI()/180)</f>
+        <v>55242</v>
+      </c>
+      <c r="L400">
+        <v>0.49673644303269399</v>
+      </c>
+      <c r="M400">
+        <v>36.856621820750398</v>
+      </c>
+      <c r="N400" t="s">
+        <v>249</v>
+      </c>
+      <c r="P400" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q400" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R400" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S400" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T400" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U400" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V400" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W400" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X400" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y400" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z400" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA400" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD400" s="1">
+        <v>100</v>
+      </c>
+      <c r="AP400" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ400">
+        <v>2.6576292075156998E-3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A401" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B401" s="1">
+        <v>3</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D401" s="1">
+        <v>3</v>
+      </c>
+      <c r="E401" s="1">
+        <v>944</v>
+      </c>
+      <c r="F401" s="1">
+        <v>261598</v>
+      </c>
+      <c r="G401" s="1">
+        <v>55522</v>
+      </c>
+      <c r="H401" s="1">
+        <v>12</v>
+      </c>
+      <c r="I401" s="1">
+        <v>210</v>
+      </c>
+      <c r="J401" s="1">
+        <f t="shared" si="11"/>
+        <v>261592</v>
+      </c>
+      <c r="K401" s="1">
+        <f t="shared" si="12"/>
+        <v>55511.607695154584</v>
+      </c>
+      <c r="L401">
+        <v>0.49917466514186498</v>
+      </c>
+      <c r="M401">
+        <v>36.8587776593019</v>
+      </c>
+      <c r="N401" t="s">
+        <v>258</v>
+      </c>
+      <c r="P401" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q401" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R401" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S401" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="T401" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U401" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V401" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W401" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X401" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y401" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z401" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA401" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD401" s="1">
+        <v>300</v>
+      </c>
+      <c r="AP401" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ401">
+        <v>1.8842766310882199E-4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A402" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B402" s="1">
+        <v>3</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D402" s="1">
+        <v>1</v>
+      </c>
+      <c r="E402" s="1">
+        <v>955</v>
+      </c>
+      <c r="F402" s="1">
+        <v>261931</v>
+      </c>
+      <c r="G402" s="1">
+        <v>57851</v>
+      </c>
+      <c r="H402" s="1">
+        <v>14</v>
+      </c>
+      <c r="I402" s="1">
+        <v>200</v>
+      </c>
+      <c r="J402" s="1">
+        <f t="shared" si="11"/>
+        <v>261926.21171799343</v>
+      </c>
+      <c r="K402" s="1">
+        <f t="shared" si="12"/>
+        <v>57837.844303309001</v>
+      </c>
+      <c r="L402">
+        <v>0.52020712144356496</v>
+      </c>
+      <c r="M402">
+        <v>36.861772170346804</v>
+      </c>
+      <c r="N402" t="s">
+        <v>31</v>
+      </c>
+      <c r="O402">
+        <v>0</v>
+      </c>
+      <c r="P402" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q402" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R402" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S402" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T402" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U402" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V402" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W402" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X402" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y402" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z402" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA402" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB402">
+        <v>4564</v>
+      </c>
+      <c r="AC402">
+        <v>4607</v>
+      </c>
+      <c r="AD402" s="1">
+        <v>14</v>
+      </c>
+      <c r="AE402" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG402">
+        <v>5</v>
+      </c>
+      <c r="AH402">
+        <v>5</v>
+      </c>
+      <c r="AL402">
+        <v>2</v>
+      </c>
+      <c r="AO402">
+        <v>2</v>
+      </c>
+      <c r="AP402" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ402">
+        <v>4.0121929681336196E-3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A403" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B403" s="1">
+        <v>3</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D403" s="1">
+        <v>2</v>
+      </c>
+      <c r="E403" s="1">
+        <v>1001</v>
+      </c>
+      <c r="F403" s="1">
+        <v>262465</v>
+      </c>
+      <c r="G403" s="1">
+        <v>57763</v>
+      </c>
+      <c r="H403" s="1">
+        <v>35</v>
+      </c>
+      <c r="I403" s="1">
+        <v>160</v>
+      </c>
+      <c r="J403" s="1">
+        <f t="shared" si="11"/>
+        <v>262476.9707050164</v>
+      </c>
+      <c r="K403" s="1">
+        <f t="shared" si="12"/>
+        <v>57730.110758272494</v>
+      </c>
+      <c r="L403">
+        <v>0.51923479605710199</v>
+      </c>
+      <c r="M403">
+        <v>36.866718782557101</v>
+      </c>
+      <c r="N403" t="s">
+        <v>258</v>
+      </c>
+      <c r="P403" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q403" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R403" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S403" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="T403" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U403" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V403" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W403" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X403" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y403" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z403" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA403" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD403" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ403">
+        <v>2.9105063442837599E-4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A404" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B404" s="1">
+        <v>3</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D404" s="1">
+        <v>3</v>
+      </c>
+      <c r="E404" s="1">
+        <v>1005</v>
+      </c>
+      <c r="F404" s="1">
+        <v>262444</v>
+      </c>
+      <c r="G404" s="1">
+        <v>56957</v>
+      </c>
+      <c r="H404" s="1">
+        <v>13</v>
+      </c>
+      <c r="I404" s="1">
+        <v>220</v>
+      </c>
+      <c r="J404" s="1">
+        <f t="shared" si="11"/>
+        <v>262435.64376107405</v>
+      </c>
+      <c r="K404" s="1">
+        <f t="shared" si="12"/>
+        <v>56947.041422239454</v>
+      </c>
+      <c r="L404">
+        <v>0.51215493094116205</v>
+      </c>
+      <c r="M404">
+        <v>36.866350002217402</v>
+      </c>
+      <c r="N404" t="s">
+        <v>249</v>
+      </c>
+      <c r="P404" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q404" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R404" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S404" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="T404" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U404" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V404" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W404" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X404" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y404" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z404" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA404" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD404" s="1">
+        <v>250</v>
+      </c>
+      <c r="AQ404">
+        <v>7.0191367322090597E-4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A405" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B405" s="1">
+        <v>3</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D405" s="1">
+        <v>1</v>
+      </c>
+      <c r="E405" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F405" s="1">
+        <v>262630</v>
+      </c>
+      <c r="G405" s="1">
+        <v>55702</v>
+      </c>
+      <c r="H405" s="1">
+        <v>32</v>
+      </c>
+      <c r="I405" s="1">
+        <v>80</v>
+      </c>
+      <c r="J405" s="1">
+        <f t="shared" si="11"/>
+        <v>262661.51384809637</v>
+      </c>
+      <c r="K405" s="1">
+        <f t="shared" si="12"/>
+        <v>55707.556741685345</v>
+      </c>
+      <c r="L405">
+        <v>0.50094940491485396</v>
+      </c>
+      <c r="M405">
+        <v>36.868382191187699</v>
+      </c>
+      <c r="N405" t="s">
+        <v>260</v>
+      </c>
+      <c r="P405" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q405" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R405" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S405" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T405" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U405" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V405" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W405" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X405" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y405" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z405" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA405" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD405" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ405">
+        <v>7.0268863510182097E-3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A406" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B406" s="1">
+        <v>4</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D406" s="1">
+        <v>1</v>
+      </c>
+      <c r="E406" s="1">
+        <v>1025</v>
+      </c>
+      <c r="F406" s="1">
+        <v>263042</v>
+      </c>
+      <c r="G406" s="1">
+        <v>54886</v>
+      </c>
+      <c r="H406" s="1">
+        <v>32</v>
+      </c>
+      <c r="I406" s="1">
+        <v>260</v>
+      </c>
+      <c r="J406" s="1">
+        <f t="shared" si="11"/>
+        <v>263010.48615190363</v>
+      </c>
+      <c r="K406" s="1">
+        <f t="shared" si="12"/>
+        <v>54880.443258314655</v>
+      </c>
+      <c r="L406">
+        <v>0.493472469111497</v>
+      </c>
+      <c r="M406">
+        <v>36.871518671064102</v>
+      </c>
+      <c r="N406" t="s">
+        <v>44</v>
+      </c>
+      <c r="O406">
+        <v>0</v>
+      </c>
+      <c r="P406" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q406" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R406" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S406" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T406" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U406" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V406" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="W406" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X406" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y406" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z406" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA406" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB406">
+        <v>4608</v>
+      </c>
+      <c r="AC406">
+        <v>4622</v>
+      </c>
+      <c r="AD406" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG406">
+        <v>1</v>
+      </c>
+      <c r="AQ406" s="4">
+        <v>1.1090460228145299E-5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A407" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B407" s="1">
+        <v>4</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D407" s="1">
+        <v>2</v>
+      </c>
+      <c r="E407" s="1">
+        <v>1030</v>
+      </c>
+      <c r="F407" s="1">
+        <v>263671</v>
+      </c>
+      <c r="G407" s="1">
+        <v>54729</v>
+      </c>
+      <c r="H407" s="1">
+        <v>13</v>
+      </c>
+      <c r="I407" s="1">
+        <v>160</v>
+      </c>
+      <c r="J407" s="1">
+        <f t="shared" si="11"/>
+        <v>263675.44626186322</v>
+      </c>
+      <c r="K407" s="1">
+        <f t="shared" si="12"/>
+        <v>54716.783995929785</v>
+      </c>
+      <c r="L407">
+        <v>0.491994745579376</v>
+      </c>
+      <c r="M407">
+        <v>36.8774910639995</v>
+      </c>
+      <c r="N407" t="s">
+        <v>260</v>
+      </c>
+      <c r="P407" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q407" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R407" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S407" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T407" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U407" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V407" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W407" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X407" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y407" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z407" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA407" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD407" s="1">
+        <v>60</v>
+      </c>
+      <c r="AQ407">
+        <v>1.52416076709973E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A408" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B408" s="1">
+        <v>4</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D408" s="1">
+        <v>3</v>
+      </c>
+      <c r="E408" s="1">
+        <v>1034</v>
+      </c>
+      <c r="F408" s="1">
+        <v>263838</v>
+      </c>
+      <c r="G408" s="1">
+        <v>54540</v>
+      </c>
+      <c r="H408" s="1">
+        <v>17</v>
+      </c>
+      <c r="I408" s="1">
+        <v>280</v>
+      </c>
+      <c r="J408" s="1">
+        <f t="shared" si="11"/>
+        <v>263821.25826819881</v>
+      </c>
+      <c r="K408" s="1">
+        <f t="shared" si="12"/>
+        <v>54542.95201902034</v>
+      </c>
+      <c r="L408">
+        <v>0.49042353767859298</v>
+      </c>
+      <c r="M408">
+        <v>36.878801084303099</v>
+      </c>
+      <c r="N408" t="s">
+        <v>258</v>
+      </c>
+      <c r="P408" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q408" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S408" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T408" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U408" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V408" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W408" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X408" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y408" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z408" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA408" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD408" s="1">
+        <v>12</v>
+      </c>
+      <c r="AP408" t="s">
+        <v>350</v>
+      </c>
+      <c r="AQ408">
+        <v>3.03814537845839E-3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A409" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B409" s="1">
+        <v>4</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D409" s="1">
+        <v>1</v>
+      </c>
+      <c r="E409" s="1">
+        <v>1038</v>
+      </c>
+      <c r="F409" s="1">
+        <v>263980</v>
+      </c>
+      <c r="G409" s="1">
+        <v>54066</v>
+      </c>
+      <c r="H409" s="1">
+        <v>41</v>
+      </c>
+      <c r="I409" s="1">
+        <v>140</v>
+      </c>
+      <c r="J409" s="1">
+        <f t="shared" si="11"/>
+        <v>264006.35429199715</v>
+      </c>
+      <c r="K409" s="1">
+        <f t="shared" si="12"/>
+        <v>54034.592177832121</v>
+      </c>
+      <c r="L409">
+        <v>0.48582794160450399</v>
+      </c>
+      <c r="M409">
+        <v>36.880464860287098</v>
+      </c>
+      <c r="N409" t="s">
+        <v>249</v>
+      </c>
+      <c r="P409" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q409" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R409" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S409" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="T409" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U409" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V409" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W409" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X409" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y409" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z409" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA409" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD409" s="1">
+        <v>80</v>
+      </c>
+      <c r="AP409" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ409">
+        <v>5.9130883875464302E-3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A410" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B410" s="1">
+        <v>4</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D410" s="1">
+        <v>2</v>
+      </c>
+      <c r="E410" s="1">
+        <v>1041</v>
+      </c>
+      <c r="F410" s="1">
+        <v>264017</v>
+      </c>
+      <c r="G410" s="1">
+        <v>53639</v>
+      </c>
+      <c r="H410" s="1">
+        <v>50</v>
+      </c>
+      <c r="I410" s="1">
+        <v>40</v>
+      </c>
+      <c r="J410" s="1">
+        <f t="shared" si="11"/>
+        <v>264049.13938048435</v>
+      </c>
+      <c r="K410" s="1">
+        <f t="shared" si="12"/>
+        <v>53677.302222155951</v>
+      </c>
+      <c r="L410">
+        <v>0.48259777052072</v>
+      </c>
+      <c r="M410">
+        <v>36.8808501180485</v>
+      </c>
+      <c r="N410" t="s">
+        <v>258</v>
+      </c>
+      <c r="P410" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q410" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R410" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S410" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T410" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U410" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V410" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W410" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X410" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y410" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z410" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA410" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD410" s="1">
+        <v>14</v>
+      </c>
+      <c r="AP410" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ410">
+        <v>4.6952153647213599E-3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A411" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B411" s="1">
+        <v>4</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D411" s="1">
+        <v>2</v>
+      </c>
+      <c r="E411" s="1">
+        <v>1041</v>
+      </c>
+      <c r="F411" s="1">
+        <v>264017</v>
+      </c>
+      <c r="G411" s="1">
+        <v>53639</v>
+      </c>
+      <c r="H411" s="1">
+        <v>50</v>
+      </c>
+      <c r="I411" s="1">
+        <v>40</v>
+      </c>
+      <c r="J411" s="1">
+        <f t="shared" ref="J411:J413" si="13">F411+H411*SIN(I411*PI()/180)</f>
+        <v>264049.13938048435</v>
+      </c>
+      <c r="K411" s="1">
+        <f t="shared" ref="K411:K413" si="14">G411+H411*COS(I411*PI()/180)</f>
+        <v>53677.302222155951</v>
+      </c>
+      <c r="L411">
+        <v>0.48259777052072</v>
+      </c>
+      <c r="M411">
+        <v>36.8808501180485</v>
+      </c>
+      <c r="N411" t="s">
+        <v>249</v>
+      </c>
+      <c r="P411" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q411" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R411" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S411" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T411" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U411" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V411" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W411" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X411" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y411" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z411" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA411" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB411" s="1"/>
+      <c r="AC411" s="1"/>
+      <c r="AD411" s="1">
+        <v>50</v>
+      </c>
+      <c r="AP411" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ411">
+        <v>4.6952153647213599E-3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A412" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B412" s="1">
+        <v>4</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D412" s="1">
+        <v>3</v>
+      </c>
+      <c r="E412" s="1">
+        <v>1057</v>
+      </c>
+      <c r="F412" s="1">
+        <v>263750</v>
+      </c>
+      <c r="G412" s="1">
+        <v>53355</v>
+      </c>
+      <c r="H412" s="1">
+        <v>15</v>
+      </c>
+      <c r="I412" s="1">
+        <v>20</v>
+      </c>
+      <c r="J412" s="1">
+        <f t="shared" si="13"/>
+        <v>263755.13030214986</v>
+      </c>
+      <c r="K412" s="1">
+        <f t="shared" si="14"/>
+        <v>53369.095389311791</v>
+      </c>
+      <c r="L412">
+        <v>0.47981041375741001</v>
+      </c>
+      <c r="M412">
+        <v>36.878210521633399</v>
+      </c>
+      <c r="N412" t="s">
+        <v>249</v>
+      </c>
+      <c r="P412" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q412" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R412" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S412" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T412" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U412" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V412" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W412" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X412" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y412" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z412" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD412">
+        <v>70</v>
+      </c>
+      <c r="AP412" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ412">
+        <v>2.65710492280924E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A413" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B413" s="1">
+        <v>4</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D413" s="1">
+        <v>1</v>
+      </c>
+      <c r="E413" s="1">
+        <v>1101</v>
+      </c>
+      <c r="F413" s="1">
+        <v>263846</v>
+      </c>
+      <c r="G413" s="1">
+        <v>53258</v>
+      </c>
+      <c r="H413" s="1">
+        <v>55</v>
+      </c>
+      <c r="I413" s="1">
+        <v>260</v>
+      </c>
+      <c r="J413" s="1">
+        <f t="shared" si="13"/>
+        <v>263791.83557358431</v>
+      </c>
+      <c r="K413" s="1">
+        <f t="shared" si="14"/>
+        <v>53248.449350228322</v>
+      </c>
+      <c r="L413">
+        <v>0.47871974638905201</v>
+      </c>
+      <c r="M413">
+        <v>36.878540505074703</v>
+      </c>
+      <c r="N413" t="s">
+        <v>258</v>
+      </c>
+      <c r="P413" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q413" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R413" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S413" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="T413" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U413" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V413" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W413" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X413" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y413" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z413" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA413" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD413">
+        <v>12</v>
+      </c>
+      <c r="AP413" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ413">
+        <v>1.51795619194885E-3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A414" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B414" s="1">
+        <v>4</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D414" s="1">
+        <v>1</v>
+      </c>
+      <c r="E414" s="1">
+        <v>1101</v>
+      </c>
+      <c r="F414" s="1">
+        <v>263846</v>
+      </c>
+      <c r="G414" s="1">
+        <v>53258</v>
+      </c>
+      <c r="H414" s="1">
+        <v>55</v>
+      </c>
+      <c r="I414" s="1">
+        <v>260</v>
+      </c>
+      <c r="J414" s="1">
+        <f t="shared" ref="J414:J424" si="15">F414+H414*SIN(I414*PI()/180)</f>
+        <v>263791.83557358431</v>
+      </c>
+      <c r="K414" s="1">
+        <f t="shared" ref="K414:K424" si="16">G414+H414*COS(I414*PI()/180)</f>
+        <v>53248.449350228322</v>
+      </c>
+      <c r="L414">
+        <v>0.47871974638905201</v>
+      </c>
+      <c r="M414">
+        <v>36.878540505074703</v>
+      </c>
+      <c r="N414" t="s">
+        <v>249</v>
+      </c>
+      <c r="P414" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q414" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R414" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S414" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="T414" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U414" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V414" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W414" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X414" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z414" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA414" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD414">
+        <v>13</v>
+      </c>
+      <c r="AP414" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ414">
+        <v>1.51795619194885E-3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A415" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B415" s="1">
+        <v>4</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D415" s="1">
+        <v>2</v>
+      </c>
+      <c r="E415" s="1">
+        <v>1109</v>
+      </c>
+      <c r="F415" s="1">
+        <v>263580</v>
+      </c>
+      <c r="G415" s="1">
+        <v>53061</v>
+      </c>
+      <c r="H415" s="1">
+        <v>15</v>
+      </c>
+      <c r="I415" s="1">
+        <v>120</v>
+      </c>
+      <c r="J415" s="1">
+        <f t="shared" si="15"/>
+        <v>263592.99038105679</v>
+      </c>
+      <c r="K415" s="1">
+        <f t="shared" si="16"/>
+        <v>53053.5</v>
+      </c>
+      <c r="L415">
+        <v>0.47695663524661402</v>
+      </c>
+      <c r="M415">
+        <v>36.876755246386402</v>
+      </c>
+      <c r="N415" t="s">
+        <v>258</v>
+      </c>
+      <c r="P415" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q415" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R415" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S415" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T415" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U415" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V415" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W415" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X415" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y415" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z415" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA415" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD415">
+        <v>15</v>
+      </c>
+      <c r="AP415" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ415">
+        <v>6.8048041850163896E-4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A416" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B416" s="1">
+        <v>4</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D416" s="1">
+        <v>3</v>
+      </c>
+      <c r="E416" s="1">
+        <v>1113</v>
+      </c>
+      <c r="F416" s="1">
+        <v>262763</v>
+      </c>
+      <c r="G416" s="1">
+        <v>52630</v>
+      </c>
+      <c r="H416" s="1">
+        <v>62</v>
+      </c>
+      <c r="I416" s="1">
+        <v>360</v>
+      </c>
+      <c r="J416" s="1">
+        <f t="shared" si="15"/>
+        <v>262763</v>
+      </c>
+      <c r="K416" s="1">
+        <f t="shared" si="16"/>
+        <v>52692</v>
+      </c>
+      <c r="L416">
+        <v>0.47368596991105999</v>
+      </c>
+      <c r="M416">
+        <v>36.869302241644199</v>
+      </c>
+      <c r="N416" t="s">
+        <v>258</v>
+      </c>
+      <c r="P416" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q416" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R416" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S416" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T416" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U416" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V416" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="W416" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X416" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y416" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z416" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA416" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD416">
+        <v>18</v>
+      </c>
+      <c r="AQ416">
+        <v>3.6852385832449098E-3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A417" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B417" s="1">
+        <v>4</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D417" s="1">
+        <v>1</v>
+      </c>
+      <c r="E417" s="1">
+        <v>1144</v>
+      </c>
+      <c r="F417" s="1">
+        <v>261735</v>
+      </c>
+      <c r="G417" s="1">
+        <v>52260</v>
+      </c>
+      <c r="H417" s="1">
+        <v>26</v>
+      </c>
+      <c r="I417" s="1">
+        <v>330</v>
+      </c>
+      <c r="J417" s="1">
+        <f t="shared" si="15"/>
+        <v>261722</v>
+      </c>
+      <c r="K417" s="1">
+        <f t="shared" si="16"/>
+        <v>52282.516660498397</v>
+      </c>
+      <c r="L417">
+        <v>0.46998092372690597</v>
+      </c>
+      <c r="M417">
+        <v>36.859954379239298</v>
+      </c>
+      <c r="N417" t="s">
+        <v>258</v>
+      </c>
+      <c r="P417" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q417" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R417" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S417" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T417" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U417" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V417" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W417" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="X417" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y417" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z417" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA417" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD417">
+        <v>80</v>
+      </c>
+      <c r="AP417" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ417">
+        <v>4.00289572661712E-3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A418" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D418" s="1">
+        <v>1</v>
+      </c>
+      <c r="E418" s="1">
+        <v>1309</v>
+      </c>
+      <c r="F418" s="1">
+        <v>262264</v>
+      </c>
+      <c r="G418" s="1">
+        <v>43446</v>
+      </c>
+      <c r="H418" s="1">
+        <v>31</v>
+      </c>
+      <c r="I418" s="1">
+        <v>340</v>
+      </c>
+      <c r="J418" s="1">
+        <f t="shared" si="15"/>
+        <v>262253.39737555693</v>
+      </c>
+      <c r="K418" s="1">
+        <f t="shared" si="16"/>
+        <v>43475.13047124436</v>
+      </c>
+      <c r="L418">
+        <v>0.39035480038669701</v>
+      </c>
+      <c r="M418">
+        <v>36.864749019699403</v>
+      </c>
+      <c r="N418" t="s">
+        <v>44</v>
+      </c>
+      <c r="O418">
+        <v>0</v>
+      </c>
+      <c r="P418" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q418" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R418" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S418" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T418" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U418" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V418" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W418" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X418" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y418" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z418" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA418" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB418">
+        <v>4623</v>
+      </c>
+      <c r="AC418">
+        <v>4634</v>
+      </c>
+      <c r="AD418">
+        <v>7</v>
+      </c>
+      <c r="AE418">
+        <v>1</v>
+      </c>
+      <c r="AG418">
+        <v>2</v>
+      </c>
+      <c r="AH418">
+        <v>1</v>
+      </c>
+      <c r="AK418">
+        <v>2</v>
+      </c>
+      <c r="AN418">
+        <v>1</v>
+      </c>
+      <c r="AP418" t="s">
+        <v>358</v>
+      </c>
+      <c r="AQ418">
+        <v>6.7438526763560899E-3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A419" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B419" s="1">
+        <v>1</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D419" s="1">
+        <v>1</v>
+      </c>
+      <c r="E419" s="1">
+        <v>1004</v>
+      </c>
+      <c r="F419" s="1">
+        <v>259969</v>
+      </c>
+      <c r="G419" s="1">
+        <v>49704</v>
+      </c>
+      <c r="H419" s="1">
+        <v>28</v>
+      </c>
+      <c r="I419" s="1">
+        <v>340</v>
+      </c>
+      <c r="J419" s="1">
+        <f t="shared" si="15"/>
+        <v>259959.42343598689</v>
+      </c>
+      <c r="K419" s="1">
+        <f t="shared" si="16"/>
+        <v>49730.311393382006</v>
+      </c>
+      <c r="L419">
+        <v>0.446901811865902</v>
+      </c>
+      <c r="M419">
+        <v>36.8441321364065</v>
+      </c>
+      <c r="N419" t="s">
+        <v>31</v>
+      </c>
+      <c r="O419">
+        <v>0</v>
+      </c>
+      <c r="P419" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q419" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R419" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S419" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T419" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U419" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V419" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W419" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X419" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y419" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z419" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA419" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB419">
+        <v>4643</v>
+      </c>
+      <c r="AC419">
+        <v>4653</v>
+      </c>
+      <c r="AD419">
+        <v>8</v>
+      </c>
+      <c r="AF419">
+        <v>8</v>
+      </c>
+      <c r="AQ419">
+        <v>3.59225635707176E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A420" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B420" s="1">
+        <v>1</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D420" s="1">
+        <v>2</v>
+      </c>
+      <c r="E420" s="1">
+        <v>1029</v>
+      </c>
+      <c r="F420" s="1">
+        <v>269733</v>
+      </c>
+      <c r="G420" s="1">
+        <v>50940</v>
+      </c>
+      <c r="H420" s="1">
+        <v>10</v>
+      </c>
+      <c r="I420" s="1">
+        <v>40</v>
+      </c>
+      <c r="J420" s="1">
+        <f t="shared" si="15"/>
+        <v>269739.42787609686</v>
+      </c>
+      <c r="K420" s="1">
+        <f t="shared" si="16"/>
+        <v>50947.660444431189</v>
+      </c>
+      <c r="L420">
+        <v>0.45793393538271698</v>
+      </c>
+      <c r="M420">
+        <v>36.931962152784301</v>
+      </c>
+      <c r="N420" t="s">
+        <v>258</v>
+      </c>
+      <c r="P420" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q420" t="s">
+        <v>78</v>
+      </c>
+      <c r="R420" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S420" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T420" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U420" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V420" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W420" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X420" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y420" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z420" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA420" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD420">
+        <v>215</v>
+      </c>
+      <c r="AP420" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ420">
+        <v>3.52068727760808E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A421" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B421" s="1">
+        <v>2</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D421" s="1">
+        <v>1</v>
+      </c>
+      <c r="E421" s="1">
+        <v>1053</v>
+      </c>
+      <c r="F421" s="1">
+        <v>260242</v>
+      </c>
+      <c r="G421" s="1">
+        <v>53981</v>
+      </c>
+      <c r="H421" s="1">
+        <v>74</v>
+      </c>
+      <c r="I421" s="1">
+        <v>200</v>
+      </c>
+      <c r="J421" s="1">
+        <f t="shared" si="15"/>
+        <v>260216.6905093939</v>
+      </c>
+      <c r="K421" s="1">
+        <f t="shared" si="16"/>
+        <v>53911.462746061843</v>
+      </c>
+      <c r="L421">
+        <v>0.48470384193534699</v>
+      </c>
+      <c r="M421">
+        <v>36.846431012501</v>
+      </c>
+      <c r="N421" t="s">
+        <v>31</v>
+      </c>
+      <c r="O421">
+        <v>0</v>
+      </c>
+      <c r="P421" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q421" t="s">
+        <v>78</v>
+      </c>
+      <c r="R421" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S421" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="T421" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U421" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V421" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W421" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X421" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y421" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z421" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA421" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB421">
+        <v>4654</v>
+      </c>
+      <c r="AC421">
+        <v>4683</v>
+      </c>
+      <c r="AD421">
+        <v>21</v>
+      </c>
+      <c r="AE421">
+        <v>1</v>
+      </c>
+      <c r="AF421">
+        <v>12</v>
+      </c>
+      <c r="AG421">
+        <v>3</v>
+      </c>
+      <c r="AH421">
+        <v>2</v>
+      </c>
+      <c r="AI421">
+        <v>1</v>
+      </c>
+      <c r="AK421">
+        <v>1</v>
+      </c>
+      <c r="AL421">
+        <v>1</v>
+      </c>
+      <c r="AQ421">
+        <v>4.05875560021304E-4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A422" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B422" s="1">
+        <v>2</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D422" s="1">
+        <v>2</v>
+      </c>
+      <c r="E422" s="1">
+        <v>1132</v>
+      </c>
+      <c r="F422" s="1">
+        <v>259528</v>
+      </c>
+      <c r="G422" s="1">
+        <v>53930</v>
+      </c>
+      <c r="H422" s="1">
+        <v>15</v>
+      </c>
+      <c r="I422" s="1">
+        <v>220</v>
+      </c>
+      <c r="J422" s="1">
+        <f t="shared" si="15"/>
+        <v>259518.35818585471</v>
+      </c>
+      <c r="K422" s="1">
+        <f t="shared" si="16"/>
+        <v>53918.509333353213</v>
+      </c>
+      <c r="L422">
+        <v>0.484765526241142</v>
+      </c>
+      <c r="M422">
+        <v>36.840159495641899</v>
+      </c>
+      <c r="N422" t="s">
+        <v>258</v>
+      </c>
+      <c r="P422" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q422" t="s">
+        <v>78</v>
+      </c>
+      <c r="R422" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S422" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T422" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U422" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V422" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W422" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X422" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y422" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z422" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA422" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD422">
+        <v>200</v>
+      </c>
+      <c r="AP422" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ422">
+        <v>2.2335405410082699E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A423" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B423" s="1">
+        <v>3</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D423" s="1">
+        <v>1</v>
+      </c>
+      <c r="E423" s="1">
+        <v>1246</v>
+      </c>
+      <c r="F423" s="1">
+        <v>261277</v>
+      </c>
+      <c r="G423" s="1">
+        <v>55084</v>
+      </c>
+      <c r="H423" s="1">
+        <v>34</v>
+      </c>
+      <c r="I423" s="1">
+        <v>340</v>
+      </c>
+      <c r="J423" s="1">
+        <f t="shared" si="15"/>
+        <v>261265.37131512692</v>
+      </c>
+      <c r="K423" s="1">
+        <f t="shared" si="16"/>
+        <v>55115.949549106721</v>
+      </c>
+      <c r="L423">
+        <v>0.495596572191776</v>
+      </c>
+      <c r="M423">
+        <v>36.855845440369499</v>
+      </c>
+      <c r="N423" t="s">
+        <v>31</v>
+      </c>
+      <c r="O423">
+        <v>0</v>
+      </c>
+      <c r="P423" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q423" t="s">
+        <v>33</v>
+      </c>
+      <c r="R423" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S423" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T423" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U423" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V423" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W423" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X423" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y423" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA423" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB423">
+        <v>2561</v>
+      </c>
+      <c r="AC423">
+        <v>2625</v>
+      </c>
+      <c r="AD423">
+        <v>19</v>
+      </c>
+      <c r="AE423">
+        <v>3</v>
+      </c>
+      <c r="AG423">
+        <v>4</v>
+      </c>
+      <c r="AH423">
+        <v>6</v>
+      </c>
+      <c r="AM423">
+        <v>4</v>
+      </c>
+      <c r="AN423">
+        <v>2</v>
+      </c>
+      <c r="AP423" t="s">
+        <v>363</v>
+      </c>
+      <c r="AQ423">
+        <v>4.0090754725697203E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A424" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B424" s="1">
+        <v>3</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D424" s="1">
+        <v>2</v>
+      </c>
+      <c r="E424" s="1">
+        <v>1259</v>
+      </c>
+      <c r="F424" s="1">
+        <v>261378</v>
+      </c>
+      <c r="G424" s="1">
+        <v>54532</v>
+      </c>
+      <c r="H424" s="1">
+        <v>22</v>
+      </c>
+      <c r="I424" s="1">
+        <v>320</v>
+      </c>
+      <c r="J424" s="1">
+        <f t="shared" si="15"/>
+        <v>261363.85867258691</v>
+      </c>
+      <c r="K424" s="1">
+        <f t="shared" si="16"/>
+        <v>54548.852977748618</v>
+      </c>
+      <c r="L424">
+        <v>0.490469768013574</v>
+      </c>
+      <c r="M424">
+        <v>36.856731582157998</v>
+      </c>
+      <c r="N424" t="s">
+        <v>31</v>
+      </c>
+      <c r="O424">
+        <v>0</v>
+      </c>
+      <c r="P424" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q424" t="s">
+        <v>33</v>
+      </c>
+      <c r="R424" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S424" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T424" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U424" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V424" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W424" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X424" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y424" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z424" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA424" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB424">
+        <v>2626</v>
+      </c>
+      <c r="AC424">
+        <v>2684</v>
+      </c>
+      <c r="AD424">
+        <v>15</v>
+      </c>
+      <c r="AE424">
+        <v>1</v>
+      </c>
+      <c r="AF424">
+        <v>7</v>
+      </c>
+      <c r="AG424">
+        <v>1</v>
+      </c>
+      <c r="AH424">
+        <v>3</v>
+      </c>
+      <c r="AL424">
+        <v>1</v>
+      </c>
+      <c r="AM424">
+        <v>1</v>
+      </c>
+      <c r="AN424">
+        <v>1</v>
+      </c>
+      <c r="AP424" t="s">
+        <v>263</v>
+      </c>
+      <c r="AQ424">
+        <v>6.1372727101073297E-3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A425" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B425" s="1">
+        <v>3</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D425" s="1">
+        <v>2</v>
+      </c>
+      <c r="E425" s="1">
+        <v>1259</v>
+      </c>
+      <c r="F425" s="1">
+        <v>261378</v>
+      </c>
+      <c r="G425" s="1">
+        <v>54532</v>
+      </c>
+      <c r="H425" s="1">
+        <v>22</v>
+      </c>
+      <c r="I425" s="1">
+        <v>320</v>
+      </c>
+      <c r="J425" s="1">
+        <f t="shared" ref="J425:J426" si="17">F425+H425*SIN(I425*PI()/180)</f>
+        <v>261363.85867258691</v>
+      </c>
+      <c r="K425" s="1">
+        <f t="shared" ref="K425:K426" si="18">G425+H425*COS(I425*PI()/180)</f>
+        <v>54548.852977748618</v>
+      </c>
+      <c r="L425">
+        <v>0.490469768013574</v>
+      </c>
+      <c r="M425">
+        <v>36.856731582157998</v>
+      </c>
+      <c r="N425" t="s">
+        <v>258</v>
+      </c>
+      <c r="P425" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q425" t="s">
+        <v>33</v>
+      </c>
+      <c r="R425" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S425" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T425" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U425" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V425" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W425" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X425" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y425" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z425" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA425" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD425">
+        <v>25</v>
+      </c>
+      <c r="AL425">
+        <v>1</v>
+      </c>
+      <c r="AM425">
+        <v>1</v>
+      </c>
+      <c r="AN425">
+        <v>1</v>
+      </c>
+      <c r="AP425" t="s">
+        <v>263</v>
+      </c>
+      <c r="AQ425">
+        <v>6.1372727101073297E-3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A426" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B426" s="1">
+        <v>3</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D426" s="1">
+        <v>3</v>
+      </c>
+      <c r="E426" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F426" s="1">
+        <v>262088</v>
+      </c>
+      <c r="G426" s="1">
+        <v>54981</v>
+      </c>
+      <c r="H426" s="1">
+        <v>39</v>
+      </c>
+      <c r="I426" s="1">
+        <v>300</v>
+      </c>
+      <c r="J426" s="1">
+        <f t="shared" si="17"/>
+        <v>262054.2250092524</v>
+      </c>
+      <c r="K426" s="1">
+        <f t="shared" si="18"/>
+        <v>55000.5</v>
+      </c>
+      <c r="L426">
+        <v>0.494555112524039</v>
+      </c>
+      <c r="M426">
+        <v>36.8629303031883</v>
+      </c>
+      <c r="N426" t="s">
+        <v>31</v>
+      </c>
+      <c r="O426">
+        <v>1</v>
+      </c>
+      <c r="P426" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q426" t="s">
+        <v>33</v>
+      </c>
+      <c r="R426" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S426" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T426" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U426" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V426" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W426" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X426" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB426">
+        <v>2685</v>
+      </c>
+      <c r="AC426">
+        <v>2717</v>
+      </c>
+      <c r="AD426">
+        <v>6</v>
+      </c>
+      <c r="AQ426">
+        <v>2.2507069954204998E-3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A427" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B427" s="1">
+        <v>3</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D427" s="1">
+        <v>3</v>
+      </c>
+      <c r="E427" s="1">
+        <v>1324</v>
+      </c>
+      <c r="F427" s="1">
+        <v>262088</v>
+      </c>
+      <c r="G427" s="1">
+        <v>54981</v>
+      </c>
+      <c r="H427" s="1">
+        <v>39</v>
+      </c>
+      <c r="I427" s="1">
+        <v>300</v>
+      </c>
+      <c r="J427" s="1">
+        <f t="shared" ref="J427:J434" si="19">F427+H427*SIN(I427*PI()/180)</f>
+        <v>262054.2250092524</v>
+      </c>
+      <c r="K427" s="1">
+        <f t="shared" ref="K427:K434" si="20">G427+H427*COS(I427*PI()/180)</f>
+        <v>55000.5</v>
+      </c>
+      <c r="L427">
+        <v>0.494555112524039</v>
+      </c>
+      <c r="M427">
+        <v>36.8629303031883</v>
+      </c>
+      <c r="N427" t="s">
+        <v>44</v>
+      </c>
+      <c r="O427">
+        <v>1</v>
+      </c>
+      <c r="P427" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q427" t="s">
+        <v>33</v>
+      </c>
+      <c r="R427" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S427" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T427" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U427" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V427" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W427" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X427" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB427">
+        <v>2685</v>
+      </c>
+      <c r="AC427">
+        <v>2717</v>
+      </c>
+      <c r="AD427">
+        <v>4</v>
+      </c>
+      <c r="AH427">
+        <v>2</v>
+      </c>
+      <c r="AO427">
+        <v>2</v>
+      </c>
+      <c r="AQ427">
+        <v>2.2507069954204998E-3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A428" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B428" s="1">
+        <v>3</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D428" s="1">
+        <v>1</v>
+      </c>
+      <c r="E428" s="1">
+        <v>1336</v>
+      </c>
+      <c r="F428" s="1">
+        <v>262195</v>
+      </c>
+      <c r="G428" s="1">
+        <v>55523</v>
+      </c>
+      <c r="H428" s="1">
+        <v>51</v>
+      </c>
+      <c r="I428" s="1">
+        <v>60</v>
+      </c>
+      <c r="J428" s="1">
+        <f t="shared" si="19"/>
+        <v>262239.16729559301</v>
+      </c>
+      <c r="K428" s="1">
+        <f t="shared" si="20"/>
+        <v>55548.5</v>
+      </c>
+      <c r="L428">
+        <v>0.49951012226096497</v>
+      </c>
+      <c r="M428">
+        <v>36.864589634292102</v>
+      </c>
+      <c r="N428" t="s">
+        <v>258</v>
+      </c>
+      <c r="P428" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q428" t="s">
+        <v>33</v>
+      </c>
+      <c r="R428" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S428" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T428" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U428" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V428" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W428" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X428" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y428" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA428" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD428">
+        <v>30</v>
+      </c>
+      <c r="AQ428">
+        <v>4.7094456013164797E-3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A429" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B429" s="1">
+        <v>3</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D429" s="1">
+        <v>1</v>
+      </c>
+      <c r="E429" s="1">
+        <v>1336</v>
+      </c>
+      <c r="F429" s="1">
+        <v>262195</v>
+      </c>
+      <c r="G429" s="1">
+        <v>55523</v>
+      </c>
+      <c r="H429" s="1">
+        <v>51</v>
+      </c>
+      <c r="I429" s="1">
+        <v>60</v>
+      </c>
+      <c r="J429" s="1">
+        <f t="shared" si="19"/>
+        <v>262239.16729559301</v>
+      </c>
+      <c r="K429" s="1">
+        <f t="shared" si="20"/>
+        <v>55548.5</v>
+      </c>
+      <c r="L429">
+        <v>0.49951012226096497</v>
+      </c>
+      <c r="M429">
+        <v>36.864589634292102</v>
+      </c>
+      <c r="N429" t="s">
+        <v>260</v>
+      </c>
+      <c r="P429" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q429" t="s">
+        <v>33</v>
+      </c>
+      <c r="R429" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S429" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T429" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U429" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V429" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W429" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X429" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y429" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA429" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD429">
+        <v>25</v>
+      </c>
+      <c r="AQ429">
+        <v>4.7094456013164797E-3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A430" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B430" s="1">
+        <v>3</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D430" s="1">
+        <v>1</v>
+      </c>
+      <c r="E430" s="1">
+        <v>1336</v>
+      </c>
+      <c r="F430" s="1">
+        <v>262195</v>
+      </c>
+      <c r="G430" s="1">
+        <v>55523</v>
+      </c>
+      <c r="H430" s="1">
+        <v>51</v>
+      </c>
+      <c r="I430" s="1">
+        <v>60</v>
+      </c>
+      <c r="J430" s="1">
+        <f t="shared" si="19"/>
+        <v>262239.16729559301</v>
+      </c>
+      <c r="K430" s="1">
+        <f t="shared" si="20"/>
+        <v>55548.5</v>
+      </c>
+      <c r="L430">
+        <v>0.49951012226096497</v>
+      </c>
+      <c r="M430">
+        <v>36.864589634292102</v>
+      </c>
+      <c r="N430" t="s">
+        <v>249</v>
+      </c>
+      <c r="P430" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q430" t="s">
+        <v>33</v>
+      </c>
+      <c r="R430" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S430" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T430" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U430" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V430" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W430" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X430" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y430" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA430" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD430">
+        <v>40</v>
+      </c>
+      <c r="AQ430">
+        <v>4.7094456013164797E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A431" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B431" s="1">
+        <v>3</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D431" s="1">
+        <v>2</v>
+      </c>
+      <c r="E431" s="1">
+        <v>1341</v>
+      </c>
+      <c r="F431" s="1">
+        <v>261748</v>
+      </c>
+      <c r="G431" s="1">
+        <v>56085</v>
+      </c>
+      <c r="H431" s="1">
+        <v>100</v>
+      </c>
+      <c r="I431" s="1">
+        <v>300</v>
+      </c>
+      <c r="J431" s="1">
+        <f t="shared" si="19"/>
+        <v>261661.39745962157</v>
+      </c>
+      <c r="K431" s="1">
+        <f t="shared" si="20"/>
+        <v>56135</v>
+      </c>
+      <c r="L431">
+        <v>0.50481094158143203</v>
+      </c>
+      <c r="M431">
+        <v>36.859399060173303</v>
+      </c>
+      <c r="N431" t="s">
+        <v>249</v>
+      </c>
+      <c r="P431" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q431" t="s">
+        <v>33</v>
+      </c>
+      <c r="R431" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S431" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T431" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U431" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V431" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W431" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X431" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y431" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z431" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA431" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD431">
+        <v>80</v>
+      </c>
+      <c r="AQ431">
+        <v>2.04769642634209E-3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A432" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B432" s="1">
+        <v>3</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D432" s="1">
+        <v>3</v>
+      </c>
+      <c r="E432" s="1">
+        <v>1345</v>
+      </c>
+      <c r="F432" s="1">
+        <v>261968</v>
+      </c>
+      <c r="G432" s="1">
+        <v>57206</v>
+      </c>
+      <c r="H432" s="1">
+        <v>20</v>
+      </c>
+      <c r="I432" s="1">
+        <v>260</v>
+      </c>
+      <c r="J432" s="1">
+        <f t="shared" si="19"/>
+        <v>261948.30384493974</v>
+      </c>
+      <c r="K432" s="1">
+        <f t="shared" si="20"/>
+        <v>57202.527036446663</v>
+      </c>
+      <c r="L432">
+        <v>0.51446329583955097</v>
+      </c>
+      <c r="M432">
+        <v>36.861972509386902</v>
+      </c>
+      <c r="N432" t="s">
+        <v>258</v>
+      </c>
+      <c r="P432" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q432" t="s">
+        <v>33</v>
+      </c>
+      <c r="R432" t="s">
+        <v>34</v>
+      </c>
+      <c r="S432" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T432" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U432" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V432" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W432" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X432" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA432" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD432">
+        <v>31</v>
+      </c>
+      <c r="AQ432">
+        <v>3.6390831943935E-3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A433" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B433" s="1">
+        <v>3</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D433" s="1">
+        <v>1</v>
+      </c>
+      <c r="E433" s="1">
+        <v>1349</v>
+      </c>
+      <c r="F433" s="1">
+        <v>262085</v>
+      </c>
+      <c r="G433" s="1">
+        <v>57661</v>
+      </c>
+      <c r="H433" s="1">
+        <v>111</v>
+      </c>
+      <c r="I433" s="1">
+        <v>40</v>
+      </c>
+      <c r="J433" s="1">
+        <f t="shared" si="19"/>
+        <v>262156.34942467522</v>
+      </c>
+      <c r="K433" s="1">
+        <f t="shared" si="20"/>
+        <v>57746.030933186208</v>
+      </c>
+      <c r="L433">
+        <v>0.51937774586571195</v>
+      </c>
+      <c r="M433">
+        <v>36.863839280890801</v>
+      </c>
+      <c r="N433" t="s">
+        <v>260</v>
+      </c>
+      <c r="P433" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q433" t="s">
+        <v>33</v>
+      </c>
+      <c r="R433" t="s">
+        <v>34</v>
+      </c>
+      <c r="S433" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T433" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U433" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V433" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W433" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X433" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y433" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA433" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD433">
+        <v>40</v>
+      </c>
+      <c r="AP433" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ433">
+        <v>2.5273436357177098E-3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A434" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B434" s="1">
+        <v>3</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D434" s="1">
+        <v>2</v>
+      </c>
+      <c r="E434" s="1">
+        <v>1401</v>
+      </c>
+      <c r="F434" s="1">
+        <v>262309</v>
+      </c>
+      <c r="G434" s="1">
+        <v>58021</v>
+      </c>
+      <c r="H434" s="1">
+        <v>42</v>
+      </c>
+      <c r="I434" s="1">
+        <v>260</v>
+      </c>
+      <c r="J434" s="1">
+        <f t="shared" si="19"/>
+        <v>262267.63807437348</v>
+      </c>
+      <c r="K434" s="1">
+        <f t="shared" si="20"/>
+        <v>58013.706776537991</v>
+      </c>
+      <c r="L434">
+        <v>0.52179814560323001</v>
+      </c>
+      <c r="M434">
+        <v>36.864837929217003</v>
+      </c>
+      <c r="N434" t="s">
+        <v>31</v>
+      </c>
+      <c r="O434">
+        <v>0</v>
+      </c>
+      <c r="P434" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q434" t="s">
+        <v>33</v>
+      </c>
+      <c r="R434" t="s">
+        <v>34</v>
+      </c>
+      <c r="S434" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T434" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U434" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V434" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W434" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X434" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y434" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA434" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD434">
+        <v>7</v>
+      </c>
+      <c r="AE434">
+        <v>1</v>
+      </c>
+      <c r="AF434">
+        <v>1</v>
+      </c>
+      <c r="AG434">
+        <v>2</v>
+      </c>
+      <c r="AH434">
+        <v>1</v>
+      </c>
+      <c r="AI434">
+        <v>1</v>
+      </c>
+      <c r="AN434">
+        <v>1</v>
+      </c>
+      <c r="AP434" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ434">
+        <v>2.17529148129284E-3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A435" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B435" s="1">
+        <v>3</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D435" s="1">
+        <v>2</v>
+      </c>
+      <c r="E435" s="1">
+        <v>1401</v>
+      </c>
+      <c r="F435" s="1">
+        <v>262309</v>
+      </c>
+      <c r="G435" s="1">
+        <v>58021</v>
+      </c>
+      <c r="H435" s="1">
+        <v>42</v>
+      </c>
+      <c r="I435" s="1">
+        <v>260</v>
+      </c>
+      <c r="J435" s="1">
+        <f t="shared" ref="J435:J442" si="21">F435+H435*SIN(I435*PI()/180)</f>
+        <v>262267.63807437348</v>
+      </c>
+      <c r="K435" s="1">
+        <f t="shared" ref="K435:K442" si="22">G435+H435*COS(I435*PI()/180)</f>
+        <v>58013.706776537991</v>
+      </c>
+      <c r="L435">
+        <v>0.52179814560323001</v>
+      </c>
+      <c r="M435">
+        <v>36.864837929217003</v>
+      </c>
+      <c r="N435" t="s">
+        <v>258</v>
+      </c>
+      <c r="P435" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q435" t="s">
+        <v>33</v>
+      </c>
+      <c r="R435" t="s">
+        <v>34</v>
+      </c>
+      <c r="S435" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T435" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U435" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V435" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W435" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X435" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y435" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA435" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD435">
+        <v>4</v>
+      </c>
+      <c r="AP435" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ435">
+        <v>2.17529148129284E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A436" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B436" s="1">
+        <v>3</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D436" s="1">
+        <v>3</v>
+      </c>
+      <c r="E436" s="1">
+        <v>1406</v>
+      </c>
+      <c r="F436" s="1">
+        <v>262731</v>
+      </c>
+      <c r="G436" s="1">
+        <v>58392</v>
+      </c>
+      <c r="H436" s="1">
+        <v>10</v>
+      </c>
+      <c r="I436" s="1">
+        <v>300</v>
+      </c>
+      <c r="J436" s="1">
+        <f t="shared" si="21"/>
+        <v>262722.33974596218</v>
+      </c>
+      <c r="K436" s="1">
+        <f t="shared" si="22"/>
+        <v>58397</v>
+      </c>
+      <c r="L436">
+        <v>0.525264911334139</v>
+      </c>
+      <c r="M436">
+        <v>36.868920367238701</v>
+      </c>
+      <c r="N436" t="s">
+        <v>258</v>
+      </c>
+      <c r="P436" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q436" t="s">
+        <v>33</v>
+      </c>
+      <c r="R436" t="s">
+        <v>34</v>
+      </c>
+      <c r="S436" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T436" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U436" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V436" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W436" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X436" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA436" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD436">
+        <v>11</v>
+      </c>
+      <c r="AP436" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ436">
+        <v>4.4012646283141002E-4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A437" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B437" s="1">
+        <v>3</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D437" s="1">
+        <v>1</v>
+      </c>
+      <c r="E437" s="1">
+        <v>1420</v>
+      </c>
+      <c r="F437" s="1">
+        <v>261236</v>
+      </c>
+      <c r="G437" s="1">
+        <v>56949</v>
+      </c>
+      <c r="H437" s="1">
+        <v>63</v>
+      </c>
+      <c r="I437" s="1">
+        <v>40</v>
+      </c>
+      <c r="J437" s="1">
+        <f t="shared" si="21"/>
+        <v>261276.49561941024</v>
+      </c>
+      <c r="K437" s="1">
+        <f t="shared" si="22"/>
+        <v>56997.260799916497</v>
+      </c>
+      <c r="L437">
+        <v>0.51260544442996203</v>
+      </c>
+      <c r="M437">
+        <v>36.855939749495597</v>
+      </c>
+      <c r="N437" t="s">
+        <v>258</v>
+      </c>
+      <c r="P437" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q437" t="s">
+        <v>33</v>
+      </c>
+      <c r="R437" t="s">
+        <v>34</v>
+      </c>
+      <c r="S437" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T437" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U437" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V437" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W437" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X437" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y437" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA437" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD437">
+        <v>28</v>
+      </c>
+      <c r="AP437" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ437">
+        <v>3.27964611560694E-3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A438" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B438" s="1">
+        <v>3</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D438" s="1">
+        <v>2</v>
+      </c>
+      <c r="E438" s="1">
+        <v>1424</v>
+      </c>
+      <c r="F438" s="1">
+        <v>261082</v>
+      </c>
+      <c r="G438" s="1">
+        <v>56541</v>
+      </c>
+      <c r="H438" s="1">
+        <v>118</v>
+      </c>
+      <c r="I438" s="1">
+        <v>300</v>
+      </c>
+      <c r="J438" s="1">
+        <f t="shared" si="21"/>
+        <v>260979.80900235343</v>
+      </c>
+      <c r="K438" s="1">
+        <f t="shared" si="22"/>
+        <v>56600</v>
+      </c>
+      <c r="L438">
+        <v>0.50901293224661004</v>
+      </c>
+      <c r="M438">
+        <v>36.853276470616898</v>
+      </c>
+      <c r="N438" t="s">
+        <v>260</v>
+      </c>
+      <c r="P438" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q438" t="s">
+        <v>33</v>
+      </c>
+      <c r="R438" t="s">
+        <v>34</v>
+      </c>
+      <c r="S438" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T438" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U438" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V438" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W438" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X438" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y438" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA438" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD438">
+        <v>120</v>
+      </c>
+      <c r="AP438" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ438">
+        <v>8.5981700062100501E-4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A439" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B439" s="1">
+        <v>3</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D439" s="1">
+        <v>3</v>
+      </c>
+      <c r="E439" s="1">
+        <v>1434</v>
+      </c>
+      <c r="F439" s="1">
+        <v>260984</v>
+      </c>
+      <c r="G439" s="1">
+        <v>55887</v>
+      </c>
+      <c r="H439" s="1">
+        <v>49</v>
+      </c>
+      <c r="I439" s="1">
+        <v>240</v>
+      </c>
+      <c r="J439" s="1">
+        <f t="shared" si="21"/>
+        <v>260941.56475521455</v>
+      </c>
+      <c r="K439" s="1">
+        <f t="shared" si="22"/>
+        <v>55862.5</v>
+      </c>
+      <c r="L439">
+        <v>0.50234512964733302</v>
+      </c>
+      <c r="M439">
+        <v>36.852935211809097</v>
+      </c>
+      <c r="N439" t="s">
+        <v>31</v>
+      </c>
+      <c r="O439">
+        <v>0</v>
+      </c>
+      <c r="P439" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q439" t="s">
+        <v>33</v>
+      </c>
+      <c r="R439" t="s">
+        <v>34</v>
+      </c>
+      <c r="S439" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T439" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U439" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V439" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W439" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X439" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y439" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA439" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD439">
+        <v>9</v>
+      </c>
+      <c r="AP439" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ439">
+        <v>3.9468409992454096E-3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A440" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B440" s="1">
+        <v>4</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D440" s="1">
+        <v>1</v>
+      </c>
+      <c r="E440" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F440" s="1">
+        <v>262429</v>
+      </c>
+      <c r="G440">
+        <v>52540</v>
+      </c>
+      <c r="H440" s="1">
+        <v>59</v>
+      </c>
+      <c r="I440" s="1">
+        <v>240</v>
+      </c>
+      <c r="J440" s="1">
+        <f t="shared" si="21"/>
+        <v>262377.90450117673</v>
+      </c>
+      <c r="K440" s="1">
+        <f t="shared" si="22"/>
+        <v>52510.5</v>
+      </c>
+      <c r="L440">
+        <v>0.47204394885678103</v>
+      </c>
+      <c r="M440">
+        <v>36.865844278023403</v>
+      </c>
+      <c r="N440" t="s">
+        <v>31</v>
+      </c>
+      <c r="O440">
+        <v>0</v>
+      </c>
+      <c r="P440" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q440" t="s">
+        <v>33</v>
+      </c>
+      <c r="R440" t="s">
+        <v>34</v>
+      </c>
+      <c r="S440" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T440" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U440" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V440" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W440" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X440" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y440" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA440" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB440">
+        <v>2376</v>
+      </c>
+      <c r="AC440">
+        <v>2396</v>
+      </c>
+      <c r="AD440">
+        <v>5</v>
+      </c>
+      <c r="AE440">
+        <v>1</v>
+      </c>
+      <c r="AG440">
+        <v>2</v>
+      </c>
+      <c r="AH440">
+        <v>1</v>
+      </c>
+      <c r="AM440">
+        <v>1</v>
+      </c>
+      <c r="AP440" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ440">
+        <v>2.9638642855240602E-3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A441" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B441" s="1">
+        <v>4</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D441" s="1">
+        <v>2</v>
+      </c>
+      <c r="E441" s="1">
+        <v>1018</v>
+      </c>
+      <c r="F441" s="1">
+        <v>263780</v>
+      </c>
+      <c r="G441" s="1">
+        <v>53289</v>
+      </c>
+      <c r="H441" s="1">
+        <v>19</v>
+      </c>
+      <c r="I441" s="1">
+        <v>40</v>
+      </c>
+      <c r="J441" s="1">
+        <f t="shared" si="21"/>
+        <v>263792.21296458406</v>
+      </c>
+      <c r="K441" s="1">
+        <f t="shared" si="22"/>
+        <v>53303.554844419261</v>
+      </c>
+      <c r="L441">
+        <v>0.47921796078433099</v>
+      </c>
+      <c r="M441">
+        <v>36.878543740326002</v>
+      </c>
+      <c r="N441" t="s">
+        <v>258</v>
+      </c>
+      <c r="P441" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q441" t="s">
+        <v>33</v>
+      </c>
+      <c r="R441" t="s">
+        <v>34</v>
+      </c>
+      <c r="S441" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T441" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U441" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V441" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W441" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X441" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y441" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA441" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD441">
+        <v>41</v>
+      </c>
+      <c r="AP441" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ441">
+        <v>1.99010671031675E-3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A442" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B442" s="1">
+        <v>4</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D442" s="1">
+        <v>3</v>
+      </c>
+      <c r="E442" s="1">
+        <v>1020</v>
+      </c>
+      <c r="F442" s="1">
+        <v>263946</v>
+      </c>
+      <c r="G442" s="1">
+        <v>53328</v>
+      </c>
+      <c r="H442" s="1">
+        <v>44</v>
+      </c>
+      <c r="I442" s="1">
+        <v>340</v>
+      </c>
+      <c r="J442" s="1">
+        <f t="shared" si="21"/>
+        <v>263930.95111369365</v>
+      </c>
+      <c r="K442" s="1">
+        <f t="shared" si="22"/>
+        <v>53369.346475314582</v>
+      </c>
+      <c r="L442">
+        <v>0.47981317971675602</v>
+      </c>
+      <c r="M442">
+        <v>36.879789546544202</v>
+      </c>
+      <c r="N442" t="s">
+        <v>249</v>
+      </c>
+      <c r="P442" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q442" t="s">
+        <v>33</v>
+      </c>
+      <c r="R442" t="s">
+        <v>34</v>
+      </c>
+      <c r="S442" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="T442" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U442" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V442" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W442" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X442" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y442" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA442" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD442">
+        <v>120</v>
+      </c>
+      <c r="AQ442">
+        <v>2.2284578617100398E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A443" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B443" s="1">
+        <v>4</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D443" s="1">
+        <v>3</v>
+      </c>
+      <c r="E443" s="1">
+        <v>1020</v>
+      </c>
+      <c r="F443" s="1">
+        <v>263946</v>
+      </c>
+      <c r="G443" s="1">
+        <v>53328</v>
+      </c>
+      <c r="H443" s="1">
+        <v>44</v>
+      </c>
+      <c r="I443" s="1">
+        <v>340</v>
+      </c>
+      <c r="J443" s="1">
+        <f t="shared" ref="J443:J446" si="23">F443+H443*SIN(I443*PI()/180)</f>
+        <v>263930.95111369365</v>
+      </c>
+      <c r="K443" s="1">
+        <f t="shared" ref="K443:K446" si="24">G443+H443*COS(I443*PI()/180)</f>
+        <v>53369.346475314582</v>
+      </c>
+      <c r="L443">
+        <v>0.47981317971675602</v>
+      </c>
+      <c r="M443">
+        <v>36.879789546544202</v>
+      </c>
+      <c r="N443" t="s">
+        <v>258</v>
+      </c>
+      <c r="P443" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q443" t="s">
+        <v>33</v>
+      </c>
+      <c r="R443" t="s">
+        <v>34</v>
+      </c>
+      <c r="S443" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="T443" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U443" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V443" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W443" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X443" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y443" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA443" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD443">
+        <v>3</v>
+      </c>
+      <c r="AQ443">
+        <v>2.2284578617100398E-3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A444" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B444" s="1">
+        <v>4</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D444" s="1">
+        <v>1</v>
+      </c>
+      <c r="E444" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F444" s="1">
+        <v>264584</v>
+      </c>
+      <c r="G444" s="1">
+        <v>53219</v>
+      </c>
+      <c r="H444" s="1">
+        <v>23</v>
+      </c>
+      <c r="I444" s="1">
+        <v>320</v>
+      </c>
+      <c r="J444" s="1">
+        <f t="shared" si="23"/>
+        <v>264569.21588497719</v>
+      </c>
+      <c r="K444" s="1">
+        <f t="shared" si="24"/>
+        <v>53236.619022191735</v>
+      </c>
+      <c r="L444">
+        <v>0.478614971115707</v>
+      </c>
+      <c r="M444">
+        <v>36.885522110348901</v>
+      </c>
+      <c r="N444" t="s">
+        <v>249</v>
+      </c>
+      <c r="P444" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q444" t="s">
+        <v>33</v>
+      </c>
+      <c r="R444" t="s">
+        <v>34</v>
+      </c>
+      <c r="S444" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T444" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U444" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V444" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W444" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X444" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y444" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z444" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA444" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD444">
+        <v>25</v>
+      </c>
+      <c r="AP444" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ444">
+        <v>1.2314838284280201E-4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A445" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B445" s="1">
+        <v>4</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D445" s="1">
+        <v>2</v>
+      </c>
+      <c r="E445" s="1">
+        <v>1032</v>
+      </c>
+      <c r="F445" s="1">
+        <v>264388</v>
+      </c>
+      <c r="G445" s="1">
+        <v>53692</v>
+      </c>
+      <c r="H445" s="1">
+        <v>32</v>
+      </c>
+      <c r="I445" s="1">
+        <v>60</v>
+      </c>
+      <c r="J445" s="1">
+        <f t="shared" si="23"/>
+        <v>264415.71281292109</v>
+      </c>
+      <c r="K445" s="1">
+        <f t="shared" si="24"/>
+        <v>53708</v>
+      </c>
+      <c r="L445">
+        <v>0.48287635075107999</v>
+      </c>
+      <c r="M445">
+        <v>36.884142192511497</v>
+      </c>
+      <c r="N445" t="s">
+        <v>258</v>
+      </c>
+      <c r="P445" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q445" t="s">
+        <v>33</v>
+      </c>
+      <c r="R445" t="s">
+        <v>34</v>
+      </c>
+      <c r="S445" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="T445" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U445" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V445" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W445" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X445" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y445" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA445" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD445">
+        <v>21</v>
+      </c>
+      <c r="AQ445">
+        <v>4.2646192051932902E-3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A446" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B446" s="1">
+        <v>4</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D446" s="1">
+        <v>3</v>
+      </c>
+      <c r="E446" s="1">
+        <v>1045</v>
+      </c>
+      <c r="F446" s="1">
+        <v>263755</v>
+      </c>
+      <c r="G446" s="1">
+        <v>53894</v>
+      </c>
+      <c r="H446" s="1">
+        <v>49</v>
+      </c>
+      <c r="I446" s="1">
+        <v>220</v>
+      </c>
+      <c r="J446" s="1">
+        <f t="shared" si="23"/>
+        <v>263723.50340712536</v>
+      </c>
+      <c r="K446" s="1">
+        <f t="shared" si="24"/>
+        <v>53856.463822287173</v>
+      </c>
+      <c r="L446">
+        <v>0.48421666136842301</v>
+      </c>
+      <c r="M446">
+        <v>36.8779251121939</v>
+      </c>
+      <c r="N446" t="s">
+        <v>31</v>
+      </c>
+      <c r="O446">
+        <v>0</v>
+      </c>
+      <c r="P446" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q446" t="s">
+        <v>33</v>
+      </c>
+      <c r="R446" t="s">
+        <v>34</v>
+      </c>
+      <c r="S446" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T446" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U446" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V446" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W446" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X446" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA446" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB446">
+        <v>2397</v>
+      </c>
+      <c r="AC446">
+        <v>2410</v>
+      </c>
+      <c r="AD446">
+        <v>3</v>
+      </c>
+      <c r="AE446">
+        <v>1</v>
+      </c>
+      <c r="AH446">
+        <v>1</v>
+      </c>
+      <c r="AO446">
+        <v>1</v>
+      </c>
+      <c r="AP446" t="s">
+        <v>371</v>
+      </c>
+      <c r="AQ446">
+        <v>3.9425666867755598E-3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A447" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B447" s="1">
+        <v>4</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D447" s="1">
+        <v>3</v>
+      </c>
+      <c r="E447" s="1">
+        <v>1045</v>
+      </c>
+      <c r="F447" s="1">
+        <v>263755</v>
+      </c>
+      <c r="G447" s="1">
+        <v>53894</v>
+      </c>
+      <c r="H447" s="1">
+        <v>49</v>
+      </c>
+      <c r="I447" s="1">
+        <v>220</v>
+      </c>
+      <c r="J447" s="1">
+        <f t="shared" ref="J447:J450" si="25">F447+H447*SIN(I447*PI()/180)</f>
+        <v>263723.50340712536</v>
+      </c>
+      <c r="K447" s="1">
+        <f t="shared" ref="K447:K450" si="26">G447+H447*COS(I447*PI()/180)</f>
+        <v>53856.463822287173</v>
+      </c>
+      <c r="L447">
+        <v>0.48421666136842301</v>
+      </c>
+      <c r="M447">
+        <v>36.8779251121939</v>
+      </c>
+      <c r="N447" t="s">
+        <v>258</v>
+      </c>
+      <c r="P447" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q447" t="s">
+        <v>33</v>
+      </c>
+      <c r="R447" t="s">
+        <v>34</v>
+      </c>
+      <c r="S447" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T447" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U447" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V447" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W447" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X447" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA447" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD447">
+        <v>19</v>
+      </c>
+      <c r="AP447" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ447">
+        <v>3.9425666867755598E-3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A448" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B448" s="1">
+        <v>4</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D448" s="1">
+        <v>1</v>
+      </c>
+      <c r="E448" s="1">
+        <v>1105</v>
+      </c>
+      <c r="F448" s="1">
+        <v>263181</v>
+      </c>
+      <c r="G448" s="1">
+        <v>53798</v>
+      </c>
+      <c r="H448" s="1">
+        <v>32</v>
+      </c>
+      <c r="I448" s="1">
+        <v>240</v>
+      </c>
+      <c r="J448" s="1">
+        <f t="shared" si="25"/>
+        <v>263153.28718707891</v>
+      </c>
+      <c r="K448" s="1">
+        <f t="shared" si="26"/>
+        <v>53782</v>
+      </c>
+      <c r="L448">
+        <v>0.48354180475782899</v>
+      </c>
+      <c r="M448">
+        <v>36.872804288367099</v>
+      </c>
+      <c r="N448" t="s">
+        <v>31</v>
+      </c>
+      <c r="O448">
+        <v>0</v>
+      </c>
+      <c r="P448" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q448" t="s">
+        <v>33</v>
+      </c>
+      <c r="R448" t="s">
+        <v>34</v>
+      </c>
+      <c r="S448" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T448" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U448" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W448" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X448" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y448" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA448" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB448">
+        <v>2411</v>
+      </c>
+      <c r="AC448">
+        <v>2438</v>
+      </c>
+      <c r="AD448">
+        <v>6</v>
+      </c>
+      <c r="AE448">
+        <v>1</v>
+      </c>
+      <c r="AG448">
+        <v>1</v>
+      </c>
+      <c r="AH448">
+        <v>2</v>
+      </c>
+      <c r="AL448">
+        <v>1</v>
+      </c>
+      <c r="AM448">
+        <v>1</v>
+      </c>
+      <c r="AP448" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ448">
+        <v>9.5496106838205202E-4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A449" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B449" s="1">
+        <v>4</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D449" s="1">
+        <v>2</v>
+      </c>
+      <c r="E449" s="1">
+        <v>1111</v>
+      </c>
+      <c r="F449" s="1">
+        <v>262914</v>
+      </c>
+      <c r="G449" s="1">
+        <v>54699</v>
+      </c>
+      <c r="H449" s="1">
+        <v>54</v>
+      </c>
+      <c r="I449" s="1">
+        <v>280</v>
+      </c>
+      <c r="J449" s="1">
+        <f t="shared" si="25"/>
+        <v>262860.82038133737</v>
+      </c>
+      <c r="K449" s="1">
+        <f t="shared" si="26"/>
+        <v>54708.377001594017</v>
+      </c>
+      <c r="L449">
+        <v>0.491916376544831</v>
+      </c>
+      <c r="M449">
+        <v>36.870175041749697</v>
+      </c>
+      <c r="N449" t="s">
+        <v>258</v>
+      </c>
+      <c r="P449" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q449" t="s">
+        <v>78</v>
+      </c>
+      <c r="R449" t="s">
+        <v>34</v>
+      </c>
+      <c r="S449" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T449" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U449" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V449" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W449" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X449" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y449" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z449" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA449" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD449">
+        <v>25</v>
+      </c>
+      <c r="AP449" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ449">
+        <v>1.2945792637778801E-3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A450" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B450" s="1">
+        <v>4</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D450" s="1">
+        <v>3</v>
+      </c>
+      <c r="E450" s="1">
+        <v>1115</v>
+      </c>
+      <c r="F450" s="1">
+        <v>262963</v>
+      </c>
+      <c r="G450" s="1">
+        <v>54921</v>
+      </c>
+      <c r="H450" s="1">
+        <v>11</v>
+      </c>
+      <c r="I450" s="1">
+        <v>320</v>
+      </c>
+      <c r="J450" s="1">
+        <f t="shared" si="25"/>
+        <v>262955.92933629343</v>
+      </c>
+      <c r="K450" s="1">
+        <f t="shared" si="26"/>
+        <v>54929.426488874306</v>
+      </c>
+      <c r="L450">
+        <v>0.493915169608941</v>
+      </c>
+      <c r="M450">
+        <v>36.871028561839701</v>
+      </c>
+      <c r="N450" t="s">
+        <v>258</v>
+      </c>
+      <c r="P450" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q450" t="s">
+        <v>78</v>
+      </c>
+      <c r="R450" t="s">
+        <v>34</v>
+      </c>
+      <c r="S450" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T450" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V450" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W450" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X450" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y450" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z450" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA450" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD450">
+        <v>7</v>
+      </c>
+      <c r="AQ450">
+        <v>1.4396917204763699E-4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A451" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B451" s="1">
+        <v>4</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D451" s="1">
+        <v>3</v>
+      </c>
+      <c r="E451" s="1">
+        <v>1115</v>
+      </c>
+      <c r="F451" s="1">
+        <v>262963</v>
+      </c>
+      <c r="G451" s="1">
+        <v>54921</v>
+      </c>
+      <c r="H451" s="1">
+        <v>11</v>
+      </c>
+      <c r="I451" s="1">
+        <v>320</v>
+      </c>
+      <c r="J451" s="1">
+        <f t="shared" ref="J451:J457" si="27">F451+H451*SIN(I451*PI()/180)</f>
+        <v>262955.92933629343</v>
+      </c>
+      <c r="K451" s="1">
+        <f t="shared" ref="K451:K457" si="28">G451+H451*COS(I451*PI()/180)</f>
+        <v>54929.426488874306</v>
+      </c>
+      <c r="L451">
+        <v>0.493915169608941</v>
+      </c>
+      <c r="M451">
+        <v>36.871028561839701</v>
+      </c>
+      <c r="N451" t="s">
+        <v>249</v>
+      </c>
+      <c r="P451" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q451" t="s">
+        <v>78</v>
+      </c>
+      <c r="R451" t="s">
+        <v>34</v>
+      </c>
+      <c r="S451" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T451" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V451" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W451" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X451" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y451" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z451" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA451" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD451">
+        <v>60</v>
+      </c>
+      <c r="AQ451">
+        <v>1.4396917204763699E-4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A452" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B452" s="1">
+        <v>4</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D452" s="1">
+        <v>1</v>
+      </c>
+      <c r="E452" s="1">
+        <v>1119</v>
+      </c>
+      <c r="F452" s="1">
+        <v>263481</v>
+      </c>
+      <c r="G452" s="1">
+        <v>54967</v>
+      </c>
+      <c r="H452" s="1">
+        <v>150</v>
+      </c>
+      <c r="I452" s="1">
+        <v>20</v>
+      </c>
+      <c r="J452" s="1">
+        <f t="shared" si="27"/>
+        <v>263532.30302149884</v>
+      </c>
+      <c r="K452" s="1">
+        <f t="shared" si="28"/>
+        <v>55107.953893117883</v>
+      </c>
+      <c r="L452">
+        <v>0.49553092540467197</v>
+      </c>
+      <c r="M452">
+        <v>36.876204381636398</v>
+      </c>
+      <c r="N452" t="s">
+        <v>258</v>
+      </c>
+      <c r="P452" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q452" t="s">
+        <v>78</v>
+      </c>
+      <c r="R452" t="s">
+        <v>34</v>
+      </c>
+      <c r="S452" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T452" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U452" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V452" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W452" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X452" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA452" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD452">
+        <v>15</v>
+      </c>
+      <c r="AP452" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ452">
+        <v>3.1321399744842497E-4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A453" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B453" s="1">
+        <v>4</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D453" s="1">
+        <v>2</v>
+      </c>
+      <c r="E453" s="1">
+        <v>1125</v>
+      </c>
+      <c r="F453" s="1">
+        <v>263664</v>
+      </c>
+      <c r="G453" s="1">
+        <v>55914</v>
+      </c>
+      <c r="H453" s="1">
+        <v>80</v>
+      </c>
+      <c r="I453" s="1">
+        <v>300</v>
+      </c>
+      <c r="J453" s="1">
+        <f t="shared" si="27"/>
+        <v>263594.71796769724</v>
+      </c>
+      <c r="K453" s="1">
+        <f t="shared" si="28"/>
+        <v>55954</v>
+      </c>
+      <c r="L453">
+        <v>0.50318027164337997</v>
+      </c>
+      <c r="M453">
+        <v>36.876762455044002</v>
+      </c>
+      <c r="N453" t="s">
+        <v>249</v>
+      </c>
+      <c r="P453" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q453" t="s">
+        <v>33</v>
+      </c>
+      <c r="R453" t="s">
+        <v>34</v>
+      </c>
+      <c r="S453" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T453" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U453" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V453" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W453" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X453" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD453">
+        <v>25</v>
+      </c>
+      <c r="AP453" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ453">
+        <v>1.27048558180913E-3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A454" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B454" s="1">
+        <v>4</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D454" s="1">
+        <v>3</v>
+      </c>
+      <c r="E454" s="1">
+        <v>1132</v>
+      </c>
+      <c r="F454" s="1">
+        <v>262749</v>
+      </c>
+      <c r="G454" s="1">
+        <v>55517</v>
+      </c>
+      <c r="H454" s="1">
+        <v>28</v>
+      </c>
+      <c r="I454" s="1">
+        <v>40</v>
+      </c>
+      <c r="J454" s="1">
+        <f t="shared" si="27"/>
+        <v>262766.99805307121</v>
+      </c>
+      <c r="K454" s="1">
+        <f t="shared" si="28"/>
+        <v>55538.449244407333</v>
+      </c>
+      <c r="L454">
+        <v>0.49942081114935699</v>
+      </c>
+      <c r="M454">
+        <v>36.869330025788699</v>
+      </c>
+      <c r="N454" t="s">
+        <v>249</v>
+      </c>
+      <c r="P454" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q454" t="s">
+        <v>33</v>
+      </c>
+      <c r="R454" t="s">
+        <v>34</v>
+      </c>
+      <c r="S454" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T454" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U454" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V454" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W454" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X454" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA454" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD454">
+        <v>80</v>
+      </c>
+      <c r="AP454" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ454">
+        <v>5.4653635888769099E-3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A455" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B455" s="1">
+        <v>4</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D455" s="1">
+        <v>1</v>
+      </c>
+      <c r="E455" s="1">
+        <v>1140</v>
+      </c>
+      <c r="F455" s="1">
+        <v>262371</v>
+      </c>
+      <c r="G455" s="1">
+        <v>54252</v>
+      </c>
+      <c r="H455" s="1">
+        <v>48</v>
+      </c>
+      <c r="I455" s="1">
+        <v>200</v>
+      </c>
+      <c r="J455" s="1">
+        <f t="shared" si="27"/>
+        <v>262354.58303312038</v>
+      </c>
+      <c r="K455" s="1">
+        <f t="shared" si="28"/>
+        <v>54206.89475420228</v>
+      </c>
+      <c r="L455">
+        <v>0.48738100090484099</v>
+      </c>
+      <c r="M455">
+        <v>36.865630051370097</v>
+      </c>
+      <c r="N455" t="s">
+        <v>260</v>
+      </c>
+      <c r="P455" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q455" t="s">
+        <v>33</v>
+      </c>
+      <c r="R455" t="s">
+        <v>34</v>
+      </c>
+      <c r="S455" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T455" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U455" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V455" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W455" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X455" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y455" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z455" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA455" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD455">
+        <v>40</v>
+      </c>
+      <c r="AP455" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ455">
+        <v>3.8219642483521602E-3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A456" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B456" s="1">
+        <v>4</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D456" s="1">
+        <v>2</v>
+      </c>
+      <c r="E456" s="1">
+        <v>1204</v>
+      </c>
+      <c r="F456" s="1">
+        <v>262463</v>
+      </c>
+      <c r="G456" s="1">
+        <v>53834</v>
+      </c>
+      <c r="H456" s="1">
+        <v>34</v>
+      </c>
+      <c r="I456" s="1">
+        <v>320</v>
+      </c>
+      <c r="J456" s="1">
+        <f t="shared" si="27"/>
+        <v>262441.14522127068</v>
+      </c>
+      <c r="K456" s="1">
+        <f t="shared" si="28"/>
+        <v>53860.045511066048</v>
+      </c>
+      <c r="L456">
+        <v>0.48424538233436898</v>
+      </c>
+      <c r="M456">
+        <v>36.8664084399907</v>
+      </c>
+      <c r="N456" t="s">
+        <v>31</v>
+      </c>
+      <c r="O456">
+        <v>0</v>
+      </c>
+      <c r="P456" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q456" t="s">
+        <v>33</v>
+      </c>
+      <c r="R456" t="s">
+        <v>34</v>
+      </c>
+      <c r="S456" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T456" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U456" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V456" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W456" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X456" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y456" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA456" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB456">
+        <v>2439</v>
+      </c>
+      <c r="AC456">
+        <v>2495</v>
+      </c>
+      <c r="AD456">
+        <v>8</v>
+      </c>
+      <c r="AE456">
+        <v>1</v>
+      </c>
+      <c r="AH456">
+        <v>2</v>
+      </c>
+      <c r="AK456">
+        <v>2</v>
+      </c>
+      <c r="AN456">
+        <v>1</v>
+      </c>
+      <c r="AO456">
+        <v>1</v>
+      </c>
+      <c r="AP456" t="s">
+        <v>375</v>
+      </c>
+      <c r="AQ456">
+        <v>1.48700129148205E-3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A457" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B457" s="1">
+        <v>4</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D457" s="1">
+        <v>3</v>
+      </c>
+      <c r="E457" s="1">
+        <v>1208</v>
+      </c>
+      <c r="F457" s="1">
+        <v>262267</v>
+      </c>
+      <c r="G457" s="1">
+        <v>53586</v>
+      </c>
+      <c r="H457" s="1">
+        <v>200</v>
+      </c>
+      <c r="I457" s="1">
+        <v>220</v>
+      </c>
+      <c r="J457" s="1">
+        <f t="shared" si="27"/>
+        <v>262138.4424780627</v>
+      </c>
+      <c r="K457" s="1">
+        <f t="shared" si="28"/>
+        <v>53432.791111376202</v>
+      </c>
+      <c r="L457">
+        <v>0.48038171000011198</v>
+      </c>
+      <c r="M457">
+        <v>36.863691137937302</v>
+      </c>
+      <c r="N457" t="s">
+        <v>249</v>
+      </c>
+      <c r="P457" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q457" t="s">
+        <v>33</v>
+      </c>
+      <c r="R457" t="s">
+        <v>34</v>
+      </c>
+      <c r="S457" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="T457" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U457" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V457" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W457" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X457" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA457" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD457">
+        <v>50</v>
+      </c>
+      <c r="AP457" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ457">
+        <v>5.5823985784751295E-4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A458" s="2"/>
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
     </row>
     <row r="1048560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048560" s="2"/>

--- a/MasterRawWhitesheets.xlsx
+++ b/MasterRawWhitesheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxgotts/Desktop/MPALA/Whitesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9D3E5A-5340-2C4A-9D6A-7C15EA64DFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CB18EC-8FD4-DD4B-9A68-90F60643DFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="22200" windowWidth="28800" windowHeight="17540" xr2:uid="{36B2ED0A-F989-D041-BB6A-DE14AE9EF1AD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{36B2ED0A-F989-D041-BB6A-DE14AE9EF1AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6278" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6491" uniqueCount="390">
   <si>
     <t>Date</t>
   </si>
@@ -1163,6 +1163,48 @@
   <si>
     <t>Opposite Tower Area, vigilant</t>
   </si>
+  <si>
+    <t>DSCN3012</t>
+  </si>
+  <si>
+    <t>Woundmarks on thigh of 3-6 month old</t>
+  </si>
+  <si>
+    <t>DSCN3013</t>
+  </si>
+  <si>
+    <t>Ilimotiok cattle, Ngaramata Dam</t>
+  </si>
+  <si>
+    <t>Dig.</t>
+  </si>
+  <si>
+    <t>Ilimotiok cattle</t>
+  </si>
+  <si>
+    <t>DSCN3014</t>
+  </si>
+  <si>
+    <t>Leki'j'I cattle</t>
+  </si>
+  <si>
+    <t>DSCN3015</t>
+  </si>
+  <si>
+    <t>DSCN3016</t>
+  </si>
+  <si>
+    <t>Mpala Steers</t>
+  </si>
+  <si>
+    <t>Ewaso-Narok River</t>
+  </si>
+  <si>
+    <t>DSCN3017</t>
+  </si>
+  <si>
+    <t>Ngaramata Dam Area</t>
+  </si>
 </sst>
 </file>
 
@@ -1534,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A334BBC-0BE1-1D4B-AB5E-CA1B598930C6}">
   <dimension ref="A1:AR1048560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" zoomScale="113" workbookViewId="0">
-      <selection activeCell="Q421" sqref="Q421"/>
+    <sheetView tabSelected="1" topLeftCell="AG447" zoomScale="113" workbookViewId="0">
+      <selection activeCell="AU472" sqref="AU472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48135,16 +48177,17 @@
         <f t="shared" si="28"/>
         <v>54206.89475420228</v>
       </c>
-      <c r="L455">
+      <c r="L455" s="1">
         <v>0.48738100090484099</v>
       </c>
-      <c r="M455">
+      <c r="M455" s="1">
         <v>36.865630051370097</v>
       </c>
-      <c r="N455" t="s">
+      <c r="N455" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="P455" t="s">
+      <c r="O455" s="1"/>
+      <c r="P455" s="1" t="s">
         <v>187</v>
       </c>
       <c r="Q455" t="s">
@@ -48226,19 +48269,19 @@
         <f t="shared" si="28"/>
         <v>53860.045511066048</v>
       </c>
-      <c r="L456">
+      <c r="L456" s="1">
         <v>0.48424538233436898</v>
       </c>
-      <c r="M456">
+      <c r="M456" s="1">
         <v>36.8664084399907</v>
       </c>
-      <c r="N456" t="s">
+      <c r="N456" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O456">
+      <c r="O456" s="1">
         <v>0</v>
       </c>
-      <c r="P456" t="s">
+      <c r="P456" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Q456" t="s">
@@ -48338,16 +48381,17 @@
         <f t="shared" si="28"/>
         <v>53432.791111376202</v>
       </c>
-      <c r="L457">
+      <c r="L457" s="1">
         <v>0.48038171000011198</v>
       </c>
-      <c r="M457">
+      <c r="M457" s="1">
         <v>36.863691137937302</v>
       </c>
-      <c r="N457" t="s">
+      <c r="N457" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="P457" t="s">
+      <c r="O457" s="1"/>
+      <c r="P457" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Q457" t="s">
@@ -48388,9 +48432,1445 @@
       </c>
     </row>
     <row r="458" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A458" s="2"/>
-      <c r="B458" s="1"/>
-      <c r="C458" s="1"/>
+      <c r="A458" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458" t="s">
+        <v>376</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+      <c r="E458">
+        <v>1023</v>
+      </c>
+      <c r="F458">
+        <v>260305</v>
+      </c>
+      <c r="G458">
+        <v>48621</v>
+      </c>
+      <c r="H458">
+        <v>18</v>
+      </c>
+      <c r="I458" s="1">
+        <v>260</v>
+      </c>
+      <c r="J458" s="1">
+        <v>260287.27350000001</v>
+      </c>
+      <c r="K458" s="1">
+        <v>48617.874329999999</v>
+      </c>
+      <c r="L458" s="1">
+        <v>0.43684525745298802</v>
+      </c>
+      <c r="M458" s="1">
+        <v>36.847079355306299</v>
+      </c>
+      <c r="N458" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O458" s="1"/>
+      <c r="P458" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q458" t="s">
+        <v>33</v>
+      </c>
+      <c r="R458" t="s">
+        <v>34</v>
+      </c>
+      <c r="S458" t="s">
+        <v>35</v>
+      </c>
+      <c r="T458" t="s">
+        <v>46</v>
+      </c>
+      <c r="U458" t="s">
+        <v>37</v>
+      </c>
+      <c r="W458" t="s">
+        <v>53</v>
+      </c>
+      <c r="X458" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y458" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA458" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD458">
+        <v>90</v>
+      </c>
+      <c r="AQ458">
+        <v>8.9398204919117E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+      <c r="C459" t="s">
+        <v>376</v>
+      </c>
+      <c r="D459">
+        <v>2</v>
+      </c>
+      <c r="E459">
+        <v>1035</v>
+      </c>
+      <c r="F459">
+        <v>260111</v>
+      </c>
+      <c r="G459">
+        <v>49244</v>
+      </c>
+      <c r="H459">
+        <v>36</v>
+      </c>
+      <c r="I459" s="1">
+        <v>120</v>
+      </c>
+      <c r="J459" s="1">
+        <v>260142.17689999999</v>
+      </c>
+      <c r="K459" s="1">
+        <v>49226</v>
+      </c>
+      <c r="L459" s="1">
+        <v>0.442342876148549</v>
+      </c>
+      <c r="M459" s="1">
+        <v>36.845774709705097</v>
+      </c>
+      <c r="N459" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O459" s="1">
+        <v>0</v>
+      </c>
+      <c r="P459" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q459" t="s">
+        <v>78</v>
+      </c>
+      <c r="R459" t="s">
+        <v>34</v>
+      </c>
+      <c r="S459" t="s">
+        <v>55</v>
+      </c>
+      <c r="T459" t="s">
+        <v>50</v>
+      </c>
+      <c r="U459" t="s">
+        <v>70</v>
+      </c>
+      <c r="V459" t="s">
+        <v>110</v>
+      </c>
+      <c r="W459" t="s">
+        <v>53</v>
+      </c>
+      <c r="X459" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y459" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z459" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA459" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB459">
+        <v>2768</v>
+      </c>
+      <c r="AC459">
+        <v>2811</v>
+      </c>
+      <c r="AD459">
+        <v>17</v>
+      </c>
+      <c r="AE459">
+        <v>1</v>
+      </c>
+      <c r="AF459">
+        <v>8</v>
+      </c>
+      <c r="AH459">
+        <v>2</v>
+      </c>
+      <c r="AN459">
+        <v>2</v>
+      </c>
+      <c r="AQ459">
+        <v>4.2907871753795398E-3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460" t="s">
+        <v>376</v>
+      </c>
+      <c r="D460">
+        <v>3</v>
+      </c>
+      <c r="E460">
+        <v>1059</v>
+      </c>
+      <c r="F460">
+        <v>259753</v>
+      </c>
+      <c r="G460">
+        <v>49757</v>
+      </c>
+      <c r="H460">
+        <v>76</v>
+      </c>
+      <c r="I460" s="1">
+        <v>300</v>
+      </c>
+      <c r="J460" s="1">
+        <v>259687.18210000001</v>
+      </c>
+      <c r="K460" s="1">
+        <v>49795</v>
+      </c>
+      <c r="L460" s="1">
+        <v>0.44748592531755299</v>
+      </c>
+      <c r="M460" s="1">
+        <v>36.841687067123502</v>
+      </c>
+      <c r="N460" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O460" s="1">
+        <v>0</v>
+      </c>
+      <c r="P460" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q460" t="s">
+        <v>82</v>
+      </c>
+      <c r="R460" t="s">
+        <v>34</v>
+      </c>
+      <c r="S460" t="s">
+        <v>35</v>
+      </c>
+      <c r="T460" t="s">
+        <v>36</v>
+      </c>
+      <c r="U460" t="s">
+        <v>37</v>
+      </c>
+      <c r="V460" t="s">
+        <v>56</v>
+      </c>
+      <c r="W460" t="s">
+        <v>41</v>
+      </c>
+      <c r="X460" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y460" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z460" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA460" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB460">
+        <v>2812</v>
+      </c>
+      <c r="AC460">
+        <v>2842</v>
+      </c>
+      <c r="AD460">
+        <v>6</v>
+      </c>
+      <c r="AE460">
+        <v>1</v>
+      </c>
+      <c r="AG460">
+        <v>3</v>
+      </c>
+      <c r="AH460">
+        <v>1</v>
+      </c>
+      <c r="AM460">
+        <v>1</v>
+      </c>
+      <c r="AP460" t="s">
+        <v>377</v>
+      </c>
+      <c r="AQ460">
+        <v>1.4128672814169301E-3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+      <c r="C461" t="s">
+        <v>378</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+      <c r="E461">
+        <v>1116</v>
+      </c>
+      <c r="F461">
+        <v>258525</v>
+      </c>
+      <c r="G461">
+        <v>50497</v>
+      </c>
+      <c r="H461">
+        <v>32</v>
+      </c>
+      <c r="I461" s="1">
+        <v>290</v>
+      </c>
+      <c r="J461" s="1">
+        <v>258494.92980000001</v>
+      </c>
+      <c r="K461" s="1">
+        <v>50507.944640000002</v>
+      </c>
+      <c r="L461" s="1">
+        <v>0.45392831575627701</v>
+      </c>
+      <c r="M461" s="1">
+        <v>36.830978021556597</v>
+      </c>
+      <c r="N461" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O461" s="1">
+        <v>0</v>
+      </c>
+      <c r="P461" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q461" t="s">
+        <v>33</v>
+      </c>
+      <c r="R461" t="s">
+        <v>34</v>
+      </c>
+      <c r="S461" t="s">
+        <v>45</v>
+      </c>
+      <c r="T461" t="s">
+        <v>50</v>
+      </c>
+      <c r="U461" t="s">
+        <v>70</v>
+      </c>
+      <c r="V461" t="s">
+        <v>110</v>
+      </c>
+      <c r="W461" t="s">
+        <v>41</v>
+      </c>
+      <c r="X461" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y461" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z461" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA461" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB461">
+        <v>2843</v>
+      </c>
+      <c r="AC461">
+        <v>2858</v>
+      </c>
+      <c r="AD461">
+        <v>8</v>
+      </c>
+      <c r="AE461">
+        <v>1</v>
+      </c>
+      <c r="AG461">
+        <v>2</v>
+      </c>
+      <c r="AH461">
+        <v>2</v>
+      </c>
+      <c r="AI461">
+        <v>1</v>
+      </c>
+      <c r="AM461">
+        <v>2</v>
+      </c>
+      <c r="AQ461">
+        <v>5.4347956707141301E-3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462" t="s">
+        <v>378</v>
+      </c>
+      <c r="D462">
+        <v>2</v>
+      </c>
+      <c r="E462">
+        <v>1131</v>
+      </c>
+      <c r="F462">
+        <v>259639</v>
+      </c>
+      <c r="G462">
+        <v>52648</v>
+      </c>
+      <c r="H462">
+        <v>7</v>
+      </c>
+      <c r="I462" s="1">
+        <v>240</v>
+      </c>
+      <c r="J462" s="1">
+        <v>259632.93780000001</v>
+      </c>
+      <c r="K462" s="1">
+        <v>52644.5</v>
+      </c>
+      <c r="L462" s="1">
+        <v>0.47324771646303898</v>
+      </c>
+      <c r="M462" s="1">
+        <v>36.841192122636997</v>
+      </c>
+      <c r="N462" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O462" s="1"/>
+      <c r="P462" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q462" t="s">
+        <v>33</v>
+      </c>
+      <c r="R462" t="s">
+        <v>34</v>
+      </c>
+      <c r="S462" t="s">
+        <v>35</v>
+      </c>
+      <c r="T462" t="s">
+        <v>50</v>
+      </c>
+      <c r="U462" t="s">
+        <v>70</v>
+      </c>
+      <c r="V462" t="s">
+        <v>110</v>
+      </c>
+      <c r="W462" t="s">
+        <v>53</v>
+      </c>
+      <c r="X462" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y462" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z462" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA462" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD462">
+        <v>160</v>
+      </c>
+      <c r="AP462" t="s">
+        <v>379</v>
+      </c>
+      <c r="AQ462">
+        <v>2.77893371258914E-3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+      <c r="C463" t="s">
+        <v>378</v>
+      </c>
+      <c r="D463">
+        <v>3</v>
+      </c>
+      <c r="E463">
+        <v>1135</v>
+      </c>
+      <c r="F463">
+        <v>259158</v>
+      </c>
+      <c r="G463">
+        <v>51829</v>
+      </c>
+      <c r="H463">
+        <v>11</v>
+      </c>
+      <c r="I463" s="1">
+        <v>220</v>
+      </c>
+      <c r="J463" s="1">
+        <v>259150.92929999999</v>
+      </c>
+      <c r="K463" s="1">
+        <v>51820.573510000002</v>
+      </c>
+      <c r="L463" s="1">
+        <v>0.46579736618352002</v>
+      </c>
+      <c r="M463" s="1">
+        <v>36.836865683350297</v>
+      </c>
+      <c r="N463" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O463" s="1"/>
+      <c r="P463" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q463" t="s">
+        <v>33</v>
+      </c>
+      <c r="R463" t="s">
+        <v>34</v>
+      </c>
+      <c r="S463" t="s">
+        <v>35</v>
+      </c>
+      <c r="T463" t="s">
+        <v>50</v>
+      </c>
+      <c r="U463" t="s">
+        <v>70</v>
+      </c>
+      <c r="V463" t="s">
+        <v>110</v>
+      </c>
+      <c r="W463" t="s">
+        <v>71</v>
+      </c>
+      <c r="X463" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y463" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z463" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA463" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD463">
+        <v>110</v>
+      </c>
+      <c r="AP463" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ463">
+        <v>6.7976046996643799E-3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464" t="s">
+        <v>382</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+      <c r="E464">
+        <v>1139</v>
+      </c>
+      <c r="F464">
+        <v>259092</v>
+      </c>
+      <c r="G464">
+        <v>51626</v>
+      </c>
+      <c r="H464">
+        <v>16</v>
+      </c>
+      <c r="I464" s="1">
+        <v>310</v>
+      </c>
+      <c r="J464" s="1">
+        <v>259079.7433</v>
+      </c>
+      <c r="K464" s="1">
+        <v>51636.284599999999</v>
+      </c>
+      <c r="L464" s="1">
+        <v>0.46413104225658303</v>
+      </c>
+      <c r="M464" s="1">
+        <v>36.836226899964302</v>
+      </c>
+      <c r="N464" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O464" s="1"/>
+      <c r="P464" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q464" t="s">
+        <v>33</v>
+      </c>
+      <c r="R464" t="s">
+        <v>34</v>
+      </c>
+      <c r="S464" t="s">
+        <v>35</v>
+      </c>
+      <c r="T464" t="s">
+        <v>50</v>
+      </c>
+      <c r="U464" t="s">
+        <v>70</v>
+      </c>
+      <c r="V464" t="s">
+        <v>110</v>
+      </c>
+      <c r="W464" t="s">
+        <v>71</v>
+      </c>
+      <c r="X464" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y464" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z464" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA464" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD464">
+        <v>389</v>
+      </c>
+      <c r="AP464" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ464">
+        <v>7.27758583952053E-3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="C465" t="s">
+        <v>382</v>
+      </c>
+      <c r="D465">
+        <v>2</v>
+      </c>
+      <c r="E465">
+        <v>1143</v>
+      </c>
+      <c r="F465">
+        <v>258853</v>
+      </c>
+      <c r="G465">
+        <v>51212</v>
+      </c>
+      <c r="H465">
+        <v>6</v>
+      </c>
+      <c r="I465" s="1">
+        <v>300</v>
+      </c>
+      <c r="J465" s="1">
+        <v>258847.80379999999</v>
+      </c>
+      <c r="K465" s="1">
+        <v>51215</v>
+      </c>
+      <c r="L465" s="1">
+        <v>0.46032163823588601</v>
+      </c>
+      <c r="M465" s="1">
+        <v>36.834145104884101</v>
+      </c>
+      <c r="N465" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O465" s="1"/>
+      <c r="P465" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q465" t="s">
+        <v>33</v>
+      </c>
+      <c r="R465" t="s">
+        <v>34</v>
+      </c>
+      <c r="S465" t="s">
+        <v>35</v>
+      </c>
+      <c r="T465" t="s">
+        <v>50</v>
+      </c>
+      <c r="U465" t="s">
+        <v>70</v>
+      </c>
+      <c r="V465" t="s">
+        <v>110</v>
+      </c>
+      <c r="W465" t="s">
+        <v>39</v>
+      </c>
+      <c r="X465" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y465" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z465" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA465" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD465">
+        <v>260</v>
+      </c>
+      <c r="AP465" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ465">
+        <v>8.5192671339479505E-3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466" t="s">
+        <v>382</v>
+      </c>
+      <c r="D466">
+        <v>3</v>
+      </c>
+      <c r="E466">
+        <v>1205</v>
+      </c>
+      <c r="F466">
+        <v>260461</v>
+      </c>
+      <c r="G466">
+        <v>51578</v>
+      </c>
+      <c r="H466">
+        <v>33</v>
+      </c>
+      <c r="I466" s="1">
+        <v>250</v>
+      </c>
+      <c r="J466" s="1">
+        <v>260429.9901</v>
+      </c>
+      <c r="K466" s="1">
+        <v>51566.713340000002</v>
+      </c>
+      <c r="L466" s="1">
+        <v>0.46350580296298199</v>
+      </c>
+      <c r="M466" s="1">
+        <v>36.848353176872202</v>
+      </c>
+      <c r="N466" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O466" s="1"/>
+      <c r="P466" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q466" t="s">
+        <v>33</v>
+      </c>
+      <c r="R466" t="s">
+        <v>34</v>
+      </c>
+      <c r="S466" t="s">
+        <v>35</v>
+      </c>
+      <c r="T466" t="s">
+        <v>50</v>
+      </c>
+      <c r="U466" t="s">
+        <v>37</v>
+      </c>
+      <c r="V466" t="s">
+        <v>110</v>
+      </c>
+      <c r="W466" t="s">
+        <v>39</v>
+      </c>
+      <c r="X466" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y466" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA466" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD466">
+        <v>25</v>
+      </c>
+      <c r="AP466" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ466">
+        <v>3.1790874680111001E-3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467" t="s">
+        <v>384</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>1225</v>
+      </c>
+      <c r="F467">
+        <v>260964</v>
+      </c>
+      <c r="G467">
+        <v>49968</v>
+      </c>
+      <c r="H467">
+        <v>37</v>
+      </c>
+      <c r="I467" s="1">
+        <v>110</v>
+      </c>
+      <c r="J467" s="1">
+        <v>260998.76860000001</v>
+      </c>
+      <c r="K467" s="1">
+        <v>49955.345249999998</v>
+      </c>
+      <c r="L467" s="1">
+        <v>0.44893909852160602</v>
+      </c>
+      <c r="M467" s="1">
+        <v>36.8534655476493</v>
+      </c>
+      <c r="N467" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O467" s="1"/>
+      <c r="P467" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q467" t="s">
+        <v>33</v>
+      </c>
+      <c r="R467" t="s">
+        <v>34</v>
+      </c>
+      <c r="S467" t="s">
+        <v>35</v>
+      </c>
+      <c r="T467" t="s">
+        <v>105</v>
+      </c>
+      <c r="U467" t="s">
+        <v>37</v>
+      </c>
+      <c r="V467" t="s">
+        <v>110</v>
+      </c>
+      <c r="W467" t="s">
+        <v>41</v>
+      </c>
+      <c r="X467" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y467" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z467" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA467" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB467">
+        <v>2859</v>
+      </c>
+      <c r="AC467">
+        <v>2883</v>
+      </c>
+      <c r="AD467">
+        <v>4</v>
+      </c>
+      <c r="AE467">
+        <v>1</v>
+      </c>
+      <c r="AG467">
+        <v>1</v>
+      </c>
+      <c r="AH467">
+        <v>1</v>
+      </c>
+      <c r="AM467">
+        <v>1</v>
+      </c>
+      <c r="AQ467">
+        <v>5.4305937667986004E-3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B468">
+        <v>2</v>
+      </c>
+      <c r="C468" t="s">
+        <v>385</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468">
+        <v>1239</v>
+      </c>
+      <c r="F468">
+        <v>261706</v>
+      </c>
+      <c r="G468">
+        <v>52210</v>
+      </c>
+      <c r="H468">
+        <v>42</v>
+      </c>
+      <c r="I468" s="1">
+        <v>240</v>
+      </c>
+      <c r="J468" s="1">
+        <v>261669.6269</v>
+      </c>
+      <c r="K468" s="1">
+        <v>52189</v>
+      </c>
+      <c r="L468" s="1">
+        <v>0.46913529631819101</v>
+      </c>
+      <c r="M468" s="1">
+        <v>36.859484288038999</v>
+      </c>
+      <c r="N468" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O468" s="1">
+        <v>1</v>
+      </c>
+      <c r="P468" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q468" t="s">
+        <v>33</v>
+      </c>
+      <c r="R468" t="s">
+        <v>34</v>
+      </c>
+      <c r="S468" t="s">
+        <v>35</v>
+      </c>
+      <c r="T468" t="s">
+        <v>36</v>
+      </c>
+      <c r="U468" t="s">
+        <v>51</v>
+      </c>
+      <c r="V468" t="s">
+        <v>110</v>
+      </c>
+      <c r="W468" t="s">
+        <v>40</v>
+      </c>
+      <c r="X468" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y468" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z468" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA468" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB468">
+        <v>2884</v>
+      </c>
+      <c r="AC468">
+        <v>3008</v>
+      </c>
+      <c r="AD468">
+        <v>10</v>
+      </c>
+      <c r="AE468">
+        <v>1</v>
+      </c>
+      <c r="AG468">
+        <v>2</v>
+      </c>
+      <c r="AH468">
+        <v>1</v>
+      </c>
+      <c r="AI468">
+        <v>1</v>
+      </c>
+      <c r="AJ468">
+        <v>2</v>
+      </c>
+      <c r="AL468">
+        <v>1</v>
+      </c>
+      <c r="AM468">
+        <v>1</v>
+      </c>
+      <c r="AQ468">
+        <v>4.9268329969656298E-3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B469">
+        <v>2</v>
+      </c>
+      <c r="C469" t="s">
+        <v>385</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>1239</v>
+      </c>
+      <c r="F469">
+        <v>261706</v>
+      </c>
+      <c r="G469">
+        <v>52210</v>
+      </c>
+      <c r="H469">
+        <v>42</v>
+      </c>
+      <c r="I469" s="1">
+        <v>240</v>
+      </c>
+      <c r="J469" s="1">
+        <v>261669.6269</v>
+      </c>
+      <c r="K469" s="1">
+        <v>52189</v>
+      </c>
+      <c r="L469" s="1">
+        <v>0.46913529631819101</v>
+      </c>
+      <c r="M469" s="1">
+        <v>36.859484288038999</v>
+      </c>
+      <c r="N469" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O469" s="1">
+        <v>1</v>
+      </c>
+      <c r="P469" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q469" t="s">
+        <v>33</v>
+      </c>
+      <c r="R469" t="s">
+        <v>34</v>
+      </c>
+      <c r="S469" t="s">
+        <v>35</v>
+      </c>
+      <c r="T469" t="s">
+        <v>36</v>
+      </c>
+      <c r="U469" t="s">
+        <v>51</v>
+      </c>
+      <c r="V469" t="s">
+        <v>110</v>
+      </c>
+      <c r="W469" t="s">
+        <v>40</v>
+      </c>
+      <c r="X469" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y469" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z469" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA469" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB469">
+        <v>2884</v>
+      </c>
+      <c r="AC469">
+        <v>3008</v>
+      </c>
+      <c r="AD469">
+        <v>10</v>
+      </c>
+      <c r="AH469">
+        <v>5</v>
+      </c>
+      <c r="AN469">
+        <v>2</v>
+      </c>
+      <c r="AO469">
+        <v>3</v>
+      </c>
+      <c r="AQ469">
+        <v>4.9268329969656298E-3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B470">
+        <v>2</v>
+      </c>
+      <c r="C470" t="s">
+        <v>385</v>
+      </c>
+      <c r="D470">
+        <v>2</v>
+      </c>
+      <c r="E470">
+        <v>1314</v>
+      </c>
+      <c r="F470">
+        <v>261913</v>
+      </c>
+      <c r="G470">
+        <v>54031</v>
+      </c>
+      <c r="H470">
+        <v>22</v>
+      </c>
+      <c r="I470" s="1">
+        <v>320</v>
+      </c>
+      <c r="J470" s="1">
+        <v>261898.85870000001</v>
+      </c>
+      <c r="K470" s="1">
+        <v>54047.852980000003</v>
+      </c>
+      <c r="L470" s="1">
+        <v>0.485941792164715</v>
+      </c>
+      <c r="M470" s="1">
+        <v>36.861537738063703</v>
+      </c>
+      <c r="N470" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O470" s="1"/>
+      <c r="P470" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q470" t="s">
+        <v>33</v>
+      </c>
+      <c r="R470" t="s">
+        <v>34</v>
+      </c>
+      <c r="S470" t="s">
+        <v>35</v>
+      </c>
+      <c r="T470" t="s">
+        <v>50</v>
+      </c>
+      <c r="U470" t="s">
+        <v>37</v>
+      </c>
+      <c r="V470" t="s">
+        <v>110</v>
+      </c>
+      <c r="W470" t="s">
+        <v>39</v>
+      </c>
+      <c r="X470" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y470" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA470" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD470">
+        <v>18</v>
+      </c>
+      <c r="AP470" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ470">
+        <v>5.9208675385160597E-3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B471">
+        <v>2</v>
+      </c>
+      <c r="C471" t="s">
+        <v>385</v>
+      </c>
+      <c r="D471">
+        <v>3</v>
+      </c>
+      <c r="E471">
+        <v>1320</v>
+      </c>
+      <c r="F471">
+        <v>260253</v>
+      </c>
+      <c r="G471">
+        <v>55862</v>
+      </c>
+      <c r="H471">
+        <v>19</v>
+      </c>
+      <c r="I471" s="1">
+        <v>40</v>
+      </c>
+      <c r="J471" s="1">
+        <v>260265.21299999999</v>
+      </c>
+      <c r="K471" s="1">
+        <v>55876.554839999997</v>
+      </c>
+      <c r="L471" s="1">
+        <v>0.50247017415106998</v>
+      </c>
+      <c r="M471" s="1">
+        <v>36.846861030585799</v>
+      </c>
+      <c r="N471" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O471" s="1"/>
+      <c r="P471" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q471" t="s">
+        <v>33</v>
+      </c>
+      <c r="R471" t="s">
+        <v>34</v>
+      </c>
+      <c r="S471" t="s">
+        <v>35</v>
+      </c>
+      <c r="T471" t="s">
+        <v>50</v>
+      </c>
+      <c r="U471" t="s">
+        <v>37</v>
+      </c>
+      <c r="V471" t="s">
+        <v>110</v>
+      </c>
+      <c r="W471" t="s">
+        <v>41</v>
+      </c>
+      <c r="X471" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y471" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA471" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD471">
+        <v>140</v>
+      </c>
+      <c r="AP471" t="s">
+        <v>387</v>
+      </c>
+      <c r="AQ471">
+        <v>2.42673807500732E-4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B472">
+        <v>2</v>
+      </c>
+      <c r="C472" t="s">
+        <v>388</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472">
+        <v>1332</v>
+      </c>
+      <c r="F472">
+        <v>260225</v>
+      </c>
+      <c r="G472">
+        <v>54064</v>
+      </c>
+      <c r="H472">
+        <v>12</v>
+      </c>
+      <c r="I472" s="1">
+        <v>300</v>
+      </c>
+      <c r="J472" s="1">
+        <v>260214.60769999999</v>
+      </c>
+      <c r="K472" s="1">
+        <v>54070</v>
+      </c>
+      <c r="L472" s="1">
+        <v>0.48613715419018499</v>
+      </c>
+      <c r="M472" s="1">
+        <v>36.846411851333499</v>
+      </c>
+      <c r="N472" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O472" s="1"/>
+      <c r="P472" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q472" t="s">
+        <v>33</v>
+      </c>
+      <c r="R472" t="s">
+        <v>34</v>
+      </c>
+      <c r="S472" t="s">
+        <v>35</v>
+      </c>
+      <c r="T472" t="s">
+        <v>50</v>
+      </c>
+      <c r="U472" t="s">
+        <v>51</v>
+      </c>
+      <c r="V472" t="s">
+        <v>110</v>
+      </c>
+      <c r="W472" t="s">
+        <v>71</v>
+      </c>
+      <c r="X472" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y472" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA472" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD472">
+        <v>180</v>
+      </c>
+      <c r="AP472" t="s">
+        <v>389</v>
+      </c>
+      <c r="AQ472">
+        <v>5.16249041743568E-4</v>
+      </c>
     </row>
     <row r="1048560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048560" s="2"/>

--- a/MasterRawWhitesheets.xlsx
+++ b/MasterRawWhitesheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxgotts/Desktop/MPALA/Whitesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CB18EC-8FD4-DD4B-9A68-90F60643DFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BF3911-547A-E042-A0A5-15F095C4FD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{36B2ED0A-F989-D041-BB6A-DE14AE9EF1AD}"/>
   </bookViews>
@@ -1576,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A334BBC-0BE1-1D4B-AB5E-CA1B598930C6}">
   <dimension ref="A1:AR1048560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG447" zoomScale="113" workbookViewId="0">
-      <selection activeCell="AU472" sqref="AU472"/>
+    <sheetView tabSelected="1" topLeftCell="H444" zoomScale="113" workbookViewId="0">
+      <selection activeCell="S472" sqref="S472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49329,7 +49329,9 @@
       <c r="N467" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O467" s="1"/>
+      <c r="O467" s="1">
+        <v>0</v>
+      </c>
       <c r="P467" s="1" t="s">
         <v>135</v>
       </c>

--- a/MasterRawWhitesheets.xlsx
+++ b/MasterRawWhitesheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxgotts/Desktop/MPALA/Whitesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BF3911-547A-E042-A0A5-15F095C4FD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9C8038-5492-8743-A312-7B4551479F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{36B2ED0A-F989-D041-BB6A-DE14AE9EF1AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6491" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7503" uniqueCount="434">
   <si>
     <t>Date</t>
   </si>
@@ -1205,6 +1205,138 @@
   <si>
     <t>Ngaramata Dam Area</t>
   </si>
+  <si>
+    <t>DSCN4767</t>
+  </si>
+  <si>
+    <t>Songaish Dam</t>
+  </si>
+  <si>
+    <t>DSCN4766</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Ewaso-Marok River Bank</t>
+  </si>
+  <si>
+    <t>Comm_Camel</t>
+  </si>
+  <si>
+    <t>DSCN3496</t>
+  </si>
+  <si>
+    <t>DSCN3498</t>
+  </si>
+  <si>
+    <t>Previous Kaparo Boma Area</t>
+  </si>
+  <si>
+    <t>DSCN3499</t>
+  </si>
+  <si>
+    <t>DSCN3500</t>
+  </si>
+  <si>
+    <t>DSCN8600</t>
+  </si>
+  <si>
+    <t>Ilmotiok illegal</t>
+  </si>
+  <si>
+    <t>DSCN8603</t>
+  </si>
+  <si>
+    <t>Illegal</t>
+  </si>
+  <si>
+    <t>DSCN8604</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>DSCN8607</t>
+  </si>
+  <si>
+    <t>DSCN8609</t>
+  </si>
+  <si>
+    <t>Tb</t>
+  </si>
+  <si>
+    <t>Kyl</t>
+  </si>
+  <si>
+    <t>DSCN3501</t>
+  </si>
+  <si>
+    <t>DSCN3502</t>
+  </si>
+  <si>
+    <t>Uhuru-North Exclosure Area</t>
+  </si>
+  <si>
+    <t>DSCN3504</t>
+  </si>
+  <si>
+    <t>Donkey, Goat, Sheep</t>
+  </si>
+  <si>
+    <t>DSCN3505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donkey </t>
+  </si>
+  <si>
+    <t>DSCN3506</t>
+  </si>
+  <si>
+    <t>Kaparo's Boma Area</t>
+  </si>
+  <si>
+    <t>DSCN1926</t>
+  </si>
+  <si>
+    <t>Micro K</t>
+  </si>
+  <si>
+    <t>Dig M</t>
+  </si>
+  <si>
+    <t>Koija</t>
+  </si>
+  <si>
+    <t>Tiamamut</t>
+  </si>
+  <si>
+    <t>DSCN1927</t>
+  </si>
+  <si>
+    <t>Kijabe</t>
+  </si>
+  <si>
+    <t>Ilmotiok</t>
+  </si>
+  <si>
+    <t>DSCN1928</t>
+  </si>
+  <si>
+    <t>Lekiji</t>
+  </si>
+  <si>
+    <t>DSCN1924</t>
+  </si>
+  <si>
+    <t>DSCN1925</t>
+  </si>
+  <si>
+    <t>Koija, illegal grazing</t>
+  </si>
+  <si>
+    <t>missing herder</t>
+  </si>
 </sst>
 </file>
 
@@ -1574,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A334BBC-0BE1-1D4B-AB5E-CA1B598930C6}">
-  <dimension ref="A1:AR1048560"/>
+  <dimension ref="A1:AR653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H444" zoomScale="113" workbookViewId="0">
-      <selection activeCell="S472" sqref="S472"/>
+    <sheetView tabSelected="1" topLeftCell="A513" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A544" sqref="A544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45655,11 +45787,11 @@
         <v>300</v>
       </c>
       <c r="J427" s="1">
-        <f t="shared" ref="J427:J434" si="19">F427+H427*SIN(I427*PI()/180)</f>
+        <f t="shared" ref="J427:J432" si="19">F427+H427*SIN(I427*PI()/180)</f>
         <v>262054.2250092524</v>
       </c>
       <c r="K427" s="1">
-        <f t="shared" ref="K427:K434" si="20">G427+H427*COS(I427*PI()/180)</f>
+        <f t="shared" ref="K427:K432" si="20">G427+H427*COS(I427*PI()/180)</f>
         <v>55000.5</v>
       </c>
       <c r="L427">
@@ -46177,11 +46309,11 @@
         <v>40</v>
       </c>
       <c r="J433" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="J433:J482" si="21">F433+H433*SIN(I433*PI()/180)</f>
         <v>262156.34942467522</v>
       </c>
       <c r="K433" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="K433:K482" si="22">G433+H433*COS(I433*PI()/180)</f>
         <v>57746.030933186208</v>
       </c>
       <c r="L433">
@@ -46265,11 +46397,11 @@
         <v>260</v>
       </c>
       <c r="J434" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>262267.63807437348</v>
       </c>
       <c r="K434" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>58013.706776537991</v>
       </c>
       <c r="L434">
@@ -46374,11 +46506,11 @@
         <v>260</v>
       </c>
       <c r="J435" s="1">
-        <f t="shared" ref="J435:J442" si="21">F435+H435*SIN(I435*PI()/180)</f>
+        <f t="shared" si="21"/>
         <v>262267.63807437348</v>
       </c>
       <c r="K435" s="1">
-        <f t="shared" ref="K435:K442" si="22">G435+H435*COS(I435*PI()/180)</f>
+        <f t="shared" si="22"/>
         <v>58013.706776537991</v>
       </c>
       <c r="L435">
@@ -47096,11 +47228,11 @@
         <v>340</v>
       </c>
       <c r="J443" s="1">
-        <f t="shared" ref="J443:J446" si="23">F443+H443*SIN(I443*PI()/180)</f>
+        <f t="shared" si="21"/>
         <v>263930.95111369365</v>
       </c>
       <c r="K443" s="1">
-        <f t="shared" ref="K443:K446" si="24">G443+H443*COS(I443*PI()/180)</f>
+        <f t="shared" si="22"/>
         <v>53369.346475314582</v>
       </c>
       <c r="L443">
@@ -47181,11 +47313,11 @@
         <v>320</v>
       </c>
       <c r="J444" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>264569.21588497719</v>
       </c>
       <c r="K444" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>53236.619022191735</v>
       </c>
       <c r="L444">
@@ -47272,11 +47404,11 @@
         <v>60</v>
       </c>
       <c r="J445" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>264415.71281292109</v>
       </c>
       <c r="K445" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>53708</v>
       </c>
       <c r="L445">
@@ -47357,11 +47489,11 @@
         <v>220</v>
       </c>
       <c r="J446" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>263723.50340712536</v>
       </c>
       <c r="K446" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>53856.463822287173</v>
       </c>
       <c r="L446">
@@ -47460,11 +47592,11 @@
         <v>220</v>
       </c>
       <c r="J447" s="1">
-        <f t="shared" ref="J447:J450" si="25">F447+H447*SIN(I447*PI()/180)</f>
+        <f t="shared" si="21"/>
         <v>263723.50340712536</v>
       </c>
       <c r="K447" s="1">
-        <f t="shared" ref="K447:K450" si="26">G447+H447*COS(I447*PI()/180)</f>
+        <f t="shared" si="22"/>
         <v>53856.463822287173</v>
       </c>
       <c r="L447">
@@ -47545,11 +47677,11 @@
         <v>240</v>
       </c>
       <c r="J448" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>263153.28718707891</v>
       </c>
       <c r="K448" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>53782</v>
       </c>
       <c r="L448">
@@ -47654,11 +47786,11 @@
         <v>280</v>
       </c>
       <c r="J449" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>262860.82038133737</v>
       </c>
       <c r="K449" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>54708.377001594017</v>
       </c>
       <c r="L449">
@@ -47745,11 +47877,11 @@
         <v>320</v>
       </c>
       <c r="J450" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>262955.92933629343</v>
       </c>
       <c r="K450" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>54929.426488874306</v>
       </c>
       <c r="L450">
@@ -47830,11 +47962,11 @@
         <v>320</v>
       </c>
       <c r="J451" s="1">
-        <f t="shared" ref="J451:J457" si="27">F451+H451*SIN(I451*PI()/180)</f>
+        <f t="shared" si="21"/>
         <v>262955.92933629343</v>
       </c>
       <c r="K451" s="1">
-        <f t="shared" ref="K451:K457" si="28">G451+H451*COS(I451*PI()/180)</f>
+        <f t="shared" si="22"/>
         <v>54929.426488874306</v>
       </c>
       <c r="L451">
@@ -47915,11 +48047,11 @@
         <v>20</v>
       </c>
       <c r="J452" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>263532.30302149884</v>
       </c>
       <c r="K452" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>55107.953893117883</v>
       </c>
       <c r="L452">
@@ -48000,11 +48132,11 @@
         <v>300</v>
       </c>
       <c r="J453" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>263594.71796769724</v>
       </c>
       <c r="K453" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>55954</v>
       </c>
       <c r="L453">
@@ -48085,11 +48217,11 @@
         <v>40</v>
       </c>
       <c r="J454" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>262766.99805307121</v>
       </c>
       <c r="K454" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>55538.449244407333</v>
       </c>
       <c r="L454">
@@ -48170,11 +48302,11 @@
         <v>200</v>
       </c>
       <c r="J455" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>262354.58303312038</v>
       </c>
       <c r="K455" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>54206.89475420228</v>
       </c>
       <c r="L455" s="1">
@@ -48262,11 +48394,11 @@
         <v>320</v>
       </c>
       <c r="J456" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>262441.14522127068</v>
       </c>
       <c r="K456" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>53860.045511066048</v>
       </c>
       <c r="L456" s="1">
@@ -48374,11 +48506,11 @@
         <v>220</v>
       </c>
       <c r="J457" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>262138.4424780627</v>
       </c>
       <c r="K457" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>53432.791111376202</v>
       </c>
       <c r="L457" s="1">
@@ -48460,10 +48592,12 @@
         <v>260</v>
       </c>
       <c r="J458" s="1">
-        <v>260287.27350000001</v>
+        <f t="shared" si="21"/>
+        <v>260287.27346044578</v>
       </c>
       <c r="K458" s="1">
-        <v>48617.874329999999</v>
+        <f t="shared" si="22"/>
+        <v>48617.874332801992</v>
       </c>
       <c r="L458" s="1">
         <v>0.43684525745298802</v>
@@ -48541,9 +48675,11 @@
         <v>120</v>
       </c>
       <c r="J459" s="1">
-        <v>260142.17689999999</v>
+        <f t="shared" si="21"/>
+        <v>260142.17691453625</v>
       </c>
       <c r="K459" s="1">
+        <f t="shared" si="22"/>
         <v>49226</v>
       </c>
       <c r="L459" s="1">
@@ -48648,9 +48784,11 @@
         <v>300</v>
       </c>
       <c r="J460" s="1">
-        <v>259687.18210000001</v>
+        <f t="shared" si="21"/>
+        <v>259687.18206931237</v>
       </c>
       <c r="K460" s="1">
+        <f t="shared" si="22"/>
         <v>49795</v>
       </c>
       <c r="L460" s="1">
@@ -48758,10 +48896,12 @@
         <v>290</v>
       </c>
       <c r="J461" s="1">
-        <v>258494.92980000001</v>
+        <f t="shared" si="21"/>
+        <v>258494.92983613486</v>
       </c>
       <c r="K461" s="1">
-        <v>50507.944640000002</v>
+        <f t="shared" si="22"/>
+        <v>50507.944644586423</v>
       </c>
       <c r="L461" s="1">
         <v>0.45392831575627701</v>
@@ -48868,9 +49008,11 @@
         <v>240</v>
       </c>
       <c r="J462" s="1">
-        <v>259632.93780000001</v>
+        <f t="shared" si="21"/>
+        <v>259632.9378221735</v>
       </c>
       <c r="K462" s="1">
+        <f t="shared" si="22"/>
         <v>52644.5</v>
       </c>
       <c r="L462" s="1">
@@ -48958,10 +49100,12 @@
         <v>220</v>
       </c>
       <c r="J463" s="1">
-        <v>259150.92929999999</v>
+        <f t="shared" si="21"/>
+        <v>259150.92933629345</v>
       </c>
       <c r="K463" s="1">
-        <v>51820.573510000002</v>
+        <f t="shared" si="22"/>
+        <v>51820.573511125694</v>
       </c>
       <c r="L463" s="1">
         <v>0.46579736618352002</v>
@@ -49048,10 +49192,12 @@
         <v>310</v>
       </c>
       <c r="J464" s="1">
-        <v>259079.7433</v>
+        <f t="shared" si="21"/>
+        <v>259079.7432889101</v>
       </c>
       <c r="K464" s="1">
-        <v>51636.284599999999</v>
+        <f t="shared" si="22"/>
+        <v>51636.284601754982</v>
       </c>
       <c r="L464" s="1">
         <v>0.46413104225658303</v>
@@ -49138,9 +49284,11 @@
         <v>300</v>
       </c>
       <c r="J465" s="1">
-        <v>258847.80379999999</v>
+        <f t="shared" si="21"/>
+        <v>258847.80384757731</v>
       </c>
       <c r="K465" s="1">
+        <f t="shared" si="22"/>
         <v>51215</v>
       </c>
       <c r="L465" s="1">
@@ -49228,10 +49376,12 @@
         <v>250</v>
       </c>
       <c r="J466" s="1">
-        <v>260429.9901</v>
+        <f t="shared" si="21"/>
+        <v>260429.99014351406</v>
       </c>
       <c r="K466" s="1">
-        <v>51566.713340000002</v>
+        <f t="shared" si="22"/>
+        <v>51566.713335270251</v>
       </c>
       <c r="L466" s="1">
         <v>0.46350580296298199</v>
@@ -49315,10 +49465,12 @@
         <v>110</v>
       </c>
       <c r="J467" s="1">
-        <v>260998.76860000001</v>
+        <f t="shared" si="21"/>
+        <v>260998.76862696907</v>
       </c>
       <c r="K467" s="1">
-        <v>49955.345249999998</v>
+        <f t="shared" si="22"/>
+        <v>49955.345254696949</v>
       </c>
       <c r="L467" s="1">
         <v>0.44893909852160602</v>
@@ -49422,9 +49574,11 @@
         <v>240</v>
       </c>
       <c r="J468" s="1">
-        <v>261669.6269</v>
+        <f t="shared" si="21"/>
+        <v>261669.62693304106</v>
       </c>
       <c r="K468" s="1">
+        <f t="shared" si="22"/>
         <v>52189</v>
       </c>
       <c r="L468" s="1">
@@ -49538,9 +49692,11 @@
         <v>240</v>
       </c>
       <c r="J469" s="1">
-        <v>261669.6269</v>
+        <f t="shared" si="21"/>
+        <v>261669.62693304106</v>
       </c>
       <c r="K469" s="1">
+        <f t="shared" si="22"/>
         <v>52189</v>
       </c>
       <c r="L469" s="1">
@@ -49642,10 +49798,12 @@
         <v>320</v>
       </c>
       <c r="J470" s="1">
-        <v>261898.85870000001</v>
+        <f t="shared" si="21"/>
+        <v>261898.85867258691</v>
       </c>
       <c r="K470" s="1">
-        <v>54047.852980000003</v>
+        <f t="shared" si="22"/>
+        <v>54047.852977748618</v>
       </c>
       <c r="L470" s="1">
         <v>0.485941792164715</v>
@@ -49729,10 +49887,12 @@
         <v>40</v>
       </c>
       <c r="J471" s="1">
-        <v>260265.21299999999</v>
+        <f t="shared" si="21"/>
+        <v>260265.21296458403</v>
       </c>
       <c r="K471" s="1">
-        <v>55876.554839999997</v>
+        <f t="shared" si="22"/>
+        <v>55876.554844419261</v>
       </c>
       <c r="L471" s="1">
         <v>0.50247017415106998</v>
@@ -49816,9 +49976,11 @@
         <v>300</v>
       </c>
       <c r="J472" s="1">
-        <v>260214.60769999999</v>
+        <f t="shared" si="21"/>
+        <v>260214.60769515458</v>
       </c>
       <c r="K472" s="1">
+        <f t="shared" si="22"/>
         <v>54070</v>
       </c>
       <c r="L472" s="1">
@@ -49874,9 +50036,7089 @@
         <v>5.16249041743568E-4</v>
       </c>
     </row>
-    <row r="1048560" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1048560" s="2"/>
-      <c r="B1048560" s="1"/>
+    <row r="473" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+      <c r="C473" t="s">
+        <v>390</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473">
+        <v>1037</v>
+      </c>
+      <c r="F473">
+        <v>259724</v>
+      </c>
+      <c r="G473">
+        <v>50225</v>
+      </c>
+      <c r="H473">
+        <v>28</v>
+      </c>
+      <c r="I473">
+        <v>40</v>
+      </c>
+      <c r="J473" s="1">
+        <f t="shared" si="21"/>
+        <v>259741.99805307123</v>
+      </c>
+      <c r="K473" s="1">
+        <f t="shared" si="22"/>
+        <v>50246.449244407333</v>
+      </c>
+      <c r="L473">
+        <v>0.451567564747965</v>
+      </c>
+      <c r="M473">
+        <v>36.8421781421101</v>
+      </c>
+      <c r="N473" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O473">
+        <v>0</v>
+      </c>
+      <c r="P473" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q473" t="s">
+        <v>78</v>
+      </c>
+      <c r="R473" t="s">
+        <v>34</v>
+      </c>
+      <c r="S473" t="s">
+        <v>49</v>
+      </c>
+      <c r="T473" t="s">
+        <v>50</v>
+      </c>
+      <c r="U473" t="s">
+        <v>51</v>
+      </c>
+      <c r="V473" t="s">
+        <v>110</v>
+      </c>
+      <c r="W473" t="s">
+        <v>39</v>
+      </c>
+      <c r="X473" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y473" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z473" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA473" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB473">
+        <v>4703</v>
+      </c>
+      <c r="AC473">
+        <v>4728</v>
+      </c>
+      <c r="AD473">
+        <v>11</v>
+      </c>
+      <c r="AE473">
+        <v>1</v>
+      </c>
+      <c r="AG473">
+        <v>5</v>
+      </c>
+      <c r="AH473">
+        <v>1</v>
+      </c>
+      <c r="AI473">
+        <v>3</v>
+      </c>
+      <c r="AM473">
+        <v>1</v>
+      </c>
+      <c r="AQ473">
+        <v>4.5061999999999999E-4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474" t="s">
+        <v>390</v>
+      </c>
+      <c r="D474">
+        <v>2</v>
+      </c>
+      <c r="E474">
+        <v>1057</v>
+      </c>
+      <c r="F474">
+        <v>259705</v>
+      </c>
+      <c r="G474">
+        <v>50520</v>
+      </c>
+      <c r="H474">
+        <v>15</v>
+      </c>
+      <c r="I474">
+        <v>80</v>
+      </c>
+      <c r="J474" s="1">
+        <f t="shared" si="21"/>
+        <v>259719.77211629518</v>
+      </c>
+      <c r="K474" s="1">
+        <f t="shared" si="22"/>
+        <v>50522.604722665004</v>
+      </c>
+      <c r="L474">
+        <v>0.45406418981949997</v>
+      </c>
+      <c r="M474">
+        <v>36.8419777956369</v>
+      </c>
+      <c r="N474" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O474">
+        <v>0</v>
+      </c>
+      <c r="P474" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q474" t="s">
+        <v>78</v>
+      </c>
+      <c r="R474" t="s">
+        <v>34</v>
+      </c>
+      <c r="S474" t="s">
+        <v>45</v>
+      </c>
+      <c r="T474" t="s">
+        <v>50</v>
+      </c>
+      <c r="U474" t="s">
+        <v>51</v>
+      </c>
+      <c r="V474" t="s">
+        <v>110</v>
+      </c>
+      <c r="W474" t="s">
+        <v>40</v>
+      </c>
+      <c r="X474" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y474" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z474" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA474" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB474">
+        <v>4729</v>
+      </c>
+      <c r="AC474">
+        <v>4749</v>
+      </c>
+      <c r="AD474">
+        <v>1</v>
+      </c>
+      <c r="AE474">
+        <v>1</v>
+      </c>
+      <c r="AP474" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ474" s="4">
+        <v>1.03E-5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+      <c r="C475" t="s">
+        <v>390</v>
+      </c>
+      <c r="D475">
+        <v>3</v>
+      </c>
+      <c r="E475">
+        <v>1114</v>
+      </c>
+      <c r="F475">
+        <v>260616</v>
+      </c>
+      <c r="G475">
+        <v>51098</v>
+      </c>
+      <c r="H475">
+        <v>10</v>
+      </c>
+      <c r="I475">
+        <v>80</v>
+      </c>
+      <c r="J475" s="1">
+        <f t="shared" si="21"/>
+        <v>260625.84807753013</v>
+      </c>
+      <c r="K475" s="1">
+        <f t="shared" si="22"/>
+        <v>51099.736481776672</v>
+      </c>
+      <c r="L475">
+        <v>0.45928444605808599</v>
+      </c>
+      <c r="M475">
+        <v>36.850113390205202</v>
+      </c>
+      <c r="N475" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P475" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q475" t="s">
+        <v>78</v>
+      </c>
+      <c r="R475" t="s">
+        <v>34</v>
+      </c>
+      <c r="S475" t="s">
+        <v>35</v>
+      </c>
+      <c r="T475" t="s">
+        <v>50</v>
+      </c>
+      <c r="U475" t="s">
+        <v>51</v>
+      </c>
+      <c r="V475" t="s">
+        <v>110</v>
+      </c>
+      <c r="W475" t="s">
+        <v>53</v>
+      </c>
+      <c r="X475" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y475" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z475" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA475" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD475">
+        <v>120</v>
+      </c>
+      <c r="AQ475">
+        <v>2.7806799999999998E-3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B476">
+        <v>2</v>
+      </c>
+      <c r="C476" t="s">
+        <v>392</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="E476">
+        <v>1134</v>
+      </c>
+      <c r="F476">
+        <v>261009</v>
+      </c>
+      <c r="G476">
+        <v>52629</v>
+      </c>
+      <c r="H476">
+        <v>29</v>
+      </c>
+      <c r="J476" s="1">
+        <f t="shared" si="21"/>
+        <v>261009</v>
+      </c>
+      <c r="K476" s="1">
+        <f t="shared" si="22"/>
+        <v>52658</v>
+      </c>
+      <c r="L476">
+        <v>0.473373654013935</v>
+      </c>
+      <c r="M476">
+        <v>36.853550067147602</v>
+      </c>
+      <c r="N476" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O476">
+        <v>0</v>
+      </c>
+      <c r="P476" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q476" t="s">
+        <v>78</v>
+      </c>
+      <c r="R476" t="s">
+        <v>34</v>
+      </c>
+      <c r="S476" t="s">
+        <v>49</v>
+      </c>
+      <c r="T476" t="s">
+        <v>46</v>
+      </c>
+      <c r="U476" t="s">
+        <v>37</v>
+      </c>
+      <c r="V476" t="s">
+        <v>110</v>
+      </c>
+      <c r="W476" t="s">
+        <v>53</v>
+      </c>
+      <c r="X476" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y476" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z476" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA476" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB476">
+        <v>4750</v>
+      </c>
+      <c r="AC476">
+        <v>4753</v>
+      </c>
+      <c r="AD476">
+        <v>5</v>
+      </c>
+      <c r="AE476">
+        <v>1</v>
+      </c>
+      <c r="AG476">
+        <v>4</v>
+      </c>
+      <c r="AQ476">
+        <v>3.5410900000000002E-3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B477">
+        <v>2</v>
+      </c>
+      <c r="C477" t="s">
+        <v>392</v>
+      </c>
+      <c r="D477">
+        <v>2</v>
+      </c>
+      <c r="E477">
+        <v>1146</v>
+      </c>
+      <c r="F477">
+        <v>261038</v>
+      </c>
+      <c r="G477">
+        <v>52446</v>
+      </c>
+      <c r="H477">
+        <v>11</v>
+      </c>
+      <c r="I477">
+        <v>240</v>
+      </c>
+      <c r="J477" s="1">
+        <f t="shared" si="21"/>
+        <v>261028.47372055837</v>
+      </c>
+      <c r="K477" s="1">
+        <f t="shared" si="22"/>
+        <v>52440.5</v>
+      </c>
+      <c r="L477">
+        <v>0.471407305127092</v>
+      </c>
+      <c r="M477">
+        <v>36.853725564810297</v>
+      </c>
+      <c r="N477" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O477" t="s">
+        <v>393</v>
+      </c>
+      <c r="P477" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q477" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R477" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T477" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U477" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V477" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W477" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X477" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y477" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z477" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA477" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD477">
+        <v>80</v>
+      </c>
+      <c r="AQ477">
+        <v>3.6705000000000002E-3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B478">
+        <v>2</v>
+      </c>
+      <c r="C478" t="s">
+        <v>392</v>
+      </c>
+      <c r="D478">
+        <v>3</v>
+      </c>
+      <c r="E478">
+        <v>1158</v>
+      </c>
+      <c r="F478">
+        <v>261332</v>
+      </c>
+      <c r="G478">
+        <v>52651</v>
+      </c>
+      <c r="H478">
+        <v>56</v>
+      </c>
+      <c r="I478">
+        <v>70</v>
+      </c>
+      <c r="J478" s="1">
+        <f t="shared" si="21"/>
+        <v>261384.622786764</v>
+      </c>
+      <c r="K478" s="1">
+        <f t="shared" si="22"/>
+        <v>52670.153128026235</v>
+      </c>
+      <c r="L478">
+        <v>0.473484586520179</v>
+      </c>
+      <c r="M478">
+        <v>36.856923402908699</v>
+      </c>
+      <c r="N478" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O478">
+        <v>0</v>
+      </c>
+      <c r="P478" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q478" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R478" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S478" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T478" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U478" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V478" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W478" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X478" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y478" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z478" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA478" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB478">
+        <v>4754</v>
+      </c>
+      <c r="AC478">
+        <v>4765</v>
+      </c>
+      <c r="AD478">
+        <v>2</v>
+      </c>
+      <c r="AE478">
+        <v>1</v>
+      </c>
+      <c r="AG478">
+        <v>2</v>
+      </c>
+      <c r="AQ478">
+        <v>5.9840300000000004E-3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B479">
+        <v>3</v>
+      </c>
+      <c r="C479" t="s">
+        <v>396</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479">
+        <v>1021</v>
+      </c>
+      <c r="F479">
+        <v>261879</v>
+      </c>
+      <c r="G479">
+        <v>57736</v>
+      </c>
+      <c r="H479">
+        <v>46</v>
+      </c>
+      <c r="I479">
+        <v>240</v>
+      </c>
+      <c r="J479" s="1">
+        <f t="shared" si="21"/>
+        <v>261839.16283142593</v>
+      </c>
+      <c r="K479" s="1">
+        <f t="shared" si="22"/>
+        <v>57713</v>
+      </c>
+      <c r="L479">
+        <v>0.51907813851592099</v>
+      </c>
+      <c r="M479">
+        <v>36.8609907823745</v>
+      </c>
+      <c r="N479" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O479">
+        <v>1</v>
+      </c>
+      <c r="P479" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q479" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R479" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S479" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T479" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U479" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V479" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W479" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X479" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA479" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB479">
+        <v>3018</v>
+      </c>
+      <c r="AC479">
+        <v>3139</v>
+      </c>
+      <c r="AD479">
+        <v>1</v>
+      </c>
+      <c r="AF479">
+        <v>1</v>
+      </c>
+      <c r="AP479" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ479">
+        <v>3.3759900000000002E-3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B480">
+        <v>3</v>
+      </c>
+      <c r="C480" t="s">
+        <v>396</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480">
+        <v>1021</v>
+      </c>
+      <c r="F480">
+        <v>261879</v>
+      </c>
+      <c r="G480">
+        <v>57736</v>
+      </c>
+      <c r="H480">
+        <v>46</v>
+      </c>
+      <c r="I480">
+        <v>240</v>
+      </c>
+      <c r="J480" s="1">
+        <f t="shared" ref="J480" si="23">F480+H480*SIN(I480*PI()/180)</f>
+        <v>261839.16283142593</v>
+      </c>
+      <c r="K480" s="1">
+        <f t="shared" ref="K480" si="24">G480+H480*COS(I480*PI()/180)</f>
+        <v>57713</v>
+      </c>
+      <c r="L480">
+        <v>0.51907813851592099</v>
+      </c>
+      <c r="M480">
+        <v>36.8609907823745</v>
+      </c>
+      <c r="N480" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O480">
+        <v>1</v>
+      </c>
+      <c r="P480" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q480" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R480" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S480" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T480" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U480" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V480" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W480" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X480" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA480" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB480">
+        <v>3018</v>
+      </c>
+      <c r="AC480">
+        <v>3139</v>
+      </c>
+      <c r="AD480">
+        <v>39</v>
+      </c>
+      <c r="AE480">
+        <v>10</v>
+      </c>
+      <c r="AF480">
+        <v>1</v>
+      </c>
+      <c r="AG480">
+        <v>7</v>
+      </c>
+      <c r="AH480">
+        <v>6</v>
+      </c>
+      <c r="AI480">
+        <v>2</v>
+      </c>
+      <c r="AK480">
+        <v>3</v>
+      </c>
+      <c r="AL480">
+        <v>3</v>
+      </c>
+      <c r="AM480">
+        <v>2</v>
+      </c>
+      <c r="AN480">
+        <v>1</v>
+      </c>
+      <c r="AP480" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ480">
+        <v>3.3759900000000002E-3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B481">
+        <v>3</v>
+      </c>
+      <c r="C481" t="s">
+        <v>396</v>
+      </c>
+      <c r="D481">
+        <v>2</v>
+      </c>
+      <c r="E481">
+        <v>1033</v>
+      </c>
+      <c r="F481">
+        <v>262171</v>
+      </c>
+      <c r="G481">
+        <v>58096</v>
+      </c>
+      <c r="H481">
+        <v>14</v>
+      </c>
+      <c r="I481">
+        <v>320</v>
+      </c>
+      <c r="J481" s="1">
+        <f t="shared" si="21"/>
+        <v>262162.0009734644</v>
+      </c>
+      <c r="K481" s="1">
+        <f t="shared" si="22"/>
+        <v>58106.724622203663</v>
+      </c>
+      <c r="L481">
+        <v>0.52263879328130003</v>
+      </c>
+      <c r="M481">
+        <v>36.863888932539098</v>
+      </c>
+      <c r="N481" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P481" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q481" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R481" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T481" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U481" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V481" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W481" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X481" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y481" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA481" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD481">
+        <v>3</v>
+      </c>
+      <c r="AP481" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ481">
+        <v>3.3691799999999998E-3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B482">
+        <v>3</v>
+      </c>
+      <c r="C482" t="s">
+        <v>396</v>
+      </c>
+      <c r="D482">
+        <v>3</v>
+      </c>
+      <c r="E482">
+        <v>1036</v>
+      </c>
+      <c r="F482">
+        <v>262715</v>
+      </c>
+      <c r="G482">
+        <v>58384</v>
+      </c>
+      <c r="H482">
+        <v>24</v>
+      </c>
+      <c r="I482">
+        <v>40</v>
+      </c>
+      <c r="J482" s="1">
+        <f t="shared" si="21"/>
+        <v>262730.42690263246</v>
+      </c>
+      <c r="K482" s="1">
+        <f t="shared" si="22"/>
+        <v>58402.385066634859</v>
+      </c>
+      <c r="L482">
+        <v>0.52531362323768105</v>
+      </c>
+      <c r="M482">
+        <v>36.868992981758197</v>
+      </c>
+      <c r="N482" t="s">
+        <v>258</v>
+      </c>
+      <c r="P482" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q482" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R482" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T482" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U482" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V482" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W482" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X482" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA482" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD482">
+        <v>28</v>
+      </c>
+      <c r="AP482" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ482">
+        <v>5.2742999999999996E-4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B483">
+        <v>3</v>
+      </c>
+      <c r="C483" t="s">
+        <v>396</v>
+      </c>
+      <c r="D483">
+        <v>3</v>
+      </c>
+      <c r="E483">
+        <v>1036</v>
+      </c>
+      <c r="F483">
+        <v>262715</v>
+      </c>
+      <c r="G483">
+        <v>58384</v>
+      </c>
+      <c r="H483">
+        <v>24</v>
+      </c>
+      <c r="I483">
+        <v>40</v>
+      </c>
+      <c r="J483" s="1">
+        <f t="shared" ref="J483:J531" si="25">F483+H483*SIN(I483*PI()/180)</f>
+        <v>262730.42690263246</v>
+      </c>
+      <c r="K483" s="1">
+        <f t="shared" ref="K483:K531" si="26">G483+H483*COS(I483*PI()/180)</f>
+        <v>58402.385066634859</v>
+      </c>
+      <c r="L483">
+        <v>0.52531362323768105</v>
+      </c>
+      <c r="M483">
+        <v>36.868992981758197</v>
+      </c>
+      <c r="N483" t="s">
+        <v>395</v>
+      </c>
+      <c r="P483" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q483" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R483" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S483" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T483" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U483" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V483" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W483" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X483" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA483" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD483">
+        <v>25</v>
+      </c>
+      <c r="AQ483">
+        <v>5.2742999999999996E-4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B484">
+        <v>3</v>
+      </c>
+      <c r="C484" t="s">
+        <v>397</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="E484">
+        <v>1054</v>
+      </c>
+      <c r="F484">
+        <v>262676</v>
+      </c>
+      <c r="G484">
+        <v>56366</v>
+      </c>
+      <c r="H484">
+        <v>144</v>
+      </c>
+      <c r="I484">
+        <v>180</v>
+      </c>
+      <c r="J484" s="1">
+        <f t="shared" si="25"/>
+        <v>262676</v>
+      </c>
+      <c r="K484" s="1">
+        <f t="shared" si="26"/>
+        <v>56222</v>
+      </c>
+      <c r="L484">
+        <v>0.50560054151774403</v>
+      </c>
+      <c r="M484">
+        <v>36.868510770865299</v>
+      </c>
+      <c r="N484" t="s">
+        <v>258</v>
+      </c>
+      <c r="P484" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q484" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R484" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S484" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T484" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U484" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V484" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W484" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X484" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y484" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z484" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA484" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD484">
+        <v>24</v>
+      </c>
+      <c r="AP484" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ484">
+        <v>4.5962599999999996E-3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B485">
+        <v>3</v>
+      </c>
+      <c r="C485" t="s">
+        <v>397</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485">
+        <v>1054</v>
+      </c>
+      <c r="F485">
+        <v>262676</v>
+      </c>
+      <c r="G485">
+        <v>56366</v>
+      </c>
+      <c r="H485">
+        <v>144</v>
+      </c>
+      <c r="I485">
+        <v>180</v>
+      </c>
+      <c r="J485" s="1">
+        <f t="shared" si="25"/>
+        <v>262676</v>
+      </c>
+      <c r="K485" s="1">
+        <f t="shared" si="26"/>
+        <v>56222</v>
+      </c>
+      <c r="L485">
+        <v>0.50560054151774403</v>
+      </c>
+      <c r="M485">
+        <v>36.868510770865299</v>
+      </c>
+      <c r="N485" t="s">
+        <v>260</v>
+      </c>
+      <c r="P485" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q485" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R485" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T485" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U485" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V485" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W485" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X485" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y485" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z485" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA485" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD485">
+        <v>15</v>
+      </c>
+      <c r="AP485" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ485">
+        <v>4.5962599999999996E-3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B486">
+        <v>3</v>
+      </c>
+      <c r="C486" t="s">
+        <v>397</v>
+      </c>
+      <c r="D486">
+        <v>2</v>
+      </c>
+      <c r="E486">
+        <v>1057</v>
+      </c>
+      <c r="F486">
+        <v>263144</v>
+      </c>
+      <c r="G486">
+        <v>56357</v>
+      </c>
+      <c r="H486">
+        <v>61</v>
+      </c>
+      <c r="I486">
+        <v>260</v>
+      </c>
+      <c r="J486" s="1">
+        <f t="shared" si="25"/>
+        <v>263083.92672706628</v>
+      </c>
+      <c r="K486" s="1">
+        <f t="shared" si="26"/>
+        <v>56346.407461162315</v>
+      </c>
+      <c r="L486">
+        <v>0.50672653219419095</v>
+      </c>
+      <c r="M486">
+        <v>36.872173939309597</v>
+      </c>
+      <c r="N486" t="s">
+        <v>249</v>
+      </c>
+      <c r="P486" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q486" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R486" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S486" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T486" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U486" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V486" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W486" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X486" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA486" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD486">
+        <v>50</v>
+      </c>
+      <c r="AP486" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ486">
+        <v>3.8689000000000002E-3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B487">
+        <v>3</v>
+      </c>
+      <c r="C487" t="s">
+        <v>397</v>
+      </c>
+      <c r="D487">
+        <v>3</v>
+      </c>
+      <c r="E487">
+        <v>1112</v>
+      </c>
+      <c r="F487">
+        <v>262536</v>
+      </c>
+      <c r="G487">
+        <v>55408</v>
+      </c>
+      <c r="H487">
+        <v>61</v>
+      </c>
+      <c r="I487">
+        <v>320</v>
+      </c>
+      <c r="J487" s="1">
+        <f t="shared" si="25"/>
+        <v>262496.78995580913</v>
+      </c>
+      <c r="K487" s="1">
+        <f t="shared" si="26"/>
+        <v>55454.728711030257</v>
+      </c>
+      <c r="L487">
+        <v>0.49866309549701898</v>
+      </c>
+      <c r="M487">
+        <v>36.866903574510403</v>
+      </c>
+      <c r="N487" t="s">
+        <v>44</v>
+      </c>
+      <c r="O487">
+        <v>0</v>
+      </c>
+      <c r="P487" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q487" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R487" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T487" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U487" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V487" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W487" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X487" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y487" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z487" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA487" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB487">
+        <v>3152</v>
+      </c>
+      <c r="AC487">
+        <v>3183</v>
+      </c>
+      <c r="AD487">
+        <v>4</v>
+      </c>
+      <c r="AH487">
+        <v>2</v>
+      </c>
+      <c r="AN487">
+        <v>1</v>
+      </c>
+      <c r="AO487">
+        <v>1</v>
+      </c>
+      <c r="AP487" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ487">
+        <v>4.6208500000000001E-3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B488">
+        <v>3</v>
+      </c>
+      <c r="C488" t="s">
+        <v>399</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488">
+        <v>1115</v>
+      </c>
+      <c r="F488">
+        <v>262334</v>
+      </c>
+      <c r="G488">
+        <v>55445</v>
+      </c>
+      <c r="H488">
+        <v>110</v>
+      </c>
+      <c r="I488">
+        <v>100</v>
+      </c>
+      <c r="J488" s="1">
+        <f t="shared" si="25"/>
+        <v>262442.32885283133</v>
+      </c>
+      <c r="K488" s="1">
+        <f t="shared" si="26"/>
+        <v>55425.898700456637</v>
+      </c>
+      <c r="L488">
+        <v>0.49840228262222402</v>
+      </c>
+      <c r="M488">
+        <v>36.866414553731602</v>
+      </c>
+      <c r="N488" t="s">
+        <v>260</v>
+      </c>
+      <c r="P488" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q488" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R488" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T488" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U488" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V488" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W488" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X488" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y488" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z488" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA488" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD488">
+        <v>40</v>
+      </c>
+      <c r="AQ488">
+        <v>4.3579100000000004E-3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B489">
+        <v>3</v>
+      </c>
+      <c r="C489" t="s">
+        <v>399</v>
+      </c>
+      <c r="D489">
+        <v>2</v>
+      </c>
+      <c r="E489">
+        <v>1124</v>
+      </c>
+      <c r="F489">
+        <v>261846</v>
+      </c>
+      <c r="G489">
+        <v>57102</v>
+      </c>
+      <c r="H489">
+        <v>12</v>
+      </c>
+      <c r="I489">
+        <v>160</v>
+      </c>
+      <c r="J489" s="1">
+        <f t="shared" si="25"/>
+        <v>261850.10424171991</v>
+      </c>
+      <c r="K489" s="1">
+        <f t="shared" si="26"/>
+        <v>57090.72368855057</v>
+      </c>
+      <c r="L489">
+        <v>0.51345218485826405</v>
+      </c>
+      <c r="M489">
+        <v>36.861090932343998</v>
+      </c>
+      <c r="N489" t="s">
+        <v>258</v>
+      </c>
+      <c r="P489" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q489" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R489" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T489" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U489" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V489" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W489" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X489" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y489" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z489" s="1"/>
+      <c r="AA489" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD489">
+        <v>25</v>
+      </c>
+      <c r="AP489" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ489">
+        <v>4.6465600000000001E-3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B490">
+        <v>3</v>
+      </c>
+      <c r="C490" t="s">
+        <v>399</v>
+      </c>
+      <c r="D490">
+        <v>3</v>
+      </c>
+      <c r="E490">
+        <v>1128</v>
+      </c>
+      <c r="F490">
+        <v>262188</v>
+      </c>
+      <c r="G490">
+        <v>57742</v>
+      </c>
+      <c r="H490">
+        <v>51</v>
+      </c>
+      <c r="I490">
+        <v>140</v>
+      </c>
+      <c r="J490" s="1">
+        <f t="shared" si="25"/>
+        <v>262220.78216809401</v>
+      </c>
+      <c r="K490" s="1">
+        <f t="shared" si="26"/>
+        <v>57702.931733400932</v>
+      </c>
+      <c r="L490">
+        <v>0.51898828374461303</v>
+      </c>
+      <c r="M490">
+        <v>36.864418071723101</v>
+      </c>
+      <c r="N490" t="s">
+        <v>258</v>
+      </c>
+      <c r="P490" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q490" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R490" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S490" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T490" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U490" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V490" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W490" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X490" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y490" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA490" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD490">
+        <v>7</v>
+      </c>
+      <c r="AQ490">
+        <v>1.9858100000000002E-3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B491">
+        <v>3</v>
+      </c>
+      <c r="C491" t="s">
+        <v>400</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+      <c r="E491">
+        <v>1147</v>
+      </c>
+      <c r="F491">
+        <v>261248</v>
+      </c>
+      <c r="G491">
+        <v>54908</v>
+      </c>
+      <c r="H491">
+        <v>34</v>
+      </c>
+      <c r="I491">
+        <v>20</v>
+      </c>
+      <c r="J491" s="1">
+        <f t="shared" si="25"/>
+        <v>261259.62868487308</v>
+      </c>
+      <c r="K491" s="1">
+        <f t="shared" si="26"/>
+        <v>54939.949549106721</v>
+      </c>
+      <c r="L491">
+        <v>0.49400534789232903</v>
+      </c>
+      <c r="M491">
+        <v>36.8557943840284</v>
+      </c>
+      <c r="N491" t="s">
+        <v>31</v>
+      </c>
+      <c r="O491">
+        <v>0</v>
+      </c>
+      <c r="P491" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q491" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R491" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S491" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T491" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U491" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V491" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W491" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X491" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y491" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA491" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB491">
+        <v>3195</v>
+      </c>
+      <c r="AC491">
+        <v>3210</v>
+      </c>
+      <c r="AD491">
+        <v>7</v>
+      </c>
+      <c r="AE491">
+        <v>1</v>
+      </c>
+      <c r="AH491">
+        <v>3</v>
+      </c>
+      <c r="AM491">
+        <v>1</v>
+      </c>
+      <c r="AN491">
+        <v>1</v>
+      </c>
+      <c r="AO491">
+        <v>1</v>
+      </c>
+      <c r="AQ491">
+        <v>5.3037400000000004E-3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B492">
+        <v>3</v>
+      </c>
+      <c r="C492" t="s">
+        <v>400</v>
+      </c>
+      <c r="D492">
+        <v>2</v>
+      </c>
+      <c r="E492">
+        <v>1151</v>
+      </c>
+      <c r="F492">
+        <v>261534</v>
+      </c>
+      <c r="G492">
+        <v>55522</v>
+      </c>
+      <c r="H492">
+        <v>24</v>
+      </c>
+      <c r="I492">
+        <v>60</v>
+      </c>
+      <c r="J492" s="1">
+        <f t="shared" si="25"/>
+        <v>261554.78460969083</v>
+      </c>
+      <c r="K492" s="1">
+        <f t="shared" si="26"/>
+        <v>55534</v>
+      </c>
+      <c r="L492">
+        <v>0.49937700291376602</v>
+      </c>
+      <c r="M492">
+        <v>36.858443373431697</v>
+      </c>
+      <c r="N492" t="s">
+        <v>260</v>
+      </c>
+      <c r="P492" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q492" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R492" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S492" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="T492" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U492" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V492" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W492" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X492" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y492" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA492" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD492">
+        <v>120</v>
+      </c>
+      <c r="AQ492">
+        <v>5.7905000000000001E-4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B493">
+        <v>3</v>
+      </c>
+      <c r="C493" t="s">
+        <v>400</v>
+      </c>
+      <c r="D493">
+        <v>2</v>
+      </c>
+      <c r="E493">
+        <v>1151</v>
+      </c>
+      <c r="F493">
+        <v>261534</v>
+      </c>
+      <c r="G493">
+        <v>55522</v>
+      </c>
+      <c r="H493">
+        <v>24</v>
+      </c>
+      <c r="I493">
+        <v>60</v>
+      </c>
+      <c r="J493" s="1">
+        <f t="shared" si="25"/>
+        <v>261554.78460969083</v>
+      </c>
+      <c r="K493" s="1">
+        <f t="shared" si="26"/>
+        <v>55534</v>
+      </c>
+      <c r="L493">
+        <v>0.49937700291376602</v>
+      </c>
+      <c r="M493">
+        <v>36.858443373431697</v>
+      </c>
+      <c r="N493" t="s">
+        <v>249</v>
+      </c>
+      <c r="P493" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q493" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R493" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S493" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="T493" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U493" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V493" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W493" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X493" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y493" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA493" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD493">
+        <v>80</v>
+      </c>
+      <c r="AQ493">
+        <v>5.7905000000000001E-4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B494">
+        <v>4</v>
+      </c>
+      <c r="C494" t="s">
+        <v>411</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+      <c r="E494">
+        <v>1207</v>
+      </c>
+      <c r="F494">
+        <v>261833</v>
+      </c>
+      <c r="G494">
+        <v>53438</v>
+      </c>
+      <c r="H494">
+        <v>30</v>
+      </c>
+      <c r="I494">
+        <v>160</v>
+      </c>
+      <c r="J494" s="1">
+        <f t="shared" ref="J494:J521" si="27">F494+H494*SIN(I494*PI()/180)</f>
+        <v>261843.26060429978</v>
+      </c>
+      <c r="K494" s="1">
+        <f t="shared" ref="K494:K521" si="28">G494+H494*COS(I494*PI()/180)</f>
+        <v>53409.809221376425</v>
+      </c>
+      <c r="L494">
+        <v>0.48017309105346201</v>
+      </c>
+      <c r="M494">
+        <v>36.861040241704899</v>
+      </c>
+      <c r="N494" t="s">
+        <v>31</v>
+      </c>
+      <c r="O494">
+        <v>0</v>
+      </c>
+      <c r="P494" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q494" t="s">
+        <v>33</v>
+      </c>
+      <c r="R494" t="s">
+        <v>34</v>
+      </c>
+      <c r="S494" t="s">
+        <v>35</v>
+      </c>
+      <c r="T494" t="s">
+        <v>46</v>
+      </c>
+      <c r="U494" t="s">
+        <v>37</v>
+      </c>
+      <c r="V494" t="s">
+        <v>110</v>
+      </c>
+      <c r="W494" t="s">
+        <v>39</v>
+      </c>
+      <c r="X494" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y494" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA494" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB494">
+        <v>3212</v>
+      </c>
+      <c r="AC494">
+        <v>3246</v>
+      </c>
+      <c r="AD494">
+        <v>6</v>
+      </c>
+      <c r="AE494">
+        <v>1</v>
+      </c>
+      <c r="AG494">
+        <v>2</v>
+      </c>
+      <c r="AH494">
+        <v>1</v>
+      </c>
+      <c r="AI494">
+        <v>1</v>
+      </c>
+      <c r="AM494">
+        <v>1</v>
+      </c>
+      <c r="AQ494">
+        <v>2.31569E-3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B495">
+        <v>4</v>
+      </c>
+      <c r="C495" t="s">
+        <v>411</v>
+      </c>
+      <c r="D495">
+        <v>2</v>
+      </c>
+      <c r="E495">
+        <v>1235</v>
+      </c>
+      <c r="F495">
+        <v>261861</v>
+      </c>
+      <c r="G495">
+        <v>52649</v>
+      </c>
+      <c r="H495">
+        <v>57</v>
+      </c>
+      <c r="I495">
+        <v>160</v>
+      </c>
+      <c r="J495" s="1">
+        <f t="shared" si="27"/>
+        <v>261880.49514816958</v>
+      </c>
+      <c r="K495" s="1">
+        <f t="shared" si="28"/>
+        <v>52595.437520615204</v>
+      </c>
+      <c r="L495">
+        <v>0.472810477103357</v>
+      </c>
+      <c r="M495">
+        <v>36.8613769163779</v>
+      </c>
+      <c r="N495" t="s">
+        <v>31</v>
+      </c>
+      <c r="O495">
+        <v>0</v>
+      </c>
+      <c r="P495" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q495" t="s">
+        <v>33</v>
+      </c>
+      <c r="R495" t="s">
+        <v>34</v>
+      </c>
+      <c r="S495" t="s">
+        <v>35</v>
+      </c>
+      <c r="T495" t="s">
+        <v>105</v>
+      </c>
+      <c r="U495" t="s">
+        <v>37</v>
+      </c>
+      <c r="V495" t="s">
+        <v>110</v>
+      </c>
+      <c r="W495" t="s">
+        <v>39</v>
+      </c>
+      <c r="X495" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y495" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z495" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA495" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB495">
+        <v>3254</v>
+      </c>
+      <c r="AC495">
+        <v>3379</v>
+      </c>
+      <c r="AD495">
+        <v>23</v>
+      </c>
+      <c r="AP495" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ495">
+        <v>1.5729299999999999E-3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B496">
+        <v>4</v>
+      </c>
+      <c r="C496" t="s">
+        <v>411</v>
+      </c>
+      <c r="D496">
+        <v>3</v>
+      </c>
+      <c r="E496">
+        <v>1256</v>
+      </c>
+      <c r="F496">
+        <v>262323</v>
+      </c>
+      <c r="G496">
+        <v>52623</v>
+      </c>
+      <c r="H496">
+        <v>35</v>
+      </c>
+      <c r="I496">
+        <v>100</v>
+      </c>
+      <c r="J496" s="1">
+        <f t="shared" si="27"/>
+        <v>262357.46827135544</v>
+      </c>
+      <c r="K496" s="1">
+        <f t="shared" si="28"/>
+        <v>52616.922313781659</v>
+      </c>
+      <c r="L496">
+        <v>0.47300605661103501</v>
+      </c>
+      <c r="M496">
+        <v>36.8656604465843</v>
+      </c>
+      <c r="N496" t="s">
+        <v>31</v>
+      </c>
+      <c r="O496">
+        <v>0</v>
+      </c>
+      <c r="P496" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q496" t="s">
+        <v>78</v>
+      </c>
+      <c r="R496" t="s">
+        <v>34</v>
+      </c>
+      <c r="S496" t="s">
+        <v>49</v>
+      </c>
+      <c r="T496" t="s">
+        <v>105</v>
+      </c>
+      <c r="U496" t="s">
+        <v>37</v>
+      </c>
+      <c r="V496" t="s">
+        <v>110</v>
+      </c>
+      <c r="W496" t="s">
+        <v>53</v>
+      </c>
+      <c r="X496" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y496" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z496" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA496" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB496">
+        <v>3380</v>
+      </c>
+      <c r="AC496">
+        <v>3430</v>
+      </c>
+      <c r="AD496">
+        <v>17</v>
+      </c>
+      <c r="AE496">
+        <v>2</v>
+      </c>
+      <c r="AF496">
+        <v>3</v>
+      </c>
+      <c r="AH496">
+        <v>3</v>
+      </c>
+      <c r="AI496">
+        <v>2</v>
+      </c>
+      <c r="AK496">
+        <v>2</v>
+      </c>
+      <c r="AO496">
+        <v>2</v>
+      </c>
+      <c r="AP496" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ496">
+        <v>2.6682400000000001E-3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B497">
+        <v>4</v>
+      </c>
+      <c r="C497" t="s">
+        <v>412</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+      <c r="E497">
+        <v>1307</v>
+      </c>
+      <c r="F497">
+        <v>262790</v>
+      </c>
+      <c r="G497">
+        <v>52780</v>
+      </c>
+      <c r="H497">
+        <v>51</v>
+      </c>
+      <c r="I497">
+        <v>40</v>
+      </c>
+      <c r="J497" s="1">
+        <f t="shared" si="27"/>
+        <v>262822.78216809401</v>
+      </c>
+      <c r="K497" s="1">
+        <f t="shared" si="28"/>
+        <v>52819.068266599068</v>
+      </c>
+      <c r="L497">
+        <v>0.47483496569303002</v>
+      </c>
+      <c r="M497">
+        <v>36.869838779487303</v>
+      </c>
+      <c r="N497" t="s">
+        <v>31</v>
+      </c>
+      <c r="O497">
+        <v>0</v>
+      </c>
+      <c r="P497" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q497" t="s">
+        <v>33</v>
+      </c>
+      <c r="R497" t="s">
+        <v>34</v>
+      </c>
+      <c r="S497" t="s">
+        <v>49</v>
+      </c>
+      <c r="T497" t="s">
+        <v>46</v>
+      </c>
+      <c r="V497" t="s">
+        <v>110</v>
+      </c>
+      <c r="W497" t="s">
+        <v>53</v>
+      </c>
+      <c r="X497" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y497" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA497" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB497">
+        <v>3431</v>
+      </c>
+      <c r="AC497">
+        <v>3450</v>
+      </c>
+      <c r="AD497">
+        <v>13</v>
+      </c>
+      <c r="AE497">
+        <v>2</v>
+      </c>
+      <c r="AG497">
+        <v>2</v>
+      </c>
+      <c r="AH497">
+        <v>3</v>
+      </c>
+      <c r="AI497">
+        <v>2</v>
+      </c>
+      <c r="AK497">
+        <v>1</v>
+      </c>
+      <c r="AM497">
+        <v>2</v>
+      </c>
+      <c r="AN497">
+        <v>1</v>
+      </c>
+      <c r="AP497" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ497">
+        <v>3.5935799999999999E-3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B498">
+        <v>4</v>
+      </c>
+      <c r="C498" t="s">
+        <v>412</v>
+      </c>
+      <c r="D498">
+        <v>2</v>
+      </c>
+      <c r="E498">
+        <v>1310</v>
+      </c>
+      <c r="F498">
+        <v>263254</v>
+      </c>
+      <c r="G498">
+        <v>52893</v>
+      </c>
+      <c r="H498">
+        <v>85</v>
+      </c>
+      <c r="I498">
+        <v>200</v>
+      </c>
+      <c r="J498" s="1">
+        <f t="shared" si="27"/>
+        <v>263224.92828781734</v>
+      </c>
+      <c r="K498" s="1">
+        <f t="shared" si="28"/>
+        <v>52813.126127233198</v>
+      </c>
+      <c r="L498">
+        <v>0.47478236823347397</v>
+      </c>
+      <c r="M498">
+        <v>36.873450401288899</v>
+      </c>
+      <c r="N498" t="s">
+        <v>280</v>
+      </c>
+      <c r="P498" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q498" t="s">
+        <v>33</v>
+      </c>
+      <c r="R498" t="s">
+        <v>34</v>
+      </c>
+      <c r="S498" t="s">
+        <v>35</v>
+      </c>
+      <c r="T498" t="s">
+        <v>50</v>
+      </c>
+      <c r="U498" t="s">
+        <v>37</v>
+      </c>
+      <c r="V498" t="s">
+        <v>110</v>
+      </c>
+      <c r="W498" t="s">
+        <v>53</v>
+      </c>
+      <c r="X498" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y498" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA498" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD498">
+        <v>10</v>
+      </c>
+      <c r="AP498" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ498">
+        <v>7.9982000000000002E-4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B499">
+        <v>4</v>
+      </c>
+      <c r="C499" t="s">
+        <v>412</v>
+      </c>
+      <c r="D499">
+        <v>3</v>
+      </c>
+      <c r="E499">
+        <v>1315</v>
+      </c>
+      <c r="F499">
+        <v>264703</v>
+      </c>
+      <c r="G499">
+        <v>53219</v>
+      </c>
+      <c r="H499">
+        <v>12</v>
+      </c>
+      <c r="I499">
+        <v>40</v>
+      </c>
+      <c r="J499" s="1">
+        <f t="shared" si="27"/>
+        <v>264710.71345131623</v>
+      </c>
+      <c r="K499" s="1">
+        <f t="shared" si="28"/>
+        <v>53228.192533317429</v>
+      </c>
+      <c r="L499">
+        <v>0.478539182541312</v>
+      </c>
+      <c r="M499">
+        <v>36.886792908057302</v>
+      </c>
+      <c r="N499" t="s">
+        <v>330</v>
+      </c>
+      <c r="P499" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q499" t="s">
+        <v>33</v>
+      </c>
+      <c r="R499" t="s">
+        <v>34</v>
+      </c>
+      <c r="S499" t="s">
+        <v>271</v>
+      </c>
+      <c r="T499" t="s">
+        <v>50</v>
+      </c>
+      <c r="U499" t="s">
+        <v>37</v>
+      </c>
+      <c r="V499" t="s">
+        <v>110</v>
+      </c>
+      <c r="W499" t="s">
+        <v>39</v>
+      </c>
+      <c r="X499" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y499" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA499" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD499">
+        <v>36</v>
+      </c>
+      <c r="AP499" t="s">
+        <v>331</v>
+      </c>
+      <c r="AQ499">
+        <v>5.6882999999999999E-4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B500">
+        <v>4</v>
+      </c>
+      <c r="C500" t="s">
+        <v>414</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+      <c r="E500">
+        <v>1319</v>
+      </c>
+      <c r="F500">
+        <v>264799</v>
+      </c>
+      <c r="G500">
+        <v>54038</v>
+      </c>
+      <c r="H500">
+        <v>96</v>
+      </c>
+      <c r="I500">
+        <v>60</v>
+      </c>
+      <c r="J500" s="1">
+        <f t="shared" si="27"/>
+        <v>264882.13843876333</v>
+      </c>
+      <c r="K500" s="1">
+        <f t="shared" si="28"/>
+        <v>54086</v>
+      </c>
+      <c r="L500">
+        <v>0.48629522118236201</v>
+      </c>
+      <c r="M500">
+        <v>36.8883300584477</v>
+      </c>
+      <c r="N500" t="s">
+        <v>204</v>
+      </c>
+      <c r="P500" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q500" t="s">
+        <v>33</v>
+      </c>
+      <c r="R500" t="s">
+        <v>34</v>
+      </c>
+      <c r="S500" t="s">
+        <v>271</v>
+      </c>
+      <c r="T500" t="s">
+        <v>50</v>
+      </c>
+      <c r="U500" t="s">
+        <v>37</v>
+      </c>
+      <c r="V500" t="s">
+        <v>110</v>
+      </c>
+      <c r="W500" t="s">
+        <v>39</v>
+      </c>
+      <c r="X500" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA500" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD500">
+        <v>15</v>
+      </c>
+      <c r="AQ500">
+        <v>5.4927999999999997E-4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B501">
+        <v>4</v>
+      </c>
+      <c r="C501" t="s">
+        <v>414</v>
+      </c>
+      <c r="D501">
+        <v>2</v>
+      </c>
+      <c r="E501">
+        <v>1323</v>
+      </c>
+      <c r="F501">
+        <v>264068</v>
+      </c>
+      <c r="G501">
+        <v>53487</v>
+      </c>
+      <c r="H501">
+        <v>10</v>
+      </c>
+      <c r="I501">
+        <v>160</v>
+      </c>
+      <c r="J501" s="1">
+        <f t="shared" si="27"/>
+        <v>264071.42020143324</v>
+      </c>
+      <c r="K501" s="1">
+        <f t="shared" si="28"/>
+        <v>53477.603073792139</v>
+      </c>
+      <c r="L501">
+        <v>0.48079233431801699</v>
+      </c>
+      <c r="M501">
+        <v>36.881050778854402</v>
+      </c>
+      <c r="N501" t="s">
+        <v>204</v>
+      </c>
+      <c r="P501" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q501" t="s">
+        <v>33</v>
+      </c>
+      <c r="R501" t="s">
+        <v>34</v>
+      </c>
+      <c r="S501" t="s">
+        <v>415</v>
+      </c>
+      <c r="T501" t="s">
+        <v>50</v>
+      </c>
+      <c r="U501" t="s">
+        <v>37</v>
+      </c>
+      <c r="V501" t="s">
+        <v>110</v>
+      </c>
+      <c r="W501" t="s">
+        <v>39</v>
+      </c>
+      <c r="X501" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y501" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z501" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA501" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ501">
+        <v>2.8821799999999998E-3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B502">
+        <v>4</v>
+      </c>
+      <c r="C502" t="s">
+        <v>414</v>
+      </c>
+      <c r="D502">
+        <v>3</v>
+      </c>
+      <c r="E502">
+        <v>1330</v>
+      </c>
+      <c r="F502">
+        <v>263161</v>
+      </c>
+      <c r="G502">
+        <v>53467</v>
+      </c>
+      <c r="H502">
+        <v>15</v>
+      </c>
+      <c r="I502">
+        <v>300</v>
+      </c>
+      <c r="J502" s="1">
+        <f t="shared" si="27"/>
+        <v>263148.00961894321</v>
+      </c>
+      <c r="K502" s="1">
+        <f t="shared" si="28"/>
+        <v>53474.5</v>
+      </c>
+      <c r="L502">
+        <v>0.480761667063269</v>
+      </c>
+      <c r="M502">
+        <v>36.872757762759697</v>
+      </c>
+      <c r="N502" t="s">
+        <v>204</v>
+      </c>
+      <c r="P502" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q502" t="s">
+        <v>33</v>
+      </c>
+      <c r="R502" t="s">
+        <v>34</v>
+      </c>
+      <c r="S502" t="s">
+        <v>35</v>
+      </c>
+      <c r="T502" t="s">
+        <v>50</v>
+      </c>
+      <c r="U502" t="s">
+        <v>37</v>
+      </c>
+      <c r="V502" t="s">
+        <v>110</v>
+      </c>
+      <c r="W502" t="s">
+        <v>39</v>
+      </c>
+      <c r="X502" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA502" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP502" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ502">
+        <v>3.3895700000000002E-3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B503">
+        <v>4</v>
+      </c>
+      <c r="C503" t="s">
+        <v>416</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503">
+        <v>1334</v>
+      </c>
+      <c r="F503">
+        <v>263187</v>
+      </c>
+      <c r="G503">
+        <v>54145</v>
+      </c>
+      <c r="H503">
+        <v>53</v>
+      </c>
+      <c r="I503">
+        <v>80</v>
+      </c>
+      <c r="J503" s="1">
+        <f t="shared" si="27"/>
+        <v>263239.19481090963</v>
+      </c>
+      <c r="K503" s="1">
+        <f t="shared" si="28"/>
+        <v>54154.203353416349</v>
+      </c>
+      <c r="L503">
+        <v>0.48690716062370898</v>
+      </c>
+      <c r="M503">
+        <v>36.873574756510401</v>
+      </c>
+      <c r="N503" t="s">
+        <v>280</v>
+      </c>
+      <c r="P503" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q503" t="s">
+        <v>33</v>
+      </c>
+      <c r="R503" t="s">
+        <v>34</v>
+      </c>
+      <c r="S503" t="s">
+        <v>417</v>
+      </c>
+      <c r="T503" t="s">
+        <v>50</v>
+      </c>
+      <c r="V503" t="s">
+        <v>56</v>
+      </c>
+      <c r="W503" t="s">
+        <v>39</v>
+      </c>
+      <c r="X503" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y503" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA503" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP503" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ503">
+        <v>1.0147299999999999E-3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B504">
+        <v>4</v>
+      </c>
+      <c r="C504" t="s">
+        <v>416</v>
+      </c>
+      <c r="D504">
+        <v>2</v>
+      </c>
+      <c r="E504">
+        <v>1337</v>
+      </c>
+      <c r="F504">
+        <v>262968</v>
+      </c>
+      <c r="G504">
+        <v>54522</v>
+      </c>
+      <c r="H504">
+        <v>130</v>
+      </c>
+      <c r="I504">
+        <v>280</v>
+      </c>
+      <c r="J504" s="1">
+        <f t="shared" si="27"/>
+        <v>262839.97499210841</v>
+      </c>
+      <c r="K504" s="1">
+        <f t="shared" si="28"/>
+        <v>54544.5742630967</v>
+      </c>
+      <c r="L504">
+        <v>0.49043537045513902</v>
+      </c>
+      <c r="M504">
+        <v>36.869988304120596</v>
+      </c>
+      <c r="N504" t="s">
+        <v>76</v>
+      </c>
+      <c r="P504" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q504" t="s">
+        <v>33</v>
+      </c>
+      <c r="R504" t="s">
+        <v>34</v>
+      </c>
+      <c r="S504" t="s">
+        <v>49</v>
+      </c>
+      <c r="T504" t="s">
+        <v>50</v>
+      </c>
+      <c r="U504" t="s">
+        <v>37</v>
+      </c>
+      <c r="V504" t="s">
+        <v>110</v>
+      </c>
+      <c r="W504" t="s">
+        <v>39</v>
+      </c>
+      <c r="X504" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y504" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA504" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP504" t="s">
+        <v>331</v>
+      </c>
+      <c r="AQ504">
+        <v>8.0698E-4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B505">
+        <v>4</v>
+      </c>
+      <c r="C505" t="s">
+        <v>416</v>
+      </c>
+      <c r="D505">
+        <v>3</v>
+      </c>
+      <c r="E505">
+        <v>1343</v>
+      </c>
+      <c r="F505">
+        <v>263699</v>
+      </c>
+      <c r="G505">
+        <v>55134</v>
+      </c>
+      <c r="H505">
+        <v>90</v>
+      </c>
+      <c r="I505">
+        <v>360</v>
+      </c>
+      <c r="J505" s="1">
+        <f t="shared" si="27"/>
+        <v>263699</v>
+      </c>
+      <c r="K505" s="1">
+        <f t="shared" si="28"/>
+        <v>55224</v>
+      </c>
+      <c r="L505">
+        <v>0.49658059324007697</v>
+      </c>
+      <c r="M505">
+        <v>36.8777011327564</v>
+      </c>
+      <c r="N505" t="s">
+        <v>330</v>
+      </c>
+      <c r="P505" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q505" t="s">
+        <v>33</v>
+      </c>
+      <c r="R505" t="s">
+        <v>34</v>
+      </c>
+      <c r="S505" t="s">
+        <v>271</v>
+      </c>
+      <c r="T505" t="s">
+        <v>50</v>
+      </c>
+      <c r="U505" t="s">
+        <v>51</v>
+      </c>
+      <c r="V505" t="s">
+        <v>110</v>
+      </c>
+      <c r="W505" t="s">
+        <v>39</v>
+      </c>
+      <c r="X505" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y505" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA505" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP505" t="s">
+        <v>331</v>
+      </c>
+      <c r="AQ505">
+        <v>3.2877999999999998E-4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B506">
+        <v>4</v>
+      </c>
+      <c r="C506" t="s">
+        <v>418</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+      <c r="E506">
+        <v>1350</v>
+      </c>
+      <c r="F506">
+        <v>263348</v>
+      </c>
+      <c r="G506">
+        <v>56173</v>
+      </c>
+      <c r="H506">
+        <v>30</v>
+      </c>
+      <c r="I506">
+        <v>40</v>
+      </c>
+      <c r="J506" s="1">
+        <f t="shared" si="27"/>
+        <v>263367.28362829058</v>
+      </c>
+      <c r="K506" s="1">
+        <f t="shared" si="28"/>
+        <v>56195.981333293566</v>
+      </c>
+      <c r="L506">
+        <v>0.50536736571493901</v>
+      </c>
+      <c r="M506">
+        <v>36.874719180969102</v>
+      </c>
+      <c r="N506" t="s">
+        <v>301</v>
+      </c>
+      <c r="P506" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q506" t="s">
+        <v>33</v>
+      </c>
+      <c r="R506" t="s">
+        <v>34</v>
+      </c>
+      <c r="S506" t="s">
+        <v>35</v>
+      </c>
+      <c r="T506" t="s">
+        <v>50</v>
+      </c>
+      <c r="U506" t="s">
+        <v>37</v>
+      </c>
+      <c r="V506" t="s">
+        <v>110</v>
+      </c>
+      <c r="W506" t="s">
+        <v>39</v>
+      </c>
+      <c r="X506" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y506" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z506" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA506" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP506" t="s">
+        <v>419</v>
+      </c>
+      <c r="AQ506">
+        <v>1.7064700000000001E-3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B507">
+        <v>4</v>
+      </c>
+      <c r="C507" t="s">
+        <v>418</v>
+      </c>
+      <c r="D507">
+        <v>2</v>
+      </c>
+      <c r="E507">
+        <v>1408</v>
+      </c>
+      <c r="F507">
+        <v>261745</v>
+      </c>
+      <c r="G507">
+        <v>52829</v>
+      </c>
+      <c r="H507">
+        <v>28</v>
+      </c>
+      <c r="I507">
+        <v>60</v>
+      </c>
+      <c r="J507" s="1">
+        <f t="shared" si="27"/>
+        <v>261769.24871130596</v>
+      </c>
+      <c r="K507" s="1">
+        <f t="shared" si="28"/>
+        <v>52843</v>
+      </c>
+      <c r="L507">
+        <v>0.47504837195125499</v>
+      </c>
+      <c r="M507">
+        <v>36.860377151122698</v>
+      </c>
+      <c r="N507" t="s">
+        <v>44</v>
+      </c>
+      <c r="O507">
+        <v>0</v>
+      </c>
+      <c r="P507" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q507" t="s">
+        <v>33</v>
+      </c>
+      <c r="R507" t="s">
+        <v>34</v>
+      </c>
+      <c r="T507" t="s">
+        <v>50</v>
+      </c>
+      <c r="U507" t="s">
+        <v>51</v>
+      </c>
+      <c r="V507" t="s">
+        <v>110</v>
+      </c>
+      <c r="W507" t="s">
+        <v>41</v>
+      </c>
+      <c r="X507" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y507" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z507" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA507" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB507">
+        <v>3455</v>
+      </c>
+      <c r="AC507">
+        <v>3475</v>
+      </c>
+      <c r="AD507">
+        <v>2</v>
+      </c>
+      <c r="AE507">
+        <v>1</v>
+      </c>
+      <c r="AG507">
+        <v>1</v>
+      </c>
+      <c r="AP507" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ507">
+        <v>2.4214200000000001E-3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B508">
+        <v>4</v>
+      </c>
+      <c r="C508" t="s">
+        <v>418</v>
+      </c>
+      <c r="D508">
+        <v>3</v>
+      </c>
+      <c r="E508">
+        <v>1416</v>
+      </c>
+      <c r="F508">
+        <v>261688</v>
+      </c>
+      <c r="G508">
+        <v>52480</v>
+      </c>
+      <c r="H508">
+        <v>41</v>
+      </c>
+      <c r="I508">
+        <v>80</v>
+      </c>
+      <c r="J508" s="1">
+        <f t="shared" si="27"/>
+        <v>261728.37711787349</v>
+      </c>
+      <c r="K508" s="1">
+        <f t="shared" si="28"/>
+        <v>52487.119575284341</v>
+      </c>
+      <c r="L508">
+        <v>0.471830751372605</v>
+      </c>
+      <c r="M508">
+        <v>36.860011081908603</v>
+      </c>
+      <c r="N508" t="s">
+        <v>31</v>
+      </c>
+      <c r="O508">
+        <v>0</v>
+      </c>
+      <c r="P508" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q508" t="s">
+        <v>33</v>
+      </c>
+      <c r="R508" t="s">
+        <v>34</v>
+      </c>
+      <c r="S508" t="s">
+        <v>49</v>
+      </c>
+      <c r="U508" t="s">
+        <v>37</v>
+      </c>
+      <c r="V508" t="s">
+        <v>110</v>
+      </c>
+      <c r="W508" t="s">
+        <v>52</v>
+      </c>
+      <c r="X508" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y508" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z508" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA508" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB508">
+        <v>3476</v>
+      </c>
+      <c r="AC508">
+        <v>3495</v>
+      </c>
+      <c r="AD508">
+        <v>6</v>
+      </c>
+      <c r="AE508">
+        <v>1</v>
+      </c>
+      <c r="AH508">
+        <v>2</v>
+      </c>
+      <c r="AI508">
+        <v>1</v>
+      </c>
+      <c r="AM508">
+        <v>2</v>
+      </c>
+      <c r="AP508" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ508">
+        <v>3.04192E-3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44390</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+      <c r="C509" t="s">
+        <v>420</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+      <c r="E509">
+        <v>1046</v>
+      </c>
+      <c r="F509">
+        <v>259891</v>
+      </c>
+      <c r="G509">
+        <v>50077</v>
+      </c>
+      <c r="H509">
+        <v>62</v>
+      </c>
+      <c r="I509">
+        <v>100</v>
+      </c>
+      <c r="J509" s="1">
+        <f t="shared" si="27"/>
+        <v>259952.05808068675</v>
+      </c>
+      <c r="K509" s="1">
+        <f t="shared" si="28"/>
+        <v>50066.233812984654</v>
+      </c>
+      <c r="L509">
+        <v>0.44993882619964698</v>
+      </c>
+      <c r="M509">
+        <v>36.844065096163902</v>
+      </c>
+      <c r="N509" t="s">
+        <v>31</v>
+      </c>
+      <c r="O509">
+        <v>0</v>
+      </c>
+      <c r="P509" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q509" t="s">
+        <v>33</v>
+      </c>
+      <c r="R509" t="s">
+        <v>34</v>
+      </c>
+      <c r="S509" t="s">
+        <v>35</v>
+      </c>
+      <c r="T509" t="s">
+        <v>50</v>
+      </c>
+      <c r="U509" t="s">
+        <v>37</v>
+      </c>
+      <c r="V509" t="s">
+        <v>110</v>
+      </c>
+      <c r="W509" t="s">
+        <v>39</v>
+      </c>
+      <c r="X509" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y509" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA509" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB509">
+        <v>8488</v>
+      </c>
+      <c r="AC509">
+        <v>8510</v>
+      </c>
+      <c r="AD509">
+        <v>9</v>
+      </c>
+      <c r="AF509">
+        <v>9</v>
+      </c>
+      <c r="AQ509">
+        <v>1.68041E-3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44390</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+      <c r="C510" t="s">
+        <v>420</v>
+      </c>
+      <c r="D510">
+        <v>2</v>
+      </c>
+      <c r="E510">
+        <v>1049</v>
+      </c>
+      <c r="F510">
+        <v>259730</v>
+      </c>
+      <c r="G510">
+        <v>50301</v>
+      </c>
+      <c r="H510">
+        <v>31</v>
+      </c>
+      <c r="I510">
+        <v>40</v>
+      </c>
+      <c r="J510" s="1">
+        <f t="shared" si="27"/>
+        <v>259749.92641590029</v>
+      </c>
+      <c r="K510" s="1">
+        <f t="shared" si="28"/>
+        <v>50324.74737773669</v>
+      </c>
+      <c r="L510">
+        <v>0.45227546989207901</v>
+      </c>
+      <c r="M510">
+        <v>36.842249130288501</v>
+      </c>
+      <c r="N510" t="s">
+        <v>204</v>
+      </c>
+      <c r="P510" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q510" t="s">
+        <v>33</v>
+      </c>
+      <c r="R510" t="s">
+        <v>34</v>
+      </c>
+      <c r="S510" t="s">
+        <v>35</v>
+      </c>
+      <c r="T510" t="s">
+        <v>50</v>
+      </c>
+      <c r="U510" t="s">
+        <v>51</v>
+      </c>
+      <c r="V510" t="s">
+        <v>110</v>
+      </c>
+      <c r="W510" t="s">
+        <v>41</v>
+      </c>
+      <c r="X510" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y510" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z510" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA510" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD510">
+        <v>200</v>
+      </c>
+      <c r="AP510" t="s">
+        <v>423</v>
+      </c>
+      <c r="AQ510">
+        <v>2.0838000000000001E-4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44390</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+      <c r="C511" t="s">
+        <v>420</v>
+      </c>
+      <c r="D511">
+        <v>3</v>
+      </c>
+      <c r="E511">
+        <v>1053</v>
+      </c>
+      <c r="F511">
+        <v>259660</v>
+      </c>
+      <c r="G511">
+        <v>50810</v>
+      </c>
+      <c r="H511">
+        <v>17</v>
+      </c>
+      <c r="I511">
+        <v>120</v>
+      </c>
+      <c r="J511" s="1">
+        <f t="shared" si="27"/>
+        <v>259674.72243186433</v>
+      </c>
+      <c r="K511" s="1">
+        <f t="shared" si="28"/>
+        <v>50801.5</v>
+      </c>
+      <c r="L511">
+        <v>0.45658552203018798</v>
+      </c>
+      <c r="M511">
+        <v>36.841572463628303</v>
+      </c>
+      <c r="N511" t="s">
+        <v>204</v>
+      </c>
+      <c r="P511" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q511" t="s">
+        <v>33</v>
+      </c>
+      <c r="R511" t="s">
+        <v>34</v>
+      </c>
+      <c r="S511" t="s">
+        <v>45</v>
+      </c>
+      <c r="T511" t="s">
+        <v>50</v>
+      </c>
+      <c r="U511" t="s">
+        <v>51</v>
+      </c>
+      <c r="V511" t="s">
+        <v>110</v>
+      </c>
+      <c r="W511" t="s">
+        <v>39</v>
+      </c>
+      <c r="X511" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y511" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z511" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA511" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD511">
+        <v>170</v>
+      </c>
+      <c r="AP511" t="s">
+        <v>424</v>
+      </c>
+      <c r="AQ511">
+        <v>6.4862999999999997E-4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44390</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+      <c r="C512" t="s">
+        <v>425</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+      <c r="E512">
+        <v>1102</v>
+      </c>
+      <c r="F512">
+        <v>259856</v>
+      </c>
+      <c r="G512">
+        <v>53625</v>
+      </c>
+      <c r="H512">
+        <v>137</v>
+      </c>
+      <c r="I512">
+        <v>340</v>
+      </c>
+      <c r="J512" s="1">
+        <f t="shared" si="27"/>
+        <v>259809.14324036438</v>
+      </c>
+      <c r="K512" s="1">
+        <f t="shared" si="28"/>
+        <v>53753.737889047668</v>
+      </c>
+      <c r="L512">
+        <v>0.48327669210902402</v>
+      </c>
+      <c r="M512">
+        <v>36.842771410309297</v>
+      </c>
+      <c r="N512" t="s">
+        <v>204</v>
+      </c>
+      <c r="P512" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q512" t="s">
+        <v>33</v>
+      </c>
+      <c r="R512" t="s">
+        <v>34</v>
+      </c>
+      <c r="S512" t="s">
+        <v>35</v>
+      </c>
+      <c r="T512" t="s">
+        <v>50</v>
+      </c>
+      <c r="U512" t="s">
+        <v>51</v>
+      </c>
+      <c r="V512" t="s">
+        <v>110</v>
+      </c>
+      <c r="W512" t="s">
+        <v>39</v>
+      </c>
+      <c r="X512" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y512" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA512" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD512">
+        <v>120</v>
+      </c>
+      <c r="AP512" t="s">
+        <v>423</v>
+      </c>
+      <c r="AQ512">
+        <v>5.7167000000000003E-4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44390</v>
+      </c>
+      <c r="B513">
+        <v>1</v>
+      </c>
+      <c r="C513" t="s">
+        <v>425</v>
+      </c>
+      <c r="D513">
+        <v>2</v>
+      </c>
+      <c r="E513">
+        <v>1118</v>
+      </c>
+      <c r="F513">
+        <v>258802</v>
+      </c>
+      <c r="G513">
+        <v>51467</v>
+      </c>
+      <c r="H513">
+        <v>43</v>
+      </c>
+      <c r="I513">
+        <v>80</v>
+      </c>
+      <c r="J513" s="1">
+        <f t="shared" si="27"/>
+        <v>258844.34673337953</v>
+      </c>
+      <c r="K513" s="1">
+        <f t="shared" si="28"/>
+        <v>51474.466871639677</v>
+      </c>
+      <c r="L513">
+        <v>0.46266742210328199</v>
+      </c>
+      <c r="M513">
+        <v>36.834113346731598</v>
+      </c>
+      <c r="N513" t="s">
+        <v>204</v>
+      </c>
+      <c r="P513" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q513" t="s">
+        <v>33</v>
+      </c>
+      <c r="R513" t="s">
+        <v>34</v>
+      </c>
+      <c r="S513" t="s">
+        <v>35</v>
+      </c>
+      <c r="T513" t="s">
+        <v>50</v>
+      </c>
+      <c r="U513" t="s">
+        <v>51</v>
+      </c>
+      <c r="V513" t="s">
+        <v>110</v>
+      </c>
+      <c r="W513" t="s">
+        <v>53</v>
+      </c>
+      <c r="X513" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y513" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA513" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD513">
+        <v>100</v>
+      </c>
+      <c r="AP513" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ513">
+        <v>9.0458699999999993E-3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44390</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+      <c r="C514" t="s">
+        <v>425</v>
+      </c>
+      <c r="D514">
+        <v>3</v>
+      </c>
+      <c r="E514">
+        <v>1122</v>
+      </c>
+      <c r="F514">
+        <v>258863</v>
+      </c>
+      <c r="G514">
+        <v>51515</v>
+      </c>
+      <c r="H514">
+        <v>82</v>
+      </c>
+      <c r="I514">
+        <v>340</v>
+      </c>
+      <c r="J514" s="1">
+        <f t="shared" si="27"/>
+        <v>258834.95434824729</v>
+      </c>
+      <c r="K514" s="1">
+        <f t="shared" si="28"/>
+        <v>51592.054794904441</v>
+      </c>
+      <c r="L514">
+        <v>0.46373048693491598</v>
+      </c>
+      <c r="M514">
+        <v>36.834028667219997</v>
+      </c>
+      <c r="N514" t="s">
+        <v>204</v>
+      </c>
+      <c r="P514" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q514" t="s">
+        <v>33</v>
+      </c>
+      <c r="R514" t="s">
+        <v>34</v>
+      </c>
+      <c r="S514" t="s">
+        <v>35</v>
+      </c>
+      <c r="T514" t="s">
+        <v>50</v>
+      </c>
+      <c r="U514" t="s">
+        <v>51</v>
+      </c>
+      <c r="V514" t="s">
+        <v>110</v>
+      </c>
+      <c r="W514" t="s">
+        <v>53</v>
+      </c>
+      <c r="X514" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y514" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z514" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA514" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD514">
+        <v>250</v>
+      </c>
+      <c r="AP514" t="s">
+        <v>427</v>
+      </c>
+      <c r="AQ514">
+        <v>9.3807200000000004E-3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44390</v>
+      </c>
+      <c r="B515">
+        <v>1</v>
+      </c>
+      <c r="C515" t="s">
+        <v>428</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+      <c r="E515">
+        <v>1137</v>
+      </c>
+      <c r="F515">
+        <v>260223</v>
+      </c>
+      <c r="G515">
+        <v>53093</v>
+      </c>
+      <c r="H515">
+        <v>128</v>
+      </c>
+      <c r="I515">
+        <v>80</v>
+      </c>
+      <c r="J515" s="1">
+        <f t="shared" si="27"/>
+        <v>260349.05539238558</v>
+      </c>
+      <c r="K515" s="1">
+        <f t="shared" si="28"/>
+        <v>53115.226966741364</v>
+      </c>
+      <c r="L515">
+        <v>0.47750553682423003</v>
+      </c>
+      <c r="M515">
+        <v>36.847622007763498</v>
+      </c>
+      <c r="N515" t="s">
+        <v>204</v>
+      </c>
+      <c r="P515" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q515" t="s">
+        <v>82</v>
+      </c>
+      <c r="R515" t="s">
+        <v>34</v>
+      </c>
+      <c r="S515" t="s">
+        <v>35</v>
+      </c>
+      <c r="T515" t="s">
+        <v>50</v>
+      </c>
+      <c r="U515" t="s">
+        <v>51</v>
+      </c>
+      <c r="V515" t="s">
+        <v>110</v>
+      </c>
+      <c r="W515" t="s">
+        <v>53</v>
+      </c>
+      <c r="X515" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y515" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA515" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD515">
+        <v>170</v>
+      </c>
+      <c r="AP515" t="s">
+        <v>429</v>
+      </c>
+      <c r="AQ515">
+        <v>2.3100299999999998E-3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44390</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+      <c r="C516" t="s">
+        <v>428</v>
+      </c>
+      <c r="D516">
+        <v>2</v>
+      </c>
+      <c r="E516">
+        <v>1148</v>
+      </c>
+      <c r="F516">
+        <v>261277</v>
+      </c>
+      <c r="G516">
+        <v>51986</v>
+      </c>
+      <c r="H516">
+        <v>34</v>
+      </c>
+      <c r="I516">
+        <v>200</v>
+      </c>
+      <c r="J516" s="1">
+        <f t="shared" si="27"/>
+        <v>261265.37131512692</v>
+      </c>
+      <c r="K516" s="1">
+        <f t="shared" si="28"/>
+        <v>51954.050450893279</v>
+      </c>
+      <c r="L516">
+        <v>0.46701000375402402</v>
+      </c>
+      <c r="M516">
+        <v>36.8558544194752</v>
+      </c>
+      <c r="N516" t="s">
+        <v>44</v>
+      </c>
+      <c r="O516">
+        <v>0</v>
+      </c>
+      <c r="P516" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q516" t="s">
+        <v>33</v>
+      </c>
+      <c r="R516" t="s">
+        <v>34</v>
+      </c>
+      <c r="S516" t="s">
+        <v>35</v>
+      </c>
+      <c r="T516" t="s">
+        <v>105</v>
+      </c>
+      <c r="U516" t="s">
+        <v>37</v>
+      </c>
+      <c r="V516" t="s">
+        <v>110</v>
+      </c>
+      <c r="W516" t="s">
+        <v>53</v>
+      </c>
+      <c r="X516" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y516" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA516" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB516">
+        <v>8511</v>
+      </c>
+      <c r="AC516">
+        <v>8516</v>
+      </c>
+      <c r="AD516">
+        <v>2</v>
+      </c>
+      <c r="AH516">
+        <v>1</v>
+      </c>
+      <c r="AN516">
+        <v>1</v>
+      </c>
+      <c r="AQ516">
+        <v>4.7390100000000001E-3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44390</v>
+      </c>
+      <c r="B517">
+        <v>2</v>
+      </c>
+      <c r="C517" t="s">
+        <v>430</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+      <c r="E517">
+        <v>1255</v>
+      </c>
+      <c r="F517">
+        <v>260912</v>
+      </c>
+      <c r="G517">
+        <v>52464</v>
+      </c>
+      <c r="H517">
+        <v>221</v>
+      </c>
+      <c r="I517">
+        <v>280</v>
+      </c>
+      <c r="J517" s="1">
+        <f t="shared" si="27"/>
+        <v>260694.35748658431</v>
+      </c>
+      <c r="K517" s="1">
+        <f t="shared" si="28"/>
+        <v>52502.376247264394</v>
+      </c>
+      <c r="L517">
+        <v>0.47196578531147398</v>
+      </c>
+      <c r="M517">
+        <v>36.8507247835039</v>
+      </c>
+      <c r="N517" t="s">
+        <v>31</v>
+      </c>
+      <c r="O517">
+        <v>0</v>
+      </c>
+      <c r="P517" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q517" t="s">
+        <v>33</v>
+      </c>
+      <c r="R517" t="s">
+        <v>34</v>
+      </c>
+      <c r="S517" t="s">
+        <v>35</v>
+      </c>
+      <c r="T517" t="s">
+        <v>105</v>
+      </c>
+      <c r="U517" t="s">
+        <v>37</v>
+      </c>
+      <c r="V517" t="s">
+        <v>110</v>
+      </c>
+      <c r="W517" t="s">
+        <v>53</v>
+      </c>
+      <c r="X517" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y517" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z517" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA517" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB517">
+        <v>8517</v>
+      </c>
+      <c r="AC517">
+        <v>8525</v>
+      </c>
+      <c r="AD517">
+        <v>5</v>
+      </c>
+      <c r="AH517">
+        <v>3</v>
+      </c>
+      <c r="AJ517">
+        <v>1</v>
+      </c>
+      <c r="AN517">
+        <v>2</v>
+      </c>
+      <c r="AQ517">
+        <v>6.6836E-4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44390</v>
+      </c>
+      <c r="B518">
+        <v>2</v>
+      </c>
+      <c r="C518" t="s">
+        <v>430</v>
+      </c>
+      <c r="D518">
+        <v>2</v>
+      </c>
+      <c r="E518">
+        <v>1301</v>
+      </c>
+      <c r="F518">
+        <v>261028</v>
+      </c>
+      <c r="G518">
+        <v>52435</v>
+      </c>
+      <c r="H518">
+        <v>35</v>
+      </c>
+      <c r="I518">
+        <v>340</v>
+      </c>
+      <c r="J518" s="1">
+        <f t="shared" si="27"/>
+        <v>261016.0292949836</v>
+      </c>
+      <c r="K518" s="1">
+        <f t="shared" si="28"/>
+        <v>52467.889241727506</v>
+      </c>
+      <c r="L518">
+        <v>0.47165489423476198</v>
+      </c>
+      <c r="M518">
+        <v>36.853613723429298</v>
+      </c>
+      <c r="N518" t="s">
+        <v>31</v>
+      </c>
+      <c r="O518">
+        <v>0</v>
+      </c>
+      <c r="P518" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q518" t="s">
+        <v>33</v>
+      </c>
+      <c r="R518" t="s">
+        <v>34</v>
+      </c>
+      <c r="S518" t="s">
+        <v>49</v>
+      </c>
+      <c r="T518" t="s">
+        <v>36</v>
+      </c>
+      <c r="U518" t="s">
+        <v>51</v>
+      </c>
+      <c r="V518" t="s">
+        <v>110</v>
+      </c>
+      <c r="W518" t="s">
+        <v>422</v>
+      </c>
+      <c r="X518" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y518" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA518" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB518">
+        <v>8526</v>
+      </c>
+      <c r="AC518">
+        <v>8536</v>
+      </c>
+      <c r="AD518">
+        <v>3</v>
+      </c>
+      <c r="AF518">
+        <v>3</v>
+      </c>
+      <c r="AQ518">
+        <v>3.5580500000000001E-3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44390</v>
+      </c>
+      <c r="B519">
+        <v>2</v>
+      </c>
+      <c r="C519" t="s">
+        <v>431</v>
+      </c>
+      <c r="D519">
+        <v>1</v>
+      </c>
+      <c r="E519">
+        <v>1203</v>
+      </c>
+      <c r="F519">
+        <v>260454</v>
+      </c>
+      <c r="G519">
+        <v>51786</v>
+      </c>
+      <c r="H519">
+        <v>42</v>
+      </c>
+      <c r="I519">
+        <v>60</v>
+      </c>
+      <c r="J519" s="1">
+        <f t="shared" si="27"/>
+        <v>260490.37306695894</v>
+      </c>
+      <c r="K519" s="1">
+        <f t="shared" si="28"/>
+        <v>51807</v>
+      </c>
+      <c r="L519">
+        <v>0.46567837943590101</v>
+      </c>
+      <c r="M519">
+        <v>36.848894795286199</v>
+      </c>
+      <c r="N519" t="s">
+        <v>280</v>
+      </c>
+      <c r="P519" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q519" t="s">
+        <v>33</v>
+      </c>
+      <c r="R519" t="s">
+        <v>34</v>
+      </c>
+      <c r="S519" t="s">
+        <v>35</v>
+      </c>
+      <c r="T519" t="s">
+        <v>50</v>
+      </c>
+      <c r="U519" t="s">
+        <v>51</v>
+      </c>
+      <c r="V519" t="s">
+        <v>110</v>
+      </c>
+      <c r="W519" t="s">
+        <v>39</v>
+      </c>
+      <c r="X519" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y519" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA519" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD519">
+        <v>30</v>
+      </c>
+      <c r="AQ519">
+        <v>2.3421800000000001E-3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44390</v>
+      </c>
+      <c r="B520">
+        <v>2</v>
+      </c>
+      <c r="C520" t="s">
+        <v>431</v>
+      </c>
+      <c r="D520">
+        <v>2</v>
+      </c>
+      <c r="E520">
+        <v>1220</v>
+      </c>
+      <c r="F520">
+        <v>259967</v>
+      </c>
+      <c r="G520">
+        <v>53806</v>
+      </c>
+      <c r="H520">
+        <v>45</v>
+      </c>
+      <c r="I520">
+        <v>40</v>
+      </c>
+      <c r="J520" s="1">
+        <f t="shared" si="27"/>
+        <v>259995.9254424359</v>
+      </c>
+      <c r="K520" s="1">
+        <f t="shared" si="28"/>
+        <v>53840.471999940353</v>
+      </c>
+      <c r="L520">
+        <v>0.48406138416821398</v>
+      </c>
+      <c r="M520">
+        <v>36.844448590145802</v>
+      </c>
+      <c r="N520" t="s">
+        <v>330</v>
+      </c>
+      <c r="P520" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q520" t="s">
+        <v>33</v>
+      </c>
+      <c r="R520" t="s">
+        <v>34</v>
+      </c>
+      <c r="S520" t="s">
+        <v>35</v>
+      </c>
+      <c r="T520" t="s">
+        <v>50</v>
+      </c>
+      <c r="U520" t="s">
+        <v>70</v>
+      </c>
+      <c r="V520" t="s">
+        <v>110</v>
+      </c>
+      <c r="W520" t="s">
+        <v>39</v>
+      </c>
+      <c r="X520" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y520" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA520" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD520">
+        <v>150</v>
+      </c>
+      <c r="AP520" t="s">
+        <v>432</v>
+      </c>
+      <c r="AQ520">
+        <v>8.5713E-4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44390</v>
+      </c>
+      <c r="B521">
+        <v>2</v>
+      </c>
+      <c r="C521" t="s">
+        <v>431</v>
+      </c>
+      <c r="D521">
+        <v>3</v>
+      </c>
+      <c r="E521">
+        <v>1229</v>
+      </c>
+      <c r="F521">
+        <v>260447</v>
+      </c>
+      <c r="G521">
+        <v>55074</v>
+      </c>
+      <c r="H521">
+        <v>18</v>
+      </c>
+      <c r="I521">
+        <v>200</v>
+      </c>
+      <c r="J521" s="1">
+        <f t="shared" si="27"/>
+        <v>260440.84363742013</v>
+      </c>
+      <c r="K521" s="1">
+        <f t="shared" si="28"/>
+        <v>55057.085532825855</v>
+      </c>
+      <c r="L521">
+        <v>0.49506195622049998</v>
+      </c>
+      <c r="M521">
+        <v>36.848440744686201</v>
+      </c>
+      <c r="N521" t="s">
+        <v>280</v>
+      </c>
+      <c r="P521" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q521" t="s">
+        <v>33</v>
+      </c>
+      <c r="R521" t="s">
+        <v>34</v>
+      </c>
+      <c r="S521" t="s">
+        <v>35</v>
+      </c>
+      <c r="T521" t="s">
+        <v>50</v>
+      </c>
+      <c r="U521" t="s">
+        <v>51</v>
+      </c>
+      <c r="V521" t="s">
+        <v>110</v>
+      </c>
+      <c r="W521" t="s">
+        <v>39</v>
+      </c>
+      <c r="X521" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y521" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z521" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA521" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD521">
+        <v>110</v>
+      </c>
+      <c r="AP521" t="s">
+        <v>433</v>
+      </c>
+      <c r="AQ521">
+        <v>1.0195E-4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B522">
+        <v>3</v>
+      </c>
+      <c r="C522" t="s">
+        <v>407</v>
+      </c>
+      <c r="D522">
+        <v>1</v>
+      </c>
+      <c r="E522">
+        <v>1139</v>
+      </c>
+      <c r="F522">
+        <v>261083</v>
+      </c>
+      <c r="G522">
+        <v>56563</v>
+      </c>
+      <c r="H522">
+        <v>26</v>
+      </c>
+      <c r="I522">
+        <v>110</v>
+      </c>
+      <c r="J522" s="1">
+        <f t="shared" si="25"/>
+        <v>261107.43200814043</v>
+      </c>
+      <c r="K522" s="1">
+        <f t="shared" si="26"/>
+        <v>56554.10747627353</v>
+      </c>
+      <c r="L522">
+        <v>0.50859840711859405</v>
+      </c>
+      <c r="M522">
+        <v>36.85442276157</v>
+      </c>
+      <c r="N522" t="s">
+        <v>258</v>
+      </c>
+      <c r="P522" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q522" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R522" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S522" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="T522" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U522" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V522" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W522" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X522" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y522" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z522" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA522" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD522">
+        <v>35</v>
+      </c>
+      <c r="AP522" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ522">
+        <v>1.8295099999999999E-3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B523">
+        <v>3</v>
+      </c>
+      <c r="C523" t="s">
+        <v>407</v>
+      </c>
+      <c r="D523">
+        <v>1</v>
+      </c>
+      <c r="E523">
+        <v>1139</v>
+      </c>
+      <c r="F523">
+        <v>261083</v>
+      </c>
+      <c r="G523">
+        <v>56563</v>
+      </c>
+      <c r="H523">
+        <v>26</v>
+      </c>
+      <c r="I523">
+        <v>110</v>
+      </c>
+      <c r="J523" s="1">
+        <f t="shared" ref="J523" si="29">F523+H523*SIN(I523*PI()/180)</f>
+        <v>261107.43200814043</v>
+      </c>
+      <c r="K523" s="1">
+        <f t="shared" ref="K523" si="30">G523+H523*COS(I523*PI()/180)</f>
+        <v>56554.10747627353</v>
+      </c>
+      <c r="L523">
+        <v>0.50859840711859405</v>
+      </c>
+      <c r="M523">
+        <v>36.85442276157</v>
+      </c>
+      <c r="N523" t="s">
+        <v>249</v>
+      </c>
+      <c r="P523" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q523" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R523" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S523" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="T523" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U523" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V523" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W523" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X523" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y523" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z523" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA523" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD523">
+        <v>70</v>
+      </c>
+      <c r="AP523" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ523">
+        <v>1.8295099999999999E-3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B524">
+        <v>3</v>
+      </c>
+      <c r="C524" t="s">
+        <v>407</v>
+      </c>
+      <c r="D524">
+        <v>2</v>
+      </c>
+      <c r="E524">
+        <v>1146</v>
+      </c>
+      <c r="F524">
+        <v>261943</v>
+      </c>
+      <c r="G524">
+        <v>57984</v>
+      </c>
+      <c r="H524">
+        <v>45</v>
+      </c>
+      <c r="I524">
+        <v>350</v>
+      </c>
+      <c r="J524" s="1">
+        <f t="shared" ref="J524:J529" si="31">F524+H524*SIN(I524*PI()/180)</f>
+        <v>261935.18583200499</v>
+      </c>
+      <c r="K524" s="1">
+        <f t="shared" ref="K524:K529" si="32">G524+H524*COS(I524*PI()/180)</f>
+        <v>58028.31634888555</v>
+      </c>
+      <c r="L524">
+        <v>0.521929203392972</v>
+      </c>
+      <c r="M524">
+        <v>36.861852183176197</v>
+      </c>
+      <c r="N524" t="s">
+        <v>258</v>
+      </c>
+      <c r="P524" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q524" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R524" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S524" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T524" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U524" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V524" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W524" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X524" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y524" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z524" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA524" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD524">
+        <v>45</v>
+      </c>
+      <c r="AP524" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ524">
+        <v>3.7491899999999999E-3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B525">
+        <v>3</v>
+      </c>
+      <c r="C525" t="s">
+        <v>407</v>
+      </c>
+      <c r="D525">
+        <v>3</v>
+      </c>
+      <c r="E525">
+        <v>1151</v>
+      </c>
+      <c r="F525">
+        <v>2622100</v>
+      </c>
+      <c r="G525">
+        <v>57938</v>
+      </c>
+      <c r="H525">
+        <v>42</v>
+      </c>
+      <c r="I525">
+        <v>20</v>
+      </c>
+      <c r="J525" s="1">
+        <f t="shared" si="31"/>
+        <v>2622114.3648460195</v>
+      </c>
+      <c r="K525" s="1">
+        <f t="shared" si="32"/>
+        <v>57977.467090073005</v>
+      </c>
+      <c r="L525">
+        <v>0.49387244885459097</v>
+      </c>
+      <c r="M525">
+        <v>57.727469129535599</v>
+      </c>
+      <c r="N525" t="s">
+        <v>31</v>
+      </c>
+      <c r="O525">
+        <v>0</v>
+      </c>
+      <c r="P525" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q525" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R525" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S525" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T525" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U525" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V525" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W525" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X525" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y525" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z525" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA525" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB525">
+        <v>8590</v>
+      </c>
+      <c r="AC525">
+        <v>8599</v>
+      </c>
+      <c r="AD525">
+        <v>4</v>
+      </c>
+      <c r="AE525">
+        <v>1</v>
+      </c>
+      <c r="AG525">
+        <v>2</v>
+      </c>
+      <c r="AI525">
+        <v>1</v>
+      </c>
+      <c r="AQ525">
+        <v>20.753864</v>
+      </c>
+    </row>
+    <row r="526" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B526">
+        <v>3</v>
+      </c>
+      <c r="C526" t="s">
+        <v>408</v>
+      </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
+      <c r="E526">
+        <v>1156</v>
+      </c>
+      <c r="F526">
+        <v>262589</v>
+      </c>
+      <c r="G526">
+        <v>58277</v>
+      </c>
+      <c r="H526">
+        <v>19</v>
+      </c>
+      <c r="I526">
+        <v>40</v>
+      </c>
+      <c r="J526" s="1">
+        <f t="shared" si="31"/>
+        <v>262601.21296458406</v>
+      </c>
+      <c r="K526" s="1">
+        <f t="shared" si="32"/>
+        <v>58291.554844419261</v>
+      </c>
+      <c r="L526">
+        <v>0.52431120360575001</v>
+      </c>
+      <c r="M526">
+        <v>36.867832867406896</v>
+      </c>
+      <c r="N526" t="s">
+        <v>395</v>
+      </c>
+      <c r="P526" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q526" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R526" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S526" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T526" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U526" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V526" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W526" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X526" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y526" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA526" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD526">
+        <v>5</v>
+      </c>
+      <c r="AP526" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ526">
+        <v>9.8313000000000003E-4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B527">
+        <v>3</v>
+      </c>
+      <c r="C527" t="s">
+        <v>408</v>
+      </c>
+      <c r="D527">
+        <v>2</v>
+      </c>
+      <c r="E527">
+        <v>1159</v>
+      </c>
+      <c r="F527">
+        <v>262757</v>
+      </c>
+      <c r="G527">
+        <v>58030</v>
+      </c>
+      <c r="H527">
+        <v>31</v>
+      </c>
+      <c r="I527">
+        <v>300</v>
+      </c>
+      <c r="J527" s="1">
+        <f t="shared" si="31"/>
+        <v>262730.15321248269</v>
+      </c>
+      <c r="K527" s="1">
+        <f t="shared" si="32"/>
+        <v>58045.5</v>
+      </c>
+      <c r="L527">
+        <v>0.52208701485097597</v>
+      </c>
+      <c r="M527">
+        <v>36.868991616829199</v>
+      </c>
+      <c r="N527" t="s">
+        <v>395</v>
+      </c>
+      <c r="P527" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q527" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R527" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S527" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T527" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U527" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V527" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W527" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X527" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y527" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z527" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA527" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB527">
+        <v>70</v>
+      </c>
+      <c r="AP527" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ527">
+        <v>2.9032E-4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B528">
+        <v>3</v>
+      </c>
+      <c r="C528" t="s">
+        <v>408</v>
+      </c>
+      <c r="D528">
+        <v>2</v>
+      </c>
+      <c r="E528">
+        <v>1159</v>
+      </c>
+      <c r="F528">
+        <v>262757</v>
+      </c>
+      <c r="G528">
+        <v>58030</v>
+      </c>
+      <c r="H528">
+        <v>31</v>
+      </c>
+      <c r="I528">
+        <v>300</v>
+      </c>
+      <c r="J528" s="1">
+        <f t="shared" ref="J528" si="33">F528+H528*SIN(I528*PI()/180)</f>
+        <v>262730.15321248269</v>
+      </c>
+      <c r="K528" s="1">
+        <f t="shared" ref="K528" si="34">G528+H528*COS(I528*PI()/180)</f>
+        <v>58045.5</v>
+      </c>
+      <c r="L528">
+        <v>0.52208701485097597</v>
+      </c>
+      <c r="M528">
+        <v>36.868991616829199</v>
+      </c>
+      <c r="N528" t="s">
+        <v>258</v>
+      </c>
+      <c r="P528" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q528" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R528" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S528" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T528" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U528" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V528" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W528" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X528" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y528" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z528" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA528" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB528">
+        <v>10</v>
+      </c>
+      <c r="AP528" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ528">
+        <v>2.9032E-4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B529">
+        <v>3</v>
+      </c>
+      <c r="C529" t="s">
+        <v>408</v>
+      </c>
+      <c r="D529">
+        <v>3</v>
+      </c>
+      <c r="E529">
+        <v>1204</v>
+      </c>
+      <c r="F529">
+        <v>262048</v>
+      </c>
+      <c r="G529">
+        <v>56996</v>
+      </c>
+      <c r="H529">
+        <v>20</v>
+      </c>
+      <c r="I529">
+        <v>240</v>
+      </c>
+      <c r="J529" s="1">
+        <f t="shared" si="31"/>
+        <v>262030.67949192433</v>
+      </c>
+      <c r="K529" s="1">
+        <f t="shared" si="32"/>
+        <v>56986</v>
+      </c>
+      <c r="L529">
+        <v>0.51250592814505402</v>
+      </c>
+      <c r="M529">
+        <v>36.862712960923297</v>
+      </c>
+      <c r="N529" t="s">
+        <v>249</v>
+      </c>
+      <c r="P529" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q529" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R529" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S529" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T529" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U529" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V529" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W529" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X529" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y529" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z529" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA529" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB529">
+        <v>40</v>
+      </c>
+      <c r="AP529" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ529">
+        <v>3.3786200000000001E-3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B530">
+        <v>4</v>
+      </c>
+      <c r="C530" t="s">
+        <v>401</v>
+      </c>
+      <c r="D530">
+        <v>1</v>
+      </c>
+      <c r="E530">
+        <v>1005</v>
+      </c>
+      <c r="F530">
+        <v>261739</v>
+      </c>
+      <c r="G530">
+        <v>52262</v>
+      </c>
+      <c r="H530">
+        <v>25</v>
+      </c>
+      <c r="I530">
+        <v>320</v>
+      </c>
+      <c r="J530" s="1">
+        <f t="shared" si="25"/>
+        <v>261722.93030975782</v>
+      </c>
+      <c r="K530" s="1">
+        <f t="shared" si="26"/>
+        <v>52281.151111077976</v>
+      </c>
+      <c r="L530">
+        <v>0.469968580327076</v>
+      </c>
+      <c r="M530">
+        <v>36.859962735123403</v>
+      </c>
+      <c r="N530" t="s">
+        <v>31</v>
+      </c>
+      <c r="O530">
+        <v>0</v>
+      </c>
+      <c r="P530" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q530" t="s">
+        <v>78</v>
+      </c>
+      <c r="R530" t="s">
+        <v>34</v>
+      </c>
+      <c r="S530" t="s">
+        <v>49</v>
+      </c>
+      <c r="T530" t="s">
+        <v>46</v>
+      </c>
+      <c r="U530" t="s">
+        <v>70</v>
+      </c>
+      <c r="V530" t="s">
+        <v>110</v>
+      </c>
+      <c r="W530" t="s">
+        <v>177</v>
+      </c>
+      <c r="X530" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y530" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z530" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA530" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB530">
+        <v>8537</v>
+      </c>
+      <c r="AC530">
+        <v>8541</v>
+      </c>
+      <c r="AD530">
+        <v>6</v>
+      </c>
+      <c r="AE530">
+        <v>1</v>
+      </c>
+      <c r="AG530">
+        <v>1</v>
+      </c>
+      <c r="AH530">
+        <v>1</v>
+      </c>
+      <c r="AI530">
+        <v>2</v>
+      </c>
+      <c r="AM530">
+        <v>1</v>
+      </c>
+      <c r="AQ530">
+        <v>4.0048999999999996E-3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B531">
+        <v>4</v>
+      </c>
+      <c r="C531" t="s">
+        <v>401</v>
+      </c>
+      <c r="D531">
+        <v>2</v>
+      </c>
+      <c r="E531">
+        <v>1015</v>
+      </c>
+      <c r="F531">
+        <v>261954</v>
+      </c>
+      <c r="G531">
+        <v>52338</v>
+      </c>
+      <c r="H531">
+        <v>31</v>
+      </c>
+      <c r="I531">
+        <v>270</v>
+      </c>
+      <c r="J531" s="1">
+        <f t="shared" si="25"/>
+        <v>261923</v>
+      </c>
+      <c r="K531" s="1">
+        <f t="shared" si="26"/>
+        <v>52338</v>
+      </c>
+      <c r="L531">
+        <v>0.47048310778065</v>
+      </c>
+      <c r="M531">
+        <v>36.861759358693398</v>
+      </c>
+      <c r="N531" t="s">
+        <v>31</v>
+      </c>
+      <c r="O531">
+        <v>0</v>
+      </c>
+      <c r="P531" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q531" t="s">
+        <v>78</v>
+      </c>
+      <c r="R531" t="s">
+        <v>34</v>
+      </c>
+      <c r="S531" t="s">
+        <v>49</v>
+      </c>
+      <c r="T531" t="s">
+        <v>50</v>
+      </c>
+      <c r="U531" t="s">
+        <v>70</v>
+      </c>
+      <c r="V531" t="s">
+        <v>110</v>
+      </c>
+      <c r="W531" t="s">
+        <v>94</v>
+      </c>
+      <c r="X531" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y531" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z531" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA531" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB531">
+        <v>8542</v>
+      </c>
+      <c r="AC531">
+        <v>8552</v>
+      </c>
+      <c r="AD531">
+        <v>10</v>
+      </c>
+      <c r="AE531">
+        <v>1</v>
+      </c>
+      <c r="AG531">
+        <v>4</v>
+      </c>
+      <c r="AH531">
+        <v>2</v>
+      </c>
+      <c r="AI531">
+        <v>1</v>
+      </c>
+      <c r="AM531">
+        <v>1</v>
+      </c>
+      <c r="AO531">
+        <v>1</v>
+      </c>
+      <c r="AQ531">
+        <v>2.46423E-3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B532">
+        <v>4</v>
+      </c>
+      <c r="C532" t="s">
+        <v>401</v>
+      </c>
+      <c r="D532">
+        <v>3</v>
+      </c>
+      <c r="E532">
+        <v>1032</v>
+      </c>
+      <c r="F532">
+        <v>264951</v>
+      </c>
+      <c r="G532">
+        <v>53369</v>
+      </c>
+      <c r="H532">
+        <v>14</v>
+      </c>
+      <c r="I532">
+        <v>230</v>
+      </c>
+      <c r="J532" s="1">
+        <f t="shared" ref="J532:J543" si="35">F532+H532*SIN(I532*PI()/180)</f>
+        <v>264940.27537779632</v>
+      </c>
+      <c r="K532" s="1">
+        <f t="shared" ref="K532:K543" si="36">G532+H532*COS(I532*PI()/180)</f>
+        <v>53360.00097346439</v>
+      </c>
+      <c r="L532">
+        <v>0.47973152516336998</v>
+      </c>
+      <c r="M532">
+        <v>36.888854221396997</v>
+      </c>
+      <c r="N532" t="s">
+        <v>258</v>
+      </c>
+      <c r="P532" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q532" t="s">
+        <v>78</v>
+      </c>
+      <c r="R532" t="s">
+        <v>34</v>
+      </c>
+      <c r="S532" t="s">
+        <v>271</v>
+      </c>
+      <c r="T532" t="s">
+        <v>50</v>
+      </c>
+      <c r="U532" t="s">
+        <v>51</v>
+      </c>
+      <c r="V532" t="s">
+        <v>110</v>
+      </c>
+      <c r="W532" t="s">
+        <v>40</v>
+      </c>
+      <c r="X532" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y532" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z532" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA532" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD532">
+        <v>26</v>
+      </c>
+      <c r="AP532" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ532">
+        <v>4.9348000000000003E-4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B533">
+        <v>4</v>
+      </c>
+      <c r="C533" t="s">
+        <v>401</v>
+      </c>
+      <c r="D533">
+        <v>3</v>
+      </c>
+      <c r="E533">
+        <v>1032</v>
+      </c>
+      <c r="F533">
+        <v>264951</v>
+      </c>
+      <c r="G533">
+        <v>53369</v>
+      </c>
+      <c r="H533">
+        <v>14</v>
+      </c>
+      <c r="I533">
+        <v>230</v>
+      </c>
+      <c r="J533" s="1">
+        <f t="shared" si="35"/>
+        <v>264940.27537779632</v>
+      </c>
+      <c r="K533" s="1">
+        <f t="shared" si="36"/>
+        <v>53360.00097346439</v>
+      </c>
+      <c r="L533">
+        <v>0.47973152516336998</v>
+      </c>
+      <c r="M533">
+        <v>36.888854221396997</v>
+      </c>
+      <c r="N533" t="s">
+        <v>249</v>
+      </c>
+      <c r="P533" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q533" t="s">
+        <v>78</v>
+      </c>
+      <c r="R533" t="s">
+        <v>34</v>
+      </c>
+      <c r="S533" t="s">
+        <v>271</v>
+      </c>
+      <c r="T533" t="s">
+        <v>50</v>
+      </c>
+      <c r="U533" t="s">
+        <v>51</v>
+      </c>
+      <c r="V533" t="s">
+        <v>110</v>
+      </c>
+      <c r="W533" t="s">
+        <v>40</v>
+      </c>
+      <c r="X533" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y533" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z533" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA533" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD533">
+        <v>40</v>
+      </c>
+      <c r="AP533" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ533">
+        <v>4.9348000000000003E-4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B534">
+        <v>4</v>
+      </c>
+      <c r="C534" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D534">
+        <v>1</v>
+      </c>
+      <c r="E534">
+        <v>1039</v>
+      </c>
+      <c r="F534">
+        <v>264078</v>
+      </c>
+      <c r="G534">
+        <v>53496</v>
+      </c>
+      <c r="H534">
+        <v>21</v>
+      </c>
+      <c r="I534">
+        <v>280</v>
+      </c>
+      <c r="J534" s="1">
+        <f t="shared" si="35"/>
+        <v>264057.31903718674</v>
+      </c>
+      <c r="K534" s="1">
+        <f t="shared" si="36"/>
+        <v>53499.646611731005</v>
+      </c>
+      <c r="L534">
+        <v>0.48099159193889501</v>
+      </c>
+      <c r="M534">
+        <v>36.880924077442003</v>
+      </c>
+      <c r="N534" t="s">
+        <v>258</v>
+      </c>
+      <c r="P534" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q534" t="s">
+        <v>33</v>
+      </c>
+      <c r="R534" t="s">
+        <v>34</v>
+      </c>
+      <c r="S534" t="s">
+        <v>252</v>
+      </c>
+      <c r="T534" t="s">
+        <v>50</v>
+      </c>
+      <c r="U534" t="s">
+        <v>37</v>
+      </c>
+      <c r="V534" t="s">
+        <v>110</v>
+      </c>
+      <c r="W534" t="s">
+        <v>53</v>
+      </c>
+      <c r="X534" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y534" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z534" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA534" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD534">
+        <v>16</v>
+      </c>
+      <c r="AP534" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ534">
+        <v>3.1002600000000001E-3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B535">
+        <v>4</v>
+      </c>
+      <c r="C535" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D535">
+        <v>2</v>
+      </c>
+      <c r="E535">
+        <v>1052</v>
+      </c>
+      <c r="F535">
+        <v>263500</v>
+      </c>
+      <c r="G535">
+        <v>53465</v>
+      </c>
+      <c r="H535">
+        <v>43</v>
+      </c>
+      <c r="I535">
+        <v>40</v>
+      </c>
+      <c r="J535" s="1">
+        <f t="shared" si="35"/>
+        <v>263527.63986721652</v>
+      </c>
+      <c r="K535" s="1">
+        <f t="shared" si="36"/>
+        <v>53497.939911054113</v>
+      </c>
+      <c r="L535">
+        <v>0.48097466382496001</v>
+      </c>
+      <c r="M535">
+        <v>36.876167098966803</v>
+      </c>
+      <c r="N535" t="s">
+        <v>31</v>
+      </c>
+      <c r="O535">
+        <v>0</v>
+      </c>
+      <c r="P535" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q535" t="s">
+        <v>33</v>
+      </c>
+      <c r="R535" t="s">
+        <v>34</v>
+      </c>
+      <c r="S535" t="s">
+        <v>147</v>
+      </c>
+      <c r="T535" t="s">
+        <v>50</v>
+      </c>
+      <c r="U535" t="s">
+        <v>51</v>
+      </c>
+      <c r="V535" t="s">
+        <v>110</v>
+      </c>
+      <c r="W535" t="s">
+        <v>40</v>
+      </c>
+      <c r="X535" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y535" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z535" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA535" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB535">
+        <v>8553</v>
+      </c>
+      <c r="AC535">
+        <v>8585</v>
+      </c>
+      <c r="AD535">
+        <f>SUM(AE535:AO535)</f>
+        <v>10</v>
+      </c>
+      <c r="AE535">
+        <v>1</v>
+      </c>
+      <c r="AH535">
+        <v>4</v>
+      </c>
+      <c r="AM535">
+        <v>1</v>
+      </c>
+      <c r="AN535">
+        <v>3</v>
+      </c>
+      <c r="AO535">
+        <v>1</v>
+      </c>
+      <c r="AQ535">
+        <v>3.9861100000000002E-3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B536">
+        <v>4</v>
+      </c>
+      <c r="C536" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D536">
+        <v>2</v>
+      </c>
+      <c r="E536">
+        <v>1052</v>
+      </c>
+      <c r="F536">
+        <v>263500</v>
+      </c>
+      <c r="G536">
+        <v>53465</v>
+      </c>
+      <c r="H536">
+        <v>43</v>
+      </c>
+      <c r="I536">
+        <v>40</v>
+      </c>
+      <c r="J536" s="1">
+        <f t="shared" si="35"/>
+        <v>263527.63986721652</v>
+      </c>
+      <c r="K536" s="1">
+        <f t="shared" si="36"/>
+        <v>53497.939911054113</v>
+      </c>
+      <c r="L536">
+        <v>0.48097466382496001</v>
+      </c>
+      <c r="M536">
+        <v>36.876167098966803</v>
+      </c>
+      <c r="N536" t="s">
+        <v>258</v>
+      </c>
+      <c r="P536" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q536" t="s">
+        <v>33</v>
+      </c>
+      <c r="R536" t="s">
+        <v>34</v>
+      </c>
+      <c r="S536" t="s">
+        <v>147</v>
+      </c>
+      <c r="T536" t="s">
+        <v>50</v>
+      </c>
+      <c r="U536" t="s">
+        <v>51</v>
+      </c>
+      <c r="V536" t="s">
+        <v>110</v>
+      </c>
+      <c r="W536" t="s">
+        <v>40</v>
+      </c>
+      <c r="X536" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y536" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z536" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA536" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ536">
+        <v>3.9861100000000002E-3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B537">
+        <v>4</v>
+      </c>
+      <c r="C537" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D537">
+        <v>3</v>
+      </c>
+      <c r="E537">
+        <v>1059</v>
+      </c>
+      <c r="F537">
+        <v>263045</v>
+      </c>
+      <c r="G537">
+        <v>54894</v>
+      </c>
+      <c r="H537">
+        <v>11</v>
+      </c>
+      <c r="I537">
+        <v>280</v>
+      </c>
+      <c r="J537" s="1">
+        <f t="shared" si="35"/>
+        <v>263034.16711471684</v>
+      </c>
+      <c r="K537" s="1">
+        <f t="shared" si="36"/>
+        <v>54895.910129954333</v>
+      </c>
+      <c r="L537">
+        <v>0.49361237438869998</v>
+      </c>
+      <c r="M537">
+        <v>36.871731300196203</v>
+      </c>
+      <c r="N537" t="s">
+        <v>258</v>
+      </c>
+      <c r="P537" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q537" t="s">
+        <v>78</v>
+      </c>
+      <c r="R537" t="s">
+        <v>34</v>
+      </c>
+      <c r="S537" t="s">
+        <v>49</v>
+      </c>
+      <c r="T537" t="s">
+        <v>50</v>
+      </c>
+      <c r="U537" t="s">
+        <v>51</v>
+      </c>
+      <c r="V537" t="s">
+        <v>110</v>
+      </c>
+      <c r="W537" t="s">
+        <v>40</v>
+      </c>
+      <c r="X537" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y537" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z537" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA537" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD537">
+        <v>18</v>
+      </c>
+      <c r="AP537" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ537">
+        <v>2.2782E-4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B538">
+        <v>4</v>
+      </c>
+      <c r="C538" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D538">
+        <v>3</v>
+      </c>
+      <c r="E538">
+        <v>1059</v>
+      </c>
+      <c r="F538">
+        <v>263045</v>
+      </c>
+      <c r="G538">
+        <v>54894</v>
+      </c>
+      <c r="H538">
+        <v>11</v>
+      </c>
+      <c r="I538">
+        <v>280</v>
+      </c>
+      <c r="J538" s="1">
+        <f t="shared" si="35"/>
+        <v>263034.16711471684</v>
+      </c>
+      <c r="K538" s="1">
+        <f t="shared" si="36"/>
+        <v>54895.910129954333</v>
+      </c>
+      <c r="L538">
+        <v>0.49361237438869998</v>
+      </c>
+      <c r="M538">
+        <v>36.871731300196203</v>
+      </c>
+      <c r="N538" t="s">
+        <v>260</v>
+      </c>
+      <c r="P538" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q538" t="s">
+        <v>78</v>
+      </c>
+      <c r="R538" t="s">
+        <v>34</v>
+      </c>
+      <c r="S538" t="s">
+        <v>49</v>
+      </c>
+      <c r="T538" t="s">
+        <v>50</v>
+      </c>
+      <c r="U538" t="s">
+        <v>51</v>
+      </c>
+      <c r="V538" t="s">
+        <v>110</v>
+      </c>
+      <c r="W538" t="s">
+        <v>40</v>
+      </c>
+      <c r="X538" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y538" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z538" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA538" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD538">
+        <v>30</v>
+      </c>
+      <c r="AQ538">
+        <v>2.2782E-4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B539">
+        <v>4</v>
+      </c>
+      <c r="C539" t="s">
+        <v>405</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
+      </c>
+      <c r="E539">
+        <v>1109</v>
+      </c>
+      <c r="F539">
+        <v>263169</v>
+      </c>
+      <c r="G539">
+        <v>55902</v>
+      </c>
+      <c r="H539">
+        <v>80</v>
+      </c>
+      <c r="I539">
+        <v>300</v>
+      </c>
+      <c r="J539" s="1">
+        <f t="shared" si="35"/>
+        <v>263099.71796769724</v>
+      </c>
+      <c r="K539" s="1">
+        <f t="shared" si="36"/>
+        <v>55942</v>
+      </c>
+      <c r="L539">
+        <v>0.503070312457498</v>
+      </c>
+      <c r="M539">
+        <v>36.872316951874602</v>
+      </c>
+      <c r="N539" t="s">
+        <v>260</v>
+      </c>
+      <c r="P539" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q539" t="s">
+        <v>78</v>
+      </c>
+      <c r="R539" t="s">
+        <v>34</v>
+      </c>
+      <c r="S539" t="s">
+        <v>271</v>
+      </c>
+      <c r="T539" t="s">
+        <v>50</v>
+      </c>
+      <c r="U539" t="s">
+        <v>51</v>
+      </c>
+      <c r="V539" t="s">
+        <v>110</v>
+      </c>
+      <c r="W539" t="s">
+        <v>40</v>
+      </c>
+      <c r="X539" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y539" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z539" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA539" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD539">
+        <v>80</v>
+      </c>
+      <c r="AQ539">
+        <v>4.7889400000000002E-3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B540">
+        <v>4</v>
+      </c>
+      <c r="C540" t="s">
+        <v>405</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
+      </c>
+      <c r="E540">
+        <v>1109</v>
+      </c>
+      <c r="F540">
+        <v>263169</v>
+      </c>
+      <c r="G540">
+        <v>55902</v>
+      </c>
+      <c r="H540">
+        <v>80</v>
+      </c>
+      <c r="I540">
+        <v>300</v>
+      </c>
+      <c r="J540" s="1">
+        <f t="shared" si="35"/>
+        <v>263099.71796769724</v>
+      </c>
+      <c r="K540" s="1">
+        <f t="shared" si="36"/>
+        <v>55942</v>
+      </c>
+      <c r="L540">
+        <v>0.503070312457498</v>
+      </c>
+      <c r="M540">
+        <v>36.872316951874602</v>
+      </c>
+      <c r="N540" t="s">
+        <v>249</v>
+      </c>
+      <c r="P540" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q540" t="s">
+        <v>78</v>
+      </c>
+      <c r="R540" t="s">
+        <v>34</v>
+      </c>
+      <c r="S540" t="s">
+        <v>271</v>
+      </c>
+      <c r="T540" t="s">
+        <v>50</v>
+      </c>
+      <c r="U540" t="s">
+        <v>51</v>
+      </c>
+      <c r="V540" t="s">
+        <v>110</v>
+      </c>
+      <c r="W540" t="s">
+        <v>40</v>
+      </c>
+      <c r="X540" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y540" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z540" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA540" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD540">
+        <v>59</v>
+      </c>
+      <c r="AP540" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ540">
+        <v>4.7889400000000002E-3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B541">
+        <v>4</v>
+      </c>
+      <c r="C541" t="s">
+        <v>405</v>
+      </c>
+      <c r="D541">
+        <v>2</v>
+      </c>
+      <c r="E541">
+        <v>1113</v>
+      </c>
+      <c r="F541">
+        <v>262866</v>
+      </c>
+      <c r="G541">
+        <v>55610</v>
+      </c>
+      <c r="H541">
+        <v>10</v>
+      </c>
+      <c r="I541">
+        <v>240</v>
+      </c>
+      <c r="J541" s="1">
+        <f t="shared" si="35"/>
+        <v>262857.33974596218</v>
+      </c>
+      <c r="K541" s="1">
+        <f t="shared" si="36"/>
+        <v>55605</v>
+      </c>
+      <c r="L541">
+        <v>0.50002276508382604</v>
+      </c>
+      <c r="M541">
+        <v>36.870141178141402</v>
+      </c>
+      <c r="N541" t="s">
+        <v>260</v>
+      </c>
+      <c r="P541" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q541" t="s">
+        <v>78</v>
+      </c>
+      <c r="R541" t="s">
+        <v>34</v>
+      </c>
+      <c r="S541" t="s">
+        <v>271</v>
+      </c>
+      <c r="T541" t="s">
+        <v>50</v>
+      </c>
+      <c r="U541" t="s">
+        <v>51</v>
+      </c>
+      <c r="V541" t="s">
+        <v>110</v>
+      </c>
+      <c r="W541" t="s">
+        <v>40</v>
+      </c>
+      <c r="X541" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y541" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z541" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA541" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD541">
+        <v>60</v>
+      </c>
+      <c r="AQ541">
+        <v>6.1475899999999997E-3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B542">
+        <v>4</v>
+      </c>
+      <c r="C542" t="s">
+        <v>405</v>
+      </c>
+      <c r="D542">
+        <v>2</v>
+      </c>
+      <c r="E542">
+        <v>1113</v>
+      </c>
+      <c r="F542">
+        <v>262866</v>
+      </c>
+      <c r="G542">
+        <v>55610</v>
+      </c>
+      <c r="H542">
+        <v>10</v>
+      </c>
+      <c r="I542">
+        <v>240</v>
+      </c>
+      <c r="J542" s="1">
+        <f t="shared" si="35"/>
+        <v>262857.33974596218</v>
+      </c>
+      <c r="K542" s="1">
+        <f t="shared" si="36"/>
+        <v>55605</v>
+      </c>
+      <c r="L542">
+        <v>0.50002276508382604</v>
+      </c>
+      <c r="M542">
+        <v>36.870141178141402</v>
+      </c>
+      <c r="N542" t="s">
+        <v>249</v>
+      </c>
+      <c r="P542" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q542" t="s">
+        <v>78</v>
+      </c>
+      <c r="R542" t="s">
+        <v>34</v>
+      </c>
+      <c r="S542" t="s">
+        <v>271</v>
+      </c>
+      <c r="T542" t="s">
+        <v>50</v>
+      </c>
+      <c r="U542" t="s">
+        <v>51</v>
+      </c>
+      <c r="V542" t="s">
+        <v>110</v>
+      </c>
+      <c r="W542" t="s">
+        <v>40</v>
+      </c>
+      <c r="X542" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y542" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z542" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA542" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD542">
+        <v>80</v>
+      </c>
+      <c r="AQ542">
+        <v>6.1475899999999997E-3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B543">
+        <v>4</v>
+      </c>
+      <c r="C543" t="s">
+        <v>405</v>
+      </c>
+      <c r="D543">
+        <v>3</v>
+      </c>
+      <c r="E543">
+        <v>1117</v>
+      </c>
+      <c r="F543">
+        <v>262609</v>
+      </c>
+      <c r="G543">
+        <v>55345</v>
+      </c>
+      <c r="H543">
+        <v>20</v>
+      </c>
+      <c r="I543">
+        <v>360</v>
+      </c>
+      <c r="J543" s="1">
+        <f t="shared" si="35"/>
+        <v>262609</v>
+      </c>
+      <c r="K543" s="1">
+        <f t="shared" si="36"/>
+        <v>55365</v>
+      </c>
+      <c r="L543">
+        <v>0.497852187098767</v>
+      </c>
+      <c r="M543">
+        <v>36.867911576660397</v>
+      </c>
+      <c r="N543" t="s">
+        <v>260</v>
+      </c>
+      <c r="P543" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q543" t="s">
+        <v>33</v>
+      </c>
+      <c r="R543" t="s">
+        <v>34</v>
+      </c>
+      <c r="S543" t="s">
+        <v>271</v>
+      </c>
+      <c r="T543" t="s">
+        <v>50</v>
+      </c>
+      <c r="U543" t="s">
+        <v>37</v>
+      </c>
+      <c r="V543" t="s">
+        <v>110</v>
+      </c>
+      <c r="W543" t="s">
+        <v>40</v>
+      </c>
+      <c r="X543" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y543" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z543" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA543" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD543">
+        <v>150</v>
+      </c>
+      <c r="AQ543">
+        <v>3.9196099999999996E-3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44391</v>
+      </c>
+      <c r="B544">
+        <v>4</v>
+      </c>
+      <c r="C544" t="s">
+        <v>405</v>
+      </c>
+      <c r="D544">
+        <v>3</v>
+      </c>
+      <c r="E544">
+        <v>1117</v>
+      </c>
+      <c r="F544" s="6">
+        <v>262609</v>
+      </c>
+      <c r="G544" s="6">
+        <v>55345</v>
+      </c>
+      <c r="H544" s="6">
+        <v>20</v>
+      </c>
+      <c r="I544" s="6">
+        <v>360</v>
+      </c>
+      <c r="J544" s="6">
+        <v>262609</v>
+      </c>
+      <c r="K544" s="6">
+        <v>55365</v>
+      </c>
+      <c r="L544">
+        <v>0.497852187098767</v>
+      </c>
+      <c r="M544">
+        <v>36.867911576660397</v>
+      </c>
+      <c r="N544" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="O544" s="6"/>
+      <c r="P544" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q544" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R544" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S544" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="T544" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U544" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V544" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="W544" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X544" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y544" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z544" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA544" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD544">
+        <v>150</v>
+      </c>
+      <c r="AP544" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ544">
+        <v>3.9196099999999996E-3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5"/>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5"/>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5"/>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5"/>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5"/>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5"/>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5"/>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5"/>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5"/>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5"/>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5"/>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5"/>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5"/>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5"/>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5"/>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5"/>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5"/>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5"/>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5"/>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5"/>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5"/>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5"/>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5"/>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5"/>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5"/>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5"/>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572" s="5"/>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573" s="5"/>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574" s="5"/>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575" s="5"/>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576" s="5"/>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577" s="5"/>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" s="5"/>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579" s="5"/>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580" s="5"/>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" s="5"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" s="5"/>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" s="5"/>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" s="5"/>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" s="5"/>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" s="5"/>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" s="5"/>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" s="5"/>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" s="5"/>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" s="5"/>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591" s="5"/>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" s="5"/>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" s="5"/>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" s="5"/>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" s="5"/>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" s="5"/>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" s="5"/>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598" s="5"/>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" s="5"/>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600" s="5"/>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" s="5"/>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" s="5"/>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603" s="5"/>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604" s="5"/>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605" s="5"/>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606" s="5"/>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607" s="5"/>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608" s="5"/>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" s="5"/>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610" s="5"/>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611" s="5"/>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612" s="5"/>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613" s="5"/>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614" s="5"/>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615" s="5"/>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616" s="5"/>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617" s="5"/>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618" s="5"/>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619" s="5"/>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620" s="5"/>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621" s="5"/>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622" s="5"/>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623" s="5"/>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624" s="5"/>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625" s="5"/>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626" s="5"/>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627" s="5"/>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628" s="5"/>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629" s="5"/>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630" s="5"/>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631" s="5"/>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632" s="5"/>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633" s="5"/>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634" s="5"/>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635" s="5"/>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636" s="5"/>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637" s="5"/>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638" s="5"/>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639" s="5"/>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" s="5"/>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641" s="5"/>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642" s="5"/>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643" s="5"/>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644" s="5"/>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645" s="5"/>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646" s="5"/>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647" s="5"/>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648" s="5"/>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649" s="5"/>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650" s="5"/>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651" s="5"/>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652" s="5"/>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/MasterRawWhitesheets.xlsx
+++ b/MasterRawWhitesheets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxgotts/Desktop/MPALA/Whitesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9C8038-5492-8743-A312-7B4551479F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53BA1CC-D76B-A64B-92B6-B08443078A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{36B2ED0A-F989-D041-BB6A-DE14AE9EF1AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7503" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7502" uniqueCount="433">
   <si>
     <t>Date</t>
   </si>
@@ -1215,9 +1215,6 @@
     <t>DSCN4766</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Ewaso-Marok River Bank</t>
   </si>
   <si>
@@ -1708,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A334BBC-0BE1-1D4B-AB5E-CA1B598930C6}">
   <dimension ref="A1:AR653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A544" sqref="A544"/>
+    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="113" workbookViewId="0">
+      <selection activeCell="O477" sqref="O477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50484,9 +50481,6 @@
       <c r="N477" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="O477" t="s">
-        <v>393</v>
-      </c>
       <c r="P477" s="1" t="s">
         <v>32</v>
       </c>
@@ -50641,7 +50635,7 @@
         <v>3</v>
       </c>
       <c r="C479" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D479">
         <v>1</v>
@@ -50724,7 +50718,7 @@
         <v>1</v>
       </c>
       <c r="AP479" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AQ479">
         <v>3.3759900000000002E-3</v>
@@ -50738,7 +50732,7 @@
         <v>3</v>
       </c>
       <c r="C480" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -50845,7 +50839,7 @@
         <v>1</v>
       </c>
       <c r="AP480" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AQ480">
         <v>3.3759900000000002E-3</v>
@@ -50859,7 +50853,7 @@
         <v>3</v>
       </c>
       <c r="C481" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D481">
         <v>2</v>
@@ -50933,7 +50927,7 @@
         <v>3</v>
       </c>
       <c r="AP481" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AQ481">
         <v>3.3691799999999998E-3</v>
@@ -50947,7 +50941,7 @@
         <v>3</v>
       </c>
       <c r="C482" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D482">
         <v>3</v>
@@ -51032,7 +51026,7 @@
         <v>3</v>
       </c>
       <c r="C483" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D483">
         <v>3</v>
@@ -51067,7 +51061,7 @@
         <v>36.868992981758197</v>
       </c>
       <c r="N483" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P483" s="1" t="s">
         <v>135</v>
@@ -51114,7 +51108,7 @@
         <v>3</v>
       </c>
       <c r="C484" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D484">
         <v>1</v>
@@ -51191,7 +51185,7 @@
         <v>24</v>
       </c>
       <c r="AP484" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AQ484">
         <v>4.5962599999999996E-3</v>
@@ -51205,7 +51199,7 @@
         <v>3</v>
       </c>
       <c r="C485" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D485">
         <v>1</v>
@@ -51282,7 +51276,7 @@
         <v>15</v>
       </c>
       <c r="AP485" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AQ485">
         <v>4.5962599999999996E-3</v>
@@ -51296,7 +51290,7 @@
         <v>3</v>
       </c>
       <c r="C486" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D486">
         <v>2</v>
@@ -51367,7 +51361,7 @@
         <v>50</v>
       </c>
       <c r="AP486" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AQ486">
         <v>3.8689000000000002E-3</v>
@@ -51381,7 +51375,7 @@
         <v>3</v>
       </c>
       <c r="C487" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D487">
         <v>3</v>
@@ -51476,7 +51470,7 @@
         <v>1</v>
       </c>
       <c r="AP487" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AQ487">
         <v>4.6208500000000001E-3</v>
@@ -51490,7 +51484,7 @@
         <v>3</v>
       </c>
       <c r="C488" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D488">
         <v>1</v>
@@ -51578,7 +51572,7 @@
         <v>3</v>
       </c>
       <c r="C489" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D489">
         <v>2</v>
@@ -51667,7 +51661,7 @@
         <v>3</v>
       </c>
       <c r="C490" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D490">
         <v>3</v>
@@ -51752,7 +51746,7 @@
         <v>3</v>
       </c>
       <c r="C491" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D491">
         <v>1</v>
@@ -51861,7 +51855,7 @@
         <v>3</v>
       </c>
       <c r="C492" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D492">
         <v>2</v>
@@ -51946,7 +51940,7 @@
         <v>3</v>
       </c>
       <c r="C493" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D493">
         <v>2</v>
@@ -52031,7 +52025,7 @@
         <v>4</v>
       </c>
       <c r="C494" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D494">
         <v>1</v>
@@ -52140,7 +52134,7 @@
         <v>4</v>
       </c>
       <c r="C495" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D495">
         <v>2</v>
@@ -52240,7 +52234,7 @@
         <v>4</v>
       </c>
       <c r="C496" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D496">
         <v>3</v>
@@ -52358,7 +52352,7 @@
         <v>4</v>
       </c>
       <c r="C497" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D497">
         <v>1</v>
@@ -52459,7 +52453,7 @@
         <v>1</v>
       </c>
       <c r="AP497" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AQ497">
         <v>3.5935799999999999E-3</v>
@@ -52473,7 +52467,7 @@
         <v>4</v>
       </c>
       <c r="C498" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D498">
         <v>2</v>
@@ -52547,7 +52541,7 @@
         <v>10</v>
       </c>
       <c r="AP498" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AQ498">
         <v>7.9982000000000002E-4</v>
@@ -52561,7 +52555,7 @@
         <v>4</v>
       </c>
       <c r="C499" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D499">
         <v>3</v>
@@ -52649,7 +52643,7 @@
         <v>4</v>
       </c>
       <c r="C500" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D500">
         <v>1</v>
@@ -52731,7 +52725,7 @@
         <v>4</v>
       </c>
       <c r="C501" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D501">
         <v>2</v>
@@ -52778,7 +52772,7 @@
         <v>34</v>
       </c>
       <c r="S501" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T501" t="s">
         <v>50</v>
@@ -52816,7 +52810,7 @@
         <v>4</v>
       </c>
       <c r="C502" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D502">
         <v>3</v>
@@ -52898,7 +52892,7 @@
         <v>4</v>
       </c>
       <c r="C503" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D503">
         <v>1</v>
@@ -52945,7 +52939,7 @@
         <v>34</v>
       </c>
       <c r="S503" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T503" t="s">
         <v>50</v>
@@ -52980,7 +52974,7 @@
         <v>4</v>
       </c>
       <c r="C504" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D504">
         <v>2</v>
@@ -53065,7 +53059,7 @@
         <v>4</v>
       </c>
       <c r="C505" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D505">
         <v>3</v>
@@ -53150,7 +53144,7 @@
         <v>4</v>
       </c>
       <c r="C506" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D506">
         <v>1</v>
@@ -53224,7 +53218,7 @@
         <v>63</v>
       </c>
       <c r="AP506" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ506">
         <v>1.7064700000000001E-3</v>
@@ -53238,7 +53232,7 @@
         <v>4</v>
       </c>
       <c r="C507" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D507">
         <v>2</v>
@@ -53341,7 +53335,7 @@
         <v>4</v>
       </c>
       <c r="C508" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D508">
         <v>3</v>
@@ -53450,7 +53444,7 @@
         <v>1</v>
       </c>
       <c r="C509" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D509">
         <v>1</v>
@@ -53547,7 +53541,7 @@
         <v>1</v>
       </c>
       <c r="C510" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D510">
         <v>2</v>
@@ -53612,10 +53606,10 @@
         <v>53</v>
       </c>
       <c r="Y510" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z510" t="s">
         <v>421</v>
-      </c>
-      <c r="Z510" t="s">
-        <v>422</v>
       </c>
       <c r="AA510" t="s">
         <v>63</v>
@@ -53624,7 +53618,7 @@
         <v>200</v>
       </c>
       <c r="AP510" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ510">
         <v>2.0838000000000001E-4</v>
@@ -53638,7 +53632,7 @@
         <v>1</v>
       </c>
       <c r="C511" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D511">
         <v>3</v>
@@ -53700,13 +53694,13 @@
         <v>39</v>
       </c>
       <c r="X511" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y511" t="s">
         <v>41</v>
       </c>
       <c r="Z511" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AA511" t="s">
         <v>63</v>
@@ -53715,7 +53709,7 @@
         <v>170</v>
       </c>
       <c r="AP511" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ511">
         <v>6.4862999999999997E-4</v>
@@ -53729,7 +53723,7 @@
         <v>1</v>
       </c>
       <c r="C512" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D512">
         <v>1</v>
@@ -53794,7 +53788,7 @@
         <v>40</v>
       </c>
       <c r="Y512" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AA512" t="s">
         <v>63</v>
@@ -53803,7 +53797,7 @@
         <v>120</v>
       </c>
       <c r="AP512" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ512">
         <v>5.7167000000000003E-4</v>
@@ -53817,7 +53811,7 @@
         <v>1</v>
       </c>
       <c r="C513" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D513">
         <v>2</v>
@@ -53879,10 +53873,10 @@
         <v>53</v>
       </c>
       <c r="X513" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y513" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AA513" t="s">
         <v>63</v>
@@ -53891,7 +53885,7 @@
         <v>100</v>
       </c>
       <c r="AP513" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AQ513">
         <v>9.0458699999999993E-3</v>
@@ -53905,7 +53899,7 @@
         <v>1</v>
       </c>
       <c r="C514" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D514">
         <v>3</v>
@@ -53967,13 +53961,13 @@
         <v>53</v>
       </c>
       <c r="X514" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y514" t="s">
         <v>39</v>
       </c>
       <c r="Z514" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AA514" t="s">
         <v>43</v>
@@ -53982,7 +53976,7 @@
         <v>250</v>
       </c>
       <c r="AP514" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AQ514">
         <v>9.3807200000000004E-3</v>
@@ -53996,7 +53990,7 @@
         <v>1</v>
       </c>
       <c r="C515" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D515">
         <v>1</v>
@@ -54058,7 +54052,7 @@
         <v>53</v>
       </c>
       <c r="X515" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Y515" t="s">
         <v>39</v>
@@ -54070,7 +54064,7 @@
         <v>170</v>
       </c>
       <c r="AP515" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AQ515">
         <v>2.3100299999999998E-3</v>
@@ -54084,7 +54078,7 @@
         <v>1</v>
       </c>
       <c r="C516" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D516">
         <v>2</v>
@@ -54184,7 +54178,7 @@
         <v>2</v>
       </c>
       <c r="C517" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D517">
         <v>1</v>
@@ -54249,7 +54243,7 @@
         <v>53</v>
       </c>
       <c r="X517" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y517" t="s">
         <v>72</v>
@@ -54290,7 +54284,7 @@
         <v>2</v>
       </c>
       <c r="C518" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D518">
         <v>2</v>
@@ -54352,7 +54346,7 @@
         <v>110</v>
       </c>
       <c r="W518" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="X518" t="s">
         <v>72</v>
@@ -54387,7 +54381,7 @@
         <v>2</v>
       </c>
       <c r="C519" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D519">
         <v>1</v>
@@ -54472,7 +54466,7 @@
         <v>2</v>
       </c>
       <c r="C520" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D520">
         <v>2</v>
@@ -54546,7 +54540,7 @@
         <v>150</v>
       </c>
       <c r="AP520" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AQ520">
         <v>8.5713E-4</v>
@@ -54560,7 +54554,7 @@
         <v>2</v>
       </c>
       <c r="C521" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D521">
         <v>3</v>
@@ -54637,7 +54631,7 @@
         <v>110</v>
       </c>
       <c r="AP521" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AQ521">
         <v>1.0195E-4</v>
@@ -54651,7 +54645,7 @@
         <v>3</v>
       </c>
       <c r="C522" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D522">
         <v>1</v>
@@ -54728,7 +54722,7 @@
         <v>35</v>
       </c>
       <c r="AP522" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AQ522">
         <v>1.8295099999999999E-3</v>
@@ -54742,7 +54736,7 @@
         <v>3</v>
       </c>
       <c r="C523" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D523">
         <v>1</v>
@@ -54819,7 +54813,7 @@
         <v>70</v>
       </c>
       <c r="AP523" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AQ523">
         <v>1.8295099999999999E-3</v>
@@ -54833,7 +54827,7 @@
         <v>3</v>
       </c>
       <c r="C524" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D524">
         <v>2</v>
@@ -54910,7 +54904,7 @@
         <v>45</v>
       </c>
       <c r="AP524" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AQ524">
         <v>3.7491899999999999E-3</v>
@@ -54924,7 +54918,7 @@
         <v>3</v>
       </c>
       <c r="C525" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D525">
         <v>3</v>
@@ -55030,7 +55024,7 @@
         <v>3</v>
       </c>
       <c r="C526" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D526">
         <v>1</v>
@@ -55065,7 +55059,7 @@
         <v>36.867832867406896</v>
       </c>
       <c r="N526" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P526" s="1" t="s">
         <v>135</v>
@@ -55095,7 +55089,7 @@
         <v>90</v>
       </c>
       <c r="Y526" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AA526" s="1" t="s">
         <v>43</v>
@@ -55104,7 +55098,7 @@
         <v>5</v>
       </c>
       <c r="AP526" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AQ526">
         <v>9.8313000000000003E-4</v>
@@ -55118,7 +55112,7 @@
         <v>3</v>
       </c>
       <c r="C527" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D527">
         <v>2</v>
@@ -55153,7 +55147,7 @@
         <v>36.868991616829199</v>
       </c>
       <c r="N527" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P527" s="1" t="s">
         <v>135</v>
@@ -55195,7 +55189,7 @@
         <v>70</v>
       </c>
       <c r="AP527" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AQ527">
         <v>2.9032E-4</v>
@@ -55209,7 +55203,7 @@
         <v>3</v>
       </c>
       <c r="C528" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D528">
         <v>2</v>
@@ -55286,7 +55280,7 @@
         <v>10</v>
       </c>
       <c r="AP528" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AQ528">
         <v>2.9032E-4</v>
@@ -55300,7 +55294,7 @@
         <v>3</v>
       </c>
       <c r="C529" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D529">
         <v>3</v>
@@ -55365,7 +55359,7 @@
         <v>39</v>
       </c>
       <c r="Y529" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Z529" s="1" t="s">
         <v>156</v>
@@ -55377,7 +55371,7 @@
         <v>40</v>
       </c>
       <c r="AP529" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AQ529">
         <v>3.3786200000000001E-3</v>
@@ -55391,7 +55385,7 @@
         <v>4</v>
       </c>
       <c r="C530" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D530">
         <v>1</v>
@@ -55503,7 +55497,7 @@
         <v>4</v>
       </c>
       <c r="C531" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D531">
         <v>2</v>
@@ -55618,7 +55612,7 @@
         <v>4</v>
       </c>
       <c r="C532" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D532">
         <v>3</v>
@@ -55695,7 +55689,7 @@
         <v>26</v>
       </c>
       <c r="AP532" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AQ532">
         <v>4.9348000000000003E-4</v>
@@ -55709,7 +55703,7 @@
         <v>4</v>
       </c>
       <c r="C533" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D533">
         <v>3</v>
@@ -55786,7 +55780,7 @@
         <v>40</v>
       </c>
       <c r="AP533" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AQ533">
         <v>4.9348000000000003E-4</v>
@@ -55800,7 +55794,7 @@
         <v>4</v>
       </c>
       <c r="C534" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D534">
         <v>1</v>
@@ -55877,7 +55871,7 @@
         <v>16</v>
       </c>
       <c r="AP534" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AQ534">
         <v>3.1002600000000001E-3</v>
@@ -55891,7 +55885,7 @@
         <v>4</v>
       </c>
       <c r="C535" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D535">
         <v>2</v>
@@ -56004,7 +55998,7 @@
         <v>4</v>
       </c>
       <c r="C536" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D536">
         <v>2</v>
@@ -56089,7 +56083,7 @@
         <v>4</v>
       </c>
       <c r="C537" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D537">
         <v>3</v>
@@ -56166,7 +56160,7 @@
         <v>18</v>
       </c>
       <c r="AP537" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AQ537">
         <v>2.2782E-4</v>
@@ -56180,7 +56174,7 @@
         <v>4</v>
       </c>
       <c r="C538" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D538">
         <v>3</v>
@@ -56268,7 +56262,7 @@
         <v>4</v>
       </c>
       <c r="C539" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D539">
         <v>1</v>
@@ -56356,7 +56350,7 @@
         <v>4</v>
       </c>
       <c r="C540" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D540">
         <v>1</v>
@@ -56433,7 +56427,7 @@
         <v>59</v>
       </c>
       <c r="AP540" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AQ540">
         <v>4.7889400000000002E-3</v>
@@ -56447,7 +56441,7 @@
         <v>4</v>
       </c>
       <c r="C541" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D541">
         <v>2</v>
@@ -56535,7 +56529,7 @@
         <v>4</v>
       </c>
       <c r="C542" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D542">
         <v>2</v>
@@ -56623,7 +56617,7 @@
         <v>4</v>
       </c>
       <c r="C543" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D543">
         <v>3</v>
@@ -56688,7 +56682,7 @@
         <v>39</v>
       </c>
       <c r="Y543" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Z543" t="s">
         <v>135</v>
@@ -56711,7 +56705,7 @@
         <v>4</v>
       </c>
       <c r="C544" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D544">
         <v>3</v>
@@ -56775,7 +56769,7 @@
         <v>39</v>
       </c>
       <c r="Y544" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Z544" s="6" t="s">
         <v>135</v>
@@ -56787,7 +56781,7 @@
         <v>150</v>
       </c>
       <c r="AP544" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AQ544">
         <v>3.9196099999999996E-3</v>
